--- a/Stocks/AAPL/HighLow.xlsx
+++ b/Stocks/AAPL/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,422 +417,422 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>133.0399932861328</v>
+        <v>124.5800018310547</v>
       </c>
       <c r="B2">
-        <v>134.1499938964844</v>
+        <v>126.1500015258789</v>
       </c>
       <c r="C2">
-        <v>131.4100036621094</v>
+        <v>124.2600021362305</v>
       </c>
       <c r="D2">
-        <v>131.9400024414062</v>
+        <v>124.9700012207031</v>
       </c>
       <c r="E2">
-        <v>131.5192260742188</v>
+        <v>124.601188659668</v>
       </c>
       <c r="F2">
-        <v>84566500</v>
+        <v>105861300</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>132.1600036621094</v>
+        <v>126.25</v>
       </c>
       <c r="B3">
-        <v>135.1199951171875</v>
+        <v>127.8899993896484</v>
       </c>
       <c r="C3">
-        <v>132.1600036621094</v>
+        <v>125.8499984741211</v>
       </c>
       <c r="D3">
-        <v>134.3200073242188</v>
+        <v>127.4499969482422</v>
       </c>
       <c r="E3">
-        <v>133.8916320800781</v>
+        <v>127.0738677978516</v>
       </c>
       <c r="F3">
-        <v>78657500</v>
+        <v>81918000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>134.8300018310547</v>
+        <v>126.8199996948242</v>
       </c>
       <c r="B4">
-        <v>135.0599975585938</v>
+        <v>126.9300003051758</v>
       </c>
       <c r="C4">
-        <v>133.5599975585938</v>
+        <v>125.1699981689453</v>
       </c>
       <c r="D4">
-        <v>134.7200012207031</v>
+        <v>126.2699966430664</v>
       </c>
       <c r="E4">
-        <v>134.2903594970703</v>
+        <v>125.8973541259766</v>
       </c>
       <c r="F4">
-        <v>66905100</v>
+        <v>74244600</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>135.0099945068359</v>
+        <v>126.5599975585938</v>
       </c>
       <c r="B5">
-        <v>135.4100036621094</v>
+        <v>126.9899978637695</v>
       </c>
       <c r="C5">
-        <v>134.1100006103516</v>
+        <v>124.7799987792969</v>
       </c>
       <c r="D5">
-        <v>134.3899993896484</v>
+        <v>124.8499984741211</v>
       </c>
       <c r="E5">
-        <v>133.9614105224609</v>
+        <v>124.4815444946289</v>
       </c>
       <c r="F5">
-        <v>66015800</v>
+        <v>63342900</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>134.3099975585938</v>
+        <v>123.1600036621094</v>
       </c>
       <c r="B6">
-        <v>135.0200042724609</v>
+        <v>124.9199981689453</v>
       </c>
       <c r="C6">
-        <v>133.0800018310547</v>
+        <v>122.8600006103516</v>
       </c>
       <c r="D6">
-        <v>133.5800018310547</v>
+        <v>124.6900024414062</v>
       </c>
       <c r="E6">
-        <v>133.1539916992188</v>
+        <v>124.322021484375</v>
       </c>
       <c r="F6">
-        <v>107760100</v>
+        <v>92612000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>136.4700012207031</v>
+        <v>125.2300033569336</v>
       </c>
       <c r="B7">
-        <v>137.0700073242188</v>
+        <v>127.7200012207031</v>
       </c>
       <c r="C7">
-        <v>132.4499969482422</v>
+        <v>125.0999984741211</v>
       </c>
       <c r="D7">
-        <v>133.4799957275391</v>
+        <v>127.3099975585938</v>
       </c>
       <c r="E7">
-        <v>133.0543060302734</v>
+        <v>126.9342803955078</v>
       </c>
       <c r="F7">
-        <v>151101000</v>
+        <v>76857100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>131.7799987792969</v>
+        <v>127.8199996948242</v>
       </c>
       <c r="B8">
-        <v>133.5599975585938</v>
+        <v>128</v>
       </c>
       <c r="C8">
-        <v>131.0700073242188</v>
+        <v>125.2099990844727</v>
       </c>
       <c r="D8">
-        <v>131.4600067138672</v>
+        <v>125.4300003051758</v>
       </c>
       <c r="E8">
-        <v>131.0407562255859</v>
+        <v>125.0598373413086</v>
       </c>
       <c r="F8">
-        <v>109839500</v>
+        <v>79295400</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>132.0399932861328</v>
+        <v>126.0100021362305</v>
       </c>
       <c r="B9">
-        <v>134.0700073242188</v>
+        <v>127.9400024414062</v>
       </c>
       <c r="C9">
-        <v>131.8300018310547</v>
+        <v>125.9400024414062</v>
       </c>
       <c r="D9">
-        <v>132.5399932861328</v>
+        <v>127.0999984741211</v>
       </c>
       <c r="E9">
-        <v>132.1172943115234</v>
+        <v>126.7248992919922</v>
       </c>
       <c r="F9">
-        <v>75135100</v>
+        <v>63092900</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>131.1900024414062</v>
+        <v>127.8199996948242</v>
       </c>
       <c r="B10">
-        <v>131.4900054931641</v>
+        <v>128.3200073242188</v>
       </c>
       <c r="C10">
-        <v>126.6999969482422</v>
+        <v>126.3199996948242</v>
       </c>
       <c r="D10">
-        <v>127.8499984741211</v>
+        <v>126.9000015258789</v>
       </c>
       <c r="E10">
-        <v>127.4422607421875</v>
+        <v>126.5254974365234</v>
       </c>
       <c r="F10">
-        <v>137564700</v>
+        <v>72009500</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>129.1999969482422</v>
+        <v>126.9599990844727</v>
       </c>
       <c r="B11">
-        <v>130.4499969482422</v>
+        <v>127.3899993896484</v>
       </c>
       <c r="C11">
-        <v>127.9700012207031</v>
+        <v>126.4199981689453</v>
       </c>
       <c r="D11">
-        <v>128.1000061035156</v>
+        <v>126.8499984741211</v>
       </c>
       <c r="E11">
-        <v>127.6914672851562</v>
+        <v>126.4756393432617</v>
       </c>
       <c r="F11">
-        <v>84000900</v>
+        <v>56575900</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>127.8899993896484</v>
+        <v>126.4400024414062</v>
       </c>
       <c r="B12">
-        <v>129.75</v>
+        <v>127.6399993896484</v>
       </c>
       <c r="C12">
-        <v>127.129997253418</v>
+        <v>125.0800018310547</v>
       </c>
       <c r="D12">
-        <v>129.7400054931641</v>
+        <v>125.2799987792969</v>
       </c>
       <c r="E12">
-        <v>129.3262481689453</v>
+        <v>124.910270690918</v>
       </c>
       <c r="F12">
-        <v>78128300</v>
+        <v>94625600</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>130.8500061035156</v>
+        <v>125.5699996948242</v>
       </c>
       <c r="B13">
-        <v>131.2599945068359</v>
+        <v>125.8000030517578</v>
       </c>
       <c r="C13">
-        <v>129.4799957275391</v>
+        <v>124.5500030517578</v>
       </c>
       <c r="D13">
-        <v>130.2100067138672</v>
+        <v>124.6100006103516</v>
       </c>
       <c r="E13">
-        <v>130.0152130126953</v>
+        <v>124.2422561645508</v>
       </c>
       <c r="F13">
-        <v>78973300</v>
+        <v>71311100</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>129.4100036621094</v>
+        <v>125.0800018310547</v>
       </c>
       <c r="B14">
-        <v>129.5399932861328</v>
+        <v>125.3499984741211</v>
       </c>
       <c r="C14">
-        <v>126.8099975585938</v>
+        <v>123.9400024414062</v>
       </c>
       <c r="D14">
-        <v>126.8499984741211</v>
+        <v>124.2799987792969</v>
       </c>
       <c r="E14">
-        <v>126.6602249145508</v>
+        <v>123.9132232666016</v>
       </c>
       <c r="F14">
-        <v>88071200</v>
+        <v>67637100</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>123.5</v>
+        <v>124.2799987792969</v>
       </c>
       <c r="B15">
-        <v>126.2699966430664</v>
+        <v>125.2399978637695</v>
       </c>
       <c r="C15">
-        <v>122.7699966430664</v>
+        <v>124.0500030517578</v>
       </c>
       <c r="D15">
-        <v>125.9100036621094</v>
+        <v>125.0599975585938</v>
       </c>
       <c r="E15">
-        <v>125.7216415405273</v>
+        <v>124.69091796875</v>
       </c>
       <c r="F15">
-        <v>126142800</v>
+        <v>59278900</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>123.4000015258789</v>
+        <v>124.6800003051758</v>
       </c>
       <c r="B16">
-        <v>124.6399993896484</v>
+        <v>124.8499984741211</v>
       </c>
       <c r="C16">
-        <v>122.25</v>
+        <v>123.129997253418</v>
       </c>
       <c r="D16">
-        <v>122.7699966430664</v>
+        <v>123.5400009155273</v>
       </c>
       <c r="E16">
-        <v>122.5863342285156</v>
+        <v>123.1754150390625</v>
       </c>
       <c r="F16">
-        <v>112172300</v>
+        <v>76229200</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>124.5800018310547</v>
+        <v>124.0699996948242</v>
       </c>
       <c r="B17">
-        <v>126.1500015258789</v>
+        <v>126.1600036621094</v>
       </c>
       <c r="C17">
-        <v>124.2600021362305</v>
+        <v>123.8499984741211</v>
       </c>
       <c r="D17">
-        <v>124.9700012207031</v>
+        <v>125.8899993896484</v>
       </c>
       <c r="E17">
-        <v>124.7830429077148</v>
+        <v>125.5184783935547</v>
       </c>
       <c r="F17">
-        <v>105861300</v>
+        <v>75169300</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>126.25</v>
+        <v>126.1699981689453</v>
       </c>
       <c r="B18">
-        <v>127.8899993896484</v>
+        <v>126.3199996948242</v>
       </c>
       <c r="C18">
-        <v>125.8499984741211</v>
+        <v>124.8300018310547</v>
       </c>
       <c r="D18">
-        <v>127.4499969482422</v>
+        <v>125.9000015258789</v>
       </c>
       <c r="E18">
-        <v>127.2593307495117</v>
+        <v>125.528450012207</v>
       </c>
       <c r="F18">
-        <v>81918000</v>
+        <v>71057600</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>126.8199996948242</v>
+        <v>126.5999984741211</v>
       </c>
       <c r="B19">
-        <v>126.9300003051758</v>
+        <v>128.4600067138672</v>
       </c>
       <c r="C19">
-        <v>125.1699981689453</v>
+        <v>126.2099990844727</v>
       </c>
       <c r="D19">
-        <v>126.2699966430664</v>
+        <v>126.7399978637695</v>
       </c>
       <c r="E19">
-        <v>126.0810928344727</v>
+        <v>126.365966796875</v>
       </c>
       <c r="F19">
-        <v>74244600</v>
+        <v>74403800</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>126.5599975585938</v>
+        <v>127.2099990844727</v>
       </c>
       <c r="B20">
-        <v>126.9899978637695</v>
+        <v>127.75</v>
       </c>
       <c r="C20">
-        <v>124.7799987792969</v>
+        <v>126.5199966430664</v>
       </c>
       <c r="D20">
-        <v>124.8499984741211</v>
+        <v>127.129997253418</v>
       </c>
       <c r="E20">
-        <v>124.6632232666016</v>
+        <v>126.7548217773438</v>
       </c>
       <c r="F20">
-        <v>63342900</v>
+        <v>56877900</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>123.1600036621094</v>
+        <v>127.0199966430664</v>
       </c>
       <c r="B21">
-        <v>124.9199981689453</v>
+        <v>128.1900024414062</v>
       </c>
       <c r="C21">
-        <v>122.8600006103516</v>
+        <v>125.9400024414062</v>
       </c>
       <c r="D21">
-        <v>124.6900024414062</v>
+        <v>126.1100006103516</v>
       </c>
       <c r="E21">
-        <v>124.5034637451172</v>
+        <v>125.7378311157227</v>
       </c>
       <c r="F21">
-        <v>92612000</v>
+        <v>71186400</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>125.2300033569336</v>
+        <v>126.5299987792969</v>
       </c>
       <c r="B22">
-        <v>127.7200012207031</v>
+        <v>127.4400024414062</v>
       </c>
       <c r="C22">
-        <v>125.0999984741211</v>
+        <v>126.0999984741211</v>
       </c>
       <c r="D22">
-        <v>127.3099975585938</v>
+        <v>127.3499984741211</v>
       </c>
       <c r="E22">
-        <v>127.1195373535156</v>
+        <v>126.9741668701172</v>
       </c>
       <c r="F22">
-        <v>76857100</v>
+        <v>53522400</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -840,2139 +840,2159 @@
         <v>127.8199996948242</v>
       </c>
       <c r="B23">
-        <v>128</v>
+        <v>130.5399932861328</v>
       </c>
       <c r="C23">
-        <v>125.2099990844727</v>
+        <v>127.0699996948242</v>
       </c>
       <c r="D23">
-        <v>125.4300003051758</v>
+        <v>130.4799957275391</v>
       </c>
       <c r="E23">
-        <v>125.2423553466797</v>
+        <v>130.0949249267578</v>
       </c>
       <c r="F23">
-        <v>79295400</v>
+        <v>96906500</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>126.0100021362305</v>
+        <v>129.9400024414062</v>
       </c>
       <c r="B24">
-        <v>127.9400024414062</v>
+        <v>130.6000061035156</v>
       </c>
       <c r="C24">
-        <v>125.9400024414062</v>
+        <v>129.3899993896484</v>
       </c>
       <c r="D24">
-        <v>127.0999984741211</v>
+        <v>129.6399993896484</v>
       </c>
       <c r="E24">
-        <v>126.9098510742188</v>
+        <v>129.2574157714844</v>
       </c>
       <c r="F24">
-        <v>63092900</v>
+        <v>62746300</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>127.8199996948242</v>
+        <v>130.3699951171875</v>
       </c>
       <c r="B25">
-        <v>128.3200073242188</v>
+        <v>130.8899993896484</v>
       </c>
       <c r="C25">
-        <v>126.3199996948242</v>
+        <v>128.4600067138672</v>
       </c>
       <c r="D25">
-        <v>126.9000015258789</v>
+        <v>130.1499938964844</v>
       </c>
       <c r="E25">
-        <v>126.7101593017578</v>
+        <v>129.7658996582031</v>
       </c>
       <c r="F25">
-        <v>72009500</v>
+        <v>91815000</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>126.9599990844727</v>
+        <v>129.8000030517578</v>
       </c>
       <c r="B26">
-        <v>127.3899993896484</v>
+        <v>132.5500030517578</v>
       </c>
       <c r="C26">
-        <v>126.4199981689453</v>
+        <v>129.6499938964844</v>
       </c>
       <c r="D26">
-        <v>126.8499984741211</v>
+        <v>131.7899932861328</v>
       </c>
       <c r="E26">
-        <v>126.6602249145508</v>
+        <v>131.4010620117188</v>
       </c>
       <c r="F26">
-        <v>56575900</v>
+        <v>96721700</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>126.4400024414062</v>
+        <v>130.7100067138672</v>
       </c>
       <c r="B27">
-        <v>127.6399993896484</v>
+        <v>131.5099945068359</v>
       </c>
       <c r="C27">
-        <v>125.0800018310547</v>
+        <v>130.2400054931641</v>
       </c>
       <c r="D27">
-        <v>125.2799987792969</v>
+        <v>130.4600067138672</v>
       </c>
       <c r="E27">
-        <v>125.0925750732422</v>
+        <v>130.0749969482422</v>
       </c>
       <c r="F27">
-        <v>94625600</v>
+        <v>108953300</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>125.5699996948242</v>
+        <v>130.3000030517578</v>
       </c>
       <c r="B28">
-        <v>125.8000030517578</v>
+        <v>132.4100036621094</v>
       </c>
       <c r="C28">
-        <v>124.5500030517578</v>
+        <v>129.2100067138672</v>
       </c>
       <c r="D28">
-        <v>124.6100006103516</v>
+        <v>132.3000030517578</v>
       </c>
       <c r="E28">
-        <v>124.423583984375</v>
+        <v>131.9095611572266</v>
       </c>
       <c r="F28">
-        <v>71311100</v>
+        <v>79663300</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>125.0800018310547</v>
+        <v>132.1300048828125</v>
       </c>
       <c r="B29">
-        <v>125.3499984741211</v>
+        <v>134.0800018310547</v>
       </c>
       <c r="C29">
-        <v>123.9400024414062</v>
+        <v>131.6199951171875</v>
       </c>
       <c r="D29">
-        <v>124.2799987792969</v>
+        <v>133.9799957275391</v>
       </c>
       <c r="E29">
-        <v>124.0940704345703</v>
+        <v>133.5845947265625</v>
       </c>
       <c r="F29">
-        <v>67637100</v>
+        <v>74783600</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>124.2799987792969</v>
+        <v>133.7700042724609</v>
       </c>
       <c r="B30">
-        <v>125.2399978637695</v>
+        <v>134.3200073242188</v>
       </c>
       <c r="C30">
-        <v>124.0500030517578</v>
+        <v>133.2299957275391</v>
       </c>
       <c r="D30">
-        <v>125.0599975585938</v>
+        <v>133.6999969482422</v>
       </c>
       <c r="E30">
-        <v>124.8729019165039</v>
+        <v>133.3054351806641</v>
       </c>
       <c r="F30">
-        <v>59278900</v>
+        <v>60214200</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>124.6800003051758</v>
+        <v>134.4499969482422</v>
       </c>
       <c r="B31">
-        <v>124.8499984741211</v>
+        <v>134.6399993896484</v>
       </c>
       <c r="C31">
-        <v>123.129997253418</v>
+        <v>132.9299926757812</v>
       </c>
       <c r="D31">
-        <v>123.5400009155273</v>
+        <v>133.4100036621094</v>
       </c>
       <c r="E31">
-        <v>123.3551864624023</v>
+        <v>133.0162811279297</v>
       </c>
       <c r="F31">
-        <v>76229200</v>
+        <v>68711000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>124.0699996948242</v>
+        <v>133.4600067138672</v>
       </c>
       <c r="B32">
-        <v>126.1600036621094</v>
+        <v>133.8899993896484</v>
       </c>
       <c r="C32">
-        <v>123.8499984741211</v>
+        <v>132.8099975585938</v>
       </c>
       <c r="D32">
-        <v>125.8899993896484</v>
+        <v>133.1100006103516</v>
       </c>
       <c r="E32">
-        <v>125.7016677856445</v>
+        <v>132.7171783447266</v>
       </c>
       <c r="F32">
-        <v>75169300</v>
+        <v>70783700</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>126.1699981689453</v>
+        <v>133.4100036621094</v>
       </c>
       <c r="B33">
-        <v>126.3199996948242</v>
+        <v>135.25</v>
       </c>
       <c r="C33">
-        <v>124.8300018310547</v>
+        <v>133.3500061035156</v>
       </c>
       <c r="D33">
-        <v>125.9000015258789</v>
+        <v>134.7799987792969</v>
       </c>
       <c r="E33">
-        <v>125.7116546630859</v>
+        <v>134.3822479248047</v>
       </c>
       <c r="F33">
-        <v>71057600</v>
+        <v>62111300</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>126.5999984741211</v>
+        <v>134.8000030517578</v>
       </c>
       <c r="B34">
-        <v>128.4600067138672</v>
+        <v>136.4900054931641</v>
       </c>
       <c r="C34">
-        <v>126.2099990844727</v>
+        <v>134.3500061035156</v>
       </c>
       <c r="D34">
-        <v>126.7399978637695</v>
+        <v>136.3300018310547</v>
       </c>
       <c r="E34">
-        <v>126.5503921508789</v>
+        <v>135.9276733398438</v>
       </c>
       <c r="F34">
-        <v>74403800</v>
+        <v>64556100</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>127.2099990844727</v>
+        <v>136.1699981689453</v>
       </c>
       <c r="B35">
-        <v>127.75</v>
+        <v>137.4100036621094</v>
       </c>
       <c r="C35">
-        <v>126.5199966430664</v>
+        <v>135.8699951171875</v>
       </c>
       <c r="D35">
-        <v>127.129997253418</v>
+        <v>136.9600067138672</v>
       </c>
       <c r="E35">
-        <v>126.939811706543</v>
+        <v>136.5558166503906</v>
       </c>
       <c r="F35">
-        <v>56877900</v>
+        <v>63261400</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>127.0199966430664</v>
+        <v>136.6000061035156</v>
       </c>
       <c r="B36">
-        <v>128.1900024414062</v>
+        <v>137.3300018310547</v>
       </c>
       <c r="C36">
-        <v>125.9400024414062</v>
+        <v>135.7599945068359</v>
       </c>
       <c r="D36">
-        <v>126.1100006103516</v>
+        <v>137.2700042724609</v>
       </c>
       <c r="E36">
-        <v>125.9213409423828</v>
+        <v>136.8648986816406</v>
       </c>
       <c r="F36">
-        <v>71186400</v>
+        <v>52485800</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>126.5299987792969</v>
+        <v>137.8999938964844</v>
       </c>
       <c r="B37">
-        <v>127.4400024414062</v>
+        <v>140</v>
       </c>
       <c r="C37">
-        <v>126.0999984741211</v>
+        <v>137.75</v>
       </c>
       <c r="D37">
-        <v>127.3499984741211</v>
+        <v>139.9600067138672</v>
       </c>
       <c r="E37">
-        <v>127.1594772338867</v>
+        <v>139.5469665527344</v>
       </c>
       <c r="F37">
-        <v>53522400</v>
+        <v>78852600</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>127.8199996948242</v>
+        <v>140.0700073242188</v>
       </c>
       <c r="B38">
-        <v>130.5399932861328</v>
+        <v>143.1499938964844</v>
       </c>
       <c r="C38">
-        <v>127.0699996948242</v>
+        <v>140.0700073242188</v>
       </c>
       <c r="D38">
-        <v>130.4799957275391</v>
+        <v>142.0200042724609</v>
       </c>
       <c r="E38">
-        <v>130.2847900390625</v>
+        <v>141.6008758544922</v>
       </c>
       <c r="F38">
-        <v>96906500</v>
+        <v>108181800</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>129.9400024414062</v>
+        <v>143.5399932861328</v>
       </c>
       <c r="B39">
-        <v>130.6000061035156</v>
+        <v>144.8899993896484</v>
       </c>
       <c r="C39">
-        <v>129.3899993896484</v>
+        <v>142.6600036621094</v>
       </c>
       <c r="D39">
-        <v>129.6399993896484</v>
+        <v>144.5700073242188</v>
       </c>
       <c r="E39">
-        <v>129.4460601806641</v>
+        <v>144.1433563232422</v>
       </c>
       <c r="F39">
-        <v>62746300</v>
+        <v>104911600</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>130.3699951171875</v>
+        <v>141.5800018310547</v>
       </c>
       <c r="B40">
-        <v>130.8899993896484</v>
+        <v>144.0599975585938</v>
       </c>
       <c r="C40">
-        <v>128.4600067138672</v>
+        <v>140.6699981689453</v>
       </c>
       <c r="D40">
-        <v>130.1499938964844</v>
+        <v>143.2400054931641</v>
       </c>
       <c r="E40">
-        <v>129.9552917480469</v>
+        <v>142.8172760009766</v>
       </c>
       <c r="F40">
-        <v>91815000</v>
+        <v>105575500</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>129.8000030517578</v>
+        <v>142.75</v>
       </c>
       <c r="B41">
-        <v>132.5500030517578</v>
+        <v>145.6499938964844</v>
       </c>
       <c r="C41">
-        <v>129.6499938964844</v>
+        <v>142.6499938964844</v>
       </c>
       <c r="D41">
-        <v>131.7899932861328</v>
+        <v>145.1100006103516</v>
       </c>
       <c r="E41">
-        <v>131.5928344726562</v>
+        <v>144.6817626953125</v>
       </c>
       <c r="F41">
-        <v>96721700</v>
+        <v>99890800</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>130.7100067138672</v>
+        <v>146.2100067138672</v>
       </c>
       <c r="B42">
-        <v>131.5099945068359</v>
+        <v>146.3200073242188</v>
       </c>
       <c r="C42">
-        <v>130.2400054931641</v>
+        <v>144</v>
       </c>
       <c r="D42">
-        <v>130.4600067138672</v>
+        <v>144.5</v>
       </c>
       <c r="E42">
-        <v>130.2648315429688</v>
+        <v>144.0735626220703</v>
       </c>
       <c r="F42">
-        <v>108953300</v>
+        <v>76299700</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>130.3000030517578</v>
+        <v>144.0299987792969</v>
       </c>
       <c r="B43">
-        <v>132.4100036621094</v>
+        <v>147.4600067138672</v>
       </c>
       <c r="C43">
-        <v>129.2100067138672</v>
+        <v>143.6300048828125</v>
       </c>
       <c r="D43">
-        <v>132.3000030517578</v>
+        <v>145.6399993896484</v>
       </c>
       <c r="E43">
-        <v>132.1020812988281</v>
+        <v>145.2101898193359</v>
       </c>
       <c r="F43">
-        <v>79663300</v>
+        <v>100827100</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>132.1300048828125</v>
+        <v>148.1000061035156</v>
       </c>
       <c r="B44">
-        <v>134.0800018310547</v>
+        <v>149.5700073242188</v>
       </c>
       <c r="C44">
-        <v>131.6199951171875</v>
+        <v>147.6799926757812</v>
       </c>
       <c r="D44">
-        <v>133.9799957275391</v>
+        <v>149.1499938964844</v>
       </c>
       <c r="E44">
-        <v>133.7795562744141</v>
+        <v>148.7098236083984</v>
       </c>
       <c r="F44">
-        <v>74783600</v>
+        <v>127050800</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>133.7700042724609</v>
+        <v>149.2400054931641</v>
       </c>
       <c r="B45">
-        <v>134.3200073242188</v>
+        <v>150</v>
       </c>
       <c r="C45">
-        <v>133.2299957275391</v>
+        <v>147.0899963378906</v>
       </c>
       <c r="D45">
-        <v>133.6999969482422</v>
+        <v>148.4799957275391</v>
       </c>
       <c r="E45">
-        <v>133.4999847412109</v>
+        <v>148.0418090820312</v>
       </c>
       <c r="F45">
-        <v>60214200</v>
+        <v>106820300</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>134.4499969482422</v>
+        <v>148.4600067138672</v>
       </c>
       <c r="B46">
-        <v>134.6399993896484</v>
+        <v>149.7599945068359</v>
       </c>
       <c r="C46">
-        <v>132.9299926757812</v>
+        <v>145.8800048828125</v>
       </c>
       <c r="D46">
-        <v>133.4100036621094</v>
+        <v>146.3899993896484</v>
       </c>
       <c r="E46">
-        <v>133.2104187011719</v>
+        <v>145.9579772949219</v>
       </c>
       <c r="F46">
-        <v>68711000</v>
+        <v>93251400</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>133.4600067138672</v>
+        <v>143.75</v>
       </c>
       <c r="B47">
-        <v>133.8899993896484</v>
+        <v>144.0700073242188</v>
       </c>
       <c r="C47">
-        <v>132.8099975585938</v>
+        <v>141.6699981689453</v>
       </c>
       <c r="D47">
-        <v>133.1100006103516</v>
+        <v>142.4499969482422</v>
       </c>
       <c r="E47">
-        <v>132.9108734130859</v>
+        <v>142.0296020507812</v>
       </c>
       <c r="F47">
-        <v>70783700</v>
+        <v>121434600</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>133.4100036621094</v>
+        <v>143.4600067138672</v>
       </c>
       <c r="B48">
-        <v>135.25</v>
+        <v>147.1000061035156</v>
       </c>
       <c r="C48">
-        <v>133.3500061035156</v>
+        <v>142.9600067138672</v>
       </c>
       <c r="D48">
-        <v>134.7799987792969</v>
+        <v>146.1499938964844</v>
       </c>
       <c r="E48">
-        <v>134.578369140625</v>
+        <v>145.7186737060547</v>
       </c>
       <c r="F48">
-        <v>62111300</v>
+        <v>96350000</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>134.8000030517578</v>
+        <v>145.5299987792969</v>
       </c>
       <c r="B49">
-        <v>136.4900054931641</v>
+        <v>146.1300048828125</v>
       </c>
       <c r="C49">
-        <v>134.3500061035156</v>
+        <v>144.6300048828125</v>
       </c>
       <c r="D49">
-        <v>136.3300018310547</v>
+        <v>145.3999938964844</v>
       </c>
       <c r="E49">
-        <v>136.1260528564453</v>
+        <v>144.9709014892578</v>
       </c>
       <c r="F49">
-        <v>64556100</v>
+        <v>74993500</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>136.1699981689453</v>
+        <v>145.9400024414062</v>
       </c>
       <c r="B50">
-        <v>137.4100036621094</v>
+        <v>148.1999969482422</v>
       </c>
       <c r="C50">
-        <v>135.8699951171875</v>
+        <v>145.8099975585938</v>
       </c>
       <c r="D50">
-        <v>136.9600067138672</v>
+        <v>146.8000030517578</v>
       </c>
       <c r="E50">
-        <v>136.7551116943359</v>
+        <v>146.3667602539062</v>
       </c>
       <c r="F50">
-        <v>63261400</v>
+        <v>77338200</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>136.6000061035156</v>
+        <v>147.5500030517578</v>
       </c>
       <c r="B51">
-        <v>137.3300018310547</v>
+        <v>148.7200012207031</v>
       </c>
       <c r="C51">
-        <v>135.7599945068359</v>
+        <v>146.9199981689453</v>
       </c>
       <c r="D51">
-        <v>137.2700042724609</v>
+        <v>148.5599975585938</v>
       </c>
       <c r="E51">
-        <v>137.0646514892578</v>
+        <v>148.12158203125</v>
       </c>
       <c r="F51">
-        <v>52485800</v>
+        <v>71447400</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>137.8999938964844</v>
+        <v>148.2700042724609</v>
       </c>
       <c r="B52">
-        <v>140</v>
+        <v>149.8300018310547</v>
       </c>
       <c r="C52">
-        <v>137.75</v>
+        <v>147.6999969482422</v>
       </c>
       <c r="D52">
-        <v>139.9600067138672</v>
+        <v>148.9900054931641</v>
       </c>
       <c r="E52">
-        <v>139.7506256103516</v>
+        <v>148.5503234863281</v>
       </c>
       <c r="F52">
-        <v>78852600</v>
+        <v>72434100</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>140.0700073242188</v>
+        <v>149.1199951171875</v>
       </c>
       <c r="B53">
-        <v>143.1499938964844</v>
+        <v>149.2100067138672</v>
       </c>
       <c r="C53">
-        <v>140.0700073242188</v>
+        <v>145.5500030517578</v>
       </c>
       <c r="D53">
-        <v>142.0200042724609</v>
+        <v>146.7700042724609</v>
       </c>
       <c r="E53">
-        <v>141.8075408935547</v>
+        <v>146.3368530273438</v>
       </c>
       <c r="F53">
-        <v>108181800</v>
+        <v>104818600</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>143.5399932861328</v>
+        <v>144.8099975585938</v>
       </c>
       <c r="B54">
-        <v>144.8899993896484</v>
+        <v>146.9700012207031</v>
       </c>
       <c r="C54">
-        <v>142.6600036621094</v>
+        <v>142.5399932861328</v>
       </c>
       <c r="D54">
-        <v>144.5700073242188</v>
+        <v>144.9799957275391</v>
       </c>
       <c r="E54">
-        <v>144.3537292480469</v>
+        <v>144.5521392822266</v>
       </c>
       <c r="F54">
-        <v>104911600</v>
+        <v>118931200</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>141.5800018310547</v>
+        <v>144.6900024414062</v>
       </c>
       <c r="B55">
-        <v>144.0599975585938</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="C55">
-        <v>140.6699981689453</v>
+        <v>144.5800018310547</v>
       </c>
       <c r="D55">
-        <v>143.2400054931641</v>
+        <v>145.6399993896484</v>
       </c>
       <c r="E55">
-        <v>143.0257110595703</v>
+        <v>145.2101898193359</v>
       </c>
       <c r="F55">
-        <v>105575500</v>
+        <v>56699500</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>142.75</v>
+        <v>144.3800048828125</v>
       </c>
       <c r="B56">
-        <v>145.6499938964844</v>
+        <v>146.3300018310547</v>
       </c>
       <c r="C56">
-        <v>142.6499938964844</v>
+        <v>144.1100006103516</v>
       </c>
       <c r="D56">
-        <v>145.1100006103516</v>
+        <v>145.8600006103516</v>
       </c>
       <c r="E56">
-        <v>144.8929138183594</v>
+        <v>145.4295349121094</v>
       </c>
       <c r="F56">
-        <v>99890800</v>
+        <v>70382000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>146.2100067138672</v>
+        <v>146.3600006103516</v>
       </c>
       <c r="B57">
-        <v>146.3200073242188</v>
+        <v>146.9499969482422</v>
       </c>
       <c r="C57">
-        <v>144</v>
+        <v>145.25</v>
       </c>
       <c r="D57">
-        <v>144.5</v>
+        <v>145.5200042724609</v>
       </c>
       <c r="E57">
-        <v>144.2838287353516</v>
+        <v>145.0905456542969</v>
       </c>
       <c r="F57">
-        <v>76299700</v>
+        <v>62880000</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>144.0299987792969</v>
+        <v>145.8099975585938</v>
       </c>
       <c r="B58">
-        <v>147.4600067138672</v>
+        <v>148.0399932861328</v>
       </c>
       <c r="C58">
-        <v>143.6300048828125</v>
+        <v>145.1799926757812</v>
       </c>
       <c r="D58">
-        <v>145.6399993896484</v>
+        <v>147.3600006103516</v>
       </c>
       <c r="E58">
-        <v>145.422119140625</v>
+        <v>146.9251098632812</v>
       </c>
       <c r="F58">
-        <v>100827100</v>
+        <v>64786600</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>148.1000061035156</v>
+        <v>147.2700042724609</v>
       </c>
       <c r="B59">
-        <v>149.5700073242188</v>
+        <v>147.7899932861328</v>
       </c>
       <c r="C59">
-        <v>147.6799926757812</v>
+        <v>146.2799987792969</v>
       </c>
       <c r="D59">
-        <v>149.1499938964844</v>
+        <v>146.9499969482422</v>
       </c>
       <c r="E59">
-        <v>148.9268646240234</v>
+        <v>146.5163269042969</v>
       </c>
       <c r="F59">
-        <v>127050800</v>
+        <v>56368300</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>149.2400054931641</v>
+        <v>146.9799957275391</v>
       </c>
       <c r="B60">
-        <v>150</v>
+        <v>147.8399963378906</v>
       </c>
       <c r="C60">
-        <v>147.0899963378906</v>
+        <v>146.1699981689453</v>
       </c>
       <c r="D60">
-        <v>148.4799957275391</v>
+        <v>147.0599975585938</v>
       </c>
       <c r="E60">
-        <v>148.2578735351562</v>
+        <v>146.6260070800781</v>
       </c>
       <c r="F60">
-        <v>106820300</v>
+        <v>46397700</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>148.4600067138672</v>
+        <v>146.3500061035156</v>
       </c>
       <c r="B61">
-        <v>149.7599945068359</v>
+        <v>147.1100006103516</v>
       </c>
       <c r="C61">
-        <v>145.8800048828125</v>
+        <v>145.6300048828125</v>
       </c>
       <c r="D61">
-        <v>146.3899993896484</v>
+        <v>146.1399993896484</v>
       </c>
       <c r="E61">
-        <v>146.1709899902344</v>
+        <v>145.9270172119141</v>
       </c>
       <c r="F61">
-        <v>93251400</v>
+        <v>54067400</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>143.75</v>
+        <v>146.1999969482422</v>
       </c>
       <c r="B62">
-        <v>144.0700073242188</v>
+        <v>146.6999969482422</v>
       </c>
       <c r="C62">
-        <v>141.6699981689453</v>
+        <v>145.5200042724609</v>
       </c>
       <c r="D62">
-        <v>142.4499969482422</v>
+        <v>146.0899963378906</v>
       </c>
       <c r="E62">
-        <v>142.2368927001953</v>
+        <v>145.8770904541016</v>
       </c>
       <c r="F62">
-        <v>121434600</v>
+        <v>48908700</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>143.4600067138672</v>
+        <v>146.4400024414062</v>
       </c>
       <c r="B63">
-        <v>147.1000061035156</v>
+        <v>147.7100067138672</v>
       </c>
       <c r="C63">
-        <v>142.9600067138672</v>
+        <v>145.3000030517578</v>
       </c>
       <c r="D63">
-        <v>146.1499938964844</v>
+        <v>145.6000061035156</v>
       </c>
       <c r="E63">
-        <v>145.9313507080078</v>
+        <v>145.3878173828125</v>
       </c>
       <c r="F63">
-        <v>96350000</v>
+        <v>69023100</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
+        <v>146.0500030517578</v>
+      </c>
+      <c r="B64">
+        <v>146.7200012207031</v>
+      </c>
+      <c r="C64">
         <v>145.5299987792969</v>
       </c>
-      <c r="B64">
-        <v>146.1300048828125</v>
-      </c>
-      <c r="C64">
-        <v>144.6300048828125</v>
-      </c>
       <c r="D64">
-        <v>145.3999938964844</v>
+        <v>145.8600006103516</v>
       </c>
       <c r="E64">
-        <v>145.1824798583984</v>
+        <v>145.6474304199219</v>
       </c>
       <c r="F64">
-        <v>74993500</v>
+        <v>48493500</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>145.9400024414062</v>
+        <v>146.1900024414062</v>
       </c>
       <c r="B65">
-        <v>148.1999969482422</v>
+        <v>149.0500030517578</v>
       </c>
       <c r="C65">
-        <v>145.8099975585938</v>
+        <v>145.8399963378906</v>
       </c>
       <c r="D65">
-        <v>146.8000030517578</v>
+        <v>148.8899993896484</v>
       </c>
       <c r="E65">
-        <v>146.5803833007812</v>
+        <v>148.6730194091797</v>
       </c>
       <c r="F65">
-        <v>77338200</v>
+        <v>72282600</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>147.5500030517578</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="B66">
-        <v>148.7200012207031</v>
+        <v>149.4400024414062</v>
       </c>
       <c r="C66">
-        <v>146.9199981689453</v>
+        <v>148.2700042724609</v>
       </c>
       <c r="D66">
-        <v>148.5599975585938</v>
+        <v>149.1000061035156</v>
       </c>
       <c r="E66">
-        <v>148.3377532958984</v>
+        <v>148.8827209472656</v>
       </c>
       <c r="F66">
-        <v>71447400</v>
+        <v>59318800</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>148.2700042724609</v>
+        <v>148.5399932861328</v>
       </c>
       <c r="B67">
-        <v>149.8300018310547</v>
+        <v>151.1900024414062</v>
       </c>
       <c r="C67">
-        <v>147.6999969482422</v>
+        <v>146.4700012207031</v>
       </c>
       <c r="D67">
-        <v>148.9900054931641</v>
+        <v>151.1199951171875</v>
       </c>
       <c r="E67">
-        <v>148.7671203613281</v>
+        <v>150.8997650146484</v>
       </c>
       <c r="F67">
-        <v>72434100</v>
+        <v>103296000</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>149.1199951171875</v>
+        <v>150.2299957275391</v>
       </c>
       <c r="B68">
-        <v>149.2100067138672</v>
+        <v>151.6799926757812</v>
       </c>
       <c r="C68">
-        <v>145.5500030517578</v>
+        <v>149.0899963378906</v>
       </c>
       <c r="D68">
-        <v>146.7700042724609</v>
+        <v>150.1900024414062</v>
       </c>
       <c r="E68">
-        <v>146.5504302978516</v>
+        <v>149.9711303710938</v>
       </c>
       <c r="F68">
-        <v>104818600</v>
+        <v>92229700</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>144.8099975585938</v>
+        <v>149.8000030517578</v>
       </c>
       <c r="B69">
-        <v>146.9700012207031</v>
+        <v>150.7200012207031</v>
       </c>
       <c r="C69">
-        <v>142.5399932861328</v>
+        <v>146.1499938964844</v>
       </c>
       <c r="D69">
-        <v>144.9799957275391</v>
+        <v>146.3600006103516</v>
       </c>
       <c r="E69">
-        <v>144.7631072998047</v>
+        <v>146.1466979980469</v>
       </c>
       <c r="F69">
-        <v>118931200</v>
+        <v>86326000</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>144.6900024414062</v>
+        <v>145.0299987792969</v>
       </c>
       <c r="B70">
-        <v>146.5500030517578</v>
+        <v>148</v>
       </c>
       <c r="C70">
-        <v>144.5800018310547</v>
+        <v>144.5</v>
       </c>
       <c r="D70">
-        <v>145.6399993896484</v>
+        <v>146.6999969482422</v>
       </c>
       <c r="E70">
-        <v>145.422119140625</v>
+        <v>146.4862060546875</v>
       </c>
       <c r="F70">
-        <v>56699500</v>
+        <v>86960300</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>144.3800048828125</v>
+        <v>147.4400024414062</v>
       </c>
       <c r="B71">
-        <v>146.3300018310547</v>
+        <v>148.5</v>
       </c>
       <c r="C71">
-        <v>144.1100006103516</v>
+        <v>146.7799987792969</v>
       </c>
       <c r="D71">
-        <v>145.8600006103516</v>
+        <v>148.1900024414062</v>
       </c>
       <c r="E71">
-        <v>145.6417846679688</v>
+        <v>147.9740447998047</v>
       </c>
       <c r="F71">
-        <v>70382000</v>
+        <v>59947400</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>146.3600006103516</v>
+        <v>148.3099975585938</v>
       </c>
       <c r="B72">
-        <v>146.9499969482422</v>
+        <v>150.1900024414062</v>
       </c>
       <c r="C72">
-        <v>145.25</v>
+        <v>147.8899993896484</v>
       </c>
       <c r="D72">
-        <v>145.5200042724609</v>
+        <v>149.7100067138672</v>
       </c>
       <c r="E72">
-        <v>145.3023071289062</v>
+        <v>149.4918365478516</v>
       </c>
       <c r="F72">
-        <v>62880000</v>
+        <v>60131800</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>145.8099975585938</v>
+        <v>149.4499969482422</v>
       </c>
       <c r="B73">
-        <v>148.0399932861328</v>
+        <v>150.8600006103516</v>
       </c>
       <c r="C73">
-        <v>145.1799926757812</v>
+        <v>149.1499938964844</v>
       </c>
       <c r="D73">
-        <v>147.3600006103516</v>
+        <v>149.6199951171875</v>
       </c>
       <c r="E73">
-        <v>147.1395416259766</v>
+        <v>149.4019470214844</v>
       </c>
       <c r="F73">
-        <v>64786600</v>
+        <v>48606400</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>147.2700042724609</v>
+        <v>149.8099975585938</v>
       </c>
       <c r="B74">
-        <v>147.7899932861328</v>
+        <v>150.3200073242188</v>
       </c>
       <c r="C74">
-        <v>146.2799987792969</v>
+        <v>147.8000030517578</v>
       </c>
       <c r="D74">
-        <v>146.9499969482422</v>
+        <v>148.3600006103516</v>
       </c>
       <c r="E74">
-        <v>146.7301635742188</v>
+        <v>148.1437835693359</v>
       </c>
       <c r="F74">
-        <v>56368300</v>
+        <v>58991300</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>146.9799957275391</v>
+        <v>148.3500061035156</v>
       </c>
       <c r="B75">
-        <v>147.8399963378906</v>
+        <v>149.1199951171875</v>
       </c>
       <c r="C75">
-        <v>146.1699981689453</v>
+        <v>147.5099945068359</v>
       </c>
       <c r="D75">
-        <v>147.0599975585938</v>
+        <v>147.5399932861328</v>
       </c>
       <c r="E75">
-        <v>146.8399963378906</v>
+        <v>147.3249816894531</v>
       </c>
       <c r="F75">
-        <v>46397700</v>
+        <v>48597200</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>146.3500061035156</v>
+        <v>147.4799957275391</v>
       </c>
       <c r="B76">
-        <v>147.1100006103516</v>
+        <v>148.75</v>
       </c>
       <c r="C76">
-        <v>145.6300048828125</v>
+        <v>146.8300018310547</v>
       </c>
       <c r="D76">
-        <v>146.1399993896484</v>
+        <v>148.6000061035156</v>
       </c>
       <c r="E76">
-        <v>146.1399993896484</v>
+        <v>148.3834533691406</v>
       </c>
       <c r="F76">
-        <v>54067400</v>
+        <v>55721500</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>146.1999969482422</v>
+        <v>149</v>
       </c>
       <c r="B77">
-        <v>146.6999969482422</v>
+        <v>153.4900054931641</v>
       </c>
       <c r="C77">
-        <v>145.5200042724609</v>
+        <v>148.6100006103516</v>
       </c>
       <c r="D77">
-        <v>146.0899963378906</v>
+        <v>153.1199951171875</v>
       </c>
       <c r="E77">
-        <v>146.0899963378906</v>
+        <v>152.8968505859375</v>
       </c>
       <c r="F77">
-        <v>48908700</v>
+        <v>90956700</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>146.4400024414062</v>
+        <v>152.6600036621094</v>
       </c>
       <c r="B78">
-        <v>147.7100067138672</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="C78">
-        <v>145.3000030517578</v>
+        <v>151.2899932861328</v>
       </c>
       <c r="D78">
-        <v>145.6000061035156</v>
+        <v>151.8300018310547</v>
       </c>
       <c r="E78">
-        <v>145.6000061035156</v>
+        <v>151.6087341308594</v>
       </c>
       <c r="F78">
-        <v>69023100</v>
+        <v>86453100</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>146.0500030517578</v>
+        <v>152.8300018310547</v>
       </c>
       <c r="B79">
-        <v>146.7200012207031</v>
+        <v>154.9799957275391</v>
       </c>
       <c r="C79">
-        <v>145.5299987792969</v>
+        <v>152.3399963378906</v>
       </c>
       <c r="D79">
-        <v>145.8600006103516</v>
+        <v>152.5099945068359</v>
       </c>
       <c r="E79">
-        <v>145.8600006103516</v>
+        <v>152.2877349853516</v>
       </c>
       <c r="F79">
-        <v>48493500</v>
+        <v>80313700</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>146.1900024414062</v>
+        <v>153.8699951171875</v>
       </c>
       <c r="B80">
-        <v>149.0500030517578</v>
+        <v>154.7200012207031</v>
       </c>
       <c r="C80">
-        <v>145.8399963378906</v>
+        <v>152.3999938964844</v>
       </c>
       <c r="D80">
-        <v>148.8899993896484</v>
+        <v>153.6499938964844</v>
       </c>
       <c r="E80">
-        <v>148.8899993896484</v>
+        <v>153.4260711669922</v>
       </c>
       <c r="F80">
-        <v>72282600</v>
+        <v>71115500</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>148.9700012207031</v>
+        <v>153.7599945068359</v>
       </c>
       <c r="B81">
-        <v>149.4400024414062</v>
+        <v>154.6300048828125</v>
       </c>
       <c r="C81">
-        <v>148.2700042724609</v>
+        <v>153.0899963378906</v>
       </c>
       <c r="D81">
-        <v>149.1000061035156</v>
+        <v>154.3000030517578</v>
       </c>
       <c r="E81">
-        <v>149.1000061035156</v>
+        <v>154.0751342773438</v>
       </c>
       <c r="F81">
-        <v>59318800</v>
+        <v>57808700</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>148.5399932861328</v>
+        <v>154.9700012207031</v>
       </c>
       <c r="B82">
-        <v>151.1900024414062</v>
+        <v>157.2599945068359</v>
       </c>
       <c r="C82">
-        <v>146.4700012207031</v>
+        <v>154.3899993896484</v>
       </c>
       <c r="D82">
-        <v>151.1199951171875</v>
+        <v>156.6900024414062</v>
       </c>
       <c r="E82">
-        <v>151.1199951171875</v>
+        <v>156.4616546630859</v>
       </c>
       <c r="F82">
-        <v>103296000</v>
+        <v>82278300</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>150.2299957275391</v>
+        <v>156.9799957275391</v>
       </c>
       <c r="B83">
-        <v>151.6799926757812</v>
+        <v>157.0399932861328</v>
       </c>
       <c r="C83">
-        <v>149.0899963378906</v>
+        <v>153.9799957275391</v>
       </c>
       <c r="D83">
-        <v>150.1900024414062</v>
+        <v>155.1100006103516</v>
       </c>
       <c r="E83">
-        <v>150.1900024414062</v>
+        <v>154.8839569091797</v>
       </c>
       <c r="F83">
-        <v>92229700</v>
+        <v>74420200</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>149.8000030517578</v>
+        <v>155.4900054931641</v>
       </c>
       <c r="B84">
-        <v>150.7200012207031</v>
+        <v>156.1100006103516</v>
       </c>
       <c r="C84">
-        <v>146.1499938964844</v>
+        <v>153.9499969482422</v>
       </c>
       <c r="D84">
-        <v>146.3600006103516</v>
+        <v>154.0700073242188</v>
       </c>
       <c r="E84">
-        <v>146.3600006103516</v>
+        <v>153.8454742431641</v>
       </c>
       <c r="F84">
-        <v>86326000</v>
+        <v>57305700</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>145.0299987792969</v>
+        <v>155</v>
       </c>
       <c r="B85">
-        <v>148</v>
+        <v>155.4799957275391</v>
       </c>
       <c r="C85">
-        <v>144.5</v>
+        <v>148.6999969482422</v>
       </c>
       <c r="D85">
-        <v>146.6999969482422</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="E85">
-        <v>146.6999969482422</v>
+        <v>148.7528991699219</v>
       </c>
       <c r="F85">
-        <v>86960300</v>
+        <v>140646400</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>147.4400024414062</v>
+        <v>150.6300048828125</v>
       </c>
       <c r="B86">
-        <v>148.5</v>
+        <v>151.4199981689453</v>
       </c>
       <c r="C86">
-        <v>146.7799987792969</v>
+        <v>148.75</v>
       </c>
       <c r="D86">
-        <v>148.1900024414062</v>
+        <v>149.5500030517578</v>
       </c>
       <c r="E86">
-        <v>148.1900024414062</v>
+        <v>149.3320617675781</v>
       </c>
       <c r="F86">
-        <v>59947400</v>
+        <v>102404300</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>148.3099975585938</v>
+        <v>150.3500061035156</v>
       </c>
       <c r="B87">
-        <v>150.1900024414062</v>
+        <v>151.0700073242188</v>
       </c>
       <c r="C87">
-        <v>147.8899993896484</v>
+        <v>146.9100036621094</v>
       </c>
       <c r="D87">
-        <v>149.7100067138672</v>
+        <v>148.1199951171875</v>
       </c>
       <c r="E87">
-        <v>149.7100067138672</v>
+        <v>147.9041290283203</v>
       </c>
       <c r="F87">
-        <v>60131800</v>
+        <v>109296300</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>149.4499969482422</v>
+        <v>148.5599975585938</v>
       </c>
       <c r="B88">
-        <v>150.8600006103516</v>
+        <v>149.4400024414062</v>
       </c>
       <c r="C88">
-        <v>149.1499938964844</v>
+        <v>146.3699951171875</v>
       </c>
       <c r="D88">
-        <v>149.6199951171875</v>
+        <v>149.0299987792969</v>
       </c>
       <c r="E88">
-        <v>149.6199951171875</v>
+        <v>148.8128051757812</v>
       </c>
       <c r="F88">
-        <v>48606400</v>
+        <v>83281300</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>149.8099975585938</v>
+        <v>148.4400024414062</v>
       </c>
       <c r="B89">
-        <v>150.3200073242188</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="C89">
-        <v>147.8000030517578</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="D89">
-        <v>148.3600006103516</v>
+        <v>148.7899932861328</v>
       </c>
       <c r="E89">
-        <v>148.3600006103516</v>
+        <v>148.5731506347656</v>
       </c>
       <c r="F89">
-        <v>58991300</v>
+        <v>68034100</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>148.3500061035156</v>
+        <v>148.8200073242188</v>
       </c>
       <c r="B90">
-        <v>149.1199951171875</v>
+        <v>148.8200073242188</v>
       </c>
       <c r="C90">
-        <v>147.5099945068359</v>
+        <v>145.7599945068359</v>
       </c>
       <c r="D90">
-        <v>147.5399932861328</v>
+        <v>146.0599975585938</v>
       </c>
       <c r="E90">
-        <v>147.5399932861328</v>
+        <v>145.8471374511719</v>
       </c>
       <c r="F90">
-        <v>48597200</v>
+        <v>129868800</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>147.4799957275391</v>
+        <v>143.8000030517578</v>
       </c>
       <c r="B91">
-        <v>148.75</v>
+        <v>144.8399963378906</v>
       </c>
       <c r="C91">
-        <v>146.8300018310547</v>
+        <v>141.2700042724609</v>
       </c>
       <c r="D91">
-        <v>148.6000061035156</v>
+        <v>142.9400024414062</v>
       </c>
       <c r="E91">
-        <v>148.6000061035156</v>
+        <v>142.731689453125</v>
       </c>
       <c r="F91">
-        <v>55721500</v>
+        <v>123478900</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>149</v>
+        <v>143.9299926757812</v>
       </c>
       <c r="B92">
-        <v>153.4900054931641</v>
+        <v>144.6000061035156</v>
       </c>
       <c r="C92">
-        <v>148.6100006103516</v>
+        <v>142.7799987792969</v>
       </c>
       <c r="D92">
-        <v>153.1199951171875</v>
+        <v>143.4299926757812</v>
       </c>
       <c r="E92">
-        <v>153.1199951171875</v>
+        <v>143.2209625244141</v>
       </c>
       <c r="F92">
-        <v>90956700</v>
+        <v>75834000</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>152.6600036621094</v>
+        <v>144.4499969482422</v>
       </c>
       <c r="B93">
-        <v>152.8000030517578</v>
+        <v>146.4299926757812</v>
       </c>
       <c r="C93">
-        <v>151.2899932861328</v>
+        <v>143.6999969482422</v>
       </c>
       <c r="D93">
-        <v>151.8300018310547</v>
+        <v>145.8500061035156</v>
       </c>
       <c r="E93">
-        <v>151.8300018310547</v>
+        <v>145.637451171875</v>
       </c>
       <c r="F93">
-        <v>86453100</v>
+        <v>76404300</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>152.8300018310547</v>
+        <v>146.6499938964844</v>
       </c>
       <c r="B94">
-        <v>154.9799957275391</v>
+        <v>147.0800018310547</v>
       </c>
       <c r="C94">
-        <v>152.3399963378906</v>
+        <v>145.6399993896484</v>
       </c>
       <c r="D94">
-        <v>152.5099945068359</v>
+        <v>146.8300018310547</v>
       </c>
       <c r="E94">
-        <v>152.5099945068359</v>
+        <v>146.6160278320312</v>
       </c>
       <c r="F94">
-        <v>80313700</v>
+        <v>64838200</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>153.8699951171875</v>
+        <v>145.6600036621094</v>
       </c>
       <c r="B95">
-        <v>154.7200012207031</v>
+        <v>147.4700012207031</v>
       </c>
       <c r="C95">
-        <v>152.3999938964844</v>
+        <v>145.5599975585938</v>
       </c>
       <c r="D95">
-        <v>153.6499938964844</v>
+        <v>146.9199981689453</v>
       </c>
       <c r="E95">
-        <v>153.6499938964844</v>
+        <v>146.7058868408203</v>
       </c>
       <c r="F95">
-        <v>71115500</v>
+        <v>53477900</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>153.7599945068359</v>
+        <v>145.4700012207031</v>
       </c>
       <c r="B96">
-        <v>154.6300048828125</v>
+        <v>145.9600067138672</v>
       </c>
       <c r="C96">
-        <v>153.0899963378906</v>
+        <v>143.8200073242188</v>
       </c>
       <c r="D96">
-        <v>154.3000030517578</v>
+        <v>145.3699951171875</v>
       </c>
       <c r="E96">
-        <v>154.3000030517578</v>
+        <v>145.1581420898438</v>
       </c>
       <c r="F96">
-        <v>57808700</v>
+        <v>74150700</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>154.9700012207031</v>
+        <v>143.25</v>
       </c>
       <c r="B97">
-        <v>157.2599945068359</v>
+        <v>144.75</v>
       </c>
       <c r="C97">
-        <v>154.3899993896484</v>
+        <v>141.6900024414062</v>
       </c>
       <c r="D97">
-        <v>156.6900024414062</v>
+        <v>141.9100036621094</v>
       </c>
       <c r="E97">
-        <v>156.6900024414062</v>
+        <v>141.7031860351562</v>
       </c>
       <c r="F97">
-        <v>82278300</v>
+        <v>108972300</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>156.9799957275391</v>
+        <v>142.4700012207031</v>
       </c>
       <c r="B98">
-        <v>157.0399932861328</v>
+        <v>144.4499969482422</v>
       </c>
       <c r="C98">
-        <v>153.9799957275391</v>
+        <v>142.0299987792969</v>
       </c>
       <c r="D98">
-        <v>155.1100006103516</v>
+        <v>142.8300018310547</v>
       </c>
       <c r="E98">
-        <v>155.1100006103516</v>
+        <v>142.6218566894531</v>
       </c>
       <c r="F98">
-        <v>74420200</v>
+        <v>74602000</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>155.4900054931641</v>
+        <v>143.6600036621094</v>
       </c>
       <c r="B99">
-        <v>156.1100006103516</v>
+        <v>144.3800048828125</v>
       </c>
       <c r="C99">
-        <v>153.9499969482422</v>
+        <v>141.2799987792969</v>
       </c>
       <c r="D99">
-        <v>154.0700073242188</v>
+        <v>141.5</v>
       </c>
       <c r="E99">
-        <v>154.0700073242188</v>
+        <v>141.2937927246094</v>
       </c>
       <c r="F99">
-        <v>57305700</v>
+        <v>88934200</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>155</v>
+        <v>141.8999938964844</v>
       </c>
       <c r="B100">
-        <v>155.4799957275391</v>
+        <v>142.9199981689453</v>
       </c>
       <c r="C100">
-        <v>148.6999969482422</v>
+        <v>139.1100006103516</v>
       </c>
       <c r="D100">
-        <v>148.9700012207031</v>
+        <v>142.6499938964844</v>
       </c>
       <c r="E100">
-        <v>148.9700012207031</v>
+        <v>142.4421081542969</v>
       </c>
       <c r="F100">
-        <v>140646400</v>
+        <v>94639600</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>150.6300048828125</v>
+        <v>141.7599945068359</v>
       </c>
       <c r="B101">
-        <v>151.4199981689453</v>
+        <v>142.2100067138672</v>
       </c>
       <c r="C101">
-        <v>148.75</v>
+        <v>138.2700042724609</v>
       </c>
       <c r="D101">
-        <v>149.5500030517578</v>
+        <v>139.1399993896484</v>
       </c>
       <c r="E101">
-        <v>149.5500030517578</v>
+        <v>138.9372253417969</v>
       </c>
       <c r="F101">
-        <v>102404300</v>
+        <v>98322000</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>150.3500061035156</v>
+        <v>139.4900054931641</v>
       </c>
       <c r="B102">
-        <v>151.0700073242188</v>
+        <v>142.2400054931641</v>
       </c>
       <c r="C102">
-        <v>146.9100036621094</v>
+        <v>139.3600006103516</v>
       </c>
       <c r="D102">
-        <v>148.1199951171875</v>
+        <v>141.1100006103516</v>
       </c>
       <c r="E102">
-        <v>148.1199951171875</v>
+        <v>140.9043579101562</v>
       </c>
       <c r="F102">
-        <v>109296300</v>
+        <v>80861100</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>148.5599975585938</v>
+        <v>139.4700012207031</v>
       </c>
       <c r="B103">
-        <v>149.4400024414062</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="C103">
-        <v>146.3699951171875</v>
+        <v>138.3699951171875</v>
       </c>
       <c r="D103">
-        <v>149.0299987792969</v>
+        <v>142</v>
       </c>
       <c r="E103">
-        <v>149.0299987792969</v>
+        <v>141.7930603027344</v>
       </c>
       <c r="F103">
-        <v>83281300</v>
+        <v>83221100</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>148.4400024414062</v>
+        <v>143.0599975585938</v>
       </c>
       <c r="B104">
-        <v>148.9700012207031</v>
+        <v>144.2200012207031</v>
       </c>
       <c r="C104">
-        <v>147.2200012207031</v>
+        <v>142.7200012207031</v>
       </c>
       <c r="D104">
-        <v>148.7899932861328</v>
+        <v>143.2899932861328</v>
       </c>
       <c r="E104">
-        <v>148.7899932861328</v>
+        <v>143.0811767578125</v>
       </c>
       <c r="F104">
-        <v>68034100</v>
+        <v>61732700</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>148.8200073242188</v>
+        <v>144.0299987792969</v>
       </c>
       <c r="B105">
-        <v>148.8200073242188</v>
+        <v>144.1799926757812</v>
       </c>
       <c r="C105">
-        <v>145.7599945068359</v>
+        <v>142.5599975585938</v>
       </c>
       <c r="D105">
-        <v>146.0599975585938</v>
+        <v>142.8999938964844</v>
       </c>
       <c r="E105">
-        <v>146.0599975585938</v>
+        <v>142.6917419433594</v>
       </c>
       <c r="F105">
-        <v>129868800</v>
+        <v>58718700</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>143.8000030517578</v>
+        <v>142.2700042724609</v>
       </c>
       <c r="B106">
-        <v>144.8399963378906</v>
+        <v>144.8099975585938</v>
       </c>
       <c r="C106">
-        <v>141.2700042724609</v>
+        <v>141.8099975585938</v>
       </c>
       <c r="D106">
-        <v>142.9400024414062</v>
+        <v>142.8099975585938</v>
       </c>
       <c r="E106">
-        <v>142.9400024414062</v>
+        <v>142.6018829345703</v>
       </c>
       <c r="F106">
-        <v>123478900</v>
+        <v>64452200</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>143.9299926757812</v>
+        <v>143.2299957275391</v>
       </c>
       <c r="B107">
-        <v>144.6000061035156</v>
+        <v>143.25</v>
       </c>
       <c r="C107">
-        <v>142.7799987792969</v>
+        <v>141.0399932861328</v>
       </c>
       <c r="D107">
-        <v>143.4299926757812</v>
+        <v>141.5099945068359</v>
       </c>
       <c r="E107">
-        <v>143.4299926757812</v>
+        <v>141.3037719726562</v>
       </c>
       <c r="F107">
-        <v>75834000</v>
+        <v>73035900</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>144.4499969482422</v>
+        <v>141.2400054931641</v>
       </c>
       <c r="B108">
-        <v>146.4299926757812</v>
+        <v>141.3999938964844</v>
       </c>
       <c r="C108">
-        <v>143.6999969482422</v>
+        <v>139.1999969482422</v>
       </c>
       <c r="D108">
-        <v>145.8500061035156</v>
+        <v>140.9100036621094</v>
       </c>
       <c r="E108">
-        <v>145.8500061035156</v>
+        <v>140.7046508789062</v>
       </c>
       <c r="F108">
-        <v>76404300</v>
+        <v>78762700</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>146.6499938964844</v>
+        <v>142.1100006103516</v>
       </c>
       <c r="B109">
-        <v>147.0800018310547</v>
+        <v>143.8800048828125</v>
       </c>
       <c r="C109">
-        <v>145.6399993896484</v>
+        <v>141.5099945068359</v>
       </c>
       <c r="D109">
-        <v>146.8300018310547</v>
+        <v>143.7599945068359</v>
       </c>
       <c r="E109">
-        <v>146.8300018310547</v>
+        <v>143.5504913330078</v>
       </c>
       <c r="F109">
-        <v>64838200</v>
+        <v>69907100</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>145.6600036621094</v>
+        <v>143.7700042724609</v>
       </c>
       <c r="B110">
-        <v>147.4700012207031</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="C110">
-        <v>145.5599975585938</v>
+        <v>143.5099945068359</v>
       </c>
       <c r="D110">
-        <v>146.9199981689453</v>
+        <v>144.8399963378906</v>
       </c>
       <c r="E110">
-        <v>146.9199981689453</v>
+        <v>144.6289215087891</v>
       </c>
       <c r="F110">
-        <v>53477900</v>
+        <v>67885200</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>145.4700012207031</v>
+        <v>143.4499969482422</v>
       </c>
       <c r="B111">
-        <v>145.9600067138672</v>
+        <v>146.8399963378906</v>
       </c>
       <c r="C111">
-        <v>143.8200073242188</v>
+        <v>143.1600036621094</v>
       </c>
       <c r="D111">
-        <v>145.3699951171875</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="E111">
-        <v>145.3699951171875</v>
+        <v>146.33642578125</v>
       </c>
       <c r="F111">
-        <v>74150700</v>
+        <v>85589200</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>143.25</v>
+        <v>147.0099945068359</v>
       </c>
       <c r="B112">
-        <v>144.75</v>
+        <v>149.1699981689453</v>
       </c>
       <c r="C112">
-        <v>141.6900024414062</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="D112">
-        <v>141.9100036621094</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="E112">
-        <v>141.9100036621094</v>
+        <v>148.5431976318359</v>
       </c>
       <c r="F112">
-        <v>108972300</v>
+        <v>76378900</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>142.4700012207031</v>
+        <v>148.6999969482422</v>
       </c>
       <c r="B113">
-        <v>144.4499969482422</v>
+        <v>149.75</v>
       </c>
       <c r="C113">
-        <v>142.0299987792969</v>
+        <v>148.1199951171875</v>
       </c>
       <c r="D113">
-        <v>142.8300018310547</v>
+        <v>149.2599945068359</v>
       </c>
       <c r="E113">
-        <v>142.8300018310547</v>
+        <v>149.04248046875</v>
       </c>
       <c r="F113">
-        <v>74602000</v>
+        <v>58418800</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>143.6600036621094</v>
+        <v>148.8099975585938</v>
       </c>
       <c r="B114">
-        <v>144.3800048828125</v>
+        <v>149.6399993896484</v>
       </c>
       <c r="C114">
-        <v>141.2799987792969</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="D114">
-        <v>141.5</v>
+        <v>149.4799957275391</v>
       </c>
       <c r="E114">
-        <v>141.5</v>
+        <v>149.2621459960938</v>
       </c>
       <c r="F114">
-        <v>88934200</v>
+        <v>61421000</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>141.8999938964844</v>
+        <v>149.6900024414062</v>
       </c>
       <c r="B115">
-        <v>142.9199981689453</v>
+        <v>150.1799926757812</v>
       </c>
       <c r="C115">
-        <v>139.1100006103516</v>
+        <v>148.6399993896484</v>
       </c>
       <c r="D115">
-        <v>142.6499938964844</v>
+        <v>148.6900024414062</v>
       </c>
       <c r="E115">
-        <v>142.6499938964844</v>
+        <v>148.4733123779297</v>
       </c>
       <c r="F115">
-        <v>94639600</v>
+        <v>58883400</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>141.7599945068359</v>
+        <v>148.6799926757812</v>
       </c>
       <c r="B116">
-        <v>142.2100067138672</v>
+        <v>149.3699951171875</v>
       </c>
       <c r="C116">
-        <v>138.2700042724609</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="D116">
-        <v>139.1399993896484</v>
+        <v>148.6399993896484</v>
       </c>
       <c r="E116">
-        <v>139.1399993896484</v>
+        <v>148.4233856201172</v>
       </c>
       <c r="F116">
-        <v>98322000</v>
+        <v>50720600</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>139.4900054931641</v>
+        <v>149.3300018310547</v>
       </c>
       <c r="B117">
-        <v>142.2400054931641</v>
+        <v>150.8399963378906</v>
       </c>
       <c r="C117">
-        <v>139.3600006103516</v>
+        <v>149.0099945068359</v>
       </c>
       <c r="D117">
-        <v>141.1100006103516</v>
+        <v>149.3200073242188</v>
       </c>
       <c r="E117">
-        <v>141.1100006103516</v>
+        <v>149.1024017333984</v>
       </c>
       <c r="F117">
-        <v>80861100</v>
+        <v>60893400</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>139.4700012207031</v>
+        <v>149.3600006103516</v>
       </c>
       <c r="B118">
-        <v>142.1499938964844</v>
+        <v>149.7299957275391</v>
       </c>
       <c r="C118">
-        <v>138.3699951171875</v>
+        <v>148.4900054931641</v>
       </c>
       <c r="D118">
-        <v>142</v>
+        <v>148.8500061035156</v>
       </c>
       <c r="E118">
-        <v>142</v>
+        <v>148.6330871582031</v>
       </c>
       <c r="F118">
-        <v>83221100</v>
+        <v>56094900</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>143.0599975585938</v>
+        <v>149.8200073242188</v>
       </c>
       <c r="B119">
-        <v>144.2200012207031</v>
+        <v>153.1699981689453</v>
       </c>
       <c r="C119">
-        <v>142.7200012207031</v>
+        <v>149.7200012207031</v>
       </c>
       <c r="D119">
-        <v>143.2899932861328</v>
+        <v>152.5700073242188</v>
       </c>
       <c r="E119">
-        <v>143.2899932861328</v>
+        <v>152.34765625</v>
       </c>
       <c r="F119">
-        <v>61732700</v>
+        <v>100077900</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>144.0299987792969</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="B120">
-        <v>144.1799926757812</v>
+        <v>149.9400024414062</v>
       </c>
       <c r="C120">
-        <v>142.5599975585938</v>
+        <v>146.4100036621094</v>
       </c>
       <c r="D120">
-        <v>142.8999938964844</v>
+        <v>149.8000030517578</v>
       </c>
       <c r="E120">
-        <v>142.8999938964844</v>
+        <v>149.5816955566406</v>
       </c>
       <c r="F120">
-        <v>58718700</v>
+        <v>124850400</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>142.2700042724609</v>
+        <v>148.9900054931641</v>
       </c>
       <c r="B121">
-        <v>144.8099975585938</v>
+        <v>149.6999969482422</v>
       </c>
       <c r="C121">
-        <v>141.8099975585938</v>
+        <v>147.8000030517578</v>
       </c>
       <c r="D121">
-        <v>142.8099975585938</v>
+        <v>148.9600067138672</v>
       </c>
       <c r="E121">
-        <v>142.8099975585938</v>
+        <v>148.742919921875</v>
       </c>
       <c r="F121">
-        <v>64452200</v>
+        <v>74588300</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>143.2299957275391</v>
+        <v>148.6600036621094</v>
       </c>
       <c r="B122">
-        <v>143.25</v>
+        <v>151.5700073242188</v>
       </c>
       <c r="C122">
-        <v>141.0399932861328</v>
+        <v>148.6499938964844</v>
       </c>
       <c r="D122">
-        <v>141.5099945068359</v>
+        <v>150.0200042724609</v>
       </c>
       <c r="E122">
-        <v>141.5099945068359</v>
+        <v>149.8013763427734</v>
       </c>
       <c r="F122">
-        <v>73035900</v>
+        <v>69122000</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>141.2400054931641</v>
+        <v>150.3899993896484</v>
       </c>
       <c r="B123">
-        <v>141.3999938964844</v>
+        <v>151.9700012207031</v>
       </c>
       <c r="C123">
-        <v>139.1999969482422</v>
+        <v>149.8200073242188</v>
       </c>
       <c r="D123">
-        <v>140.9100036621094</v>
+        <v>151.4900054931641</v>
       </c>
       <c r="E123">
-        <v>140.9100036621094</v>
+        <v>151.2692413330078</v>
       </c>
       <c r="F123">
-        <v>78762700</v>
+        <v>54511500</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>142.1100006103516</v>
+        <v>151.5800018310547</v>
       </c>
       <c r="B124">
-        <v>143.8800048828125</v>
+        <v>152.4299926757812</v>
       </c>
       <c r="C124">
-        <v>141.5099945068359</v>
+        <v>150.6399993896484</v>
       </c>
       <c r="D124">
-        <v>143.7599945068359</v>
+        <v>150.9600067138672</v>
       </c>
       <c r="E124">
-        <v>143.7599945068359</v>
+        <v>150.7400054931641</v>
       </c>
       <c r="F124">
-        <v>69907100</v>
+        <v>60394600</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>143.7700042724609</v>
+        <v>151.8899993896484</v>
       </c>
       <c r="B125">
-        <v>144.8999938964844</v>
+        <v>152.1999969482422</v>
       </c>
       <c r="C125">
-        <v>143.5099945068359</v>
+        <v>150.0599975585938</v>
       </c>
       <c r="D125">
-        <v>144.8399963378906</v>
+        <v>151.2799987792969</v>
       </c>
       <c r="E125">
-        <v>144.8399963378906</v>
+        <v>151.2799987792969</v>
       </c>
       <c r="F125">
-        <v>67885200</v>
+        <v>65414600</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>143.4499969482422</v>
+        <v>151.4100036621094</v>
       </c>
       <c r="B126">
-        <v>146.8399963378906</v>
+        <v>151.5700073242188</v>
       </c>
       <c r="C126">
-        <v>143.1600036621094</v>
+        <v>150.1600036621094</v>
       </c>
       <c r="D126">
-        <v>146.5500030517578</v>
+        <v>150.4400024414062</v>
       </c>
       <c r="E126">
-        <v>146.5500030517578</v>
+        <v>150.4400024414062</v>
       </c>
       <c r="F126">
-        <v>85589200</v>
+        <v>55020900</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>147.0099945068359</v>
+        <v>150.1999969482422</v>
       </c>
       <c r="B127">
-        <v>149.1699981689453</v>
+        <v>151.4299926757812</v>
       </c>
       <c r="C127">
-        <v>146.5500030517578</v>
+        <v>150.0599975585938</v>
       </c>
       <c r="D127">
-        <v>148.7599945068359</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="E127">
-        <v>148.7599945068359</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="F127">
-        <v>76378900</v>
+        <v>56787900</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>148.6999969482422</v>
+        <v>150.0200042724609</v>
       </c>
       <c r="B128">
-        <v>149.75</v>
+        <v>150.1300048828125</v>
       </c>
       <c r="C128">
-        <v>148.1199951171875</v>
+        <v>147.8500061035156</v>
       </c>
       <c r="D128">
-        <v>149.2599945068359</v>
+        <v>147.9199981689453</v>
       </c>
       <c r="E128">
-        <v>149.2599945068359</v>
+        <v>147.9199981689453</v>
       </c>
       <c r="F128">
-        <v>58418800</v>
+        <v>65187100</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>148.8099975585938</v>
+        <v>148.9600067138672</v>
       </c>
       <c r="B129">
-        <v>149.6399993896484</v>
+        <v>149.4299926757812</v>
       </c>
       <c r="C129">
+        <v>147.6799926757812</v>
+      </c>
+      <c r="D129">
         <v>147.8699951171875</v>
       </c>
-      <c r="D129">
-        <v>149.4799957275391</v>
-      </c>
       <c r="E129">
-        <v>149.4799957275391</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="F129">
-        <v>61314200</v>
+        <v>41000000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>148.4299926757812</v>
+      </c>
+      <c r="B130">
+        <v>150.3999938964844</v>
+      </c>
+      <c r="C130">
+        <v>147.4799957275391</v>
+      </c>
+      <c r="D130">
+        <v>149.9900054931641</v>
+      </c>
+      <c r="E130">
+        <v>149.9900054931641</v>
+      </c>
+      <c r="F130">
+        <v>63632600</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/AAPL/HighLow.xlsx
+++ b/Stocks/AAPL/HighLow.xlsx
@@ -417,2582 +417,2582 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>124.5800018310547</v>
+        <v>125.2300033569336</v>
       </c>
       <c r="B2">
-        <v>126.1500015258789</v>
+        <v>127.7200012207031</v>
       </c>
       <c r="C2">
-        <v>124.2600021362305</v>
+        <v>125.0999984741211</v>
       </c>
       <c r="D2">
-        <v>124.9700012207031</v>
+        <v>127.3099975585938</v>
       </c>
       <c r="E2">
-        <v>124.601188659668</v>
+        <v>126.9342880249023</v>
       </c>
       <c r="F2">
-        <v>105861300</v>
+        <v>76857100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>126.25</v>
+        <v>127.8199996948242</v>
       </c>
       <c r="B3">
-        <v>127.8899993896484</v>
+        <v>128</v>
       </c>
       <c r="C3">
-        <v>125.8499984741211</v>
+        <v>125.2099990844727</v>
       </c>
       <c r="D3">
-        <v>127.4499969482422</v>
+        <v>125.4300003051758</v>
       </c>
       <c r="E3">
-        <v>127.0738677978516</v>
+        <v>125.0598373413086</v>
       </c>
       <c r="F3">
-        <v>81918000</v>
+        <v>79295400</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>126.8199996948242</v>
+        <v>126.0100021362305</v>
       </c>
       <c r="B4">
-        <v>126.9300003051758</v>
+        <v>127.9400024414062</v>
       </c>
       <c r="C4">
-        <v>125.1699981689453</v>
+        <v>125.9400024414062</v>
       </c>
       <c r="D4">
-        <v>126.2699966430664</v>
+        <v>127.0999984741211</v>
       </c>
       <c r="E4">
-        <v>125.8973541259766</v>
+        <v>126.7249069213867</v>
       </c>
       <c r="F4">
-        <v>74244600</v>
+        <v>63092900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>126.5599975585938</v>
+        <v>127.8199996948242</v>
       </c>
       <c r="B5">
-        <v>126.9899978637695</v>
+        <v>128.3200073242188</v>
       </c>
       <c r="C5">
-        <v>124.7799987792969</v>
+        <v>126.3199996948242</v>
       </c>
       <c r="D5">
-        <v>124.8499984741211</v>
+        <v>126.9000015258789</v>
       </c>
       <c r="E5">
-        <v>124.4815444946289</v>
+        <v>126.5254974365234</v>
       </c>
       <c r="F5">
-        <v>63342900</v>
+        <v>72009500</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>123.1600036621094</v>
+        <v>126.9599990844727</v>
       </c>
       <c r="B6">
-        <v>124.9199981689453</v>
+        <v>127.3899993896484</v>
       </c>
       <c r="C6">
-        <v>122.8600006103516</v>
+        <v>126.4199981689453</v>
       </c>
       <c r="D6">
-        <v>124.6900024414062</v>
+        <v>126.8499984741211</v>
       </c>
       <c r="E6">
-        <v>124.322021484375</v>
+        <v>126.4756469726562</v>
       </c>
       <c r="F6">
-        <v>92612000</v>
+        <v>56575900</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>125.2300033569336</v>
+        <v>126.4400024414062</v>
       </c>
       <c r="B7">
-        <v>127.7200012207031</v>
+        <v>127.6399993896484</v>
       </c>
       <c r="C7">
-        <v>125.0999984741211</v>
+        <v>125.0800018310547</v>
       </c>
       <c r="D7">
-        <v>127.3099975585938</v>
+        <v>125.2799987792969</v>
       </c>
       <c r="E7">
-        <v>126.9342803955078</v>
+        <v>124.9102783203125</v>
       </c>
       <c r="F7">
-        <v>76857100</v>
+        <v>94625600</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>127.8199996948242</v>
+        <v>125.5699996948242</v>
       </c>
       <c r="B8">
-        <v>128</v>
+        <v>125.8000030517578</v>
       </c>
       <c r="C8">
-        <v>125.2099990844727</v>
+        <v>124.5500030517578</v>
       </c>
       <c r="D8">
-        <v>125.4300003051758</v>
+        <v>124.6100006103516</v>
       </c>
       <c r="E8">
-        <v>125.0598373413086</v>
+        <v>124.2422561645508</v>
       </c>
       <c r="F8">
-        <v>79295400</v>
+        <v>71311100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>126.0100021362305</v>
+        <v>125.0800018310547</v>
       </c>
       <c r="B9">
-        <v>127.9400024414062</v>
+        <v>125.3499984741211</v>
       </c>
       <c r="C9">
-        <v>125.9400024414062</v>
+        <v>123.9400024414062</v>
       </c>
       <c r="D9">
-        <v>127.0999984741211</v>
+        <v>124.2799987792969</v>
       </c>
       <c r="E9">
-        <v>126.7248992919922</v>
+        <v>123.9132308959961</v>
       </c>
       <c r="F9">
-        <v>63092900</v>
+        <v>67637100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>127.8199996948242</v>
+        <v>124.2799987792969</v>
       </c>
       <c r="B10">
-        <v>128.3200073242188</v>
+        <v>125.2399978637695</v>
       </c>
       <c r="C10">
-        <v>126.3199996948242</v>
+        <v>124.0500030517578</v>
       </c>
       <c r="D10">
-        <v>126.9000015258789</v>
+        <v>125.0599975585938</v>
       </c>
       <c r="E10">
-        <v>126.5254974365234</v>
+        <v>124.6909255981445</v>
       </c>
       <c r="F10">
-        <v>72009500</v>
+        <v>59278900</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>126.9599990844727</v>
+        <v>124.6800003051758</v>
       </c>
       <c r="B11">
-        <v>127.3899993896484</v>
+        <v>124.8499984741211</v>
       </c>
       <c r="C11">
-        <v>126.4199981689453</v>
+        <v>123.129997253418</v>
       </c>
       <c r="D11">
-        <v>126.8499984741211</v>
+        <v>123.5400009155273</v>
       </c>
       <c r="E11">
-        <v>126.4756393432617</v>
+        <v>123.1754150390625</v>
       </c>
       <c r="F11">
-        <v>56575900</v>
+        <v>76229200</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>126.4400024414062</v>
+        <v>124.0699996948242</v>
       </c>
       <c r="B12">
-        <v>127.6399993896484</v>
+        <v>126.1600036621094</v>
       </c>
       <c r="C12">
-        <v>125.0800018310547</v>
+        <v>123.8499984741211</v>
       </c>
       <c r="D12">
-        <v>125.2799987792969</v>
+        <v>125.8899993896484</v>
       </c>
       <c r="E12">
-        <v>124.910270690918</v>
+        <v>125.5184783935547</v>
       </c>
       <c r="F12">
-        <v>94625600</v>
+        <v>75169300</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>125.5699996948242</v>
+        <v>126.1699981689453</v>
       </c>
       <c r="B13">
-        <v>125.8000030517578</v>
+        <v>126.3199996948242</v>
       </c>
       <c r="C13">
-        <v>124.5500030517578</v>
+        <v>124.8300018310547</v>
       </c>
       <c r="D13">
-        <v>124.6100006103516</v>
+        <v>125.9000015258789</v>
       </c>
       <c r="E13">
-        <v>124.2422561645508</v>
+        <v>125.528450012207</v>
       </c>
       <c r="F13">
-        <v>71311100</v>
+        <v>71057600</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>125.0800018310547</v>
+        <v>126.5999984741211</v>
       </c>
       <c r="B14">
-        <v>125.3499984741211</v>
+        <v>128.4600067138672</v>
       </c>
       <c r="C14">
-        <v>123.9400024414062</v>
+        <v>126.2099990844727</v>
       </c>
       <c r="D14">
-        <v>124.2799987792969</v>
+        <v>126.7399978637695</v>
       </c>
       <c r="E14">
-        <v>123.9132232666016</v>
+        <v>126.365966796875</v>
       </c>
       <c r="F14">
-        <v>67637100</v>
+        <v>74403800</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>124.2799987792969</v>
+        <v>127.2099990844727</v>
       </c>
       <c r="B15">
-        <v>125.2399978637695</v>
+        <v>127.75</v>
       </c>
       <c r="C15">
-        <v>124.0500030517578</v>
+        <v>126.5199966430664</v>
       </c>
       <c r="D15">
-        <v>125.0599975585938</v>
+        <v>127.129997253418</v>
       </c>
       <c r="E15">
-        <v>124.69091796875</v>
+        <v>126.7548141479492</v>
       </c>
       <c r="F15">
-        <v>59278900</v>
+        <v>56877900</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>124.6800003051758</v>
+        <v>127.0199966430664</v>
       </c>
       <c r="B16">
-        <v>124.8499984741211</v>
+        <v>128.1900024414062</v>
       </c>
       <c r="C16">
-        <v>123.129997253418</v>
+        <v>125.9400024414062</v>
       </c>
       <c r="D16">
-        <v>123.5400009155273</v>
+        <v>126.1100006103516</v>
       </c>
       <c r="E16">
-        <v>123.1754150390625</v>
+        <v>125.7378311157227</v>
       </c>
       <c r="F16">
-        <v>76229200</v>
+        <v>71186400</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>124.0699996948242</v>
+        <v>126.5299987792969</v>
       </c>
       <c r="B17">
-        <v>126.1600036621094</v>
+        <v>127.4400024414062</v>
       </c>
       <c r="C17">
-        <v>123.8499984741211</v>
+        <v>126.0999984741211</v>
       </c>
       <c r="D17">
-        <v>125.8899993896484</v>
+        <v>127.3499984741211</v>
       </c>
       <c r="E17">
-        <v>125.5184783935547</v>
+        <v>126.9741668701172</v>
       </c>
       <c r="F17">
-        <v>75169300</v>
+        <v>53522400</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>126.1699981689453</v>
+        <v>127.8199996948242</v>
       </c>
       <c r="B18">
-        <v>126.3199996948242</v>
+        <v>130.5399932861328</v>
       </c>
       <c r="C18">
-        <v>124.8300018310547</v>
+        <v>127.0699996948242</v>
       </c>
       <c r="D18">
-        <v>125.9000015258789</v>
+        <v>130.4799957275391</v>
       </c>
       <c r="E18">
-        <v>125.528450012207</v>
+        <v>130.0949249267578</v>
       </c>
       <c r="F18">
-        <v>71057600</v>
+        <v>96906500</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>126.5999984741211</v>
+        <v>129.9400024414062</v>
       </c>
       <c r="B19">
-        <v>128.4600067138672</v>
+        <v>130.6000061035156</v>
       </c>
       <c r="C19">
-        <v>126.2099990844727</v>
+        <v>129.3899993896484</v>
       </c>
       <c r="D19">
-        <v>126.7399978637695</v>
+        <v>129.6399993896484</v>
       </c>
       <c r="E19">
-        <v>126.365966796875</v>
+        <v>129.2574005126953</v>
       </c>
       <c r="F19">
-        <v>74403800</v>
+        <v>62746300</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>127.2099990844727</v>
+        <v>130.3699951171875</v>
       </c>
       <c r="B20">
-        <v>127.75</v>
+        <v>130.8899993896484</v>
       </c>
       <c r="C20">
-        <v>126.5199966430664</v>
+        <v>128.4600067138672</v>
       </c>
       <c r="D20">
-        <v>127.129997253418</v>
+        <v>130.1499938964844</v>
       </c>
       <c r="E20">
-        <v>126.7548217773438</v>
+        <v>129.7658996582031</v>
       </c>
       <c r="F20">
-        <v>56877900</v>
+        <v>91815000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>127.0199966430664</v>
+        <v>129.8000030517578</v>
       </c>
       <c r="B21">
-        <v>128.1900024414062</v>
+        <v>132.5500030517578</v>
       </c>
       <c r="C21">
-        <v>125.9400024414062</v>
+        <v>129.6499938964844</v>
       </c>
       <c r="D21">
-        <v>126.1100006103516</v>
+        <v>131.7899932861328</v>
       </c>
       <c r="E21">
-        <v>125.7378311157227</v>
+        <v>131.4010620117188</v>
       </c>
       <c r="F21">
-        <v>71186400</v>
+        <v>96721700</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>126.5299987792969</v>
+        <v>130.7100067138672</v>
       </c>
       <c r="B22">
-        <v>127.4400024414062</v>
+        <v>131.5099945068359</v>
       </c>
       <c r="C22">
-        <v>126.0999984741211</v>
+        <v>130.2400054931641</v>
       </c>
       <c r="D22">
-        <v>127.3499984741211</v>
+        <v>130.4600067138672</v>
       </c>
       <c r="E22">
-        <v>126.9741668701172</v>
+        <v>130.0749969482422</v>
       </c>
       <c r="F22">
-        <v>53522400</v>
+        <v>108953300</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>127.8199996948242</v>
+        <v>130.3000030517578</v>
       </c>
       <c r="B23">
-        <v>130.5399932861328</v>
+        <v>132.4100036621094</v>
       </c>
       <c r="C23">
-        <v>127.0699996948242</v>
+        <v>129.2100067138672</v>
       </c>
       <c r="D23">
-        <v>130.4799957275391</v>
+        <v>132.3000030517578</v>
       </c>
       <c r="E23">
-        <v>130.0949249267578</v>
+        <v>131.9095611572266</v>
       </c>
       <c r="F23">
-        <v>96906500</v>
+        <v>79663300</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>129.9400024414062</v>
+        <v>132.1300048828125</v>
       </c>
       <c r="B24">
-        <v>130.6000061035156</v>
+        <v>134.0800018310547</v>
       </c>
       <c r="C24">
-        <v>129.3899993896484</v>
+        <v>131.6199951171875</v>
       </c>
       <c r="D24">
-        <v>129.6399993896484</v>
+        <v>133.9799957275391</v>
       </c>
       <c r="E24">
-        <v>129.2574157714844</v>
+        <v>133.5845947265625</v>
       </c>
       <c r="F24">
-        <v>62746300</v>
+        <v>74783600</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>130.3699951171875</v>
+        <v>133.7700042724609</v>
       </c>
       <c r="B25">
-        <v>130.8899993896484</v>
+        <v>134.3200073242188</v>
       </c>
       <c r="C25">
-        <v>128.4600067138672</v>
+        <v>133.2299957275391</v>
       </c>
       <c r="D25">
-        <v>130.1499938964844</v>
+        <v>133.6999969482422</v>
       </c>
       <c r="E25">
-        <v>129.7658996582031</v>
+        <v>133.3054351806641</v>
       </c>
       <c r="F25">
-        <v>91815000</v>
+        <v>60214200</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>129.8000030517578</v>
+        <v>134.4499969482422</v>
       </c>
       <c r="B26">
-        <v>132.5500030517578</v>
+        <v>134.6399993896484</v>
       </c>
       <c r="C26">
-        <v>129.6499938964844</v>
+        <v>132.9299926757812</v>
       </c>
       <c r="D26">
-        <v>131.7899932861328</v>
+        <v>133.4100036621094</v>
       </c>
       <c r="E26">
-        <v>131.4010620117188</v>
+        <v>133.0162811279297</v>
       </c>
       <c r="F26">
-        <v>96721700</v>
+        <v>68711000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>130.7100067138672</v>
+        <v>133.4600067138672</v>
       </c>
       <c r="B27">
-        <v>131.5099945068359</v>
+        <v>133.8899993896484</v>
       </c>
       <c r="C27">
-        <v>130.2400054931641</v>
+        <v>132.8099975585938</v>
       </c>
       <c r="D27">
-        <v>130.4600067138672</v>
+        <v>133.1100006103516</v>
       </c>
       <c r="E27">
-        <v>130.0749969482422</v>
+        <v>132.7171783447266</v>
       </c>
       <c r="F27">
-        <v>108953300</v>
+        <v>70783700</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>130.3000030517578</v>
+        <v>133.4100036621094</v>
       </c>
       <c r="B28">
-        <v>132.4100036621094</v>
+        <v>135.25</v>
       </c>
       <c r="C28">
-        <v>129.2100067138672</v>
+        <v>133.3500061035156</v>
       </c>
       <c r="D28">
-        <v>132.3000030517578</v>
+        <v>134.7799987792969</v>
       </c>
       <c r="E28">
-        <v>131.9095611572266</v>
+        <v>134.3822326660156</v>
       </c>
       <c r="F28">
-        <v>79663300</v>
+        <v>62111300</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>132.1300048828125</v>
+        <v>134.8000030517578</v>
       </c>
       <c r="B29">
-        <v>134.0800018310547</v>
+        <v>136.4900054931641</v>
       </c>
       <c r="C29">
-        <v>131.6199951171875</v>
+        <v>134.3500061035156</v>
       </c>
       <c r="D29">
-        <v>133.9799957275391</v>
+        <v>136.3300018310547</v>
       </c>
       <c r="E29">
-        <v>133.5845947265625</v>
+        <v>135.9276580810547</v>
       </c>
       <c r="F29">
-        <v>74783600</v>
+        <v>64556100</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>133.7700042724609</v>
+        <v>136.1699981689453</v>
       </c>
       <c r="B30">
-        <v>134.3200073242188</v>
+        <v>137.4100036621094</v>
       </c>
       <c r="C30">
-        <v>133.2299957275391</v>
+        <v>135.8699951171875</v>
       </c>
       <c r="D30">
-        <v>133.6999969482422</v>
+        <v>136.9600067138672</v>
       </c>
       <c r="E30">
-        <v>133.3054351806641</v>
+        <v>136.5558166503906</v>
       </c>
       <c r="F30">
-        <v>60214200</v>
+        <v>63261400</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>134.4499969482422</v>
+        <v>136.6000061035156</v>
       </c>
       <c r="B31">
-        <v>134.6399993896484</v>
+        <v>137.3300018310547</v>
       </c>
       <c r="C31">
-        <v>132.9299926757812</v>
+        <v>135.7599945068359</v>
       </c>
       <c r="D31">
-        <v>133.4100036621094</v>
+        <v>137.2700042724609</v>
       </c>
       <c r="E31">
-        <v>133.0162811279297</v>
+        <v>136.8648986816406</v>
       </c>
       <c r="F31">
-        <v>68711000</v>
+        <v>52485800</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>133.4600067138672</v>
+        <v>137.8999938964844</v>
       </c>
       <c r="B32">
-        <v>133.8899993896484</v>
+        <v>140</v>
       </c>
       <c r="C32">
-        <v>132.8099975585938</v>
+        <v>137.75</v>
       </c>
       <c r="D32">
-        <v>133.1100006103516</v>
+        <v>139.9600067138672</v>
       </c>
       <c r="E32">
-        <v>132.7171783447266</v>
+        <v>139.5469665527344</v>
       </c>
       <c r="F32">
-        <v>70783700</v>
+        <v>78852600</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>133.4100036621094</v>
+        <v>140.0700073242188</v>
       </c>
       <c r="B33">
-        <v>135.25</v>
+        <v>143.1499938964844</v>
       </c>
       <c r="C33">
-        <v>133.3500061035156</v>
+        <v>140.0700073242188</v>
       </c>
       <c r="D33">
-        <v>134.7799987792969</v>
+        <v>142.0200042724609</v>
       </c>
       <c r="E33">
-        <v>134.3822479248047</v>
+        <v>141.6008758544922</v>
       </c>
       <c r="F33">
-        <v>62111300</v>
+        <v>108181800</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>134.8000030517578</v>
+        <v>143.5399932861328</v>
       </c>
       <c r="B34">
-        <v>136.4900054931641</v>
+        <v>144.8899993896484</v>
       </c>
       <c r="C34">
-        <v>134.3500061035156</v>
+        <v>142.6600036621094</v>
       </c>
       <c r="D34">
-        <v>136.3300018310547</v>
+        <v>144.5700073242188</v>
       </c>
       <c r="E34">
-        <v>135.9276733398438</v>
+        <v>144.1433563232422</v>
       </c>
       <c r="F34">
-        <v>64556100</v>
+        <v>104911600</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>136.1699981689453</v>
+        <v>141.5800018310547</v>
       </c>
       <c r="B35">
-        <v>137.4100036621094</v>
+        <v>144.0599975585938</v>
       </c>
       <c r="C35">
-        <v>135.8699951171875</v>
+        <v>140.6699981689453</v>
       </c>
       <c r="D35">
-        <v>136.9600067138672</v>
+        <v>143.2400054931641</v>
       </c>
       <c r="E35">
-        <v>136.5558166503906</v>
+        <v>142.8172760009766</v>
       </c>
       <c r="F35">
-        <v>63261400</v>
+        <v>105575500</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>136.6000061035156</v>
+        <v>142.75</v>
       </c>
       <c r="B36">
-        <v>137.3300018310547</v>
+        <v>145.6499938964844</v>
       </c>
       <c r="C36">
-        <v>135.7599945068359</v>
+        <v>142.6499938964844</v>
       </c>
       <c r="D36">
-        <v>137.2700042724609</v>
+        <v>145.1100006103516</v>
       </c>
       <c r="E36">
-        <v>136.8648986816406</v>
+        <v>144.6817626953125</v>
       </c>
       <c r="F36">
-        <v>52485800</v>
+        <v>99890800</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>137.8999938964844</v>
+        <v>146.2100067138672</v>
       </c>
       <c r="B37">
-        <v>140</v>
+        <v>146.3200073242188</v>
       </c>
       <c r="C37">
-        <v>137.75</v>
+        <v>144</v>
       </c>
       <c r="D37">
-        <v>139.9600067138672</v>
+        <v>144.5</v>
       </c>
       <c r="E37">
-        <v>139.5469665527344</v>
+        <v>144.0735473632812</v>
       </c>
       <c r="F37">
-        <v>78852600</v>
+        <v>76299700</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>140.0700073242188</v>
+        <v>144.0299987792969</v>
       </c>
       <c r="B38">
-        <v>143.1499938964844</v>
+        <v>147.4600067138672</v>
       </c>
       <c r="C38">
-        <v>140.0700073242188</v>
+        <v>143.6300048828125</v>
       </c>
       <c r="D38">
-        <v>142.0200042724609</v>
+        <v>145.6399993896484</v>
       </c>
       <c r="E38">
-        <v>141.6008758544922</v>
+        <v>145.2101898193359</v>
       </c>
       <c r="F38">
-        <v>108181800</v>
+        <v>100827100</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>143.5399932861328</v>
+        <v>148.1000061035156</v>
       </c>
       <c r="B39">
-        <v>144.8899993896484</v>
+        <v>149.5700073242188</v>
       </c>
       <c r="C39">
-        <v>142.6600036621094</v>
+        <v>147.6799926757812</v>
       </c>
       <c r="D39">
-        <v>144.5700073242188</v>
+        <v>149.1499938964844</v>
       </c>
       <c r="E39">
-        <v>144.1433563232422</v>
+        <v>148.7098236083984</v>
       </c>
       <c r="F39">
-        <v>104911600</v>
+        <v>127050800</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>141.5800018310547</v>
+        <v>149.2400054931641</v>
       </c>
       <c r="B40">
-        <v>144.0599975585938</v>
+        <v>150</v>
       </c>
       <c r="C40">
-        <v>140.6699981689453</v>
+        <v>147.0899963378906</v>
       </c>
       <c r="D40">
-        <v>143.2400054931641</v>
+        <v>148.4799957275391</v>
       </c>
       <c r="E40">
-        <v>142.8172760009766</v>
+        <v>148.0418090820312</v>
       </c>
       <c r="F40">
-        <v>105575500</v>
+        <v>106820300</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>142.75</v>
+        <v>148.4600067138672</v>
       </c>
       <c r="B41">
-        <v>145.6499938964844</v>
+        <v>149.7599945068359</v>
       </c>
       <c r="C41">
-        <v>142.6499938964844</v>
+        <v>145.8800048828125</v>
       </c>
       <c r="D41">
-        <v>145.1100006103516</v>
+        <v>146.3899993896484</v>
       </c>
       <c r="E41">
-        <v>144.6817626953125</v>
+        <v>145.9579772949219</v>
       </c>
       <c r="F41">
-        <v>99890800</v>
+        <v>93251400</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>146.2100067138672</v>
+        <v>143.75</v>
       </c>
       <c r="B42">
-        <v>146.3200073242188</v>
+        <v>144.0700073242188</v>
       </c>
       <c r="C42">
-        <v>144</v>
+        <v>141.6699981689453</v>
       </c>
       <c r="D42">
-        <v>144.5</v>
+        <v>142.4499969482422</v>
       </c>
       <c r="E42">
-        <v>144.0735626220703</v>
+        <v>142.0296020507812</v>
       </c>
       <c r="F42">
-        <v>76299700</v>
+        <v>121434600</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>144.0299987792969</v>
+        <v>143.4600067138672</v>
       </c>
       <c r="B43">
-        <v>147.4600067138672</v>
+        <v>147.1000061035156</v>
       </c>
       <c r="C43">
-        <v>143.6300048828125</v>
+        <v>142.9600067138672</v>
       </c>
       <c r="D43">
-        <v>145.6399993896484</v>
+        <v>146.1499938964844</v>
       </c>
       <c r="E43">
-        <v>145.2101898193359</v>
+        <v>145.7186889648438</v>
       </c>
       <c r="F43">
-        <v>100827100</v>
+        <v>96350000</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>148.1000061035156</v>
+        <v>145.5299987792969</v>
       </c>
       <c r="B44">
-        <v>149.5700073242188</v>
+        <v>146.1300048828125</v>
       </c>
       <c r="C44">
-        <v>147.6799926757812</v>
+        <v>144.6300048828125</v>
       </c>
       <c r="D44">
-        <v>149.1499938964844</v>
+        <v>145.3999938964844</v>
       </c>
       <c r="E44">
-        <v>148.7098236083984</v>
+        <v>144.9708862304688</v>
       </c>
       <c r="F44">
-        <v>127050800</v>
+        <v>74993500</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>149.2400054931641</v>
+        <v>145.9400024414062</v>
       </c>
       <c r="B45">
-        <v>150</v>
+        <v>148.1999969482422</v>
       </c>
       <c r="C45">
-        <v>147.0899963378906</v>
+        <v>145.8099975585938</v>
       </c>
       <c r="D45">
-        <v>148.4799957275391</v>
+        <v>146.8000030517578</v>
       </c>
       <c r="E45">
-        <v>148.0418090820312</v>
+        <v>146.3667602539062</v>
       </c>
       <c r="F45">
-        <v>106820300</v>
+        <v>77338200</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>148.4600067138672</v>
+        <v>147.5500030517578</v>
       </c>
       <c r="B46">
-        <v>149.7599945068359</v>
+        <v>148.7200012207031</v>
       </c>
       <c r="C46">
-        <v>145.8800048828125</v>
+        <v>146.9199981689453</v>
       </c>
       <c r="D46">
-        <v>146.3899993896484</v>
+        <v>148.5599975585938</v>
       </c>
       <c r="E46">
-        <v>145.9579772949219</v>
+        <v>148.1215667724609</v>
       </c>
       <c r="F46">
-        <v>93251400</v>
+        <v>71447400</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>143.75</v>
+        <v>148.2700042724609</v>
       </c>
       <c r="B47">
-        <v>144.0700073242188</v>
+        <v>149.8300018310547</v>
       </c>
       <c r="C47">
-        <v>141.6699981689453</v>
+        <v>147.6999969482422</v>
       </c>
       <c r="D47">
-        <v>142.4499969482422</v>
+        <v>148.9900054931641</v>
       </c>
       <c r="E47">
-        <v>142.0296020507812</v>
+        <v>148.5503082275391</v>
       </c>
       <c r="F47">
-        <v>121434600</v>
+        <v>72434100</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>143.4600067138672</v>
+        <v>149.1199951171875</v>
       </c>
       <c r="B48">
-        <v>147.1000061035156</v>
+        <v>149.2100067138672</v>
       </c>
       <c r="C48">
-        <v>142.9600067138672</v>
+        <v>145.5500030517578</v>
       </c>
       <c r="D48">
-        <v>146.1499938964844</v>
+        <v>146.7700042724609</v>
       </c>
       <c r="E48">
-        <v>145.7186737060547</v>
+        <v>146.3368530273438</v>
       </c>
       <c r="F48">
-        <v>96350000</v>
+        <v>104818600</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>145.5299987792969</v>
+        <v>144.8099975585938</v>
       </c>
       <c r="B49">
-        <v>146.1300048828125</v>
+        <v>146.9700012207031</v>
       </c>
       <c r="C49">
-        <v>144.6300048828125</v>
+        <v>142.5399932861328</v>
       </c>
       <c r="D49">
-        <v>145.3999938964844</v>
+        <v>144.9799957275391</v>
       </c>
       <c r="E49">
-        <v>144.9709014892578</v>
+        <v>144.5521240234375</v>
       </c>
       <c r="F49">
-        <v>74993500</v>
+        <v>118931200</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>145.9400024414062</v>
+        <v>144.6900024414062</v>
       </c>
       <c r="B50">
-        <v>148.1999969482422</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="C50">
-        <v>145.8099975585938</v>
+        <v>144.5800018310547</v>
       </c>
       <c r="D50">
-        <v>146.8000030517578</v>
+        <v>145.6399993896484</v>
       </c>
       <c r="E50">
-        <v>146.3667602539062</v>
+        <v>145.2101898193359</v>
       </c>
       <c r="F50">
-        <v>77338200</v>
+        <v>56699500</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>147.5500030517578</v>
+        <v>144.3800048828125</v>
       </c>
       <c r="B51">
-        <v>148.7200012207031</v>
+        <v>146.3300018310547</v>
       </c>
       <c r="C51">
-        <v>146.9199981689453</v>
+        <v>144.1100006103516</v>
       </c>
       <c r="D51">
-        <v>148.5599975585938</v>
+        <v>145.8600006103516</v>
       </c>
       <c r="E51">
-        <v>148.12158203125</v>
+        <v>145.4295349121094</v>
       </c>
       <c r="F51">
-        <v>71447400</v>
+        <v>70382000</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>148.2700042724609</v>
+        <v>146.3600006103516</v>
       </c>
       <c r="B52">
-        <v>149.8300018310547</v>
+        <v>146.9499969482422</v>
       </c>
       <c r="C52">
-        <v>147.6999969482422</v>
+        <v>145.25</v>
       </c>
       <c r="D52">
-        <v>148.9900054931641</v>
+        <v>145.5200042724609</v>
       </c>
       <c r="E52">
-        <v>148.5503234863281</v>
+        <v>145.0905609130859</v>
       </c>
       <c r="F52">
-        <v>72434100</v>
+        <v>62880000</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>149.1199951171875</v>
+        <v>145.8099975585938</v>
       </c>
       <c r="B53">
-        <v>149.2100067138672</v>
+        <v>148.0399932861328</v>
       </c>
       <c r="C53">
-        <v>145.5500030517578</v>
+        <v>145.1799926757812</v>
       </c>
       <c r="D53">
-        <v>146.7700042724609</v>
+        <v>147.3600006103516</v>
       </c>
       <c r="E53">
-        <v>146.3368530273438</v>
+        <v>146.9251098632812</v>
       </c>
       <c r="F53">
-        <v>104818600</v>
+        <v>64786600</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>144.8099975585938</v>
+        <v>147.2700042724609</v>
       </c>
       <c r="B54">
-        <v>146.9700012207031</v>
+        <v>147.7899932861328</v>
       </c>
       <c r="C54">
-        <v>142.5399932861328</v>
+        <v>146.2799987792969</v>
       </c>
       <c r="D54">
-        <v>144.9799957275391</v>
+        <v>146.9499969482422</v>
       </c>
       <c r="E54">
-        <v>144.5521392822266</v>
+        <v>146.5163269042969</v>
       </c>
       <c r="F54">
-        <v>118931200</v>
+        <v>56368300</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>144.6900024414062</v>
+        <v>146.9799957275391</v>
       </c>
       <c r="B55">
-        <v>146.5500030517578</v>
+        <v>147.8399963378906</v>
       </c>
       <c r="C55">
-        <v>144.5800018310547</v>
+        <v>146.1699981689453</v>
       </c>
       <c r="D55">
-        <v>145.6399993896484</v>
+        <v>147.0599975585938</v>
       </c>
       <c r="E55">
-        <v>145.2101898193359</v>
+        <v>146.6260070800781</v>
       </c>
       <c r="F55">
-        <v>56699500</v>
+        <v>46397700</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>144.3800048828125</v>
+        <v>146.3500061035156</v>
       </c>
       <c r="B56">
-        <v>146.3300018310547</v>
+        <v>147.1100006103516</v>
       </c>
       <c r="C56">
-        <v>144.1100006103516</v>
+        <v>145.6300048828125</v>
       </c>
       <c r="D56">
-        <v>145.8600006103516</v>
+        <v>146.1399993896484</v>
       </c>
       <c r="E56">
-        <v>145.4295349121094</v>
+        <v>145.9270172119141</v>
       </c>
       <c r="F56">
-        <v>70382000</v>
+        <v>54067400</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>146.3600006103516</v>
+        <v>146.1999969482422</v>
       </c>
       <c r="B57">
-        <v>146.9499969482422</v>
+        <v>146.6999969482422</v>
       </c>
       <c r="C57">
-        <v>145.25</v>
+        <v>145.5200042724609</v>
       </c>
       <c r="D57">
-        <v>145.5200042724609</v>
+        <v>146.0899963378906</v>
       </c>
       <c r="E57">
-        <v>145.0905456542969</v>
+        <v>145.8770904541016</v>
       </c>
       <c r="F57">
-        <v>62880000</v>
+        <v>48908700</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>145.8099975585938</v>
+        <v>146.4400024414062</v>
       </c>
       <c r="B58">
-        <v>148.0399932861328</v>
+        <v>147.7100067138672</v>
       </c>
       <c r="C58">
-        <v>145.1799926757812</v>
+        <v>145.3000030517578</v>
       </c>
       <c r="D58">
-        <v>147.3600006103516</v>
+        <v>145.6000061035156</v>
       </c>
       <c r="E58">
-        <v>146.9251098632812</v>
+        <v>145.3878173828125</v>
       </c>
       <c r="F58">
-        <v>64786600</v>
+        <v>69023100</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>147.2700042724609</v>
+        <v>146.0500030517578</v>
       </c>
       <c r="B59">
-        <v>147.7899932861328</v>
+        <v>146.7200012207031</v>
       </c>
       <c r="C59">
-        <v>146.2799987792969</v>
+        <v>145.5299987792969</v>
       </c>
       <c r="D59">
-        <v>146.9499969482422</v>
+        <v>145.8600006103516</v>
       </c>
       <c r="E59">
-        <v>146.5163269042969</v>
+        <v>145.6474304199219</v>
       </c>
       <c r="F59">
-        <v>56368300</v>
+        <v>48493500</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>146.9799957275391</v>
+        <v>146.1900024414062</v>
       </c>
       <c r="B60">
-        <v>147.8399963378906</v>
+        <v>149.0500030517578</v>
       </c>
       <c r="C60">
-        <v>146.1699981689453</v>
+        <v>145.8399963378906</v>
       </c>
       <c r="D60">
-        <v>147.0599975585938</v>
+        <v>148.8899993896484</v>
       </c>
       <c r="E60">
-        <v>146.6260070800781</v>
+        <v>148.6730194091797</v>
       </c>
       <c r="F60">
-        <v>46397700</v>
+        <v>72282600</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>146.3500061035156</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="B61">
-        <v>147.1100006103516</v>
+        <v>149.4400024414062</v>
       </c>
       <c r="C61">
-        <v>145.6300048828125</v>
+        <v>148.2700042724609</v>
       </c>
       <c r="D61">
-        <v>146.1399993896484</v>
+        <v>149.1000061035156</v>
       </c>
       <c r="E61">
-        <v>145.9270172119141</v>
+        <v>148.8827209472656</v>
       </c>
       <c r="F61">
-        <v>54067400</v>
+        <v>59318800</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>146.1999969482422</v>
+        <v>148.5399932861328</v>
       </c>
       <c r="B62">
-        <v>146.6999969482422</v>
+        <v>151.1900024414062</v>
       </c>
       <c r="C62">
-        <v>145.5200042724609</v>
+        <v>146.4700012207031</v>
       </c>
       <c r="D62">
-        <v>146.0899963378906</v>
+        <v>151.1199951171875</v>
       </c>
       <c r="E62">
-        <v>145.8770904541016</v>
+        <v>150.8997650146484</v>
       </c>
       <c r="F62">
-        <v>48908700</v>
+        <v>103296000</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>146.4400024414062</v>
+        <v>150.2299957275391</v>
       </c>
       <c r="B63">
-        <v>147.7100067138672</v>
+        <v>151.6799926757812</v>
       </c>
       <c r="C63">
-        <v>145.3000030517578</v>
+        <v>149.0899963378906</v>
       </c>
       <c r="D63">
-        <v>145.6000061035156</v>
+        <v>150.1900024414062</v>
       </c>
       <c r="E63">
-        <v>145.3878173828125</v>
+        <v>149.9711303710938</v>
       </c>
       <c r="F63">
-        <v>69023100</v>
+        <v>92229700</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>146.0500030517578</v>
+        <v>149.8000030517578</v>
       </c>
       <c r="B64">
-        <v>146.7200012207031</v>
+        <v>150.7200012207031</v>
       </c>
       <c r="C64">
-        <v>145.5299987792969</v>
+        <v>146.1499938964844</v>
       </c>
       <c r="D64">
-        <v>145.8600006103516</v>
+        <v>146.3600006103516</v>
       </c>
       <c r="E64">
-        <v>145.6474304199219</v>
+        <v>146.1466979980469</v>
       </c>
       <c r="F64">
-        <v>48493500</v>
+        <v>86326000</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>146.1900024414062</v>
+        <v>145.0299987792969</v>
       </c>
       <c r="B65">
-        <v>149.0500030517578</v>
+        <v>148</v>
       </c>
       <c r="C65">
-        <v>145.8399963378906</v>
+        <v>144.5</v>
       </c>
       <c r="D65">
-        <v>148.8899993896484</v>
+        <v>146.6999969482422</v>
       </c>
       <c r="E65">
-        <v>148.6730194091797</v>
+        <v>146.4862060546875</v>
       </c>
       <c r="F65">
-        <v>72282600</v>
+        <v>86960300</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>148.9700012207031</v>
+        <v>147.4400024414062</v>
       </c>
       <c r="B66">
-        <v>149.4400024414062</v>
+        <v>148.5</v>
       </c>
       <c r="C66">
-        <v>148.2700042724609</v>
+        <v>146.7799987792969</v>
       </c>
       <c r="D66">
-        <v>149.1000061035156</v>
+        <v>148.1900024414062</v>
       </c>
       <c r="E66">
-        <v>148.8827209472656</v>
+        <v>147.9740447998047</v>
       </c>
       <c r="F66">
-        <v>59318800</v>
+        <v>59947400</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>148.5399932861328</v>
+        <v>148.3099975585938</v>
       </c>
       <c r="B67">
-        <v>151.1900024414062</v>
+        <v>150.1900024414062</v>
       </c>
       <c r="C67">
-        <v>146.4700012207031</v>
+        <v>147.8899993896484</v>
       </c>
       <c r="D67">
-        <v>151.1199951171875</v>
+        <v>149.7100067138672</v>
       </c>
       <c r="E67">
-        <v>150.8997650146484</v>
+        <v>149.4918365478516</v>
       </c>
       <c r="F67">
-        <v>103296000</v>
+        <v>60131800</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>150.2299957275391</v>
+        <v>149.4499969482422</v>
       </c>
       <c r="B68">
-        <v>151.6799926757812</v>
+        <v>150.8600006103516</v>
       </c>
       <c r="C68">
-        <v>149.0899963378906</v>
+        <v>149.1499938964844</v>
       </c>
       <c r="D68">
-        <v>150.1900024414062</v>
+        <v>149.6199951171875</v>
       </c>
       <c r="E68">
-        <v>149.9711303710938</v>
+        <v>149.4019470214844</v>
       </c>
       <c r="F68">
-        <v>92229700</v>
+        <v>48606400</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>149.8000030517578</v>
+        <v>149.8099975585938</v>
       </c>
       <c r="B69">
-        <v>150.7200012207031</v>
+        <v>150.3200073242188</v>
       </c>
       <c r="C69">
-        <v>146.1499938964844</v>
+        <v>147.8000030517578</v>
       </c>
       <c r="D69">
-        <v>146.3600006103516</v>
+        <v>148.3600006103516</v>
       </c>
       <c r="E69">
-        <v>146.1466979980469</v>
+        <v>148.1437835693359</v>
       </c>
       <c r="F69">
-        <v>86326000</v>
+        <v>58991300</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>145.0299987792969</v>
+        <v>148.3500061035156</v>
       </c>
       <c r="B70">
-        <v>148</v>
+        <v>149.1199951171875</v>
       </c>
       <c r="C70">
-        <v>144.5</v>
+        <v>147.5099945068359</v>
       </c>
       <c r="D70">
-        <v>146.6999969482422</v>
+        <v>147.5399932861328</v>
       </c>
       <c r="E70">
-        <v>146.4862060546875</v>
+        <v>147.3249816894531</v>
       </c>
       <c r="F70">
-        <v>86960300</v>
+        <v>48597200</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>147.4400024414062</v>
+        <v>147.4799957275391</v>
       </c>
       <c r="B71">
-        <v>148.5</v>
+        <v>148.75</v>
       </c>
       <c r="C71">
-        <v>146.7799987792969</v>
+        <v>146.8300018310547</v>
       </c>
       <c r="D71">
-        <v>148.1900024414062</v>
+        <v>148.6000061035156</v>
       </c>
       <c r="E71">
-        <v>147.9740447998047</v>
+        <v>148.3834533691406</v>
       </c>
       <c r="F71">
-        <v>59947400</v>
+        <v>55721500</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>148.3099975585938</v>
+        <v>149</v>
       </c>
       <c r="B72">
-        <v>150.1900024414062</v>
+        <v>153.4900054931641</v>
       </c>
       <c r="C72">
-        <v>147.8899993896484</v>
+        <v>148.6100006103516</v>
       </c>
       <c r="D72">
-        <v>149.7100067138672</v>
+        <v>153.1199951171875</v>
       </c>
       <c r="E72">
-        <v>149.4918365478516</v>
+        <v>152.8968505859375</v>
       </c>
       <c r="F72">
-        <v>60131800</v>
+        <v>90956700</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>149.4499969482422</v>
+        <v>152.6600036621094</v>
       </c>
       <c r="B73">
-        <v>150.8600006103516</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="C73">
-        <v>149.1499938964844</v>
+        <v>151.2899932861328</v>
       </c>
       <c r="D73">
-        <v>149.6199951171875</v>
+        <v>151.8300018310547</v>
       </c>
       <c r="E73">
-        <v>149.4019470214844</v>
+        <v>151.6087341308594</v>
       </c>
       <c r="F73">
-        <v>48606400</v>
+        <v>86453100</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>149.8099975585938</v>
+        <v>152.8300018310547</v>
       </c>
       <c r="B74">
-        <v>150.3200073242188</v>
+        <v>154.9799957275391</v>
       </c>
       <c r="C74">
-        <v>147.8000030517578</v>
+        <v>152.3399963378906</v>
       </c>
       <c r="D74">
-        <v>148.3600006103516</v>
+        <v>152.5099945068359</v>
       </c>
       <c r="E74">
-        <v>148.1437835693359</v>
+        <v>152.2877349853516</v>
       </c>
       <c r="F74">
-        <v>58991300</v>
+        <v>80313700</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>148.3500061035156</v>
+        <v>153.8699951171875</v>
       </c>
       <c r="B75">
-        <v>149.1199951171875</v>
+        <v>154.7200012207031</v>
       </c>
       <c r="C75">
-        <v>147.5099945068359</v>
+        <v>152.3999938964844</v>
       </c>
       <c r="D75">
-        <v>147.5399932861328</v>
+        <v>153.6499938964844</v>
       </c>
       <c r="E75">
-        <v>147.3249816894531</v>
+        <v>153.4260711669922</v>
       </c>
       <c r="F75">
-        <v>48597200</v>
+        <v>71115500</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>147.4799957275391</v>
+        <v>153.7599945068359</v>
       </c>
       <c r="B76">
-        <v>148.75</v>
+        <v>154.6300048828125</v>
       </c>
       <c r="C76">
-        <v>146.8300018310547</v>
+        <v>153.0899963378906</v>
       </c>
       <c r="D76">
-        <v>148.6000061035156</v>
+        <v>154.3000030517578</v>
       </c>
       <c r="E76">
-        <v>148.3834533691406</v>
+        <v>154.0751342773438</v>
       </c>
       <c r="F76">
-        <v>55721500</v>
+        <v>57808700</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>149</v>
+        <v>154.9700012207031</v>
       </c>
       <c r="B77">
-        <v>153.4900054931641</v>
+        <v>157.2599945068359</v>
       </c>
       <c r="C77">
-        <v>148.6100006103516</v>
+        <v>154.3899993896484</v>
       </c>
       <c r="D77">
-        <v>153.1199951171875</v>
+        <v>156.6900024414062</v>
       </c>
       <c r="E77">
-        <v>152.8968505859375</v>
+        <v>156.4616546630859</v>
       </c>
       <c r="F77">
-        <v>90956700</v>
+        <v>82278300</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>152.6600036621094</v>
+        <v>156.9799957275391</v>
       </c>
       <c r="B78">
-        <v>152.8000030517578</v>
+        <v>157.0399932861328</v>
       </c>
       <c r="C78">
-        <v>151.2899932861328</v>
+        <v>153.9799957275391</v>
       </c>
       <c r="D78">
-        <v>151.8300018310547</v>
+        <v>155.1100006103516</v>
       </c>
       <c r="E78">
-        <v>151.6087341308594</v>
+        <v>154.8839569091797</v>
       </c>
       <c r="F78">
-        <v>86453100</v>
+        <v>74420200</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>152.8300018310547</v>
+        <v>155.4900054931641</v>
       </c>
       <c r="B79">
-        <v>154.9799957275391</v>
+        <v>156.1100006103516</v>
       </c>
       <c r="C79">
-        <v>152.3399963378906</v>
+        <v>153.9499969482422</v>
       </c>
       <c r="D79">
-        <v>152.5099945068359</v>
+        <v>154.0700073242188</v>
       </c>
       <c r="E79">
-        <v>152.2877349853516</v>
+        <v>153.8454742431641</v>
       </c>
       <c r="F79">
-        <v>80313700</v>
+        <v>57305700</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>153.8699951171875</v>
+        <v>155</v>
       </c>
       <c r="B80">
-        <v>154.7200012207031</v>
+        <v>155.4799957275391</v>
       </c>
       <c r="C80">
-        <v>152.3999938964844</v>
+        <v>148.6999969482422</v>
       </c>
       <c r="D80">
-        <v>153.6499938964844</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="E80">
-        <v>153.4260711669922</v>
+        <v>148.7528991699219</v>
       </c>
       <c r="F80">
-        <v>71115500</v>
+        <v>140646400</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>153.7599945068359</v>
+        <v>150.6300048828125</v>
       </c>
       <c r="B81">
-        <v>154.6300048828125</v>
+        <v>151.4199981689453</v>
       </c>
       <c r="C81">
-        <v>153.0899963378906</v>
+        <v>148.75</v>
       </c>
       <c r="D81">
-        <v>154.3000030517578</v>
+        <v>149.5500030517578</v>
       </c>
       <c r="E81">
-        <v>154.0751342773438</v>
+        <v>149.3320617675781</v>
       </c>
       <c r="F81">
-        <v>57808700</v>
+        <v>102404300</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>154.9700012207031</v>
+        <v>150.3500061035156</v>
       </c>
       <c r="B82">
-        <v>157.2599945068359</v>
+        <v>151.0700073242188</v>
       </c>
       <c r="C82">
-        <v>154.3899993896484</v>
+        <v>146.9100036621094</v>
       </c>
       <c r="D82">
-        <v>156.6900024414062</v>
+        <v>148.1199951171875</v>
       </c>
       <c r="E82">
-        <v>156.4616546630859</v>
+        <v>147.9041290283203</v>
       </c>
       <c r="F82">
-        <v>82278300</v>
+        <v>109296300</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>156.9799957275391</v>
+        <v>148.5599975585938</v>
       </c>
       <c r="B83">
-        <v>157.0399932861328</v>
+        <v>149.4400024414062</v>
       </c>
       <c r="C83">
-        <v>153.9799957275391</v>
+        <v>146.3699951171875</v>
       </c>
       <c r="D83">
-        <v>155.1100006103516</v>
+        <v>149.0299987792969</v>
       </c>
       <c r="E83">
-        <v>154.8839569091797</v>
+        <v>148.8128051757812</v>
       </c>
       <c r="F83">
-        <v>74420200</v>
+        <v>83281300</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>155.4900054931641</v>
+        <v>148.4400024414062</v>
       </c>
       <c r="B84">
-        <v>156.1100006103516</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="C84">
-        <v>153.9499969482422</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="D84">
-        <v>154.0700073242188</v>
+        <v>148.7899932861328</v>
       </c>
       <c r="E84">
-        <v>153.8454742431641</v>
+        <v>148.5731506347656</v>
       </c>
       <c r="F84">
-        <v>57305700</v>
+        <v>68034100</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>155</v>
+        <v>148.8200073242188</v>
       </c>
       <c r="B85">
-        <v>155.4799957275391</v>
+        <v>148.8200073242188</v>
       </c>
       <c r="C85">
-        <v>148.6999969482422</v>
+        <v>145.7599945068359</v>
       </c>
       <c r="D85">
-        <v>148.9700012207031</v>
+        <v>146.0599975585938</v>
       </c>
       <c r="E85">
-        <v>148.7528991699219</v>
+        <v>145.8471374511719</v>
       </c>
       <c r="F85">
-        <v>140646400</v>
+        <v>129868800</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>150.6300048828125</v>
+        <v>143.8000030517578</v>
       </c>
       <c r="B86">
-        <v>151.4199981689453</v>
+        <v>144.8399963378906</v>
       </c>
       <c r="C86">
-        <v>148.75</v>
+        <v>141.2700042724609</v>
       </c>
       <c r="D86">
-        <v>149.5500030517578</v>
+        <v>142.9400024414062</v>
       </c>
       <c r="E86">
-        <v>149.3320617675781</v>
+        <v>142.731689453125</v>
       </c>
       <c r="F86">
-        <v>102404300</v>
+        <v>123478900</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>150.3500061035156</v>
+        <v>143.9299926757812</v>
       </c>
       <c r="B87">
-        <v>151.0700073242188</v>
+        <v>144.6000061035156</v>
       </c>
       <c r="C87">
-        <v>146.9100036621094</v>
+        <v>142.7799987792969</v>
       </c>
       <c r="D87">
-        <v>148.1199951171875</v>
+        <v>143.4299926757812</v>
       </c>
       <c r="E87">
-        <v>147.9041290283203</v>
+        <v>143.2209625244141</v>
       </c>
       <c r="F87">
-        <v>109296300</v>
+        <v>75834000</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>148.5599975585938</v>
+        <v>144.4499969482422</v>
       </c>
       <c r="B88">
-        <v>149.4400024414062</v>
+        <v>146.4299926757812</v>
       </c>
       <c r="C88">
-        <v>146.3699951171875</v>
+        <v>143.6999969482422</v>
       </c>
       <c r="D88">
-        <v>149.0299987792969</v>
+        <v>145.8500061035156</v>
       </c>
       <c r="E88">
-        <v>148.8128051757812</v>
+        <v>145.637451171875</v>
       </c>
       <c r="F88">
-        <v>83281300</v>
+        <v>76404300</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>148.4400024414062</v>
+        <v>146.6499938964844</v>
       </c>
       <c r="B89">
-        <v>148.9700012207031</v>
+        <v>147.0800018310547</v>
       </c>
       <c r="C89">
-        <v>147.2200012207031</v>
+        <v>145.6399993896484</v>
       </c>
       <c r="D89">
-        <v>148.7899932861328</v>
+        <v>146.8300018310547</v>
       </c>
       <c r="E89">
-        <v>148.5731506347656</v>
+        <v>146.6160278320312</v>
       </c>
       <c r="F89">
-        <v>68034100</v>
+        <v>64838200</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>148.8200073242188</v>
+        <v>145.6600036621094</v>
       </c>
       <c r="B90">
-        <v>148.8200073242188</v>
+        <v>147.4700012207031</v>
       </c>
       <c r="C90">
-        <v>145.7599945068359</v>
+        <v>145.5599975585938</v>
       </c>
       <c r="D90">
-        <v>146.0599975585938</v>
+        <v>146.9199981689453</v>
       </c>
       <c r="E90">
-        <v>145.8471374511719</v>
+        <v>146.7058868408203</v>
       </c>
       <c r="F90">
-        <v>129868800</v>
+        <v>53477900</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>143.8000030517578</v>
+        <v>145.4700012207031</v>
       </c>
       <c r="B91">
-        <v>144.8399963378906</v>
+        <v>145.9600067138672</v>
       </c>
       <c r="C91">
-        <v>141.2700042724609</v>
+        <v>143.8200073242188</v>
       </c>
       <c r="D91">
-        <v>142.9400024414062</v>
+        <v>145.3699951171875</v>
       </c>
       <c r="E91">
-        <v>142.731689453125</v>
+        <v>145.1581420898438</v>
       </c>
       <c r="F91">
-        <v>123478900</v>
+        <v>74150700</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>143.9299926757812</v>
+        <v>143.25</v>
       </c>
       <c r="B92">
-        <v>144.6000061035156</v>
+        <v>144.75</v>
       </c>
       <c r="C92">
-        <v>142.7799987792969</v>
+        <v>141.6900024414062</v>
       </c>
       <c r="D92">
-        <v>143.4299926757812</v>
+        <v>141.9100036621094</v>
       </c>
       <c r="E92">
-        <v>143.2209625244141</v>
+        <v>141.7031860351562</v>
       </c>
       <c r="F92">
-        <v>75834000</v>
+        <v>108972300</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
+        <v>142.4700012207031</v>
+      </c>
+      <c r="B93">
         <v>144.4499969482422</v>
       </c>
-      <c r="B93">
-        <v>146.4299926757812</v>
-      </c>
       <c r="C93">
-        <v>143.6999969482422</v>
+        <v>142.0299987792969</v>
       </c>
       <c r="D93">
-        <v>145.8500061035156</v>
+        <v>142.8300018310547</v>
       </c>
       <c r="E93">
-        <v>145.637451171875</v>
+        <v>142.6218566894531</v>
       </c>
       <c r="F93">
-        <v>76404300</v>
+        <v>74602000</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>146.6499938964844</v>
+        <v>143.6600036621094</v>
       </c>
       <c r="B94">
-        <v>147.0800018310547</v>
+        <v>144.3800048828125</v>
       </c>
       <c r="C94">
-        <v>145.6399993896484</v>
+        <v>141.2799987792969</v>
       </c>
       <c r="D94">
-        <v>146.8300018310547</v>
+        <v>141.5</v>
       </c>
       <c r="E94">
-        <v>146.6160278320312</v>
+        <v>141.2937927246094</v>
       </c>
       <c r="F94">
-        <v>64838200</v>
+        <v>88934200</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>145.6600036621094</v>
+        <v>141.8999938964844</v>
       </c>
       <c r="B95">
-        <v>147.4700012207031</v>
+        <v>142.9199981689453</v>
       </c>
       <c r="C95">
-        <v>145.5599975585938</v>
+        <v>139.1100006103516</v>
       </c>
       <c r="D95">
-        <v>146.9199981689453</v>
+        <v>142.6499938964844</v>
       </c>
       <c r="E95">
-        <v>146.7058868408203</v>
+        <v>142.4421081542969</v>
       </c>
       <c r="F95">
-        <v>53477900</v>
+        <v>94639600</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>145.4700012207031</v>
+        <v>141.7599945068359</v>
       </c>
       <c r="B96">
-        <v>145.9600067138672</v>
+        <v>142.2100067138672</v>
       </c>
       <c r="C96">
-        <v>143.8200073242188</v>
+        <v>138.2700042724609</v>
       </c>
       <c r="D96">
-        <v>145.3699951171875</v>
+        <v>139.1399993896484</v>
       </c>
       <c r="E96">
-        <v>145.1581420898438</v>
+        <v>138.9372253417969</v>
       </c>
       <c r="F96">
-        <v>74150700</v>
+        <v>98322000</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>143.25</v>
+        <v>139.4900054931641</v>
       </c>
       <c r="B97">
-        <v>144.75</v>
+        <v>142.2400054931641</v>
       </c>
       <c r="C97">
-        <v>141.6900024414062</v>
+        <v>139.3600006103516</v>
       </c>
       <c r="D97">
-        <v>141.9100036621094</v>
+        <v>141.1100006103516</v>
       </c>
       <c r="E97">
-        <v>141.7031860351562</v>
+        <v>140.9043579101562</v>
       </c>
       <c r="F97">
-        <v>108972300</v>
+        <v>80861100</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>142.4700012207031</v>
+        <v>139.4700012207031</v>
       </c>
       <c r="B98">
-        <v>144.4499969482422</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="C98">
-        <v>142.0299987792969</v>
+        <v>138.3699951171875</v>
       </c>
       <c r="D98">
-        <v>142.8300018310547</v>
+        <v>142</v>
       </c>
       <c r="E98">
-        <v>142.6218566894531</v>
+        <v>141.7930603027344</v>
       </c>
       <c r="F98">
-        <v>74602000</v>
+        <v>83221100</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>143.6600036621094</v>
+        <v>143.0599975585938</v>
       </c>
       <c r="B99">
-        <v>144.3800048828125</v>
+        <v>144.2200012207031</v>
       </c>
       <c r="C99">
-        <v>141.2799987792969</v>
+        <v>142.7200012207031</v>
       </c>
       <c r="D99">
-        <v>141.5</v>
+        <v>143.2899932861328</v>
       </c>
       <c r="E99">
-        <v>141.2937927246094</v>
+        <v>143.0811767578125</v>
       </c>
       <c r="F99">
-        <v>88934200</v>
+        <v>61732700</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>141.8999938964844</v>
+        <v>144.0299987792969</v>
       </c>
       <c r="B100">
-        <v>142.9199981689453</v>
+        <v>144.1799926757812</v>
       </c>
       <c r="C100">
-        <v>139.1100006103516</v>
+        <v>142.5599975585938</v>
       </c>
       <c r="D100">
-        <v>142.6499938964844</v>
+        <v>142.8999938964844</v>
       </c>
       <c r="E100">
-        <v>142.4421081542969</v>
+        <v>142.6917419433594</v>
       </c>
       <c r="F100">
-        <v>94639600</v>
+        <v>58718700</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>141.7599945068359</v>
+        <v>142.2700042724609</v>
       </c>
       <c r="B101">
-        <v>142.2100067138672</v>
+        <v>144.8099975585938</v>
       </c>
       <c r="C101">
-        <v>138.2700042724609</v>
+        <v>141.8099975585938</v>
       </c>
       <c r="D101">
-        <v>139.1399993896484</v>
+        <v>142.8099975585938</v>
       </c>
       <c r="E101">
-        <v>138.9372253417969</v>
+        <v>142.6018829345703</v>
       </c>
       <c r="F101">
-        <v>98322000</v>
+        <v>64452200</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>139.4900054931641</v>
+        <v>143.2299957275391</v>
       </c>
       <c r="B102">
-        <v>142.2400054931641</v>
+        <v>143.25</v>
       </c>
       <c r="C102">
-        <v>139.3600006103516</v>
+        <v>141.0399932861328</v>
       </c>
       <c r="D102">
-        <v>141.1100006103516</v>
+        <v>141.5099945068359</v>
       </c>
       <c r="E102">
-        <v>140.9043579101562</v>
+        <v>141.3037719726562</v>
       </c>
       <c r="F102">
-        <v>80861100</v>
+        <v>73035900</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>139.4700012207031</v>
+        <v>141.2400054931641</v>
       </c>
       <c r="B103">
-        <v>142.1499938964844</v>
+        <v>141.3999938964844</v>
       </c>
       <c r="C103">
-        <v>138.3699951171875</v>
+        <v>139.1999969482422</v>
       </c>
       <c r="D103">
-        <v>142</v>
+        <v>140.9100036621094</v>
       </c>
       <c r="E103">
-        <v>141.7930603027344</v>
+        <v>140.7046508789062</v>
       </c>
       <c r="F103">
-        <v>83221100</v>
+        <v>78762700</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>143.0599975585938</v>
+        <v>142.1100006103516</v>
       </c>
       <c r="B104">
-        <v>144.2200012207031</v>
+        <v>143.8800048828125</v>
       </c>
       <c r="C104">
-        <v>142.7200012207031</v>
+        <v>141.5099945068359</v>
       </c>
       <c r="D104">
-        <v>143.2899932861328</v>
+        <v>143.7599945068359</v>
       </c>
       <c r="E104">
-        <v>143.0811767578125</v>
+        <v>143.5504913330078</v>
       </c>
       <c r="F104">
-        <v>61732700</v>
+        <v>69907100</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>144.0299987792969</v>
+        <v>143.7700042724609</v>
       </c>
       <c r="B105">
-        <v>144.1799926757812</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="C105">
-        <v>142.5599975585938</v>
+        <v>143.5099945068359</v>
       </c>
       <c r="D105">
-        <v>142.8999938964844</v>
+        <v>144.8399963378906</v>
       </c>
       <c r="E105">
-        <v>142.6917419433594</v>
+        <v>144.6289215087891</v>
       </c>
       <c r="F105">
-        <v>58718700</v>
+        <v>67885200</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>142.2700042724609</v>
+        <v>143.4499969482422</v>
       </c>
       <c r="B106">
-        <v>144.8099975585938</v>
+        <v>146.8399963378906</v>
       </c>
       <c r="C106">
-        <v>141.8099975585938</v>
+        <v>143.1600036621094</v>
       </c>
       <c r="D106">
-        <v>142.8099975585938</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="E106">
-        <v>142.6018829345703</v>
+        <v>146.33642578125</v>
       </c>
       <c r="F106">
-        <v>64452200</v>
+        <v>85589200</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>143.2299957275391</v>
+        <v>147.0099945068359</v>
       </c>
       <c r="B107">
-        <v>143.25</v>
+        <v>149.1699981689453</v>
       </c>
       <c r="C107">
-        <v>141.0399932861328</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="D107">
-        <v>141.5099945068359</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="E107">
-        <v>141.3037719726562</v>
+        <v>148.5431976318359</v>
       </c>
       <c r="F107">
-        <v>73035900</v>
+        <v>76378900</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>141.2400054931641</v>
+        <v>148.6999969482422</v>
       </c>
       <c r="B108">
-        <v>141.3999938964844</v>
+        <v>149.75</v>
       </c>
       <c r="C108">
-        <v>139.1999969482422</v>
+        <v>148.1199951171875</v>
       </c>
       <c r="D108">
-        <v>140.9100036621094</v>
+        <v>149.2599945068359</v>
       </c>
       <c r="E108">
-        <v>140.7046508789062</v>
+        <v>149.04248046875</v>
       </c>
       <c r="F108">
-        <v>78762700</v>
+        <v>58418800</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>142.1100006103516</v>
+        <v>148.8099975585938</v>
       </c>
       <c r="B109">
-        <v>143.8800048828125</v>
+        <v>149.6399993896484</v>
       </c>
       <c r="C109">
-        <v>141.5099945068359</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="D109">
-        <v>143.7599945068359</v>
+        <v>149.4799957275391</v>
       </c>
       <c r="E109">
-        <v>143.5504913330078</v>
+        <v>149.2621459960938</v>
       </c>
       <c r="F109">
-        <v>69907100</v>
+        <v>61421000</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>143.7700042724609</v>
+        <v>149.6900024414062</v>
       </c>
       <c r="B110">
-        <v>144.8999938964844</v>
+        <v>150.1799926757812</v>
       </c>
       <c r="C110">
-        <v>143.5099945068359</v>
+        <v>148.6399993896484</v>
       </c>
       <c r="D110">
-        <v>144.8399963378906</v>
+        <v>148.6900024414062</v>
       </c>
       <c r="E110">
-        <v>144.6289215087891</v>
+        <v>148.4733123779297</v>
       </c>
       <c r="F110">
-        <v>67885200</v>
+        <v>58883400</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>143.4499969482422</v>
+        <v>148.6799926757812</v>
       </c>
       <c r="B111">
-        <v>146.8399963378906</v>
+        <v>149.3699951171875</v>
       </c>
       <c r="C111">
-        <v>143.1600036621094</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="D111">
-        <v>146.5500030517578</v>
+        <v>148.6399993896484</v>
       </c>
       <c r="E111">
-        <v>146.33642578125</v>
+        <v>148.4233856201172</v>
       </c>
       <c r="F111">
-        <v>85589200</v>
+        <v>50720600</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>147.0099945068359</v>
+        <v>149.3300018310547</v>
       </c>
       <c r="B112">
-        <v>149.1699981689453</v>
+        <v>150.8399963378906</v>
       </c>
       <c r="C112">
-        <v>146.5500030517578</v>
+        <v>149.0099945068359</v>
       </c>
       <c r="D112">
-        <v>148.7599945068359</v>
+        <v>149.3200073242188</v>
       </c>
       <c r="E112">
-        <v>148.5431976318359</v>
+        <v>149.1024017333984</v>
       </c>
       <c r="F112">
-        <v>76378900</v>
+        <v>60893400</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>148.6999969482422</v>
+        <v>149.3600006103516</v>
       </c>
       <c r="B113">
-        <v>149.75</v>
+        <v>149.7299957275391</v>
       </c>
       <c r="C113">
-        <v>148.1199951171875</v>
+        <v>148.4900054931641</v>
       </c>
       <c r="D113">
-        <v>149.2599945068359</v>
+        <v>148.8500061035156</v>
       </c>
       <c r="E113">
-        <v>149.04248046875</v>
+        <v>148.6330871582031</v>
       </c>
       <c r="F113">
-        <v>58418800</v>
+        <v>56094900</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>148.8099975585938</v>
+        <v>149.8200073242188</v>
       </c>
       <c r="B114">
-        <v>149.6399993896484</v>
+        <v>153.1699981689453</v>
       </c>
       <c r="C114">
-        <v>147.8699951171875</v>
+        <v>149.7200012207031</v>
       </c>
       <c r="D114">
-        <v>149.4799957275391</v>
+        <v>152.5700073242188</v>
       </c>
       <c r="E114">
-        <v>149.2621459960938</v>
+        <v>152.34765625</v>
       </c>
       <c r="F114">
-        <v>61421000</v>
+        <v>100077900</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>149.6900024414062</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="B115">
-        <v>150.1799926757812</v>
+        <v>149.9400024414062</v>
       </c>
       <c r="C115">
-        <v>148.6399993896484</v>
+        <v>146.4100036621094</v>
       </c>
       <c r="D115">
-        <v>148.6900024414062</v>
+        <v>149.8000030517578</v>
       </c>
       <c r="E115">
-        <v>148.4733123779297</v>
+        <v>149.5816955566406</v>
       </c>
       <c r="F115">
-        <v>58883400</v>
+        <v>124850400</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>148.6799926757812</v>
+        <v>148.9900054931641</v>
       </c>
       <c r="B116">
-        <v>149.3699951171875</v>
+        <v>149.6999969482422</v>
       </c>
       <c r="C116">
-        <v>147.6199951171875</v>
+        <v>147.8000030517578</v>
       </c>
       <c r="D116">
-        <v>148.6399993896484</v>
+        <v>148.9600067138672</v>
       </c>
       <c r="E116">
-        <v>148.4233856201172</v>
+        <v>148.742919921875</v>
       </c>
       <c r="F116">
-        <v>50720600</v>
+        <v>74588300</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>149.3300018310547</v>
+        <v>148.6600036621094</v>
       </c>
       <c r="B117">
-        <v>150.8399963378906</v>
+        <v>151.5700073242188</v>
       </c>
       <c r="C117">
-        <v>149.0099945068359</v>
+        <v>148.6499938964844</v>
       </c>
       <c r="D117">
-        <v>149.3200073242188</v>
+        <v>150.0200042724609</v>
       </c>
       <c r="E117">
-        <v>149.1024017333984</v>
+        <v>149.8013763427734</v>
       </c>
       <c r="F117">
-        <v>60893400</v>
+        <v>69122000</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>149.3600006103516</v>
+        <v>150.3899993896484</v>
       </c>
       <c r="B118">
-        <v>149.7299957275391</v>
+        <v>151.9700012207031</v>
       </c>
       <c r="C118">
-        <v>148.4900054931641</v>
+        <v>149.8200073242188</v>
       </c>
       <c r="D118">
-        <v>148.8500061035156</v>
+        <v>151.4900054931641</v>
       </c>
       <c r="E118">
-        <v>148.6330871582031</v>
+        <v>151.2692413330078</v>
       </c>
       <c r="F118">
-        <v>56094900</v>
+        <v>54511500</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>149.8200073242188</v>
+        <v>151.5800018310547</v>
       </c>
       <c r="B119">
-        <v>153.1699981689453</v>
+        <v>152.4299926757812</v>
       </c>
       <c r="C119">
-        <v>149.7200012207031</v>
+        <v>150.6399993896484</v>
       </c>
       <c r="D119">
-        <v>152.5700073242188</v>
+        <v>150.9600067138672</v>
       </c>
       <c r="E119">
-        <v>152.34765625</v>
+        <v>150.7400054931641</v>
       </c>
       <c r="F119">
-        <v>100077900</v>
+        <v>60394600</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>147.2200012207031</v>
+        <v>151.8899993896484</v>
       </c>
       <c r="B120">
-        <v>149.9400024414062</v>
+        <v>152.1999969482422</v>
       </c>
       <c r="C120">
-        <v>146.4100036621094</v>
+        <v>150.0599975585938</v>
       </c>
       <c r="D120">
-        <v>149.8000030517578</v>
+        <v>151.2799987792969</v>
       </c>
       <c r="E120">
-        <v>149.5816955566406</v>
+        <v>151.2799987792969</v>
       </c>
       <c r="F120">
-        <v>124850400</v>
+        <v>65414600</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>148.9900054931641</v>
+        <v>151.4100036621094</v>
       </c>
       <c r="B121">
-        <v>149.6999969482422</v>
+        <v>151.5700073242188</v>
       </c>
       <c r="C121">
-        <v>147.8000030517578</v>
+        <v>150.1600036621094</v>
       </c>
       <c r="D121">
-        <v>148.9600067138672</v>
+        <v>150.4400024414062</v>
       </c>
       <c r="E121">
-        <v>148.742919921875</v>
+        <v>150.4400024414062</v>
       </c>
       <c r="F121">
-        <v>74588300</v>
+        <v>55020900</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>148.6600036621094</v>
+        <v>150.1999969482422</v>
       </c>
       <c r="B122">
-        <v>151.5700073242188</v>
+        <v>151.4299926757812</v>
       </c>
       <c r="C122">
-        <v>148.6499938964844</v>
+        <v>150.0599975585938</v>
       </c>
       <c r="D122">
-        <v>150.0200042724609</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="E122">
-        <v>149.8013763427734</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="F122">
-        <v>69122000</v>
+        <v>56787900</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>150.3899993896484</v>
+        <v>150.0200042724609</v>
       </c>
       <c r="B123">
-        <v>151.9700012207031</v>
+        <v>150.1300048828125</v>
       </c>
       <c r="C123">
-        <v>149.8200073242188</v>
+        <v>147.8500061035156</v>
       </c>
       <c r="D123">
-        <v>151.4900054931641</v>
+        <v>147.9199981689453</v>
       </c>
       <c r="E123">
-        <v>151.2692413330078</v>
+        <v>147.9199981689453</v>
       </c>
       <c r="F123">
-        <v>54511500</v>
+        <v>65187100</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>151.5800018310547</v>
+        <v>148.9600067138672</v>
       </c>
       <c r="B124">
-        <v>152.4299926757812</v>
+        <v>149.4299926757812</v>
       </c>
       <c r="C124">
-        <v>150.6399993896484</v>
+        <v>147.6799926757812</v>
       </c>
       <c r="D124">
-        <v>150.9600067138672</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="E124">
-        <v>150.7400054931641</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="F124">
-        <v>60394600</v>
+        <v>41000000</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>151.8899993896484</v>
+        <v>148.4299926757812</v>
       </c>
       <c r="B125">
-        <v>152.1999969482422</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="C125">
-        <v>150.0599975585938</v>
+        <v>147.4799957275391</v>
       </c>
       <c r="D125">
-        <v>151.2799987792969</v>
+        <v>149.9900054931641</v>
       </c>
       <c r="E125">
-        <v>151.2799987792969</v>
+        <v>149.9900054931641</v>
       </c>
       <c r="F125">
-        <v>65414600</v>
+        <v>63632600</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>151.4100036621094</v>
+        <v>150.3699951171875</v>
       </c>
       <c r="B126">
-        <v>151.5700073242188</v>
+        <v>151.8800048828125</v>
       </c>
       <c r="C126">
-        <v>150.1600036621094</v>
+        <v>149.4299926757812</v>
       </c>
       <c r="D126">
-        <v>150.4400024414062</v>
+        <v>150</v>
       </c>
       <c r="E126">
-        <v>150.4400024414062</v>
+        <v>150</v>
       </c>
       <c r="F126">
-        <v>55020900</v>
+        <v>59222800</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>150.1999969482422</v>
+        <v>149.9400024414062</v>
       </c>
       <c r="B127">
-        <v>151.4299926757812</v>
+        <v>151.4900054931641</v>
       </c>
       <c r="C127">
-        <v>150.0599975585938</v>
+        <v>149.3399963378906</v>
       </c>
       <c r="D127">
-        <v>150.8099975585938</v>
+        <v>151</v>
       </c>
       <c r="E127">
-        <v>150.8099975585938</v>
+        <v>151</v>
       </c>
       <c r="F127">
-        <v>56787900</v>
+        <v>59256200</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>150.0200042724609</v>
+        <v>151</v>
       </c>
       <c r="B128">
-        <v>150.1300048828125</v>
+        <v>155</v>
       </c>
       <c r="C128">
-        <v>147.8500061035156</v>
+        <v>150.9900054931641</v>
       </c>
       <c r="D128">
-        <v>147.9199981689453</v>
+        <v>153.4900054931641</v>
       </c>
       <c r="E128">
-        <v>147.9199981689453</v>
+        <v>153.4900054931641</v>
       </c>
       <c r="F128">
-        <v>65187100</v>
+        <v>88807000</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>148.9600067138672</v>
+        <v>153.7100067138672</v>
       </c>
       <c r="B129">
-        <v>149.4299926757812</v>
+        <v>158.6699981689453</v>
       </c>
       <c r="C129">
-        <v>147.6799926757812</v>
+        <v>153.0500030517578</v>
       </c>
       <c r="D129">
-        <v>147.8699951171875</v>
+        <v>157.8699951171875</v>
       </c>
       <c r="E129">
-        <v>147.8699951171875</v>
+        <v>157.8699951171875</v>
       </c>
       <c r="F129">
-        <v>41000000</v>
+        <v>137827700</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>148.4299926757812</v>
+        <v>157.6499938964844</v>
       </c>
       <c r="B130">
-        <v>150.3999938964844</v>
+        <v>161.0200042724609</v>
       </c>
       <c r="C130">
-        <v>147.4799957275391</v>
+        <v>156.5299987792969</v>
       </c>
       <c r="D130">
-        <v>149.9900054931641</v>
+        <v>160.5500030517578</v>
       </c>
       <c r="E130">
-        <v>149.9900054931641</v>
+        <v>160.5500030517578</v>
       </c>
       <c r="F130">
-        <v>63632600</v>
+        <v>117147500</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/AAPL/HighLow.xlsx
+++ b/Stocks/AAPL/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2582 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>125.2300033569336</v>
+        <v>146.9799957275391</v>
       </c>
       <c r="B2">
-        <v>127.7200012207031</v>
+        <v>147.8399963378906</v>
       </c>
       <c r="C2">
-        <v>125.0999984741211</v>
+        <v>146.1699981689453</v>
       </c>
       <c r="D2">
-        <v>127.3099975585938</v>
+        <v>147.0599975585938</v>
       </c>
       <c r="E2">
-        <v>126.9342880249023</v>
+        <v>146.6260070800781</v>
       </c>
       <c r="F2">
-        <v>76857100</v>
+        <v>46397700</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>127.8199996948242</v>
+        <v>146.3500061035156</v>
       </c>
       <c r="B3">
-        <v>128</v>
+        <v>147.1100006103516</v>
       </c>
       <c r="C3">
-        <v>125.2099990844727</v>
+        <v>145.6300048828125</v>
       </c>
       <c r="D3">
-        <v>125.4300003051758</v>
+        <v>146.1399993896484</v>
       </c>
       <c r="E3">
-        <v>125.0598373413086</v>
+        <v>145.9270172119141</v>
       </c>
       <c r="F3">
-        <v>79295400</v>
+        <v>54067400</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>126.0100021362305</v>
+        <v>146.1999969482422</v>
       </c>
       <c r="B4">
-        <v>127.9400024414062</v>
+        <v>146.6999969482422</v>
       </c>
       <c r="C4">
-        <v>125.9400024414062</v>
+        <v>145.5200042724609</v>
       </c>
       <c r="D4">
-        <v>127.0999984741211</v>
+        <v>146.0899963378906</v>
       </c>
       <c r="E4">
-        <v>126.7249069213867</v>
+        <v>145.8770904541016</v>
       </c>
       <c r="F4">
-        <v>63092900</v>
+        <v>48908700</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>127.8199996948242</v>
+        <v>146.4400024414062</v>
       </c>
       <c r="B5">
-        <v>128.3200073242188</v>
+        <v>147.7100067138672</v>
       </c>
       <c r="C5">
-        <v>126.3199996948242</v>
+        <v>145.3000030517578</v>
       </c>
       <c r="D5">
-        <v>126.9000015258789</v>
+        <v>145.6000061035156</v>
       </c>
       <c r="E5">
-        <v>126.5254974365234</v>
+        <v>145.3878173828125</v>
       </c>
       <c r="F5">
-        <v>72009500</v>
+        <v>69023100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>126.9599990844727</v>
+        <v>146.0500030517578</v>
       </c>
       <c r="B6">
-        <v>127.3899993896484</v>
+        <v>146.7200012207031</v>
       </c>
       <c r="C6">
-        <v>126.4199981689453</v>
+        <v>145.5299987792969</v>
       </c>
       <c r="D6">
-        <v>126.8499984741211</v>
+        <v>145.8600006103516</v>
       </c>
       <c r="E6">
-        <v>126.4756469726562</v>
+        <v>145.6474304199219</v>
       </c>
       <c r="F6">
-        <v>56575900</v>
+        <v>48493500</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>126.4400024414062</v>
+        <v>146.1900024414062</v>
       </c>
       <c r="B7">
-        <v>127.6399993896484</v>
+        <v>149.0500030517578</v>
       </c>
       <c r="C7">
-        <v>125.0800018310547</v>
+        <v>145.8399963378906</v>
       </c>
       <c r="D7">
-        <v>125.2799987792969</v>
+        <v>148.8899993896484</v>
       </c>
       <c r="E7">
-        <v>124.9102783203125</v>
+        <v>148.6730194091797</v>
       </c>
       <c r="F7">
-        <v>94625600</v>
+        <v>72282600</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>125.5699996948242</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="B8">
-        <v>125.8000030517578</v>
+        <v>149.4400024414062</v>
       </c>
       <c r="C8">
-        <v>124.5500030517578</v>
+        <v>148.2700042724609</v>
       </c>
       <c r="D8">
-        <v>124.6100006103516</v>
+        <v>149.1000061035156</v>
       </c>
       <c r="E8">
-        <v>124.2422561645508</v>
+        <v>148.8827209472656</v>
       </c>
       <c r="F8">
-        <v>71311100</v>
+        <v>59318800</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>125.0800018310547</v>
+        <v>148.5399932861328</v>
       </c>
       <c r="B9">
-        <v>125.3499984741211</v>
+        <v>151.1900024414062</v>
       </c>
       <c r="C9">
-        <v>123.9400024414062</v>
+        <v>146.4700012207031</v>
       </c>
       <c r="D9">
-        <v>124.2799987792969</v>
+        <v>151.1199951171875</v>
       </c>
       <c r="E9">
-        <v>123.9132308959961</v>
+        <v>150.8997650146484</v>
       </c>
       <c r="F9">
-        <v>67637100</v>
+        <v>103296000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>124.2799987792969</v>
+        <v>150.2299957275391</v>
       </c>
       <c r="B10">
-        <v>125.2399978637695</v>
+        <v>151.6799926757812</v>
       </c>
       <c r="C10">
-        <v>124.0500030517578</v>
+        <v>149.0899963378906</v>
       </c>
       <c r="D10">
-        <v>125.0599975585938</v>
+        <v>150.1900024414062</v>
       </c>
       <c r="E10">
-        <v>124.6909255981445</v>
+        <v>149.9711303710938</v>
       </c>
       <c r="F10">
-        <v>59278900</v>
+        <v>92229700</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>124.6800003051758</v>
+        <v>149.8000030517578</v>
       </c>
       <c r="B11">
-        <v>124.8499984741211</v>
+        <v>150.7200012207031</v>
       </c>
       <c r="C11">
-        <v>123.129997253418</v>
+        <v>146.1499938964844</v>
       </c>
       <c r="D11">
-        <v>123.5400009155273</v>
+        <v>146.3600006103516</v>
       </c>
       <c r="E11">
-        <v>123.1754150390625</v>
+        <v>146.1466979980469</v>
       </c>
       <c r="F11">
-        <v>76229200</v>
+        <v>86326000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>124.0699996948242</v>
+        <v>145.0299987792969</v>
       </c>
       <c r="B12">
-        <v>126.1600036621094</v>
+        <v>148</v>
       </c>
       <c r="C12">
-        <v>123.8499984741211</v>
+        <v>144.5</v>
       </c>
       <c r="D12">
-        <v>125.8899993896484</v>
+        <v>146.6999969482422</v>
       </c>
       <c r="E12">
-        <v>125.5184783935547</v>
+        <v>146.4862060546875</v>
       </c>
       <c r="F12">
-        <v>75169300</v>
+        <v>86960300</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>126.1699981689453</v>
+        <v>147.4400024414062</v>
       </c>
       <c r="B13">
-        <v>126.3199996948242</v>
+        <v>148.5</v>
       </c>
       <c r="C13">
-        <v>124.8300018310547</v>
+        <v>146.7799987792969</v>
       </c>
       <c r="D13">
-        <v>125.9000015258789</v>
+        <v>148.1900024414062</v>
       </c>
       <c r="E13">
-        <v>125.528450012207</v>
+        <v>147.9740447998047</v>
       </c>
       <c r="F13">
-        <v>71057600</v>
+        <v>59947400</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>126.5999984741211</v>
+        <v>148.3099975585938</v>
       </c>
       <c r="B14">
-        <v>128.4600067138672</v>
+        <v>150.1900024414062</v>
       </c>
       <c r="C14">
-        <v>126.2099990844727</v>
+        <v>147.8899993896484</v>
       </c>
       <c r="D14">
-        <v>126.7399978637695</v>
+        <v>149.7100067138672</v>
       </c>
       <c r="E14">
-        <v>126.365966796875</v>
+        <v>149.4918365478516</v>
       </c>
       <c r="F14">
-        <v>74403800</v>
+        <v>60131800</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>127.2099990844727</v>
+        <v>149.4499969482422</v>
       </c>
       <c r="B15">
-        <v>127.75</v>
+        <v>150.8600006103516</v>
       </c>
       <c r="C15">
-        <v>126.5199966430664</v>
+        <v>149.1499938964844</v>
       </c>
       <c r="D15">
-        <v>127.129997253418</v>
+        <v>149.6199951171875</v>
       </c>
       <c r="E15">
-        <v>126.7548141479492</v>
+        <v>149.4019470214844</v>
       </c>
       <c r="F15">
-        <v>56877900</v>
+        <v>48606400</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>127.0199966430664</v>
+        <v>149.8099975585938</v>
       </c>
       <c r="B16">
-        <v>128.1900024414062</v>
+        <v>150.3200073242188</v>
       </c>
       <c r="C16">
-        <v>125.9400024414062</v>
+        <v>147.8000030517578</v>
       </c>
       <c r="D16">
-        <v>126.1100006103516</v>
+        <v>148.3600006103516</v>
       </c>
       <c r="E16">
-        <v>125.7378311157227</v>
+        <v>148.1437835693359</v>
       </c>
       <c r="F16">
-        <v>71186400</v>
+        <v>58991300</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>126.5299987792969</v>
+        <v>148.3500061035156</v>
       </c>
       <c r="B17">
-        <v>127.4400024414062</v>
+        <v>149.1199951171875</v>
       </c>
       <c r="C17">
-        <v>126.0999984741211</v>
+        <v>147.5099945068359</v>
       </c>
       <c r="D17">
-        <v>127.3499984741211</v>
+        <v>147.5399932861328</v>
       </c>
       <c r="E17">
-        <v>126.9741668701172</v>
+        <v>147.3249816894531</v>
       </c>
       <c r="F17">
-        <v>53522400</v>
+        <v>48597200</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>127.8199996948242</v>
+        <v>147.4799957275391</v>
       </c>
       <c r="B18">
-        <v>130.5399932861328</v>
+        <v>148.75</v>
       </c>
       <c r="C18">
-        <v>127.0699996948242</v>
+        <v>146.8300018310547</v>
       </c>
       <c r="D18">
-        <v>130.4799957275391</v>
+        <v>148.6000061035156</v>
       </c>
       <c r="E18">
-        <v>130.0949249267578</v>
+        <v>148.3834533691406</v>
       </c>
       <c r="F18">
-        <v>96906500</v>
+        <v>55721500</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>129.9400024414062</v>
+        <v>149</v>
       </c>
       <c r="B19">
-        <v>130.6000061035156</v>
+        <v>153.4900054931641</v>
       </c>
       <c r="C19">
-        <v>129.3899993896484</v>
+        <v>148.6100006103516</v>
       </c>
       <c r="D19">
-        <v>129.6399993896484</v>
+        <v>153.1199951171875</v>
       </c>
       <c r="E19">
-        <v>129.2574005126953</v>
+        <v>152.8968505859375</v>
       </c>
       <c r="F19">
-        <v>62746300</v>
+        <v>90956700</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>130.3699951171875</v>
+        <v>152.6600036621094</v>
       </c>
       <c r="B20">
-        <v>130.8899993896484</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="C20">
-        <v>128.4600067138672</v>
+        <v>151.2899932861328</v>
       </c>
       <c r="D20">
-        <v>130.1499938964844</v>
+        <v>151.8300018310547</v>
       </c>
       <c r="E20">
-        <v>129.7658996582031</v>
+        <v>151.6087341308594</v>
       </c>
       <c r="F20">
-        <v>91815000</v>
+        <v>86453100</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>129.8000030517578</v>
+        <v>152.8300018310547</v>
       </c>
       <c r="B21">
-        <v>132.5500030517578</v>
+        <v>154.9799957275391</v>
       </c>
       <c r="C21">
-        <v>129.6499938964844</v>
+        <v>152.3399963378906</v>
       </c>
       <c r="D21">
-        <v>131.7899932861328</v>
+        <v>152.5099945068359</v>
       </c>
       <c r="E21">
-        <v>131.4010620117188</v>
+        <v>152.2877349853516</v>
       </c>
       <c r="F21">
-        <v>96721700</v>
+        <v>80313700</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>130.7100067138672</v>
+        <v>153.8699951171875</v>
       </c>
       <c r="B22">
-        <v>131.5099945068359</v>
+        <v>154.7200012207031</v>
       </c>
       <c r="C22">
-        <v>130.2400054931641</v>
+        <v>152.3999938964844</v>
       </c>
       <c r="D22">
-        <v>130.4600067138672</v>
+        <v>153.6499938964844</v>
       </c>
       <c r="E22">
-        <v>130.0749969482422</v>
+        <v>153.4260711669922</v>
       </c>
       <c r="F22">
-        <v>108953300</v>
+        <v>71115500</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>130.3000030517578</v>
+        <v>153.7599945068359</v>
       </c>
       <c r="B23">
-        <v>132.4100036621094</v>
+        <v>154.6300048828125</v>
       </c>
       <c r="C23">
-        <v>129.2100067138672</v>
+        <v>153.0899963378906</v>
       </c>
       <c r="D23">
-        <v>132.3000030517578</v>
+        <v>154.3000030517578</v>
       </c>
       <c r="E23">
-        <v>131.9095611572266</v>
+        <v>154.0751342773438</v>
       </c>
       <c r="F23">
-        <v>79663300</v>
+        <v>57808700</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>132.1300048828125</v>
+        <v>154.9700012207031</v>
       </c>
       <c r="B24">
-        <v>134.0800018310547</v>
+        <v>157.2599945068359</v>
       </c>
       <c r="C24">
-        <v>131.6199951171875</v>
+        <v>154.3899993896484</v>
       </c>
       <c r="D24">
-        <v>133.9799957275391</v>
+        <v>156.6900024414062</v>
       </c>
       <c r="E24">
-        <v>133.5845947265625</v>
+        <v>156.4616546630859</v>
       </c>
       <c r="F24">
-        <v>74783600</v>
+        <v>82278300</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>133.7700042724609</v>
+        <v>156.9799957275391</v>
       </c>
       <c r="B25">
-        <v>134.3200073242188</v>
+        <v>157.0399932861328</v>
       </c>
       <c r="C25">
-        <v>133.2299957275391</v>
+        <v>153.9799957275391</v>
       </c>
       <c r="D25">
-        <v>133.6999969482422</v>
+        <v>155.1100006103516</v>
       </c>
       <c r="E25">
-        <v>133.3054351806641</v>
+        <v>154.8839569091797</v>
       </c>
       <c r="F25">
-        <v>60214200</v>
+        <v>74420200</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>134.4499969482422</v>
+        <v>155.4900054931641</v>
       </c>
       <c r="B26">
-        <v>134.6399993896484</v>
+        <v>156.1100006103516</v>
       </c>
       <c r="C26">
-        <v>132.9299926757812</v>
+        <v>153.9499969482422</v>
       </c>
       <c r="D26">
-        <v>133.4100036621094</v>
+        <v>154.0700073242188</v>
       </c>
       <c r="E26">
-        <v>133.0162811279297</v>
+        <v>153.8454742431641</v>
       </c>
       <c r="F26">
-        <v>68711000</v>
+        <v>57305700</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>133.4600067138672</v>
+        <v>155</v>
       </c>
       <c r="B27">
-        <v>133.8899993896484</v>
+        <v>155.4799957275391</v>
       </c>
       <c r="C27">
-        <v>132.8099975585938</v>
+        <v>148.6999969482422</v>
       </c>
       <c r="D27">
-        <v>133.1100006103516</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="E27">
-        <v>132.7171783447266</v>
+        <v>148.7528991699219</v>
       </c>
       <c r="F27">
-        <v>70783700</v>
+        <v>140646400</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>133.4100036621094</v>
+        <v>150.6300048828125</v>
       </c>
       <c r="B28">
-        <v>135.25</v>
+        <v>151.4199981689453</v>
       </c>
       <c r="C28">
-        <v>133.3500061035156</v>
+        <v>148.75</v>
       </c>
       <c r="D28">
-        <v>134.7799987792969</v>
+        <v>149.5500030517578</v>
       </c>
       <c r="E28">
-        <v>134.3822326660156</v>
+        <v>149.3320617675781</v>
       </c>
       <c r="F28">
-        <v>62111300</v>
+        <v>102404300</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>134.8000030517578</v>
+        <v>150.3500061035156</v>
       </c>
       <c r="B29">
-        <v>136.4900054931641</v>
+        <v>151.0700073242188</v>
       </c>
       <c r="C29">
-        <v>134.3500061035156</v>
+        <v>146.9100036621094</v>
       </c>
       <c r="D29">
-        <v>136.3300018310547</v>
+        <v>148.1199951171875</v>
       </c>
       <c r="E29">
-        <v>135.9276580810547</v>
+        <v>147.9041290283203</v>
       </c>
       <c r="F29">
-        <v>64556100</v>
+        <v>109296300</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>136.1699981689453</v>
+        <v>148.5599975585938</v>
       </c>
       <c r="B30">
-        <v>137.4100036621094</v>
+        <v>149.4400024414062</v>
       </c>
       <c r="C30">
-        <v>135.8699951171875</v>
+        <v>146.3699951171875</v>
       </c>
       <c r="D30">
-        <v>136.9600067138672</v>
+        <v>149.0299987792969</v>
       </c>
       <c r="E30">
-        <v>136.5558166503906</v>
+        <v>148.8128051757812</v>
       </c>
       <c r="F30">
-        <v>63261400</v>
+        <v>83281300</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>136.6000061035156</v>
+        <v>148.4400024414062</v>
       </c>
       <c r="B31">
-        <v>137.3300018310547</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="C31">
-        <v>135.7599945068359</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="D31">
-        <v>137.2700042724609</v>
+        <v>148.7899932861328</v>
       </c>
       <c r="E31">
-        <v>136.8648986816406</v>
+        <v>148.5731506347656</v>
       </c>
       <c r="F31">
-        <v>52485800</v>
+        <v>68034100</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>137.8999938964844</v>
+        <v>148.8200073242188</v>
       </c>
       <c r="B32">
-        <v>140</v>
+        <v>148.8200073242188</v>
       </c>
       <c r="C32">
-        <v>137.75</v>
+        <v>145.7599945068359</v>
       </c>
       <c r="D32">
-        <v>139.9600067138672</v>
+        <v>146.0599975585938</v>
       </c>
       <c r="E32">
-        <v>139.5469665527344</v>
+        <v>145.8471374511719</v>
       </c>
       <c r="F32">
-        <v>78852600</v>
+        <v>129868800</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>140.0700073242188</v>
+        <v>143.8000030517578</v>
       </c>
       <c r="B33">
-        <v>143.1499938964844</v>
+        <v>144.8399963378906</v>
       </c>
       <c r="C33">
-        <v>140.0700073242188</v>
+        <v>141.2700042724609</v>
       </c>
       <c r="D33">
-        <v>142.0200042724609</v>
+        <v>142.9400024414062</v>
       </c>
       <c r="E33">
-        <v>141.6008758544922</v>
+        <v>142.731689453125</v>
       </c>
       <c r="F33">
-        <v>108181800</v>
+        <v>123478900</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>143.5399932861328</v>
+        <v>143.9299926757812</v>
       </c>
       <c r="B34">
-        <v>144.8899993896484</v>
+        <v>144.6000061035156</v>
       </c>
       <c r="C34">
-        <v>142.6600036621094</v>
+        <v>142.7799987792969</v>
       </c>
       <c r="D34">
-        <v>144.5700073242188</v>
+        <v>143.4299926757812</v>
       </c>
       <c r="E34">
-        <v>144.1433563232422</v>
+        <v>143.2209625244141</v>
       </c>
       <c r="F34">
-        <v>104911600</v>
+        <v>75834000</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>141.5800018310547</v>
+        <v>144.4499969482422</v>
       </c>
       <c r="B35">
-        <v>144.0599975585938</v>
+        <v>146.4299926757812</v>
       </c>
       <c r="C35">
-        <v>140.6699981689453</v>
+        <v>143.6999969482422</v>
       </c>
       <c r="D35">
-        <v>143.2400054931641</v>
+        <v>145.8500061035156</v>
       </c>
       <c r="E35">
-        <v>142.8172760009766</v>
+        <v>145.637451171875</v>
       </c>
       <c r="F35">
-        <v>105575500</v>
+        <v>76404300</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>142.75</v>
+        <v>146.6499938964844</v>
       </c>
       <c r="B36">
-        <v>145.6499938964844</v>
+        <v>147.0800018310547</v>
       </c>
       <c r="C36">
-        <v>142.6499938964844</v>
+        <v>145.6399993896484</v>
       </c>
       <c r="D36">
-        <v>145.1100006103516</v>
+        <v>146.8300018310547</v>
       </c>
       <c r="E36">
-        <v>144.6817626953125</v>
+        <v>146.6160278320312</v>
       </c>
       <c r="F36">
-        <v>99890800</v>
+        <v>64838200</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>146.2100067138672</v>
+        <v>145.6600036621094</v>
       </c>
       <c r="B37">
-        <v>146.3200073242188</v>
+        <v>147.4700012207031</v>
       </c>
       <c r="C37">
-        <v>144</v>
+        <v>145.5599975585938</v>
       </c>
       <c r="D37">
-        <v>144.5</v>
+        <v>146.9199981689453</v>
       </c>
       <c r="E37">
-        <v>144.0735473632812</v>
+        <v>146.7058868408203</v>
       </c>
       <c r="F37">
-        <v>76299700</v>
+        <v>53477900</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>144.0299987792969</v>
+        <v>145.4700012207031</v>
       </c>
       <c r="B38">
-        <v>147.4600067138672</v>
+        <v>145.9600067138672</v>
       </c>
       <c r="C38">
-        <v>143.6300048828125</v>
+        <v>143.8200073242188</v>
       </c>
       <c r="D38">
-        <v>145.6399993896484</v>
+        <v>145.3699951171875</v>
       </c>
       <c r="E38">
-        <v>145.2101898193359</v>
+        <v>145.1581420898438</v>
       </c>
       <c r="F38">
-        <v>100827100</v>
+        <v>74150700</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>148.1000061035156</v>
+        <v>143.25</v>
       </c>
       <c r="B39">
-        <v>149.5700073242188</v>
+        <v>144.75</v>
       </c>
       <c r="C39">
-        <v>147.6799926757812</v>
+        <v>141.6900024414062</v>
       </c>
       <c r="D39">
-        <v>149.1499938964844</v>
+        <v>141.9100036621094</v>
       </c>
       <c r="E39">
-        <v>148.7098236083984</v>
+        <v>141.7031860351562</v>
       </c>
       <c r="F39">
-        <v>127050800</v>
+        <v>108972300</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>149.2400054931641</v>
+        <v>142.4700012207031</v>
       </c>
       <c r="B40">
-        <v>150</v>
+        <v>144.4499969482422</v>
       </c>
       <c r="C40">
-        <v>147.0899963378906</v>
+        <v>142.0299987792969</v>
       </c>
       <c r="D40">
-        <v>148.4799957275391</v>
+        <v>142.8300018310547</v>
       </c>
       <c r="E40">
-        <v>148.0418090820312</v>
+        <v>142.6218566894531</v>
       </c>
       <c r="F40">
-        <v>106820300</v>
+        <v>74602000</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>148.4600067138672</v>
+        <v>143.6600036621094</v>
       </c>
       <c r="B41">
-        <v>149.7599945068359</v>
+        <v>144.3800048828125</v>
       </c>
       <c r="C41">
-        <v>145.8800048828125</v>
+        <v>141.2799987792969</v>
       </c>
       <c r="D41">
-        <v>146.3899993896484</v>
+        <v>141.5</v>
       </c>
       <c r="E41">
-        <v>145.9579772949219</v>
+        <v>141.2937927246094</v>
       </c>
       <c r="F41">
-        <v>93251400</v>
+        <v>88934200</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>143.75</v>
+        <v>141.8999938964844</v>
       </c>
       <c r="B42">
-        <v>144.0700073242188</v>
+        <v>142.9199981689453</v>
       </c>
       <c r="C42">
-        <v>141.6699981689453</v>
+        <v>139.1100006103516</v>
       </c>
       <c r="D42">
-        <v>142.4499969482422</v>
+        <v>142.6499938964844</v>
       </c>
       <c r="E42">
-        <v>142.0296020507812</v>
+        <v>142.4421081542969</v>
       </c>
       <c r="F42">
-        <v>121434600</v>
+        <v>94639600</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>143.4600067138672</v>
+        <v>141.7599945068359</v>
       </c>
       <c r="B43">
-        <v>147.1000061035156</v>
+        <v>142.2100067138672</v>
       </c>
       <c r="C43">
-        <v>142.9600067138672</v>
+        <v>138.2700042724609</v>
       </c>
       <c r="D43">
-        <v>146.1499938964844</v>
+        <v>139.1399993896484</v>
       </c>
       <c r="E43">
-        <v>145.7186889648438</v>
+        <v>138.9372253417969</v>
       </c>
       <c r="F43">
-        <v>96350000</v>
+        <v>98322000</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>145.5299987792969</v>
+        <v>139.4900054931641</v>
       </c>
       <c r="B44">
-        <v>146.1300048828125</v>
+        <v>142.2400054931641</v>
       </c>
       <c r="C44">
-        <v>144.6300048828125</v>
+        <v>139.3600006103516</v>
       </c>
       <c r="D44">
-        <v>145.3999938964844</v>
+        <v>141.1100006103516</v>
       </c>
       <c r="E44">
-        <v>144.9708862304688</v>
+        <v>140.9043579101562</v>
       </c>
       <c r="F44">
-        <v>74993500</v>
+        <v>80861100</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>145.9400024414062</v>
+        <v>139.4700012207031</v>
       </c>
       <c r="B45">
-        <v>148.1999969482422</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="C45">
-        <v>145.8099975585938</v>
+        <v>138.3699951171875</v>
       </c>
       <c r="D45">
-        <v>146.8000030517578</v>
+        <v>142</v>
       </c>
       <c r="E45">
-        <v>146.3667602539062</v>
+        <v>141.7930603027344</v>
       </c>
       <c r="F45">
-        <v>77338200</v>
+        <v>83221100</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>147.5500030517578</v>
+        <v>143.0599975585938</v>
       </c>
       <c r="B46">
-        <v>148.7200012207031</v>
+        <v>144.2200012207031</v>
       </c>
       <c r="C46">
-        <v>146.9199981689453</v>
+        <v>142.7200012207031</v>
       </c>
       <c r="D46">
-        <v>148.5599975585938</v>
+        <v>143.2899932861328</v>
       </c>
       <c r="E46">
-        <v>148.1215667724609</v>
+        <v>143.0811767578125</v>
       </c>
       <c r="F46">
-        <v>71447400</v>
+        <v>61732700</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>148.2700042724609</v>
+        <v>144.0299987792969</v>
       </c>
       <c r="B47">
-        <v>149.8300018310547</v>
+        <v>144.1799926757812</v>
       </c>
       <c r="C47">
-        <v>147.6999969482422</v>
+        <v>142.5599975585938</v>
       </c>
       <c r="D47">
-        <v>148.9900054931641</v>
+        <v>142.8999938964844</v>
       </c>
       <c r="E47">
-        <v>148.5503082275391</v>
+        <v>142.6917419433594</v>
       </c>
       <c r="F47">
-        <v>72434100</v>
+        <v>58718700</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>149.1199951171875</v>
+        <v>142.2700042724609</v>
       </c>
       <c r="B48">
-        <v>149.2100067138672</v>
+        <v>144.8099975585938</v>
       </c>
       <c r="C48">
-        <v>145.5500030517578</v>
+        <v>141.8099975585938</v>
       </c>
       <c r="D48">
-        <v>146.7700042724609</v>
+        <v>142.8099975585938</v>
       </c>
       <c r="E48">
-        <v>146.3368530273438</v>
+        <v>142.6018829345703</v>
       </c>
       <c r="F48">
-        <v>104818600</v>
+        <v>64452200</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>144.8099975585938</v>
+        <v>143.2299957275391</v>
       </c>
       <c r="B49">
-        <v>146.9700012207031</v>
+        <v>143.25</v>
       </c>
       <c r="C49">
-        <v>142.5399932861328</v>
+        <v>141.0399932861328</v>
       </c>
       <c r="D49">
-        <v>144.9799957275391</v>
+        <v>141.5099945068359</v>
       </c>
       <c r="E49">
-        <v>144.5521240234375</v>
+        <v>141.3037719726562</v>
       </c>
       <c r="F49">
-        <v>118931200</v>
+        <v>73035900</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>144.6900024414062</v>
+        <v>141.2400054931641</v>
       </c>
       <c r="B50">
-        <v>146.5500030517578</v>
+        <v>141.3999938964844</v>
       </c>
       <c r="C50">
-        <v>144.5800018310547</v>
+        <v>139.1999969482422</v>
       </c>
       <c r="D50">
-        <v>145.6399993896484</v>
+        <v>140.9100036621094</v>
       </c>
       <c r="E50">
-        <v>145.2101898193359</v>
+        <v>140.7046508789062</v>
       </c>
       <c r="F50">
-        <v>56699500</v>
+        <v>78762700</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>144.3800048828125</v>
+        <v>142.1100006103516</v>
       </c>
       <c r="B51">
-        <v>146.3300018310547</v>
+        <v>143.8800048828125</v>
       </c>
       <c r="C51">
-        <v>144.1100006103516</v>
+        <v>141.5099945068359</v>
       </c>
       <c r="D51">
-        <v>145.8600006103516</v>
+        <v>143.7599945068359</v>
       </c>
       <c r="E51">
-        <v>145.4295349121094</v>
+        <v>143.5504913330078</v>
       </c>
       <c r="F51">
-        <v>70382000</v>
+        <v>69907100</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>146.3600006103516</v>
+        <v>143.7700042724609</v>
       </c>
       <c r="B52">
-        <v>146.9499969482422</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="C52">
-        <v>145.25</v>
+        <v>143.5099945068359</v>
       </c>
       <c r="D52">
-        <v>145.5200042724609</v>
+        <v>144.8399963378906</v>
       </c>
       <c r="E52">
-        <v>145.0905609130859</v>
+        <v>144.6289215087891</v>
       </c>
       <c r="F52">
-        <v>62880000</v>
+        <v>67885200</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>145.8099975585938</v>
+        <v>143.4499969482422</v>
       </c>
       <c r="B53">
-        <v>148.0399932861328</v>
+        <v>146.8399963378906</v>
       </c>
       <c r="C53">
-        <v>145.1799926757812</v>
+        <v>143.1600036621094</v>
       </c>
       <c r="D53">
-        <v>147.3600006103516</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="E53">
-        <v>146.9251098632812</v>
+        <v>146.33642578125</v>
       </c>
       <c r="F53">
-        <v>64786600</v>
+        <v>85589200</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>147.2700042724609</v>
+        <v>147.0099945068359</v>
       </c>
       <c r="B54">
-        <v>147.7899932861328</v>
+        <v>149.1699981689453</v>
       </c>
       <c r="C54">
-        <v>146.2799987792969</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="D54">
-        <v>146.9499969482422</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="E54">
-        <v>146.5163269042969</v>
+        <v>148.5431976318359</v>
       </c>
       <c r="F54">
-        <v>56368300</v>
+        <v>76378900</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>146.9799957275391</v>
+        <v>148.6999969482422</v>
       </c>
       <c r="B55">
-        <v>147.8399963378906</v>
+        <v>149.75</v>
       </c>
       <c r="C55">
-        <v>146.1699981689453</v>
+        <v>148.1199951171875</v>
       </c>
       <c r="D55">
-        <v>147.0599975585938</v>
+        <v>149.2599945068359</v>
       </c>
       <c r="E55">
-        <v>146.6260070800781</v>
+        <v>149.04248046875</v>
       </c>
       <c r="F55">
-        <v>46397700</v>
+        <v>58418800</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>146.3500061035156</v>
+        <v>148.8099975585938</v>
       </c>
       <c r="B56">
-        <v>147.1100006103516</v>
+        <v>149.6399993896484</v>
       </c>
       <c r="C56">
-        <v>145.6300048828125</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="D56">
-        <v>146.1399993896484</v>
+        <v>149.4799957275391</v>
       </c>
       <c r="E56">
-        <v>145.9270172119141</v>
+        <v>149.2621459960938</v>
       </c>
       <c r="F56">
-        <v>54067400</v>
+        <v>61421000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>146.1999969482422</v>
+        <v>149.6900024414062</v>
       </c>
       <c r="B57">
-        <v>146.6999969482422</v>
+        <v>150.1799926757812</v>
       </c>
       <c r="C57">
-        <v>145.5200042724609</v>
+        <v>148.6399993896484</v>
       </c>
       <c r="D57">
-        <v>146.0899963378906</v>
+        <v>148.6900024414062</v>
       </c>
       <c r="E57">
-        <v>145.8770904541016</v>
+        <v>148.4733123779297</v>
       </c>
       <c r="F57">
-        <v>48908700</v>
+        <v>58883400</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>146.4400024414062</v>
+        <v>148.6799926757812</v>
       </c>
       <c r="B58">
-        <v>147.7100067138672</v>
+        <v>149.3699951171875</v>
       </c>
       <c r="C58">
-        <v>145.3000030517578</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="D58">
-        <v>145.6000061035156</v>
+        <v>148.6399993896484</v>
       </c>
       <c r="E58">
-        <v>145.3878173828125</v>
+        <v>148.4233856201172</v>
       </c>
       <c r="F58">
-        <v>69023100</v>
+        <v>50720600</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>146.0500030517578</v>
+        <v>149.3300018310547</v>
       </c>
       <c r="B59">
-        <v>146.7200012207031</v>
+        <v>150.8399963378906</v>
       </c>
       <c r="C59">
-        <v>145.5299987792969</v>
+        <v>149.0099945068359</v>
       </c>
       <c r="D59">
-        <v>145.8600006103516</v>
+        <v>149.3200073242188</v>
       </c>
       <c r="E59">
-        <v>145.6474304199219</v>
+        <v>149.1024017333984</v>
       </c>
       <c r="F59">
-        <v>48493500</v>
+        <v>60893400</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>146.1900024414062</v>
+        <v>149.3600006103516</v>
       </c>
       <c r="B60">
-        <v>149.0500030517578</v>
+        <v>149.7299957275391</v>
       </c>
       <c r="C60">
-        <v>145.8399963378906</v>
+        <v>148.4900054931641</v>
       </c>
       <c r="D60">
-        <v>148.8899993896484</v>
+        <v>148.8500061035156</v>
       </c>
       <c r="E60">
-        <v>148.6730194091797</v>
+        <v>148.6330871582031</v>
       </c>
       <c r="F60">
-        <v>72282600</v>
+        <v>56094900</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>148.9700012207031</v>
+        <v>149.8200073242188</v>
       </c>
       <c r="B61">
-        <v>149.4400024414062</v>
+        <v>153.1699981689453</v>
       </c>
       <c r="C61">
-        <v>148.2700042724609</v>
+        <v>149.7200012207031</v>
       </c>
       <c r="D61">
-        <v>149.1000061035156</v>
+        <v>152.5700073242188</v>
       </c>
       <c r="E61">
-        <v>148.8827209472656</v>
+        <v>152.34765625</v>
       </c>
       <c r="F61">
-        <v>59318800</v>
+        <v>100077900</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>148.5399932861328</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="B62">
-        <v>151.1900024414062</v>
+        <v>149.9400024414062</v>
       </c>
       <c r="C62">
-        <v>146.4700012207031</v>
+        <v>146.4100036621094</v>
       </c>
       <c r="D62">
-        <v>151.1199951171875</v>
+        <v>149.8000030517578</v>
       </c>
       <c r="E62">
-        <v>150.8997650146484</v>
+        <v>149.5816955566406</v>
       </c>
       <c r="F62">
-        <v>103296000</v>
+        <v>124850400</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>150.2299957275391</v>
+        <v>148.9900054931641</v>
       </c>
       <c r="B63">
-        <v>151.6799926757812</v>
+        <v>149.6999969482422</v>
       </c>
       <c r="C63">
-        <v>149.0899963378906</v>
+        <v>147.8000030517578</v>
       </c>
       <c r="D63">
-        <v>150.1900024414062</v>
+        <v>148.9600067138672</v>
       </c>
       <c r="E63">
-        <v>149.9711303710938</v>
+        <v>148.742919921875</v>
       </c>
       <c r="F63">
-        <v>92229700</v>
+        <v>74588300</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>149.8000030517578</v>
+        <v>148.6600036621094</v>
       </c>
       <c r="B64">
-        <v>150.7200012207031</v>
+        <v>151.5700073242188</v>
       </c>
       <c r="C64">
-        <v>146.1499938964844</v>
+        <v>148.6499938964844</v>
       </c>
       <c r="D64">
-        <v>146.3600006103516</v>
+        <v>150.0200042724609</v>
       </c>
       <c r="E64">
-        <v>146.1466979980469</v>
+        <v>149.8013763427734</v>
       </c>
       <c r="F64">
-        <v>86326000</v>
+        <v>69122000</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>145.0299987792969</v>
+        <v>150.3899993896484</v>
       </c>
       <c r="B65">
-        <v>148</v>
+        <v>151.9700012207031</v>
       </c>
       <c r="C65">
-        <v>144.5</v>
+        <v>149.8200073242188</v>
       </c>
       <c r="D65">
-        <v>146.6999969482422</v>
+        <v>151.4900054931641</v>
       </c>
       <c r="E65">
-        <v>146.4862060546875</v>
+        <v>151.2692413330078</v>
       </c>
       <c r="F65">
-        <v>86960300</v>
+        <v>54511500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>147.4400024414062</v>
+        <v>151.5800018310547</v>
       </c>
       <c r="B66">
-        <v>148.5</v>
+        <v>152.4299926757812</v>
       </c>
       <c r="C66">
-        <v>146.7799987792969</v>
+        <v>150.6399993896484</v>
       </c>
       <c r="D66">
-        <v>148.1900024414062</v>
+        <v>150.9600067138672</v>
       </c>
       <c r="E66">
-        <v>147.9740447998047</v>
+        <v>150.7400054931641</v>
       </c>
       <c r="F66">
-        <v>59947400</v>
+        <v>60394600</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>148.3099975585938</v>
+        <v>151.8899993896484</v>
       </c>
       <c r="B67">
-        <v>150.1900024414062</v>
+        <v>152.1999969482422</v>
       </c>
       <c r="C67">
-        <v>147.8899993896484</v>
+        <v>150.0599975585938</v>
       </c>
       <c r="D67">
-        <v>149.7100067138672</v>
+        <v>151.2799987792969</v>
       </c>
       <c r="E67">
-        <v>149.4918365478516</v>
+        <v>151.2799987792969</v>
       </c>
       <c r="F67">
-        <v>60131800</v>
+        <v>65414600</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>149.4499969482422</v>
+        <v>151.4100036621094</v>
       </c>
       <c r="B68">
-        <v>150.8600006103516</v>
+        <v>151.5700073242188</v>
       </c>
       <c r="C68">
-        <v>149.1499938964844</v>
+        <v>150.1600036621094</v>
       </c>
       <c r="D68">
-        <v>149.6199951171875</v>
+        <v>150.4400024414062</v>
       </c>
       <c r="E68">
-        <v>149.4019470214844</v>
+        <v>150.4400024414062</v>
       </c>
       <c r="F68">
-        <v>48606400</v>
+        <v>55020900</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>149.8099975585938</v>
+        <v>150.1999969482422</v>
       </c>
       <c r="B69">
-        <v>150.3200073242188</v>
+        <v>151.4299926757812</v>
       </c>
       <c r="C69">
-        <v>147.8000030517578</v>
+        <v>150.0599975585938</v>
       </c>
       <c r="D69">
-        <v>148.3600006103516</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="E69">
-        <v>148.1437835693359</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="F69">
-        <v>58991300</v>
+        <v>56787900</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>148.3500061035156</v>
+        <v>150.0200042724609</v>
       </c>
       <c r="B70">
-        <v>149.1199951171875</v>
+        <v>150.1300048828125</v>
       </c>
       <c r="C70">
-        <v>147.5099945068359</v>
+        <v>147.8500061035156</v>
       </c>
       <c r="D70">
-        <v>147.5399932861328</v>
+        <v>147.9199981689453</v>
       </c>
       <c r="E70">
-        <v>147.3249816894531</v>
+        <v>147.9199981689453</v>
       </c>
       <c r="F70">
-        <v>48597200</v>
+        <v>65187100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>147.4799957275391</v>
+        <v>148.9600067138672</v>
       </c>
       <c r="B71">
-        <v>148.75</v>
+        <v>149.4299926757812</v>
       </c>
       <c r="C71">
-        <v>146.8300018310547</v>
+        <v>147.6799926757812</v>
       </c>
       <c r="D71">
-        <v>148.6000061035156</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="E71">
-        <v>148.3834533691406</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="F71">
-        <v>55721500</v>
+        <v>41000000</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>149</v>
+        <v>148.4299926757812</v>
       </c>
       <c r="B72">
-        <v>153.4900054931641</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="C72">
-        <v>148.6100006103516</v>
+        <v>147.4799957275391</v>
       </c>
       <c r="D72">
-        <v>153.1199951171875</v>
+        <v>149.9900054931641</v>
       </c>
       <c r="E72">
-        <v>152.8968505859375</v>
+        <v>149.9900054931641</v>
       </c>
       <c r="F72">
-        <v>90956700</v>
+        <v>63632600</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>152.6600036621094</v>
+        <v>150.3699951171875</v>
       </c>
       <c r="B73">
-        <v>152.8000030517578</v>
+        <v>151.8800048828125</v>
       </c>
       <c r="C73">
-        <v>151.2899932861328</v>
+        <v>149.4299926757812</v>
       </c>
       <c r="D73">
-        <v>151.8300018310547</v>
+        <v>150</v>
       </c>
       <c r="E73">
-        <v>151.6087341308594</v>
+        <v>150</v>
       </c>
       <c r="F73">
-        <v>86453100</v>
+        <v>59222800</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>152.8300018310547</v>
+        <v>149.9400024414062</v>
       </c>
       <c r="B74">
-        <v>154.9799957275391</v>
+        <v>151.4900054931641</v>
       </c>
       <c r="C74">
-        <v>152.3399963378906</v>
+        <v>149.3399963378906</v>
       </c>
       <c r="D74">
-        <v>152.5099945068359</v>
+        <v>151</v>
       </c>
       <c r="E74">
-        <v>152.2877349853516</v>
+        <v>151</v>
       </c>
       <c r="F74">
-        <v>80313700</v>
+        <v>59256200</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>153.8699951171875</v>
+        <v>151</v>
       </c>
       <c r="B75">
-        <v>154.7200012207031</v>
+        <v>155</v>
       </c>
       <c r="C75">
-        <v>152.3999938964844</v>
+        <v>150.9900054931641</v>
       </c>
       <c r="D75">
-        <v>153.6499938964844</v>
+        <v>153.4900054931641</v>
       </c>
       <c r="E75">
-        <v>153.4260711669922</v>
+        <v>153.4900054931641</v>
       </c>
       <c r="F75">
-        <v>71115500</v>
+        <v>88807000</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>153.7599945068359</v>
+        <v>153.7100067138672</v>
       </c>
       <c r="B76">
-        <v>154.6300048828125</v>
+        <v>158.6699981689453</v>
       </c>
       <c r="C76">
-        <v>153.0899963378906</v>
+        <v>153.0500030517578</v>
       </c>
       <c r="D76">
-        <v>154.3000030517578</v>
+        <v>157.8699951171875</v>
       </c>
       <c r="E76">
-        <v>154.0751342773438</v>
+        <v>157.8699951171875</v>
       </c>
       <c r="F76">
-        <v>57808700</v>
+        <v>137827700</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>154.9700012207031</v>
+        <v>157.6499938964844</v>
       </c>
       <c r="B77">
-        <v>157.2599945068359</v>
+        <v>161.0200042724609</v>
       </c>
       <c r="C77">
-        <v>154.3899993896484</v>
+        <v>156.5299987792969</v>
       </c>
       <c r="D77">
-        <v>156.6900024414062</v>
+        <v>160.5500030517578</v>
       </c>
       <c r="E77">
-        <v>156.4616546630859</v>
+        <v>160.5500030517578</v>
       </c>
       <c r="F77">
-        <v>82278300</v>
+        <v>117305600</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>156.9799957275391</v>
+        <v>161.6799926757812</v>
       </c>
       <c r="B78">
-        <v>157.0399932861328</v>
+        <v>165.6999969482422</v>
       </c>
       <c r="C78">
-        <v>153.9799957275391</v>
+        <v>161</v>
       </c>
       <c r="D78">
-        <v>155.1100006103516</v>
+        <v>161.0200042724609</v>
       </c>
       <c r="E78">
-        <v>154.8839569091797</v>
+        <v>161.0200042724609</v>
       </c>
       <c r="F78">
-        <v>74420200</v>
+        <v>117467900</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>155.4900054931641</v>
+        <v>161.1199951171875</v>
       </c>
       <c r="B79">
-        <v>156.1100006103516</v>
+        <v>161.8000030517578</v>
       </c>
       <c r="C79">
-        <v>153.9499969482422</v>
+        <v>159.0599975585938</v>
       </c>
       <c r="D79">
-        <v>154.0700073242188</v>
+        <v>161.4100036621094</v>
       </c>
       <c r="E79">
-        <v>153.8454742431641</v>
+        <v>161.4100036621094</v>
       </c>
       <c r="F79">
-        <v>57305700</v>
+        <v>96041900</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>155</v>
+        <v>160.75</v>
       </c>
       <c r="B80">
-        <v>155.4799957275391</v>
+        <v>162.1399993896484</v>
       </c>
       <c r="C80">
-        <v>148.6999969482422</v>
+        <v>159.6399993896484</v>
       </c>
       <c r="D80">
-        <v>148.9700012207031</v>
+        <v>161.9400024414062</v>
       </c>
       <c r="E80">
-        <v>148.7528991699219</v>
+        <v>161.9400024414062</v>
       </c>
       <c r="F80">
-        <v>140646400</v>
+        <v>69463600</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>150.6300048828125</v>
+        <v>159.5700073242188</v>
       </c>
       <c r="B81">
-        <v>151.4199981689453</v>
+        <v>160.4499969482422</v>
       </c>
       <c r="C81">
-        <v>148.75</v>
+        <v>156.3600006103516</v>
       </c>
       <c r="D81">
-        <v>149.5500030517578</v>
+        <v>156.8099975585938</v>
       </c>
       <c r="E81">
-        <v>149.3320617675781</v>
+        <v>156.8099975585938</v>
       </c>
       <c r="F81">
-        <v>102404300</v>
+        <v>76959800</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>150.3500061035156</v>
+        <v>159.3699951171875</v>
       </c>
       <c r="B82">
-        <v>151.0700073242188</v>
+        <v>161.1900024414062</v>
       </c>
       <c r="C82">
-        <v>146.9100036621094</v>
+        <v>158.7899932861328</v>
       </c>
       <c r="D82">
-        <v>148.1199951171875</v>
+        <v>160.2400054931641</v>
       </c>
       <c r="E82">
-        <v>147.9041290283203</v>
+        <v>160.2400054931641</v>
       </c>
       <c r="F82">
-        <v>109296300</v>
+        <v>88748200</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>148.5599975585938</v>
+        <v>159.9900054931641</v>
       </c>
       <c r="B83">
-        <v>149.4400024414062</v>
+        <v>165.5200042724609</v>
       </c>
       <c r="C83">
-        <v>146.3699951171875</v>
+        <v>159.9199981689453</v>
       </c>
       <c r="D83">
-        <v>149.0299987792969</v>
+        <v>165.3000030517578</v>
       </c>
       <c r="E83">
-        <v>148.8128051757812</v>
+        <v>165.3000030517578</v>
       </c>
       <c r="F83">
-        <v>83281300</v>
+        <v>174048100</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>148.4400024414062</v>
+        <v>167.4799957275391</v>
       </c>
       <c r="B84">
-        <v>148.9700012207031</v>
+        <v>170.3000030517578</v>
       </c>
       <c r="C84">
-        <v>147.2200012207031</v>
+        <v>164.5299987792969</v>
       </c>
       <c r="D84">
-        <v>148.7899932861328</v>
+        <v>164.7700042724609</v>
       </c>
       <c r="E84">
-        <v>148.5731506347656</v>
+        <v>164.7700042724609</v>
       </c>
       <c r="F84">
-        <v>68034100</v>
+        <v>152052500</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>148.8200073242188</v>
+        <v>158.7400054931641</v>
       </c>
       <c r="B85">
-        <v>148.8200073242188</v>
+        <v>164.1999969482422</v>
       </c>
       <c r="C85">
-        <v>145.7599945068359</v>
+        <v>157.8000030517578</v>
       </c>
       <c r="D85">
-        <v>146.0599975585938</v>
+        <v>163.7599945068359</v>
       </c>
       <c r="E85">
-        <v>145.8471374511719</v>
+        <v>163.7599945068359</v>
       </c>
       <c r="F85">
-        <v>129868800</v>
+        <v>136739200</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>143.8000030517578</v>
+        <v>164.0200042724609</v>
       </c>
       <c r="B86">
-        <v>144.8399963378906</v>
+        <v>164.9600067138672</v>
       </c>
       <c r="C86">
-        <v>141.2700042724609</v>
+        <v>159.7200012207031</v>
       </c>
       <c r="D86">
-        <v>142.9400024414062</v>
+        <v>161.8399963378906</v>
       </c>
       <c r="E86">
-        <v>142.731689453125</v>
+        <v>161.8399963378906</v>
       </c>
       <c r="F86">
-        <v>123478900</v>
+        <v>117938300</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>143.9299926757812</v>
+        <v>164.2899932861328</v>
       </c>
       <c r="B87">
-        <v>144.6000061035156</v>
+        <v>167.8800048828125</v>
       </c>
       <c r="C87">
-        <v>142.7799987792969</v>
+        <v>164.2799987792969</v>
       </c>
       <c r="D87">
-        <v>143.4299926757812</v>
+        <v>165.3200073242188</v>
       </c>
       <c r="E87">
-        <v>143.2209625244141</v>
+        <v>165.3200073242188</v>
       </c>
       <c r="F87">
-        <v>75834000</v>
+        <v>107497000</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>144.4499969482422</v>
+        <v>169.0800018310547</v>
       </c>
       <c r="B88">
-        <v>146.4299926757812</v>
+        <v>171.5800018310547</v>
       </c>
       <c r="C88">
-        <v>143.6999969482422</v>
+        <v>168.3399963378906</v>
       </c>
       <c r="D88">
-        <v>145.8500061035156</v>
+        <v>171.1799926757812</v>
       </c>
       <c r="E88">
-        <v>145.637451171875</v>
+        <v>171.1799926757812</v>
       </c>
       <c r="F88">
-        <v>76404300</v>
+        <v>120405400</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>146.6499938964844</v>
+        <v>172.1300048828125</v>
       </c>
       <c r="B89">
-        <v>147.0800018310547</v>
+        <v>175.9600067138672</v>
       </c>
       <c r="C89">
-        <v>145.6399993896484</v>
+        <v>170.6999969482422</v>
       </c>
       <c r="D89">
-        <v>146.8300018310547</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="E89">
-        <v>146.6160278320312</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="F89">
-        <v>64838200</v>
+        <v>116998900</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>145.6600036621094</v>
+        <v>174.9100036621094</v>
       </c>
       <c r="B90">
-        <v>147.4700012207031</v>
+        <v>176.75</v>
       </c>
       <c r="C90">
-        <v>145.5599975585938</v>
+        <v>173.9199981689453</v>
       </c>
       <c r="D90">
-        <v>146.9199981689453</v>
+        <v>174.5599975585938</v>
       </c>
       <c r="E90">
-        <v>146.7058868408203</v>
+        <v>174.5599975585938</v>
       </c>
       <c r="F90">
-        <v>53477900</v>
+        <v>108923700</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>145.4700012207031</v>
+        <v>175.2100067138672</v>
       </c>
       <c r="B91">
-        <v>145.9600067138672</v>
+        <v>179.6300048828125</v>
       </c>
       <c r="C91">
-        <v>143.8200073242188</v>
+        <v>174.6900024414062</v>
       </c>
       <c r="D91">
-        <v>145.3699951171875</v>
+        <v>179.4499969482422</v>
       </c>
       <c r="E91">
-        <v>145.1581420898438</v>
+        <v>179.4499969482422</v>
       </c>
       <c r="F91">
-        <v>74150700</v>
+        <v>115228100</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>143.25</v>
+        <v>181.1199951171875</v>
       </c>
       <c r="B92">
-        <v>144.75</v>
+        <v>182.1300048828125</v>
       </c>
       <c r="C92">
-        <v>141.6900024414062</v>
+        <v>175.5299987792969</v>
       </c>
       <c r="D92">
-        <v>141.9100036621094</v>
+        <v>175.7400054931641</v>
       </c>
       <c r="E92">
-        <v>141.7031860351562</v>
+        <v>175.7400054931641</v>
       </c>
       <c r="F92">
-        <v>108972300</v>
+        <v>153237000</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>142.4700012207031</v>
+        <v>175.25</v>
       </c>
       <c r="B93">
-        <v>144.4499969482422</v>
+        <v>177.7400054931641</v>
       </c>
       <c r="C93">
-        <v>142.0299987792969</v>
+        <v>172.2100067138672</v>
       </c>
       <c r="D93">
-        <v>142.8300018310547</v>
+        <v>174.3300018310547</v>
       </c>
       <c r="E93">
-        <v>142.6218566894531</v>
+        <v>174.3300018310547</v>
       </c>
       <c r="F93">
-        <v>74602000</v>
+        <v>139380400</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>143.6600036621094</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="B94">
-        <v>144.3800048828125</v>
+        <v>179.5</v>
       </c>
       <c r="C94">
-        <v>141.2799987792969</v>
+        <v>172.3099975585938</v>
       </c>
       <c r="D94">
-        <v>141.5</v>
+        <v>179.3000030517578</v>
       </c>
       <c r="E94">
-        <v>141.2937927246094</v>
+        <v>179.3000030517578</v>
       </c>
       <c r="F94">
-        <v>88934200</v>
+        <v>131063300</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>141.8999938964844</v>
+        <v>179.2799987792969</v>
       </c>
       <c r="B95">
-        <v>142.9199981689453</v>
+        <v>181.1399993896484</v>
       </c>
       <c r="C95">
-        <v>139.1100006103516</v>
+        <v>170.75</v>
       </c>
       <c r="D95">
-        <v>142.6499938964844</v>
+        <v>172.2599945068359</v>
       </c>
       <c r="E95">
-        <v>142.4421081542969</v>
+        <v>172.2599945068359</v>
       </c>
       <c r="F95">
-        <v>94639600</v>
+        <v>150185800</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>141.7599945068359</v>
+        <v>169.9299926757812</v>
       </c>
       <c r="B96">
-        <v>142.2100067138672</v>
+        <v>173.4700012207031</v>
       </c>
       <c r="C96">
-        <v>138.2700042724609</v>
+        <v>169.6900024414062</v>
       </c>
       <c r="D96">
-        <v>139.1399993896484</v>
+        <v>171.1399993896484</v>
       </c>
       <c r="E96">
-        <v>138.9372253417969</v>
+        <v>171.1399993896484</v>
       </c>
       <c r="F96">
-        <v>98322000</v>
+        <v>195432700</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>139.4900054931641</v>
+        <v>168.2799987792969</v>
       </c>
       <c r="B97">
-        <v>142.2400054931641</v>
+        <v>170.5800018310547</v>
       </c>
       <c r="C97">
-        <v>139.3600006103516</v>
+        <v>167.4600067138672</v>
       </c>
       <c r="D97">
-        <v>141.1100006103516</v>
+        <v>169.75</v>
       </c>
       <c r="E97">
-        <v>140.9043579101562</v>
+        <v>169.75</v>
       </c>
       <c r="F97">
-        <v>80861100</v>
+        <v>107499100</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>139.4700012207031</v>
+        <v>171.5599975585938</v>
       </c>
       <c r="B98">
-        <v>142.1499938964844</v>
+        <v>173.1999969482422</v>
       </c>
       <c r="C98">
-        <v>138.3699951171875</v>
+        <v>169.1199951171875</v>
       </c>
       <c r="D98">
-        <v>142</v>
+        <v>172.9900054931641</v>
       </c>
       <c r="E98">
-        <v>141.7930603027344</v>
+        <v>172.9900054931641</v>
       </c>
       <c r="F98">
-        <v>83221100</v>
+        <v>91185900</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>143.0599975585938</v>
+        <v>173.0399932861328</v>
       </c>
       <c r="B99">
-        <v>144.2200012207031</v>
+        <v>175.8600006103516</v>
       </c>
       <c r="C99">
-        <v>142.7200012207031</v>
+        <v>172.1499938964844</v>
       </c>
       <c r="D99">
-        <v>143.2899932861328</v>
+        <v>175.6399993896484</v>
       </c>
       <c r="E99">
-        <v>143.0811767578125</v>
+        <v>175.6399993896484</v>
       </c>
       <c r="F99">
-        <v>61732700</v>
+        <v>92135300</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>144.0299987792969</v>
+        <v>175.8500061035156</v>
       </c>
       <c r="B100">
-        <v>144.1799926757812</v>
+        <v>176.8500061035156</v>
       </c>
       <c r="C100">
-        <v>142.5599975585938</v>
+        <v>175.2700042724609</v>
       </c>
       <c r="D100">
-        <v>142.8999938964844</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="E100">
-        <v>142.6917419433594</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="F100">
-        <v>58718700</v>
+        <v>68356600</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>142.2700042724609</v>
+        <v>177.0899963378906</v>
       </c>
       <c r="B101">
-        <v>144.8099975585938</v>
+        <v>180.4199981689453</v>
       </c>
       <c r="C101">
-        <v>141.8099975585938</v>
+        <v>177.0700073242188</v>
       </c>
       <c r="D101">
-        <v>142.8099975585938</v>
+        <v>180.3300018310547</v>
       </c>
       <c r="E101">
-        <v>142.6018829345703</v>
+        <v>180.3300018310547</v>
       </c>
       <c r="F101">
-        <v>64452200</v>
+        <v>74919600</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>143.2299957275391</v>
+        <v>180.1600036621094</v>
       </c>
       <c r="B102">
-        <v>143.25</v>
+        <v>181.3300018310547</v>
       </c>
       <c r="C102">
-        <v>141.0399932861328</v>
+        <v>178.5299987792969</v>
       </c>
       <c r="D102">
-        <v>141.5099945068359</v>
+        <v>179.2899932861328</v>
       </c>
       <c r="E102">
-        <v>141.3037719726562</v>
+        <v>179.2899932861328</v>
       </c>
       <c r="F102">
-        <v>73035900</v>
+        <v>79144300</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>141.2400054931641</v>
+        <v>179.3300018310547</v>
       </c>
       <c r="B103">
-        <v>141.3999938964844</v>
+        <v>180.6300048828125</v>
       </c>
       <c r="C103">
-        <v>139.1999969482422</v>
+        <v>178.1399993896484</v>
       </c>
       <c r="D103">
-        <v>140.9100036621094</v>
+        <v>179.3800048828125</v>
       </c>
       <c r="E103">
-        <v>140.7046508789062</v>
+        <v>179.3800048828125</v>
       </c>
       <c r="F103">
-        <v>78762700</v>
+        <v>62348900</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>142.1100006103516</v>
+        <v>179.4700012207031</v>
       </c>
       <c r="B104">
-        <v>143.8800048828125</v>
+        <v>180.5700073242188</v>
       </c>
       <c r="C104">
-        <v>141.5099945068359</v>
+        <v>178.0899963378906</v>
       </c>
       <c r="D104">
-        <v>143.7599945068359</v>
+        <v>178.1999969482422</v>
       </c>
       <c r="E104">
-        <v>143.5504913330078</v>
+        <v>178.1999969482422</v>
       </c>
       <c r="F104">
-        <v>69907100</v>
+        <v>59773000</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>143.7700042724609</v>
+        <v>178.0899963378906</v>
       </c>
       <c r="B105">
-        <v>144.8999938964844</v>
+        <v>179.2299957275391</v>
       </c>
       <c r="C105">
-        <v>143.5099945068359</v>
+        <v>177.2599945068359</v>
       </c>
       <c r="D105">
-        <v>144.8399963378906</v>
+        <v>177.5700073242188</v>
       </c>
       <c r="E105">
-        <v>144.6289215087891</v>
+        <v>177.5700073242188</v>
       </c>
       <c r="F105">
-        <v>67885200</v>
+        <v>64062300</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>143.4499969482422</v>
+        <v>177.8300018310547</v>
       </c>
       <c r="B106">
-        <v>146.8399963378906</v>
+        <v>182.8800048828125</v>
       </c>
       <c r="C106">
-        <v>143.1600036621094</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="D106">
-        <v>146.5500030517578</v>
+        <v>182.0099945068359</v>
       </c>
       <c r="E106">
-        <v>146.33642578125</v>
+        <v>182.0099945068359</v>
       </c>
       <c r="F106">
-        <v>85589200</v>
+        <v>104487900</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>147.0099945068359</v>
+        <v>182.6300048828125</v>
       </c>
       <c r="B107">
-        <v>149.1699981689453</v>
+        <v>182.9400024414062</v>
       </c>
       <c r="C107">
-        <v>146.5500030517578</v>
+        <v>179.1199951171875</v>
       </c>
       <c r="D107">
-        <v>148.7599945068359</v>
+        <v>179.6999969482422</v>
       </c>
       <c r="E107">
-        <v>148.5431976318359</v>
+        <v>179.6999969482422</v>
       </c>
       <c r="F107">
-        <v>76378900</v>
+        <v>99310400</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>148.6999969482422</v>
+        <v>179.6100006103516</v>
       </c>
       <c r="B108">
-        <v>149.75</v>
+        <v>180.1699981689453</v>
       </c>
       <c r="C108">
-        <v>148.1199951171875</v>
+        <v>174.6399993896484</v>
       </c>
       <c r="D108">
-        <v>149.2599945068359</v>
+        <v>174.9199981689453</v>
       </c>
       <c r="E108">
-        <v>149.04248046875</v>
+        <v>174.9199981689453</v>
       </c>
       <c r="F108">
-        <v>58418800</v>
+        <v>94537600</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>148.8099975585938</v>
+        <v>172.6999969482422</v>
       </c>
       <c r="B109">
-        <v>149.6399993896484</v>
+        <v>175.3000030517578</v>
       </c>
       <c r="C109">
-        <v>147.8699951171875</v>
+        <v>171.6399993896484</v>
       </c>
       <c r="D109">
-        <v>149.4799957275391</v>
+        <v>172</v>
       </c>
       <c r="E109">
-        <v>149.2621459960938</v>
+        <v>172</v>
       </c>
       <c r="F109">
-        <v>61421000</v>
+        <v>96904000</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>149.6900024414062</v>
+        <v>172.8899993896484</v>
       </c>
       <c r="B110">
-        <v>150.1799926757812</v>
+        <v>174.1399993896484</v>
       </c>
       <c r="C110">
-        <v>148.6399993896484</v>
+        <v>171.0299987792969</v>
       </c>
       <c r="D110">
-        <v>148.6900024414062</v>
+        <v>172.1699981689453</v>
       </c>
       <c r="E110">
-        <v>148.4733123779297</v>
+        <v>172.1699981689453</v>
       </c>
       <c r="F110">
-        <v>58883400</v>
+        <v>86580100</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>148.6799926757812</v>
+        <v>169.0800018310547</v>
       </c>
       <c r="B111">
-        <v>149.3699951171875</v>
+        <v>172.5</v>
       </c>
       <c r="C111">
-        <v>147.6199951171875</v>
+        <v>168.1699981689453</v>
       </c>
       <c r="D111">
-        <v>148.6399993896484</v>
+        <v>172.1900024414062</v>
       </c>
       <c r="E111">
-        <v>148.4233856201172</v>
+        <v>172.1900024414062</v>
       </c>
       <c r="F111">
-        <v>50720600</v>
+        <v>106765600</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>149.3300018310547</v>
+        <v>172.3200073242188</v>
       </c>
       <c r="B112">
-        <v>150.8399963378906</v>
+        <v>175.1799926757812</v>
       </c>
       <c r="C112">
-        <v>149.0099945068359</v>
+        <v>170.8200073242188</v>
       </c>
       <c r="D112">
-        <v>149.3200073242188</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="E112">
-        <v>149.1024017333984</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="F112">
-        <v>60893400</v>
+        <v>76138300</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>149.3600006103516</v>
+        <v>176.1199951171875</v>
       </c>
       <c r="B113">
-        <v>149.7299957275391</v>
+        <v>177.1799926757812</v>
       </c>
       <c r="C113">
-        <v>148.4900054931641</v>
+        <v>174.8200073242188</v>
       </c>
       <c r="D113">
-        <v>148.8500061035156</v>
+        <v>175.5299987792969</v>
       </c>
       <c r="E113">
-        <v>148.6330871582031</v>
+        <v>175.5299987792969</v>
       </c>
       <c r="F113">
-        <v>56094900</v>
+        <v>74805200</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>149.8200073242188</v>
+        <v>175.7799987792969</v>
       </c>
       <c r="B114">
-        <v>153.1699981689453</v>
+        <v>176.6199951171875</v>
       </c>
       <c r="C114">
-        <v>149.7200012207031</v>
+        <v>171.7899932861328</v>
       </c>
       <c r="D114">
-        <v>152.5700073242188</v>
+        <v>172.1900024414062</v>
       </c>
       <c r="E114">
-        <v>152.34765625</v>
+        <v>172.1900024414062</v>
       </c>
       <c r="F114">
-        <v>100077900</v>
+        <v>84505800</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>147.2200012207031</v>
+        <v>171.3399963378906</v>
       </c>
       <c r="B115">
-        <v>149.9400024414062</v>
+        <v>173.7799987792969</v>
       </c>
       <c r="C115">
-        <v>146.4100036621094</v>
+        <v>171.0899963378906</v>
       </c>
       <c r="D115">
-        <v>149.8000030517578</v>
+        <v>173.0700073242188</v>
       </c>
       <c r="E115">
-        <v>149.5816955566406</v>
+        <v>173.0700073242188</v>
       </c>
       <c r="F115">
-        <v>124850400</v>
+        <v>80355000</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>148.9900054931641</v>
+        <v>171.5099945068359</v>
       </c>
       <c r="B116">
-        <v>149.6999969482422</v>
+        <v>172.5399932861328</v>
       </c>
       <c r="C116">
-        <v>147.8000030517578</v>
+        <v>169.4100036621094</v>
       </c>
       <c r="D116">
-        <v>148.9600067138672</v>
+        <v>169.8000030517578</v>
       </c>
       <c r="E116">
-        <v>148.742919921875</v>
+        <v>169.8000030517578</v>
       </c>
       <c r="F116">
-        <v>74588300</v>
+        <v>90956700</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>148.6600036621094</v>
+        <v>170</v>
       </c>
       <c r="B117">
-        <v>151.5700073242188</v>
+        <v>171.0800018310547</v>
       </c>
       <c r="C117">
-        <v>148.6499938964844</v>
+        <v>165.9400024414062</v>
       </c>
       <c r="D117">
-        <v>150.0200042724609</v>
+        <v>166.2299957275391</v>
       </c>
       <c r="E117">
-        <v>149.8013763427734</v>
+        <v>166.2299957275391</v>
       </c>
       <c r="F117">
-        <v>69122000</v>
+        <v>94815000</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>150.3899993896484</v>
+        <v>166.9799957275391</v>
       </c>
       <c r="B118">
-        <v>151.9700012207031</v>
+        <v>169.6799926757812</v>
       </c>
       <c r="C118">
-        <v>149.8200073242188</v>
+        <v>164.1799926757812</v>
       </c>
       <c r="D118">
-        <v>151.4900054931641</v>
+        <v>164.5099945068359</v>
       </c>
       <c r="E118">
-        <v>151.2692413330078</v>
+        <v>164.5099945068359</v>
       </c>
       <c r="F118">
-        <v>54511500</v>
+        <v>91420500</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>151.5800018310547</v>
+        <v>164.4199981689453</v>
       </c>
       <c r="B119">
-        <v>152.4299926757812</v>
+        <v>166.3300018310547</v>
       </c>
       <c r="C119">
-        <v>150.6399993896484</v>
+        <v>162.3000030517578</v>
       </c>
       <c r="D119">
-        <v>150.9600067138672</v>
+        <v>162.4100036621094</v>
       </c>
       <c r="E119">
-        <v>150.7400054931641</v>
+        <v>162.4100036621094</v>
       </c>
       <c r="F119">
-        <v>60394600</v>
+        <v>122848900</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>151.8899993896484</v>
+        <v>160.0200042724609</v>
       </c>
       <c r="B120">
-        <v>152.1999969482422</v>
+        <v>162.3000030517578</v>
       </c>
       <c r="C120">
-        <v>150.0599975585938</v>
+        <v>154.6999969482422</v>
       </c>
       <c r="D120">
-        <v>151.2799987792969</v>
+        <v>161.6199951171875</v>
       </c>
       <c r="E120">
-        <v>151.2799987792969</v>
+        <v>161.6199951171875</v>
       </c>
       <c r="F120">
-        <v>65414600</v>
+        <v>162294600</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>151.4100036621094</v>
+        <v>158.9799957275391</v>
       </c>
       <c r="B121">
-        <v>151.5700073242188</v>
+        <v>162.7599945068359</v>
       </c>
       <c r="C121">
-        <v>150.1600036621094</v>
+        <v>157.0200042724609</v>
       </c>
       <c r="D121">
-        <v>150.4400024414062</v>
+        <v>159.7799987792969</v>
       </c>
       <c r="E121">
-        <v>150.4400024414062</v>
+        <v>159.7799987792969</v>
       </c>
       <c r="F121">
-        <v>55020900</v>
+        <v>114972000</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>150.1999969482422</v>
+        <v>163.5</v>
       </c>
       <c r="B122">
-        <v>151.4299926757812</v>
+        <v>164.3899993896484</v>
       </c>
       <c r="C122">
-        <v>150.0599975585938</v>
+        <v>157.8200073242188</v>
       </c>
       <c r="D122">
-        <v>150.8099975585938</v>
+        <v>159.6900024414062</v>
       </c>
       <c r="E122">
-        <v>150.8099975585938</v>
+        <v>159.6900024414062</v>
       </c>
       <c r="F122">
-        <v>56787900</v>
+        <v>108275300</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>150.0200042724609</v>
+        <v>162.4499969482422</v>
       </c>
       <c r="B123">
-        <v>150.1300048828125</v>
+        <v>163.8399963378906</v>
       </c>
       <c r="C123">
-        <v>147.8500061035156</v>
+        <v>158.2799987792969</v>
       </c>
       <c r="D123">
-        <v>147.9199981689453</v>
+        <v>159.2200012207031</v>
       </c>
       <c r="E123">
-        <v>147.9199981689453</v>
+        <v>159.2200012207031</v>
       </c>
       <c r="F123">
-        <v>65187100</v>
+        <v>121954600</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>148.9600067138672</v>
+        <v>165.7100067138672</v>
       </c>
       <c r="B124">
-        <v>149.4299926757812</v>
+        <v>170.3500061035156</v>
       </c>
       <c r="C124">
-        <v>147.6799926757812</v>
+        <v>162.8000030517578</v>
       </c>
       <c r="D124">
-        <v>147.8699951171875</v>
+        <v>170.3300018310547</v>
       </c>
       <c r="E124">
-        <v>147.8699951171875</v>
+        <v>170.3300018310547</v>
       </c>
       <c r="F124">
-        <v>41000000</v>
+        <v>179935700</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>148.4299926757812</v>
+        <v>170.1600036621094</v>
       </c>
       <c r="B125">
-        <v>150.3999938964844</v>
+        <v>175</v>
       </c>
       <c r="C125">
-        <v>147.4799957275391</v>
+        <v>169.5099945068359</v>
       </c>
       <c r="D125">
-        <v>149.9900054931641</v>
+        <v>174.7799987792969</v>
       </c>
       <c r="E125">
-        <v>149.9900054931641</v>
+        <v>174.7799987792969</v>
       </c>
       <c r="F125">
-        <v>63632600</v>
+        <v>115541600</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>150.3699951171875</v>
+        <v>174.0099945068359</v>
       </c>
       <c r="B126">
-        <v>151.8800048828125</v>
+        <v>174.8399963378906</v>
       </c>
       <c r="C126">
-        <v>149.4299926757812</v>
+        <v>172.3099975585938</v>
       </c>
       <c r="D126">
-        <v>150</v>
+        <v>174.6100006103516</v>
       </c>
       <c r="E126">
-        <v>150</v>
+        <v>174.6100006103516</v>
       </c>
       <c r="F126">
-        <v>59222800</v>
+        <v>85908800</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>149.9400024414062</v>
+        <v>174.75</v>
       </c>
       <c r="B127">
-        <v>151.4900054931641</v>
+        <v>175.8800048828125</v>
       </c>
       <c r="C127">
-        <v>149.3399963378906</v>
+        <v>173.3300018310547</v>
       </c>
       <c r="D127">
-        <v>151</v>
+        <v>175.8399963378906</v>
       </c>
       <c r="E127">
-        <v>151</v>
+        <v>175.8399963378906</v>
       </c>
       <c r="F127">
-        <v>59256200</v>
+        <v>84914300</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>151</v>
+        <v>174.4799957275391</v>
       </c>
       <c r="B128">
-        <v>155</v>
+        <v>176.2400054931641</v>
       </c>
       <c r="C128">
-        <v>150.9900054931641</v>
+        <v>172.1199951171875</v>
       </c>
       <c r="D128">
-        <v>153.4900054931641</v>
+        <v>172.8999938964844</v>
       </c>
       <c r="E128">
-        <v>153.4900054931641</v>
+        <v>172.8999938964844</v>
       </c>
       <c r="F128">
-        <v>88807000</v>
+        <v>89418100</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>153.7100067138672</v>
+        <v>171.6799926757812</v>
       </c>
       <c r="B129">
-        <v>158.6699981689453</v>
+        <v>174.0973968505859</v>
       </c>
       <c r="C129">
-        <v>153.0500030517578</v>
+        <v>170.6799926757812</v>
       </c>
       <c r="D129">
-        <v>157.8699951171875</v>
+        <v>172.3899993896484</v>
       </c>
       <c r="E129">
-        <v>157.8699951171875</v>
+        <v>172.3899993896484</v>
       </c>
       <c r="F129">
-        <v>137827700</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>157.6499938964844</v>
-      </c>
-      <c r="B130">
-        <v>161.0200042724609</v>
-      </c>
-      <c r="C130">
-        <v>156.5299987792969</v>
-      </c>
-      <c r="D130">
-        <v>160.5500030517578</v>
-      </c>
-      <c r="E130">
-        <v>160.5500030517578</v>
-      </c>
-      <c r="F130">
-        <v>117147500</v>
+        <v>82465400</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/AAPL/HighLow.xlsx
+++ b/Stocks/AAPL/HighLow.xlsx
@@ -429,7 +429,7 @@
         <v>147.0599975585938</v>
       </c>
       <c r="E2">
-        <v>146.6260070800781</v>
+        <v>146.4394378662109</v>
       </c>
       <c r="F2">
         <v>46397700</v>
@@ -449,7 +449,7 @@
         <v>146.1399993896484</v>
       </c>
       <c r="E3">
-        <v>145.9270172119141</v>
+        <v>145.7413330078125</v>
       </c>
       <c r="F3">
         <v>54067400</v>
@@ -469,7 +469,7 @@
         <v>146.0899963378906</v>
       </c>
       <c r="E4">
-        <v>145.8770904541016</v>
+        <v>145.6914672851562</v>
       </c>
       <c r="F4">
         <v>48908700</v>
@@ -489,7 +489,7 @@
         <v>145.6000061035156</v>
       </c>
       <c r="E5">
-        <v>145.3878173828125</v>
+        <v>145.2028198242188</v>
       </c>
       <c r="F5">
         <v>69023100</v>
@@ -509,7 +509,7 @@
         <v>145.8600006103516</v>
       </c>
       <c r="E6">
-        <v>145.6474304199219</v>
+        <v>145.4620971679688</v>
       </c>
       <c r="F6">
         <v>48493500</v>
@@ -529,7 +529,7 @@
         <v>148.8899993896484</v>
       </c>
       <c r="E7">
-        <v>148.6730194091797</v>
+        <v>148.4838409423828</v>
       </c>
       <c r="F7">
         <v>72282600</v>
@@ -549,7 +549,7 @@
         <v>149.1000061035156</v>
       </c>
       <c r="E8">
-        <v>148.8827209472656</v>
+        <v>148.6932830810547</v>
       </c>
       <c r="F8">
         <v>59318800</v>
@@ -569,7 +569,7 @@
         <v>151.1199951171875</v>
       </c>
       <c r="E9">
-        <v>150.8997650146484</v>
+        <v>150.7077484130859</v>
       </c>
       <c r="F9">
         <v>103296000</v>
@@ -589,7 +589,7 @@
         <v>150.1900024414062</v>
       </c>
       <c r="E10">
-        <v>149.9711303710938</v>
+        <v>149.7803039550781</v>
       </c>
       <c r="F10">
         <v>92229700</v>
@@ -609,7 +609,7 @@
         <v>146.3600006103516</v>
       </c>
       <c r="E11">
-        <v>146.1466979980469</v>
+        <v>145.9607391357422</v>
       </c>
       <c r="F11">
         <v>86326000</v>
@@ -629,7 +629,7 @@
         <v>146.6999969482422</v>
       </c>
       <c r="E12">
-        <v>146.4862060546875</v>
+        <v>146.2998046875</v>
       </c>
       <c r="F12">
         <v>86960300</v>
@@ -649,7 +649,7 @@
         <v>148.1900024414062</v>
       </c>
       <c r="E13">
-        <v>147.9740447998047</v>
+        <v>147.7857513427734</v>
       </c>
       <c r="F13">
         <v>59947400</v>
@@ -669,7 +669,7 @@
         <v>149.7100067138672</v>
       </c>
       <c r="E14">
-        <v>149.4918365478516</v>
+        <v>149.3016204833984</v>
       </c>
       <c r="F14">
         <v>60131800</v>
@@ -689,7 +689,7 @@
         <v>149.6199951171875</v>
       </c>
       <c r="E15">
-        <v>149.4019470214844</v>
+        <v>149.2118377685547</v>
       </c>
       <c r="F15">
         <v>48606400</v>
@@ -709,7 +709,7 @@
         <v>148.3600006103516</v>
       </c>
       <c r="E16">
-        <v>148.1437835693359</v>
+        <v>147.9552764892578</v>
       </c>
       <c r="F16">
         <v>58991300</v>
@@ -729,7 +729,7 @@
         <v>147.5399932861328</v>
       </c>
       <c r="E17">
-        <v>147.3249816894531</v>
+        <v>147.1375122070312</v>
       </c>
       <c r="F17">
         <v>48597200</v>
@@ -749,7 +749,7 @@
         <v>148.6000061035156</v>
       </c>
       <c r="E18">
-        <v>148.3834533691406</v>
+        <v>148.1946411132812</v>
       </c>
       <c r="F18">
         <v>55721500</v>
@@ -769,7 +769,7 @@
         <v>153.1199951171875</v>
       </c>
       <c r="E19">
-        <v>152.8968505859375</v>
+        <v>152.7023010253906</v>
       </c>
       <c r="F19">
         <v>90956700</v>
@@ -789,7 +789,7 @@
         <v>151.8300018310547</v>
       </c>
       <c r="E20">
-        <v>151.6087341308594</v>
+        <v>151.4158172607422</v>
       </c>
       <c r="F20">
         <v>86453100</v>
@@ -809,7 +809,7 @@
         <v>152.5099945068359</v>
       </c>
       <c r="E21">
-        <v>152.2877349853516</v>
+        <v>152.0939636230469</v>
       </c>
       <c r="F21">
         <v>80313700</v>
@@ -829,7 +829,7 @@
         <v>153.6499938964844</v>
       </c>
       <c r="E22">
-        <v>153.4260711669922</v>
+        <v>153.2308502197266</v>
       </c>
       <c r="F22">
         <v>71115500</v>
@@ -849,7 +849,7 @@
         <v>154.3000030517578</v>
       </c>
       <c r="E23">
-        <v>154.0751342773438</v>
+        <v>153.8790893554688</v>
       </c>
       <c r="F23">
         <v>57808700</v>
@@ -869,7 +869,7 @@
         <v>156.6900024414062</v>
       </c>
       <c r="E24">
-        <v>156.4616546630859</v>
+        <v>156.2625732421875</v>
       </c>
       <c r="F24">
         <v>82278300</v>
@@ -889,7 +889,7 @@
         <v>155.1100006103516</v>
       </c>
       <c r="E25">
-        <v>154.8839569091797</v>
+        <v>154.6868743896484</v>
       </c>
       <c r="F25">
         <v>74420200</v>
@@ -909,7 +909,7 @@
         <v>154.0700073242188</v>
       </c>
       <c r="E26">
-        <v>153.8454742431641</v>
+        <v>153.6497192382812</v>
       </c>
       <c r="F26">
         <v>57305700</v>
@@ -929,7 +929,7 @@
         <v>148.9700012207031</v>
       </c>
       <c r="E27">
-        <v>148.7528991699219</v>
+        <v>148.5636138916016</v>
       </c>
       <c r="F27">
         <v>140646400</v>
@@ -949,7 +949,7 @@
         <v>149.5500030517578</v>
       </c>
       <c r="E28">
-        <v>149.3320617675781</v>
+        <v>149.1420440673828</v>
       </c>
       <c r="F28">
         <v>102404300</v>
@@ -969,7 +969,7 @@
         <v>148.1199951171875</v>
       </c>
       <c r="E29">
-        <v>147.9041290283203</v>
+        <v>147.7159271240234</v>
       </c>
       <c r="F29">
         <v>109296300</v>
@@ -989,7 +989,7 @@
         <v>149.0299987792969</v>
       </c>
       <c r="E30">
-        <v>148.8128051757812</v>
+        <v>148.6234436035156</v>
       </c>
       <c r="F30">
         <v>83281300</v>
@@ -1009,7 +1009,7 @@
         <v>148.7899932861328</v>
       </c>
       <c r="E31">
-        <v>148.5731506347656</v>
+        <v>148.3840942382812</v>
       </c>
       <c r="F31">
         <v>68034100</v>
@@ -1029,7 +1029,7 @@
         <v>146.0599975585938</v>
       </c>
       <c r="E32">
-        <v>145.8471374511719</v>
+        <v>145.6615600585938</v>
       </c>
       <c r="F32">
         <v>129868800</v>
@@ -1049,7 +1049,7 @@
         <v>142.9400024414062</v>
       </c>
       <c r="E33">
-        <v>142.731689453125</v>
+        <v>142.5500793457031</v>
       </c>
       <c r="F33">
         <v>123478900</v>
@@ -1069,7 +1069,7 @@
         <v>143.4299926757812</v>
       </c>
       <c r="E34">
-        <v>143.2209625244141</v>
+        <v>143.0387268066406</v>
       </c>
       <c r="F34">
         <v>75834000</v>
@@ -1089,7 +1089,7 @@
         <v>145.8500061035156</v>
       </c>
       <c r="E35">
-        <v>145.637451171875</v>
+        <v>145.4521331787109</v>
       </c>
       <c r="F35">
         <v>76404300</v>
@@ -1109,7 +1109,7 @@
         <v>146.8300018310547</v>
       </c>
       <c r="E36">
-        <v>146.6160278320312</v>
+        <v>146.4294738769531</v>
       </c>
       <c r="F36">
         <v>64838200</v>
@@ -1129,7 +1129,7 @@
         <v>146.9199981689453</v>
       </c>
       <c r="E37">
-        <v>146.7058868408203</v>
+        <v>146.5192108154297</v>
       </c>
       <c r="F37">
         <v>53477900</v>
@@ -1149,7 +1149,7 @@
         <v>145.3699951171875</v>
       </c>
       <c r="E38">
-        <v>145.1581420898438</v>
+        <v>144.9734344482422</v>
       </c>
       <c r="F38">
         <v>74150700</v>
@@ -1169,7 +1169,7 @@
         <v>141.9100036621094</v>
       </c>
       <c r="E39">
-        <v>141.7031860351562</v>
+        <v>141.5228729248047</v>
       </c>
       <c r="F39">
         <v>108972300</v>
@@ -1189,7 +1189,7 @@
         <v>142.8300018310547</v>
       </c>
       <c r="E40">
-        <v>142.6218566894531</v>
+        <v>142.4403839111328</v>
       </c>
       <c r="F40">
         <v>74602000</v>
@@ -1209,7 +1209,7 @@
         <v>141.5</v>
       </c>
       <c r="E41">
-        <v>141.2937927246094</v>
+        <v>141.1139984130859</v>
       </c>
       <c r="F41">
         <v>88934200</v>
@@ -1229,7 +1229,7 @@
         <v>142.6499938964844</v>
       </c>
       <c r="E42">
-        <v>142.4421081542969</v>
+        <v>142.2608642578125</v>
       </c>
       <c r="F42">
         <v>94639600</v>
@@ -1249,7 +1249,7 @@
         <v>139.1399993896484</v>
       </c>
       <c r="E43">
-        <v>138.9372253417969</v>
+        <v>138.7604370117188</v>
       </c>
       <c r="F43">
         <v>98322000</v>
@@ -1269,7 +1269,7 @@
         <v>141.1100006103516</v>
       </c>
       <c r="E44">
-        <v>140.9043579101562</v>
+        <v>140.7250671386719</v>
       </c>
       <c r="F44">
         <v>80861100</v>
@@ -1289,7 +1289,7 @@
         <v>142</v>
       </c>
       <c r="E45">
-        <v>141.7930603027344</v>
+        <v>141.6126403808594</v>
       </c>
       <c r="F45">
         <v>83221100</v>
@@ -1309,7 +1309,7 @@
         <v>143.2899932861328</v>
       </c>
       <c r="E46">
-        <v>143.0811767578125</v>
+        <v>142.8991088867188</v>
       </c>
       <c r="F46">
         <v>61732700</v>
@@ -1329,7 +1329,7 @@
         <v>142.8999938964844</v>
       </c>
       <c r="E47">
-        <v>142.6917419433594</v>
+        <v>142.5101776123047</v>
       </c>
       <c r="F47">
         <v>58718700</v>
@@ -1349,7 +1349,7 @@
         <v>142.8099975585938</v>
       </c>
       <c r="E48">
-        <v>142.6018829345703</v>
+        <v>142.4204254150391</v>
       </c>
       <c r="F48">
         <v>64452200</v>
@@ -1369,7 +1369,7 @@
         <v>141.5099945068359</v>
       </c>
       <c r="E49">
-        <v>141.3037719726562</v>
+        <v>141.1239776611328</v>
       </c>
       <c r="F49">
         <v>73035900</v>
@@ -1389,7 +1389,7 @@
         <v>140.9100036621094</v>
       </c>
       <c r="E50">
-        <v>140.7046508789062</v>
+        <v>140.5256195068359</v>
       </c>
       <c r="F50">
         <v>78762700</v>
@@ -1409,7 +1409,7 @@
         <v>143.7599945068359</v>
       </c>
       <c r="E51">
-        <v>143.5504913330078</v>
+        <v>143.3678283691406</v>
       </c>
       <c r="F51">
         <v>69907100</v>
@@ -1429,7 +1429,7 @@
         <v>144.8399963378906</v>
       </c>
       <c r="E52">
-        <v>144.6289215087891</v>
+        <v>144.4448852539062</v>
       </c>
       <c r="F52">
         <v>67885200</v>
@@ -1449,7 +1449,7 @@
         <v>146.5500030517578</v>
       </c>
       <c r="E53">
-        <v>146.33642578125</v>
+        <v>146.1502227783203</v>
       </c>
       <c r="F53">
         <v>85589200</v>
@@ -1469,7 +1469,7 @@
         <v>148.7599945068359</v>
       </c>
       <c r="E54">
-        <v>148.5431976318359</v>
+        <v>148.3541870117188</v>
       </c>
       <c r="F54">
         <v>76378900</v>
@@ -1489,7 +1489,7 @@
         <v>149.2599945068359</v>
       </c>
       <c r="E55">
-        <v>149.04248046875</v>
+        <v>148.8528289794922</v>
       </c>
       <c r="F55">
         <v>58418800</v>
@@ -1509,7 +1509,7 @@
         <v>149.4799957275391</v>
       </c>
       <c r="E56">
-        <v>149.2621459960938</v>
+        <v>149.0722198486328</v>
       </c>
       <c r="F56">
         <v>61421000</v>
@@ -1529,7 +1529,7 @@
         <v>148.6900024414062</v>
       </c>
       <c r="E57">
-        <v>148.4733123779297</v>
+        <v>148.2843933105469</v>
       </c>
       <c r="F57">
         <v>58883400</v>
@@ -1549,7 +1549,7 @@
         <v>148.6399993896484</v>
       </c>
       <c r="E58">
-        <v>148.4233856201172</v>
+        <v>148.2345275878906</v>
       </c>
       <c r="F58">
         <v>50720600</v>
@@ -1569,7 +1569,7 @@
         <v>149.3200073242188</v>
       </c>
       <c r="E59">
-        <v>149.1024017333984</v>
+        <v>148.9126739501953</v>
       </c>
       <c r="F59">
         <v>60893400</v>
@@ -1589,7 +1589,7 @@
         <v>148.8500061035156</v>
       </c>
       <c r="E60">
-        <v>148.6330871582031</v>
+        <v>148.4439544677734</v>
       </c>
       <c r="F60">
         <v>56094900</v>
@@ -1609,7 +1609,7 @@
         <v>152.5700073242188</v>
       </c>
       <c r="E61">
-        <v>152.34765625</v>
+        <v>152.15380859375</v>
       </c>
       <c r="F61">
         <v>100077900</v>
@@ -1629,7 +1629,7 @@
         <v>149.8000030517578</v>
       </c>
       <c r="E62">
-        <v>149.5816955566406</v>
+        <v>149.391357421875</v>
       </c>
       <c r="F62">
         <v>124850400</v>
@@ -1649,7 +1649,7 @@
         <v>148.9600067138672</v>
       </c>
       <c r="E63">
-        <v>148.742919921875</v>
+        <v>148.5536499023438</v>
       </c>
       <c r="F63">
         <v>74588300</v>
@@ -1669,7 +1669,7 @@
         <v>150.0200042724609</v>
       </c>
       <c r="E64">
-        <v>149.8013763427734</v>
+        <v>149.6107635498047</v>
       </c>
       <c r="F64">
         <v>69122000</v>
@@ -1689,7 +1689,7 @@
         <v>151.4900054931641</v>
       </c>
       <c r="E65">
-        <v>151.2692413330078</v>
+        <v>151.0767669677734</v>
       </c>
       <c r="F65">
         <v>54511500</v>
@@ -1709,7 +1709,7 @@
         <v>150.9600067138672</v>
       </c>
       <c r="E66">
-        <v>150.7400054931641</v>
+        <v>150.5482025146484</v>
       </c>
       <c r="F66">
         <v>60394600</v>
@@ -1729,7 +1729,7 @@
         <v>151.2799987792969</v>
       </c>
       <c r="E67">
-        <v>151.2799987792969</v>
+        <v>151.0875091552734</v>
       </c>
       <c r="F67">
         <v>65414600</v>
@@ -1749,7 +1749,7 @@
         <v>150.4400024414062</v>
       </c>
       <c r="E68">
-        <v>150.4400024414062</v>
+        <v>150.2485809326172</v>
       </c>
       <c r="F68">
         <v>55020900</v>
@@ -1769,7 +1769,7 @@
         <v>150.8099975585938</v>
       </c>
       <c r="E69">
-        <v>150.8099975585938</v>
+        <v>150.6181030273438</v>
       </c>
       <c r="F69">
         <v>56787900</v>
@@ -1789,7 +1789,7 @@
         <v>147.9199981689453</v>
       </c>
       <c r="E70">
-        <v>147.9199981689453</v>
+        <v>147.7317810058594</v>
       </c>
       <c r="F70">
         <v>65187100</v>
@@ -1809,7 +1809,7 @@
         <v>147.8699951171875</v>
       </c>
       <c r="E71">
-        <v>147.8699951171875</v>
+        <v>147.6818389892578</v>
       </c>
       <c r="F71">
         <v>41000000</v>
@@ -1829,7 +1829,7 @@
         <v>149.9900054931641</v>
       </c>
       <c r="E72">
-        <v>149.9900054931641</v>
+        <v>149.7991485595703</v>
       </c>
       <c r="F72">
         <v>63632600</v>
@@ -1849,7 +1849,7 @@
         <v>150</v>
       </c>
       <c r="E73">
-        <v>150</v>
+        <v>149.8091278076172</v>
       </c>
       <c r="F73">
         <v>59222800</v>
@@ -1869,7 +1869,7 @@
         <v>151</v>
       </c>
       <c r="E74">
-        <v>151</v>
+        <v>150.807861328125</v>
       </c>
       <c r="F74">
         <v>59256200</v>
@@ -1889,7 +1889,7 @@
         <v>153.4900054931641</v>
       </c>
       <c r="E75">
-        <v>153.4900054931641</v>
+        <v>153.2946929931641</v>
       </c>
       <c r="F75">
         <v>88807000</v>
@@ -1909,7 +1909,7 @@
         <v>157.8699951171875</v>
       </c>
       <c r="E76">
-        <v>157.8699951171875</v>
+        <v>157.6691131591797</v>
       </c>
       <c r="F76">
         <v>137827700</v>
@@ -1929,7 +1929,7 @@
         <v>160.5500030517578</v>
       </c>
       <c r="E77">
-        <v>160.5500030517578</v>
+        <v>160.3457183837891</v>
       </c>
       <c r="F77">
         <v>117305600</v>
@@ -1949,7 +1949,7 @@
         <v>161.0200042724609</v>
       </c>
       <c r="E78">
-        <v>161.0200042724609</v>
+        <v>160.8151092529297</v>
       </c>
       <c r="F78">
         <v>117467900</v>
@@ -1969,7 +1969,7 @@
         <v>161.4100036621094</v>
       </c>
       <c r="E79">
-        <v>161.4100036621094</v>
+        <v>161.2046203613281</v>
       </c>
       <c r="F79">
         <v>96041900</v>
@@ -1989,7 +1989,7 @@
         <v>161.9400024414062</v>
       </c>
       <c r="E80">
-        <v>161.9400024414062</v>
+        <v>161.7339477539062</v>
       </c>
       <c r="F80">
         <v>69463600</v>
@@ -2009,7 +2009,7 @@
         <v>156.8099975585938</v>
       </c>
       <c r="E81">
-        <v>156.8099975585938</v>
+        <v>156.6104736328125</v>
       </c>
       <c r="F81">
         <v>76959800</v>
@@ -2029,7 +2029,7 @@
         <v>160.2400054931641</v>
       </c>
       <c r="E82">
-        <v>160.2400054931641</v>
+        <v>160.0361022949219</v>
       </c>
       <c r="F82">
         <v>88748200</v>
@@ -2049,7 +2049,7 @@
         <v>165.3000030517578</v>
       </c>
       <c r="E83">
-        <v>165.3000030517578</v>
+        <v>165.0896759033203</v>
       </c>
       <c r="F83">
         <v>174048100</v>
@@ -2069,7 +2069,7 @@
         <v>164.7700042724609</v>
       </c>
       <c r="E84">
-        <v>164.7700042724609</v>
+        <v>164.5603485107422</v>
       </c>
       <c r="F84">
         <v>152052500</v>
@@ -2089,7 +2089,7 @@
         <v>163.7599945068359</v>
       </c>
       <c r="E85">
-        <v>163.7599945068359</v>
+        <v>163.5516204833984</v>
       </c>
       <c r="F85">
         <v>136739200</v>
@@ -2109,7 +2109,7 @@
         <v>161.8399963378906</v>
       </c>
       <c r="E86">
-        <v>161.8399963378906</v>
+        <v>161.6340637207031</v>
       </c>
       <c r="F86">
         <v>117938300</v>
@@ -2129,7 +2129,7 @@
         <v>165.3200073242188</v>
       </c>
       <c r="E87">
-        <v>165.3200073242188</v>
+        <v>165.1096496582031</v>
       </c>
       <c r="F87">
         <v>107497000</v>
@@ -2149,7 +2149,7 @@
         <v>171.1799926757812</v>
       </c>
       <c r="E88">
-        <v>171.1799926757812</v>
+        <v>170.9621734619141</v>
       </c>
       <c r="F88">
         <v>120405400</v>
@@ -2169,7 +2169,7 @@
         <v>175.0800018310547</v>
       </c>
       <c r="E89">
-        <v>175.0800018310547</v>
+        <v>174.8572235107422</v>
       </c>
       <c r="F89">
         <v>116998900</v>
@@ -2189,7 +2189,7 @@
         <v>174.5599975585938</v>
       </c>
       <c r="E90">
-        <v>174.5599975585938</v>
+        <v>174.3378753662109</v>
       </c>
       <c r="F90">
         <v>108923700</v>
@@ -2209,7 +2209,7 @@
         <v>179.4499969482422</v>
       </c>
       <c r="E91">
-        <v>179.4499969482422</v>
+        <v>179.2216644287109</v>
       </c>
       <c r="F91">
         <v>115228100</v>
@@ -2229,7 +2229,7 @@
         <v>175.7400054931641</v>
       </c>
       <c r="E92">
-        <v>175.7400054931641</v>
+        <v>175.5163879394531</v>
       </c>
       <c r="F92">
         <v>153237000</v>
@@ -2249,7 +2249,7 @@
         <v>174.3300018310547</v>
       </c>
       <c r="E93">
-        <v>174.3300018310547</v>
+        <v>174.1081848144531</v>
       </c>
       <c r="F93">
         <v>139380400</v>
@@ -2269,7 +2269,7 @@
         <v>179.3000030517578</v>
       </c>
       <c r="E94">
-        <v>179.3000030517578</v>
+        <v>179.0718536376953</v>
       </c>
       <c r="F94">
         <v>131063300</v>
@@ -2289,7 +2289,7 @@
         <v>172.2599945068359</v>
       </c>
       <c r="E95">
-        <v>172.2599945068359</v>
+        <v>172.0408020019531</v>
       </c>
       <c r="F95">
         <v>150185800</v>
@@ -2309,7 +2309,7 @@
         <v>171.1399993896484</v>
       </c>
       <c r="E96">
-        <v>171.1399993896484</v>
+        <v>170.9222412109375</v>
       </c>
       <c r="F96">
         <v>195432700</v>
@@ -2329,7 +2329,7 @@
         <v>169.75</v>
       </c>
       <c r="E97">
-        <v>169.75</v>
+        <v>169.5339965820312</v>
       </c>
       <c r="F97">
         <v>107499100</v>
@@ -2349,7 +2349,7 @@
         <v>172.9900054931641</v>
       </c>
       <c r="E98">
-        <v>172.9900054931641</v>
+        <v>172.7698822021484</v>
       </c>
       <c r="F98">
         <v>91185900</v>
@@ -2369,7 +2369,7 @@
         <v>175.6399993896484</v>
       </c>
       <c r="E99">
-        <v>175.6399993896484</v>
+        <v>175.41650390625</v>
       </c>
       <c r="F99">
         <v>92135300</v>
@@ -2389,7 +2389,7 @@
         <v>176.2799987792969</v>
       </c>
       <c r="E100">
-        <v>176.2799987792969</v>
+        <v>176.0556945800781</v>
       </c>
       <c r="F100">
         <v>68356600</v>
@@ -2409,7 +2409,7 @@
         <v>180.3300018310547</v>
       </c>
       <c r="E101">
-        <v>180.3300018310547</v>
+        <v>180.1005401611328</v>
       </c>
       <c r="F101">
         <v>74919600</v>
@@ -2429,7 +2429,7 @@
         <v>179.2899932861328</v>
       </c>
       <c r="E102">
-        <v>179.2899932861328</v>
+        <v>179.0618591308594</v>
       </c>
       <c r="F102">
         <v>79144300</v>
@@ -2449,7 +2449,7 @@
         <v>179.3800048828125</v>
       </c>
       <c r="E103">
-        <v>179.3800048828125</v>
+        <v>179.1517486572266</v>
       </c>
       <c r="F103">
         <v>62348900</v>
@@ -2469,7 +2469,7 @@
         <v>178.1999969482422</v>
       </c>
       <c r="E104">
-        <v>178.1999969482422</v>
+        <v>177.9732513427734</v>
       </c>
       <c r="F104">
         <v>59773000</v>
@@ -2489,7 +2489,7 @@
         <v>177.5700073242188</v>
       </c>
       <c r="E105">
-        <v>177.5700073242188</v>
+        <v>177.3440551757812</v>
       </c>
       <c r="F105">
         <v>64062300</v>
@@ -2509,7 +2509,7 @@
         <v>182.0099945068359</v>
       </c>
       <c r="E106">
-        <v>182.0099945068359</v>
+        <v>181.7783966064453</v>
       </c>
       <c r="F106">
         <v>104487900</v>
@@ -2529,7 +2529,7 @@
         <v>179.6999969482422</v>
       </c>
       <c r="E107">
-        <v>179.6999969482422</v>
+        <v>179.4713439941406</v>
       </c>
       <c r="F107">
         <v>99310400</v>
@@ -2549,7 +2549,7 @@
         <v>174.9199981689453</v>
       </c>
       <c r="E108">
-        <v>174.9199981689453</v>
+        <v>174.6974182128906</v>
       </c>
       <c r="F108">
         <v>94537600</v>
@@ -2569,7 +2569,7 @@
         <v>172</v>
       </c>
       <c r="E109">
-        <v>172</v>
+        <v>171.7811431884766</v>
       </c>
       <c r="F109">
         <v>96904000</v>
@@ -2589,7 +2589,7 @@
         <v>172.1699981689453</v>
       </c>
       <c r="E110">
-        <v>172.1699981689453</v>
+        <v>171.950927734375</v>
       </c>
       <c r="F110">
         <v>86580100</v>
@@ -2609,7 +2609,7 @@
         <v>172.1900024414062</v>
       </c>
       <c r="E111">
-        <v>172.1900024414062</v>
+        <v>171.9709014892578</v>
       </c>
       <c r="F111">
         <v>106765600</v>
@@ -2629,7 +2629,7 @@
         <v>175.0800018310547</v>
       </c>
       <c r="E112">
-        <v>175.0800018310547</v>
+        <v>174.8572235107422</v>
       </c>
       <c r="F112">
         <v>76138300</v>
@@ -2649,7 +2649,7 @@
         <v>175.5299987792969</v>
       </c>
       <c r="E113">
-        <v>175.5299987792969</v>
+        <v>175.306640625</v>
       </c>
       <c r="F113">
         <v>74805200</v>
@@ -2669,7 +2669,7 @@
         <v>172.1900024414062</v>
       </c>
       <c r="E114">
-        <v>172.1900024414062</v>
+        <v>171.9709014892578</v>
       </c>
       <c r="F114">
         <v>84505800</v>
@@ -2689,7 +2689,7 @@
         <v>173.0700073242188</v>
       </c>
       <c r="E115">
-        <v>173.0700073242188</v>
+        <v>172.8497924804688</v>
       </c>
       <c r="F115">
         <v>80355000</v>
@@ -2709,7 +2709,7 @@
         <v>169.8000030517578</v>
       </c>
       <c r="E116">
-        <v>169.8000030517578</v>
+        <v>169.5839385986328</v>
       </c>
       <c r="F116">
         <v>90956700</v>
@@ -2729,7 +2729,7 @@
         <v>166.2299957275391</v>
       </c>
       <c r="E117">
-        <v>166.2299957275391</v>
+        <v>166.0184783935547</v>
       </c>
       <c r="F117">
         <v>94815000</v>
@@ -2749,7 +2749,7 @@
         <v>164.5099945068359</v>
       </c>
       <c r="E118">
-        <v>164.5099945068359</v>
+        <v>164.3006591796875</v>
       </c>
       <c r="F118">
         <v>91420500</v>
@@ -2769,7 +2769,7 @@
         <v>162.4100036621094</v>
       </c>
       <c r="E119">
-        <v>162.4100036621094</v>
+        <v>162.2033538818359</v>
       </c>
       <c r="F119">
         <v>122848900</v>
@@ -2789,7 +2789,7 @@
         <v>161.6199951171875</v>
       </c>
       <c r="E120">
-        <v>161.6199951171875</v>
+        <v>161.4143371582031</v>
       </c>
       <c r="F120">
         <v>162294600</v>
@@ -2809,10 +2809,10 @@
         <v>159.7799987792969</v>
       </c>
       <c r="E121">
-        <v>159.7799987792969</v>
+        <v>159.5766906738281</v>
       </c>
       <c r="F121">
-        <v>114972000</v>
+        <v>115798400</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2829,7 +2829,7 @@
         <v>159.6900024414062</v>
       </c>
       <c r="E122">
-        <v>159.6900024414062</v>
+        <v>159.4868011474609</v>
       </c>
       <c r="F122">
         <v>108275300</v>
@@ -2849,7 +2849,7 @@
         <v>159.2200012207031</v>
       </c>
       <c r="E123">
-        <v>159.2200012207031</v>
+        <v>159.0174102783203</v>
       </c>
       <c r="F123">
         <v>121954600</v>
@@ -2869,7 +2869,7 @@
         <v>170.3300018310547</v>
       </c>
       <c r="E124">
-        <v>170.3300018310547</v>
+        <v>170.1132659912109</v>
       </c>
       <c r="F124">
         <v>179935700</v>
@@ -2889,7 +2889,7 @@
         <v>174.7799987792969</v>
       </c>
       <c r="E125">
-        <v>174.7799987792969</v>
+        <v>174.5576019287109</v>
       </c>
       <c r="F125">
         <v>115541600</v>
@@ -2909,10 +2909,10 @@
         <v>174.6100006103516</v>
       </c>
       <c r="E126">
-        <v>174.6100006103516</v>
+        <v>174.3878173828125</v>
       </c>
       <c r="F126">
-        <v>85908800</v>
+        <v>86213900</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2929,7 +2929,7 @@
         <v>175.8399963378906</v>
       </c>
       <c r="E127">
-        <v>175.8399963378906</v>
+        <v>175.6162567138672</v>
       </c>
       <c r="F127">
         <v>84914300</v>
@@ -2949,7 +2949,7 @@
         <v>172.8999938964844</v>
       </c>
       <c r="E128">
-        <v>172.8999938964844</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="F128">
         <v>89418100</v>
@@ -2960,7 +2960,7 @@
         <v>171.6799926757812</v>
       </c>
       <c r="B129">
-        <v>174.0973968505859</v>
+        <v>174.1000061035156</v>
       </c>
       <c r="C129">
         <v>170.6799926757812</v>
@@ -2972,7 +2972,7 @@
         <v>172.3899993896484</v>
       </c>
       <c r="F129">
-        <v>82465400</v>
+        <v>82391400</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/AAPL/HighLow.xlsx
+++ b/Stocks/AAPL/HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>146.9799957275391</v>
+        <v>146.1900024414062</v>
       </c>
       <c r="B2">
-        <v>147.8399963378906</v>
+        <v>149.0500030517578</v>
       </c>
       <c r="C2">
-        <v>146.1699981689453</v>
+        <v>145.8399963378906</v>
       </c>
       <c r="D2">
-        <v>147.0599975585938</v>
+        <v>148.8899993896484</v>
       </c>
       <c r="E2">
-        <v>146.4394378662109</v>
+        <v>148.4838409423828</v>
       </c>
       <c r="F2">
-        <v>46397700</v>
+        <v>72282600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>146.3500061035156</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="B3">
-        <v>147.1100006103516</v>
+        <v>149.4400024414062</v>
       </c>
       <c r="C3">
-        <v>145.6300048828125</v>
+        <v>148.2700042724609</v>
       </c>
       <c r="D3">
-        <v>146.1399993896484</v>
+        <v>149.1000061035156</v>
       </c>
       <c r="E3">
-        <v>145.7413330078125</v>
+        <v>148.6932830810547</v>
       </c>
       <c r="F3">
-        <v>54067400</v>
+        <v>59318800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>146.1999969482422</v>
+        <v>148.5399932861328</v>
       </c>
       <c r="B4">
-        <v>146.6999969482422</v>
+        <v>151.1900024414062</v>
       </c>
       <c r="C4">
-        <v>145.5200042724609</v>
+        <v>146.4700012207031</v>
       </c>
       <c r="D4">
-        <v>146.0899963378906</v>
+        <v>151.1199951171875</v>
       </c>
       <c r="E4">
-        <v>145.6914672851562</v>
+        <v>150.7077484130859</v>
       </c>
       <c r="F4">
-        <v>48908700</v>
+        <v>103296000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>146.4400024414062</v>
+        <v>150.2299957275391</v>
       </c>
       <c r="B5">
-        <v>147.7100067138672</v>
+        <v>151.6799926757812</v>
       </c>
       <c r="C5">
-        <v>145.3000030517578</v>
+        <v>149.0899963378906</v>
       </c>
       <c r="D5">
-        <v>145.6000061035156</v>
+        <v>150.1900024414062</v>
       </c>
       <c r="E5">
-        <v>145.2028198242188</v>
+        <v>149.7803039550781</v>
       </c>
       <c r="F5">
-        <v>69023100</v>
+        <v>92229700</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>146.0500030517578</v>
+        <v>149.8000030517578</v>
       </c>
       <c r="B6">
-        <v>146.7200012207031</v>
+        <v>150.7200012207031</v>
       </c>
       <c r="C6">
-        <v>145.5299987792969</v>
+        <v>146.1499938964844</v>
       </c>
       <c r="D6">
-        <v>145.8600006103516</v>
+        <v>146.3600006103516</v>
       </c>
       <c r="E6">
-        <v>145.4620971679688</v>
+        <v>145.9607391357422</v>
       </c>
       <c r="F6">
-        <v>48493500</v>
+        <v>86326000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>146.1900024414062</v>
+        <v>145.0299987792969</v>
       </c>
       <c r="B7">
-        <v>149.0500030517578</v>
+        <v>148</v>
       </c>
       <c r="C7">
-        <v>145.8399963378906</v>
+        <v>144.5</v>
       </c>
       <c r="D7">
-        <v>148.8899993896484</v>
+        <v>146.6999969482422</v>
       </c>
       <c r="E7">
-        <v>148.4838409423828</v>
+        <v>146.2998046875</v>
       </c>
       <c r="F7">
-        <v>72282600</v>
+        <v>86960300</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>148.9700012207031</v>
+        <v>147.4400024414062</v>
       </c>
       <c r="B8">
-        <v>149.4400024414062</v>
+        <v>148.5</v>
       </c>
       <c r="C8">
-        <v>148.2700042724609</v>
+        <v>146.7799987792969</v>
       </c>
       <c r="D8">
-        <v>149.1000061035156</v>
+        <v>148.1900024414062</v>
       </c>
       <c r="E8">
-        <v>148.6932830810547</v>
+        <v>147.7857513427734</v>
       </c>
       <c r="F8">
-        <v>59318800</v>
+        <v>59947400</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>148.5399932861328</v>
+        <v>148.3099975585938</v>
       </c>
       <c r="B9">
-        <v>151.1900024414062</v>
+        <v>150.1900024414062</v>
       </c>
       <c r="C9">
-        <v>146.4700012207031</v>
+        <v>147.8899993896484</v>
       </c>
       <c r="D9">
-        <v>151.1199951171875</v>
+        <v>149.7100067138672</v>
       </c>
       <c r="E9">
-        <v>150.7077484130859</v>
+        <v>149.3016204833984</v>
       </c>
       <c r="F9">
-        <v>103296000</v>
+        <v>60131800</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>150.2299957275391</v>
+        <v>149.4499969482422</v>
       </c>
       <c r="B10">
-        <v>151.6799926757812</v>
+        <v>150.8600006103516</v>
       </c>
       <c r="C10">
-        <v>149.0899963378906</v>
+        <v>149.1499938964844</v>
       </c>
       <c r="D10">
-        <v>150.1900024414062</v>
+        <v>149.6199951171875</v>
       </c>
       <c r="E10">
-        <v>149.7803039550781</v>
+        <v>149.2118377685547</v>
       </c>
       <c r="F10">
-        <v>92229700</v>
+        <v>48606400</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>149.8000030517578</v>
+        <v>149.8099975585938</v>
       </c>
       <c r="B11">
-        <v>150.7200012207031</v>
+        <v>150.3200073242188</v>
       </c>
       <c r="C11">
-        <v>146.1499938964844</v>
+        <v>147.8000030517578</v>
       </c>
       <c r="D11">
-        <v>146.3600006103516</v>
+        <v>148.3600006103516</v>
       </c>
       <c r="E11">
-        <v>145.9607391357422</v>
+        <v>147.9552764892578</v>
       </c>
       <c r="F11">
-        <v>86326000</v>
+        <v>58991300</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>145.0299987792969</v>
+        <v>148.3500061035156</v>
       </c>
       <c r="B12">
-        <v>148</v>
+        <v>149.1199951171875</v>
       </c>
       <c r="C12">
-        <v>144.5</v>
+        <v>147.5099945068359</v>
       </c>
       <c r="D12">
-        <v>146.6999969482422</v>
+        <v>147.5399932861328</v>
       </c>
       <c r="E12">
-        <v>146.2998046875</v>
+        <v>147.1375122070312</v>
       </c>
       <c r="F12">
-        <v>86960300</v>
+        <v>48597200</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>147.4400024414062</v>
+        <v>147.4799957275391</v>
       </c>
       <c r="B13">
-        <v>148.5</v>
+        <v>148.75</v>
       </c>
       <c r="C13">
-        <v>146.7799987792969</v>
+        <v>146.8300018310547</v>
       </c>
       <c r="D13">
-        <v>148.1900024414062</v>
+        <v>148.6000061035156</v>
       </c>
       <c r="E13">
-        <v>147.7857513427734</v>
+        <v>148.1946411132812</v>
       </c>
       <c r="F13">
-        <v>59947400</v>
+        <v>55721500</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>148.3099975585938</v>
+        <v>149</v>
       </c>
       <c r="B14">
-        <v>150.1900024414062</v>
+        <v>153.4900054931641</v>
       </c>
       <c r="C14">
-        <v>147.8899993896484</v>
+        <v>148.6100006103516</v>
       </c>
       <c r="D14">
-        <v>149.7100067138672</v>
+        <v>153.1199951171875</v>
       </c>
       <c r="E14">
-        <v>149.3016204833984</v>
+        <v>152.7023010253906</v>
       </c>
       <c r="F14">
-        <v>60131800</v>
+        <v>90956700</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>149.4499969482422</v>
+        <v>152.6600036621094</v>
       </c>
       <c r="B15">
-        <v>150.8600006103516</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="C15">
-        <v>149.1499938964844</v>
+        <v>151.2899932861328</v>
       </c>
       <c r="D15">
-        <v>149.6199951171875</v>
+        <v>151.8300018310547</v>
       </c>
       <c r="E15">
-        <v>149.2118377685547</v>
+        <v>151.4158172607422</v>
       </c>
       <c r="F15">
-        <v>48606400</v>
+        <v>86453100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>149.8099975585938</v>
+        <v>152.8300018310547</v>
       </c>
       <c r="B16">
-        <v>150.3200073242188</v>
+        <v>154.9799957275391</v>
       </c>
       <c r="C16">
-        <v>147.8000030517578</v>
+        <v>152.3399963378906</v>
       </c>
       <c r="D16">
-        <v>148.3600006103516</v>
+        <v>152.5099945068359</v>
       </c>
       <c r="E16">
-        <v>147.9552764892578</v>
+        <v>152.0939636230469</v>
       </c>
       <c r="F16">
-        <v>58991300</v>
+        <v>80313700</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>148.3500061035156</v>
+        <v>153.8699951171875</v>
       </c>
       <c r="B17">
-        <v>149.1199951171875</v>
+        <v>154.7200012207031</v>
       </c>
       <c r="C17">
-        <v>147.5099945068359</v>
+        <v>152.3999938964844</v>
       </c>
       <c r="D17">
-        <v>147.5399932861328</v>
+        <v>153.6499938964844</v>
       </c>
       <c r="E17">
-        <v>147.1375122070312</v>
+        <v>153.2308502197266</v>
       </c>
       <c r="F17">
-        <v>48597200</v>
+        <v>71115500</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>147.4799957275391</v>
+        <v>153.7599945068359</v>
       </c>
       <c r="B18">
-        <v>148.75</v>
+        <v>154.6300048828125</v>
       </c>
       <c r="C18">
-        <v>146.8300018310547</v>
+        <v>153.0899963378906</v>
       </c>
       <c r="D18">
-        <v>148.6000061035156</v>
+        <v>154.3000030517578</v>
       </c>
       <c r="E18">
-        <v>148.1946411132812</v>
+        <v>153.8790893554688</v>
       </c>
       <c r="F18">
-        <v>55721500</v>
+        <v>57808700</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>149</v>
+        <v>154.9700012207031</v>
       </c>
       <c r="B19">
-        <v>153.4900054931641</v>
+        <v>157.2599945068359</v>
       </c>
       <c r="C19">
-        <v>148.6100006103516</v>
+        <v>154.3899993896484</v>
       </c>
       <c r="D19">
-        <v>153.1199951171875</v>
+        <v>156.6900024414062</v>
       </c>
       <c r="E19">
-        <v>152.7023010253906</v>
+        <v>156.2625732421875</v>
       </c>
       <c r="F19">
-        <v>90956700</v>
+        <v>82278300</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>152.6600036621094</v>
+        <v>156.9799957275391</v>
       </c>
       <c r="B20">
-        <v>152.8000030517578</v>
+        <v>157.0399932861328</v>
       </c>
       <c r="C20">
-        <v>151.2899932861328</v>
+        <v>153.9799957275391</v>
       </c>
       <c r="D20">
-        <v>151.8300018310547</v>
+        <v>155.1100006103516</v>
       </c>
       <c r="E20">
-        <v>151.4158172607422</v>
+        <v>154.6868743896484</v>
       </c>
       <c r="F20">
-        <v>86453100</v>
+        <v>74420200</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>152.8300018310547</v>
+        <v>155.4900054931641</v>
       </c>
       <c r="B21">
-        <v>154.9799957275391</v>
+        <v>156.1100006103516</v>
       </c>
       <c r="C21">
-        <v>152.3399963378906</v>
+        <v>153.9499969482422</v>
       </c>
       <c r="D21">
-        <v>152.5099945068359</v>
+        <v>154.0700073242188</v>
       </c>
       <c r="E21">
-        <v>152.0939636230469</v>
+        <v>153.6497192382812</v>
       </c>
       <c r="F21">
-        <v>80313700</v>
+        <v>57305700</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>153.8699951171875</v>
+        <v>155</v>
       </c>
       <c r="B22">
-        <v>154.7200012207031</v>
+        <v>155.4799957275391</v>
       </c>
       <c r="C22">
-        <v>152.3999938964844</v>
+        <v>148.6999969482422</v>
       </c>
       <c r="D22">
-        <v>153.6499938964844</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="E22">
-        <v>153.2308502197266</v>
+        <v>148.5636138916016</v>
       </c>
       <c r="F22">
-        <v>71115500</v>
+        <v>140646400</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>153.7599945068359</v>
+        <v>150.6300048828125</v>
       </c>
       <c r="B23">
-        <v>154.6300048828125</v>
+        <v>151.4199981689453</v>
       </c>
       <c r="C23">
-        <v>153.0899963378906</v>
+        <v>148.75</v>
       </c>
       <c r="D23">
-        <v>154.3000030517578</v>
+        <v>149.5500030517578</v>
       </c>
       <c r="E23">
-        <v>153.8790893554688</v>
+        <v>149.1420440673828</v>
       </c>
       <c r="F23">
-        <v>57808700</v>
+        <v>102404300</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>154.9700012207031</v>
+        <v>150.3500061035156</v>
       </c>
       <c r="B24">
-        <v>157.2599945068359</v>
+        <v>151.0700073242188</v>
       </c>
       <c r="C24">
-        <v>154.3899993896484</v>
+        <v>146.9100036621094</v>
       </c>
       <c r="D24">
-        <v>156.6900024414062</v>
+        <v>148.1199951171875</v>
       </c>
       <c r="E24">
-        <v>156.2625732421875</v>
+        <v>147.7159271240234</v>
       </c>
       <c r="F24">
-        <v>82278300</v>
+        <v>109296300</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>156.9799957275391</v>
+        <v>148.5599975585938</v>
       </c>
       <c r="B25">
-        <v>157.0399932861328</v>
+        <v>149.4400024414062</v>
       </c>
       <c r="C25">
-        <v>153.9799957275391</v>
+        <v>146.3699951171875</v>
       </c>
       <c r="D25">
-        <v>155.1100006103516</v>
+        <v>149.0299987792969</v>
       </c>
       <c r="E25">
-        <v>154.6868743896484</v>
+        <v>148.6234436035156</v>
       </c>
       <c r="F25">
-        <v>74420200</v>
+        <v>83281300</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>155.4900054931641</v>
+        <v>148.4400024414062</v>
       </c>
       <c r="B26">
-        <v>156.1100006103516</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="C26">
-        <v>153.9499969482422</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="D26">
-        <v>154.0700073242188</v>
+        <v>148.7899932861328</v>
       </c>
       <c r="E26">
-        <v>153.6497192382812</v>
+        <v>148.3840942382812</v>
       </c>
       <c r="F26">
-        <v>57305700</v>
+        <v>68034100</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>155</v>
+        <v>148.8200073242188</v>
       </c>
       <c r="B27">
-        <v>155.4799957275391</v>
+        <v>148.8200073242188</v>
       </c>
       <c r="C27">
-        <v>148.6999969482422</v>
+        <v>145.7599945068359</v>
       </c>
       <c r="D27">
-        <v>148.9700012207031</v>
+        <v>146.0599975585938</v>
       </c>
       <c r="E27">
-        <v>148.5636138916016</v>
+        <v>145.6615600585938</v>
       </c>
       <c r="F27">
-        <v>140646400</v>
+        <v>129868800</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>150.6300048828125</v>
+        <v>143.8000030517578</v>
       </c>
       <c r="B28">
-        <v>151.4199981689453</v>
+        <v>144.8399963378906</v>
       </c>
       <c r="C28">
-        <v>148.75</v>
+        <v>141.2700042724609</v>
       </c>
       <c r="D28">
-        <v>149.5500030517578</v>
+        <v>142.9400024414062</v>
       </c>
       <c r="E28">
-        <v>149.1420440673828</v>
+        <v>142.5500793457031</v>
       </c>
       <c r="F28">
-        <v>102404300</v>
+        <v>123478900</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>150.3500061035156</v>
+        <v>143.9299926757812</v>
       </c>
       <c r="B29">
-        <v>151.0700073242188</v>
+        <v>144.6000061035156</v>
       </c>
       <c r="C29">
-        <v>146.9100036621094</v>
+        <v>142.7799987792969</v>
       </c>
       <c r="D29">
-        <v>148.1199951171875</v>
+        <v>143.4299926757812</v>
       </c>
       <c r="E29">
-        <v>147.7159271240234</v>
+        <v>143.0387268066406</v>
       </c>
       <c r="F29">
-        <v>109296300</v>
+        <v>75834000</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>148.5599975585938</v>
+        <v>144.4499969482422</v>
       </c>
       <c r="B30">
-        <v>149.4400024414062</v>
+        <v>146.4299926757812</v>
       </c>
       <c r="C30">
-        <v>146.3699951171875</v>
+        <v>143.6999969482422</v>
       </c>
       <c r="D30">
-        <v>149.0299987792969</v>
+        <v>145.8500061035156</v>
       </c>
       <c r="E30">
-        <v>148.6234436035156</v>
+        <v>145.4521331787109</v>
       </c>
       <c r="F30">
-        <v>83281300</v>
+        <v>76404300</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>148.4400024414062</v>
+        <v>146.6499938964844</v>
       </c>
       <c r="B31">
-        <v>148.9700012207031</v>
+        <v>147.0800018310547</v>
       </c>
       <c r="C31">
-        <v>147.2200012207031</v>
+        <v>145.6399993896484</v>
       </c>
       <c r="D31">
-        <v>148.7899932861328</v>
+        <v>146.8300018310547</v>
       </c>
       <c r="E31">
-        <v>148.3840942382812</v>
+        <v>146.4294738769531</v>
       </c>
       <c r="F31">
-        <v>68034100</v>
+        <v>64838200</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>148.8200073242188</v>
+        <v>145.6600036621094</v>
       </c>
       <c r="B32">
-        <v>148.8200073242188</v>
+        <v>147.4700012207031</v>
       </c>
       <c r="C32">
-        <v>145.7599945068359</v>
+        <v>145.5599975585938</v>
       </c>
       <c r="D32">
-        <v>146.0599975585938</v>
+        <v>146.9199981689453</v>
       </c>
       <c r="E32">
-        <v>145.6615600585938</v>
+        <v>146.5192108154297</v>
       </c>
       <c r="F32">
-        <v>129868800</v>
+        <v>53477900</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>143.8000030517578</v>
+        <v>145.4700012207031</v>
       </c>
       <c r="B33">
-        <v>144.8399963378906</v>
+        <v>145.9600067138672</v>
       </c>
       <c r="C33">
-        <v>141.2700042724609</v>
+        <v>143.8200073242188</v>
       </c>
       <c r="D33">
-        <v>142.9400024414062</v>
+        <v>145.3699951171875</v>
       </c>
       <c r="E33">
-        <v>142.5500793457031</v>
+        <v>144.9734344482422</v>
       </c>
       <c r="F33">
-        <v>123478900</v>
+        <v>74150700</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>143.9299926757812</v>
+        <v>143.25</v>
       </c>
       <c r="B34">
-        <v>144.6000061035156</v>
+        <v>144.75</v>
       </c>
       <c r="C34">
-        <v>142.7799987792969</v>
+        <v>141.6900024414062</v>
       </c>
       <c r="D34">
-        <v>143.4299926757812</v>
+        <v>141.9100036621094</v>
       </c>
       <c r="E34">
-        <v>143.0387268066406</v>
+        <v>141.5228729248047</v>
       </c>
       <c r="F34">
-        <v>75834000</v>
+        <v>108972300</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
+        <v>142.4700012207031</v>
+      </c>
+      <c r="B35">
         <v>144.4499969482422</v>
       </c>
-      <c r="B35">
-        <v>146.4299926757812</v>
-      </c>
       <c r="C35">
-        <v>143.6999969482422</v>
+        <v>142.0299987792969</v>
       </c>
       <c r="D35">
-        <v>145.8500061035156</v>
+        <v>142.8300018310547</v>
       </c>
       <c r="E35">
-        <v>145.4521331787109</v>
+        <v>142.4403839111328</v>
       </c>
       <c r="F35">
-        <v>76404300</v>
+        <v>74602000</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>146.6499938964844</v>
+        <v>143.6600036621094</v>
       </c>
       <c r="B36">
-        <v>147.0800018310547</v>
+        <v>144.3800048828125</v>
       </c>
       <c r="C36">
-        <v>145.6399993896484</v>
+        <v>141.2799987792969</v>
       </c>
       <c r="D36">
-        <v>146.8300018310547</v>
+        <v>141.5</v>
       </c>
       <c r="E36">
-        <v>146.4294738769531</v>
+        <v>141.1139984130859</v>
       </c>
       <c r="F36">
-        <v>64838200</v>
+        <v>88934200</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>145.6600036621094</v>
+        <v>141.8999938964844</v>
       </c>
       <c r="B37">
-        <v>147.4700012207031</v>
+        <v>142.9199981689453</v>
       </c>
       <c r="C37">
-        <v>145.5599975585938</v>
+        <v>139.1100006103516</v>
       </c>
       <c r="D37">
-        <v>146.9199981689453</v>
+        <v>142.6499938964844</v>
       </c>
       <c r="E37">
-        <v>146.5192108154297</v>
+        <v>142.2608642578125</v>
       </c>
       <c r="F37">
-        <v>53477900</v>
+        <v>94639600</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>145.4700012207031</v>
+        <v>141.7599945068359</v>
       </c>
       <c r="B38">
-        <v>145.9600067138672</v>
+        <v>142.2100067138672</v>
       </c>
       <c r="C38">
-        <v>143.8200073242188</v>
+        <v>138.2700042724609</v>
       </c>
       <c r="D38">
-        <v>145.3699951171875</v>
+        <v>139.1399993896484</v>
       </c>
       <c r="E38">
-        <v>144.9734344482422</v>
+        <v>138.7604370117188</v>
       </c>
       <c r="F38">
-        <v>74150700</v>
+        <v>98322000</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>143.25</v>
+        <v>139.4900054931641</v>
       </c>
       <c r="B39">
-        <v>144.75</v>
+        <v>142.2400054931641</v>
       </c>
       <c r="C39">
-        <v>141.6900024414062</v>
+        <v>139.3600006103516</v>
       </c>
       <c r="D39">
-        <v>141.9100036621094</v>
+        <v>141.1100006103516</v>
       </c>
       <c r="E39">
-        <v>141.5228729248047</v>
+        <v>140.7250671386719</v>
       </c>
       <c r="F39">
-        <v>108972300</v>
+        <v>80861100</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>142.4700012207031</v>
+        <v>139.4700012207031</v>
       </c>
       <c r="B40">
-        <v>144.4499969482422</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="C40">
-        <v>142.0299987792969</v>
+        <v>138.3699951171875</v>
       </c>
       <c r="D40">
-        <v>142.8300018310547</v>
+        <v>142</v>
       </c>
       <c r="E40">
-        <v>142.4403839111328</v>
+        <v>141.6126403808594</v>
       </c>
       <c r="F40">
-        <v>74602000</v>
+        <v>83221100</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>143.6600036621094</v>
+        <v>143.0599975585938</v>
       </c>
       <c r="B41">
-        <v>144.3800048828125</v>
+        <v>144.2200012207031</v>
       </c>
       <c r="C41">
-        <v>141.2799987792969</v>
+        <v>142.7200012207031</v>
       </c>
       <c r="D41">
-        <v>141.5</v>
+        <v>143.2899932861328</v>
       </c>
       <c r="E41">
-        <v>141.1139984130859</v>
+        <v>142.8991088867188</v>
       </c>
       <c r="F41">
-        <v>88934200</v>
+        <v>61732700</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>141.8999938964844</v>
+        <v>144.0299987792969</v>
       </c>
       <c r="B42">
-        <v>142.9199981689453</v>
+        <v>144.1799926757812</v>
       </c>
       <c r="C42">
-        <v>139.1100006103516</v>
+        <v>142.5599975585938</v>
       </c>
       <c r="D42">
-        <v>142.6499938964844</v>
+        <v>142.8999938964844</v>
       </c>
       <c r="E42">
-        <v>142.2608642578125</v>
+        <v>142.5101776123047</v>
       </c>
       <c r="F42">
-        <v>94639600</v>
+        <v>58718700</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>141.7599945068359</v>
+        <v>142.2700042724609</v>
       </c>
       <c r="B43">
-        <v>142.2100067138672</v>
+        <v>144.8099975585938</v>
       </c>
       <c r="C43">
-        <v>138.2700042724609</v>
+        <v>141.8099975585938</v>
       </c>
       <c r="D43">
-        <v>139.1399993896484</v>
+        <v>142.8099975585938</v>
       </c>
       <c r="E43">
-        <v>138.7604370117188</v>
+        <v>142.4204254150391</v>
       </c>
       <c r="F43">
-        <v>98322000</v>
+        <v>64452200</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>139.4900054931641</v>
+        <v>143.2299957275391</v>
       </c>
       <c r="B44">
-        <v>142.2400054931641</v>
+        <v>143.25</v>
       </c>
       <c r="C44">
-        <v>139.3600006103516</v>
+        <v>141.0399932861328</v>
       </c>
       <c r="D44">
-        <v>141.1100006103516</v>
+        <v>141.5099945068359</v>
       </c>
       <c r="E44">
-        <v>140.7250671386719</v>
+        <v>141.1239776611328</v>
       </c>
       <c r="F44">
-        <v>80861100</v>
+        <v>73035900</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>139.4700012207031</v>
+        <v>141.2400054931641</v>
       </c>
       <c r="B45">
-        <v>142.1499938964844</v>
+        <v>141.3999938964844</v>
       </c>
       <c r="C45">
-        <v>138.3699951171875</v>
+        <v>139.1999969482422</v>
       </c>
       <c r="D45">
-        <v>142</v>
+        <v>140.9100036621094</v>
       </c>
       <c r="E45">
-        <v>141.6126403808594</v>
+        <v>140.5256195068359</v>
       </c>
       <c r="F45">
-        <v>83221100</v>
+        <v>78762700</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>143.0599975585938</v>
+        <v>142.1100006103516</v>
       </c>
       <c r="B46">
-        <v>144.2200012207031</v>
+        <v>143.8800048828125</v>
       </c>
       <c r="C46">
-        <v>142.7200012207031</v>
+        <v>141.5099945068359</v>
       </c>
       <c r="D46">
-        <v>143.2899932861328</v>
+        <v>143.7599945068359</v>
       </c>
       <c r="E46">
-        <v>142.8991088867188</v>
+        <v>143.3678283691406</v>
       </c>
       <c r="F46">
-        <v>61732700</v>
+        <v>69907100</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>144.0299987792969</v>
+        <v>143.7700042724609</v>
       </c>
       <c r="B47">
-        <v>144.1799926757812</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="C47">
-        <v>142.5599975585938</v>
+        <v>143.5099945068359</v>
       </c>
       <c r="D47">
-        <v>142.8999938964844</v>
+        <v>144.8399963378906</v>
       </c>
       <c r="E47">
-        <v>142.5101776123047</v>
+        <v>144.4448852539062</v>
       </c>
       <c r="F47">
-        <v>58718700</v>
+        <v>67885200</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>142.2700042724609</v>
+        <v>143.4499969482422</v>
       </c>
       <c r="B48">
-        <v>144.8099975585938</v>
+        <v>146.8399963378906</v>
       </c>
       <c r="C48">
-        <v>141.8099975585938</v>
+        <v>143.1600036621094</v>
       </c>
       <c r="D48">
-        <v>142.8099975585938</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="E48">
-        <v>142.4204254150391</v>
+        <v>146.1502227783203</v>
       </c>
       <c r="F48">
-        <v>64452200</v>
+        <v>85589200</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>143.2299957275391</v>
+        <v>147.0099945068359</v>
       </c>
       <c r="B49">
-        <v>143.25</v>
+        <v>149.1699981689453</v>
       </c>
       <c r="C49">
-        <v>141.0399932861328</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="D49">
-        <v>141.5099945068359</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="E49">
-        <v>141.1239776611328</v>
+        <v>148.3541870117188</v>
       </c>
       <c r="F49">
-        <v>73035900</v>
+        <v>76378900</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>141.2400054931641</v>
+        <v>148.6999969482422</v>
       </c>
       <c r="B50">
-        <v>141.3999938964844</v>
+        <v>149.75</v>
       </c>
       <c r="C50">
-        <v>139.1999969482422</v>
+        <v>148.1199951171875</v>
       </c>
       <c r="D50">
-        <v>140.9100036621094</v>
+        <v>149.2599945068359</v>
       </c>
       <c r="E50">
-        <v>140.5256195068359</v>
+        <v>148.8528289794922</v>
       </c>
       <c r="F50">
-        <v>78762700</v>
+        <v>58418800</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>142.1100006103516</v>
+        <v>148.8099975585938</v>
       </c>
       <c r="B51">
-        <v>143.8800048828125</v>
+        <v>149.6399993896484</v>
       </c>
       <c r="C51">
-        <v>141.5099945068359</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="D51">
-        <v>143.7599945068359</v>
+        <v>149.4799957275391</v>
       </c>
       <c r="E51">
-        <v>143.3678283691406</v>
+        <v>149.0722198486328</v>
       </c>
       <c r="F51">
-        <v>69907100</v>
+        <v>61421000</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>143.7700042724609</v>
+        <v>149.6900024414062</v>
       </c>
       <c r="B52">
-        <v>144.8999938964844</v>
+        <v>150.1799926757812</v>
       </c>
       <c r="C52">
-        <v>143.5099945068359</v>
+        <v>148.6399993896484</v>
       </c>
       <c r="D52">
-        <v>144.8399963378906</v>
+        <v>148.6900024414062</v>
       </c>
       <c r="E52">
-        <v>144.4448852539062</v>
+        <v>148.2843933105469</v>
       </c>
       <c r="F52">
-        <v>67885200</v>
+        <v>58883400</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>143.4499969482422</v>
+        <v>148.6799926757812</v>
       </c>
       <c r="B53">
-        <v>146.8399963378906</v>
+        <v>149.3699951171875</v>
       </c>
       <c r="C53">
-        <v>143.1600036621094</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="D53">
-        <v>146.5500030517578</v>
+        <v>148.6399993896484</v>
       </c>
       <c r="E53">
-        <v>146.1502227783203</v>
+        <v>148.2345275878906</v>
       </c>
       <c r="F53">
-        <v>85589200</v>
+        <v>50720600</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>147.0099945068359</v>
+        <v>149.3300018310547</v>
       </c>
       <c r="B54">
-        <v>149.1699981689453</v>
+        <v>150.8399963378906</v>
       </c>
       <c r="C54">
-        <v>146.5500030517578</v>
+        <v>149.0099945068359</v>
       </c>
       <c r="D54">
-        <v>148.7599945068359</v>
+        <v>149.3200073242188</v>
       </c>
       <c r="E54">
-        <v>148.3541870117188</v>
+        <v>148.9126739501953</v>
       </c>
       <c r="F54">
-        <v>76378900</v>
+        <v>60893400</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>148.6999969482422</v>
+        <v>149.3600006103516</v>
       </c>
       <c r="B55">
-        <v>149.75</v>
+        <v>149.7299957275391</v>
       </c>
       <c r="C55">
-        <v>148.1199951171875</v>
+        <v>148.4900054931641</v>
       </c>
       <c r="D55">
-        <v>149.2599945068359</v>
+        <v>148.8500061035156</v>
       </c>
       <c r="E55">
-        <v>148.8528289794922</v>
+        <v>148.4439544677734</v>
       </c>
       <c r="F55">
-        <v>58418800</v>
+        <v>56094900</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>148.8099975585938</v>
+        <v>149.8200073242188</v>
       </c>
       <c r="B56">
-        <v>149.6399993896484</v>
+        <v>153.1699981689453</v>
       </c>
       <c r="C56">
-        <v>147.8699951171875</v>
+        <v>149.7200012207031</v>
       </c>
       <c r="D56">
-        <v>149.4799957275391</v>
+        <v>152.5700073242188</v>
       </c>
       <c r="E56">
-        <v>149.0722198486328</v>
+        <v>152.15380859375</v>
       </c>
       <c r="F56">
-        <v>61421000</v>
+        <v>100077900</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>149.6900024414062</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="B57">
-        <v>150.1799926757812</v>
+        <v>149.9400024414062</v>
       </c>
       <c r="C57">
-        <v>148.6399993896484</v>
+        <v>146.4100036621094</v>
       </c>
       <c r="D57">
-        <v>148.6900024414062</v>
+        <v>149.8000030517578</v>
       </c>
       <c r="E57">
-        <v>148.2843933105469</v>
+        <v>149.391357421875</v>
       </c>
       <c r="F57">
-        <v>58883400</v>
+        <v>124850400</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>148.6799926757812</v>
+        <v>148.9900054931641</v>
       </c>
       <c r="B58">
-        <v>149.3699951171875</v>
+        <v>149.6999969482422</v>
       </c>
       <c r="C58">
-        <v>147.6199951171875</v>
+        <v>147.8000030517578</v>
       </c>
       <c r="D58">
-        <v>148.6399993896484</v>
+        <v>148.9600067138672</v>
       </c>
       <c r="E58">
-        <v>148.2345275878906</v>
+        <v>148.5536499023438</v>
       </c>
       <c r="F58">
-        <v>50720600</v>
+        <v>74588300</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>149.3300018310547</v>
+        <v>148.6600036621094</v>
       </c>
       <c r="B59">
-        <v>150.8399963378906</v>
+        <v>151.5700073242188</v>
       </c>
       <c r="C59">
-        <v>149.0099945068359</v>
+        <v>148.6499938964844</v>
       </c>
       <c r="D59">
-        <v>149.3200073242188</v>
+        <v>150.0200042724609</v>
       </c>
       <c r="E59">
-        <v>148.9126739501953</v>
+        <v>149.6107635498047</v>
       </c>
       <c r="F59">
-        <v>60893400</v>
+        <v>69122000</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>149.3600006103516</v>
+        <v>150.3899993896484</v>
       </c>
       <c r="B60">
-        <v>149.7299957275391</v>
+        <v>151.9700012207031</v>
       </c>
       <c r="C60">
-        <v>148.4900054931641</v>
+        <v>149.8200073242188</v>
       </c>
       <c r="D60">
-        <v>148.8500061035156</v>
+        <v>151.4900054931641</v>
       </c>
       <c r="E60">
-        <v>148.4439544677734</v>
+        <v>151.0767669677734</v>
       </c>
       <c r="F60">
-        <v>56094900</v>
+        <v>54511500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>149.8200073242188</v>
+        <v>151.5800018310547</v>
       </c>
       <c r="B61">
-        <v>153.1699981689453</v>
+        <v>152.4299926757812</v>
       </c>
       <c r="C61">
-        <v>149.7200012207031</v>
+        <v>150.6399993896484</v>
       </c>
       <c r="D61">
-        <v>152.5700073242188</v>
+        <v>150.9600067138672</v>
       </c>
       <c r="E61">
-        <v>152.15380859375</v>
+        <v>150.5482025146484</v>
       </c>
       <c r="F61">
-        <v>100077900</v>
+        <v>60394600</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>147.2200012207031</v>
+        <v>151.8899993896484</v>
       </c>
       <c r="B62">
-        <v>149.9400024414062</v>
+        <v>152.1999969482422</v>
       </c>
       <c r="C62">
-        <v>146.4100036621094</v>
+        <v>150.0599975585938</v>
       </c>
       <c r="D62">
-        <v>149.8000030517578</v>
+        <v>151.2799987792969</v>
       </c>
       <c r="E62">
-        <v>149.391357421875</v>
+        <v>151.0875091552734</v>
       </c>
       <c r="F62">
-        <v>124850400</v>
+        <v>65414600</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>148.9900054931641</v>
+        <v>151.4100036621094</v>
       </c>
       <c r="B63">
-        <v>149.6999969482422</v>
+        <v>151.5700073242188</v>
       </c>
       <c r="C63">
-        <v>147.8000030517578</v>
+        <v>150.1600036621094</v>
       </c>
       <c r="D63">
-        <v>148.9600067138672</v>
+        <v>150.4400024414062</v>
       </c>
       <c r="E63">
-        <v>148.5536499023438</v>
+        <v>150.2485809326172</v>
       </c>
       <c r="F63">
-        <v>74588300</v>
+        <v>55020900</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>148.6600036621094</v>
+        <v>150.1999969482422</v>
       </c>
       <c r="B64">
-        <v>151.5700073242188</v>
+        <v>151.4299926757812</v>
       </c>
       <c r="C64">
-        <v>148.6499938964844</v>
+        <v>150.0599975585938</v>
       </c>
       <c r="D64">
-        <v>150.0200042724609</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="E64">
-        <v>149.6107635498047</v>
+        <v>150.6181030273438</v>
       </c>
       <c r="F64">
-        <v>69122000</v>
+        <v>56787900</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>150.3899993896484</v>
+        <v>150.0200042724609</v>
       </c>
       <c r="B65">
-        <v>151.9700012207031</v>
+        <v>150.1300048828125</v>
       </c>
       <c r="C65">
-        <v>149.8200073242188</v>
+        <v>147.8500061035156</v>
       </c>
       <c r="D65">
-        <v>151.4900054931641</v>
+        <v>147.9199981689453</v>
       </c>
       <c r="E65">
-        <v>151.0767669677734</v>
+        <v>147.7317810058594</v>
       </c>
       <c r="F65">
-        <v>54511500</v>
+        <v>65187100</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>151.5800018310547</v>
+        <v>148.9600067138672</v>
       </c>
       <c r="B66">
-        <v>152.4299926757812</v>
+        <v>149.4299926757812</v>
       </c>
       <c r="C66">
-        <v>150.6399993896484</v>
+        <v>147.6799926757812</v>
       </c>
       <c r="D66">
-        <v>150.9600067138672</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="E66">
-        <v>150.5482025146484</v>
+        <v>147.6818389892578</v>
       </c>
       <c r="F66">
-        <v>60394600</v>
+        <v>41000000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>151.8899993896484</v>
+        <v>148.4299926757812</v>
       </c>
       <c r="B67">
-        <v>152.1999969482422</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="C67">
-        <v>150.0599975585938</v>
+        <v>147.4799957275391</v>
       </c>
       <c r="D67">
-        <v>151.2799987792969</v>
+        <v>149.9900054931641</v>
       </c>
       <c r="E67">
-        <v>151.0875091552734</v>
+        <v>149.7991485595703</v>
       </c>
       <c r="F67">
-        <v>65414600</v>
+        <v>63632600</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>151.4100036621094</v>
+        <v>150.3699951171875</v>
       </c>
       <c r="B68">
-        <v>151.5700073242188</v>
+        <v>151.8800048828125</v>
       </c>
       <c r="C68">
-        <v>150.1600036621094</v>
+        <v>149.4299926757812</v>
       </c>
       <c r="D68">
-        <v>150.4400024414062</v>
+        <v>150</v>
       </c>
       <c r="E68">
-        <v>150.2485809326172</v>
+        <v>149.8091278076172</v>
       </c>
       <c r="F68">
-        <v>55020900</v>
+        <v>59222800</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>150.1999969482422</v>
+        <v>149.9400024414062</v>
       </c>
       <c r="B69">
-        <v>151.4299926757812</v>
+        <v>151.4900054931641</v>
       </c>
       <c r="C69">
-        <v>150.0599975585938</v>
+        <v>149.3399963378906</v>
       </c>
       <c r="D69">
-        <v>150.8099975585938</v>
+        <v>151</v>
       </c>
       <c r="E69">
-        <v>150.6181030273438</v>
+        <v>150.807861328125</v>
       </c>
       <c r="F69">
-        <v>56787900</v>
+        <v>59256200</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>150.0200042724609</v>
+        <v>151</v>
       </c>
       <c r="B70">
-        <v>150.1300048828125</v>
+        <v>155</v>
       </c>
       <c r="C70">
-        <v>147.8500061035156</v>
+        <v>150.9900054931641</v>
       </c>
       <c r="D70">
-        <v>147.9199981689453</v>
+        <v>153.4900054931641</v>
       </c>
       <c r="E70">
-        <v>147.7317810058594</v>
+        <v>153.2946929931641</v>
       </c>
       <c r="F70">
-        <v>65187100</v>
+        <v>88807000</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>148.9600067138672</v>
+        <v>153.7100067138672</v>
       </c>
       <c r="B71">
-        <v>149.4299926757812</v>
+        <v>158.6699981689453</v>
       </c>
       <c r="C71">
-        <v>147.6799926757812</v>
+        <v>153.0500030517578</v>
       </c>
       <c r="D71">
-        <v>147.8699951171875</v>
+        <v>157.8699951171875</v>
       </c>
       <c r="E71">
-        <v>147.6818389892578</v>
+        <v>157.6691131591797</v>
       </c>
       <c r="F71">
-        <v>41000000</v>
+        <v>137827700</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>148.4299926757812</v>
+        <v>157.6499938964844</v>
       </c>
       <c r="B72">
-        <v>150.3999938964844</v>
+        <v>161.0200042724609</v>
       </c>
       <c r="C72">
-        <v>147.4799957275391</v>
+        <v>156.5299987792969</v>
       </c>
       <c r="D72">
-        <v>149.9900054931641</v>
+        <v>160.5500030517578</v>
       </c>
       <c r="E72">
-        <v>149.7991485595703</v>
+        <v>160.3457183837891</v>
       </c>
       <c r="F72">
-        <v>63632600</v>
+        <v>117305600</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>150.3699951171875</v>
+        <v>161.6799926757812</v>
       </c>
       <c r="B73">
-        <v>151.8800048828125</v>
+        <v>165.6999969482422</v>
       </c>
       <c r="C73">
-        <v>149.4299926757812</v>
+        <v>161</v>
       </c>
       <c r="D73">
-        <v>150</v>
+        <v>161.0200042724609</v>
       </c>
       <c r="E73">
-        <v>149.8091278076172</v>
+        <v>160.8151092529297</v>
       </c>
       <c r="F73">
-        <v>59222800</v>
+        <v>117467900</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>149.9400024414062</v>
+        <v>161.1199951171875</v>
       </c>
       <c r="B74">
-        <v>151.4900054931641</v>
+        <v>161.8000030517578</v>
       </c>
       <c r="C74">
-        <v>149.3399963378906</v>
+        <v>159.0599975585938</v>
       </c>
       <c r="D74">
-        <v>151</v>
+        <v>161.4100036621094</v>
       </c>
       <c r="E74">
-        <v>150.807861328125</v>
+        <v>161.2046203613281</v>
       </c>
       <c r="F74">
-        <v>59256200</v>
+        <v>96041900</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>151</v>
+        <v>160.75</v>
       </c>
       <c r="B75">
-        <v>155</v>
+        <v>162.1399993896484</v>
       </c>
       <c r="C75">
-        <v>150.9900054931641</v>
+        <v>159.6399993896484</v>
       </c>
       <c r="D75">
-        <v>153.4900054931641</v>
+        <v>161.9400024414062</v>
       </c>
       <c r="E75">
-        <v>153.2946929931641</v>
+        <v>161.7339477539062</v>
       </c>
       <c r="F75">
-        <v>88807000</v>
+        <v>69463600</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>153.7100067138672</v>
+        <v>159.5700073242188</v>
       </c>
       <c r="B76">
-        <v>158.6699981689453</v>
+        <v>160.4499969482422</v>
       </c>
       <c r="C76">
-        <v>153.0500030517578</v>
+        <v>156.3600006103516</v>
       </c>
       <c r="D76">
-        <v>157.8699951171875</v>
+        <v>156.8099975585938</v>
       </c>
       <c r="E76">
-        <v>157.6691131591797</v>
+        <v>156.6104736328125</v>
       </c>
       <c r="F76">
-        <v>137827700</v>
+        <v>76959800</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>157.6499938964844</v>
+        <v>159.3699951171875</v>
       </c>
       <c r="B77">
-        <v>161.0200042724609</v>
+        <v>161.1900024414062</v>
       </c>
       <c r="C77">
-        <v>156.5299987792969</v>
+        <v>158.7899932861328</v>
       </c>
       <c r="D77">
-        <v>160.5500030517578</v>
+        <v>160.2400054931641</v>
       </c>
       <c r="E77">
-        <v>160.3457183837891</v>
+        <v>160.0361022949219</v>
       </c>
       <c r="F77">
-        <v>117305600</v>
+        <v>88748200</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>161.6799926757812</v>
+        <v>159.9900054931641</v>
       </c>
       <c r="B78">
-        <v>165.6999969482422</v>
+        <v>165.5200042724609</v>
       </c>
       <c r="C78">
-        <v>161</v>
+        <v>159.9199981689453</v>
       </c>
       <c r="D78">
-        <v>161.0200042724609</v>
+        <v>165.3000030517578</v>
       </c>
       <c r="E78">
-        <v>160.8151092529297</v>
+        <v>165.0896759033203</v>
       </c>
       <c r="F78">
-        <v>117467900</v>
+        <v>174048100</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>161.1199951171875</v>
+        <v>167.4799957275391</v>
       </c>
       <c r="B79">
-        <v>161.8000030517578</v>
+        <v>170.3000030517578</v>
       </c>
       <c r="C79">
-        <v>159.0599975585938</v>
+        <v>164.5299987792969</v>
       </c>
       <c r="D79">
-        <v>161.4100036621094</v>
+        <v>164.7700042724609</v>
       </c>
       <c r="E79">
-        <v>161.2046203613281</v>
+        <v>164.5603485107422</v>
       </c>
       <c r="F79">
-        <v>96041900</v>
+        <v>152052500</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>160.75</v>
+        <v>158.7400054931641</v>
       </c>
       <c r="B80">
-        <v>162.1399993896484</v>
+        <v>164.1999969482422</v>
       </c>
       <c r="C80">
-        <v>159.6399993896484</v>
+        <v>157.8000030517578</v>
       </c>
       <c r="D80">
-        <v>161.9400024414062</v>
+        <v>163.7599945068359</v>
       </c>
       <c r="E80">
-        <v>161.7339477539062</v>
+        <v>163.5516204833984</v>
       </c>
       <c r="F80">
-        <v>69463600</v>
+        <v>136739200</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>159.5700073242188</v>
+        <v>164.0200042724609</v>
       </c>
       <c r="B81">
-        <v>160.4499969482422</v>
+        <v>164.9600067138672</v>
       </c>
       <c r="C81">
-        <v>156.3600006103516</v>
+        <v>159.7200012207031</v>
       </c>
       <c r="D81">
-        <v>156.8099975585938</v>
+        <v>161.8399963378906</v>
       </c>
       <c r="E81">
-        <v>156.6104736328125</v>
+        <v>161.6340637207031</v>
       </c>
       <c r="F81">
-        <v>76959800</v>
+        <v>117938300</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>159.3699951171875</v>
+        <v>164.2899932861328</v>
       </c>
       <c r="B82">
-        <v>161.1900024414062</v>
+        <v>167.8800048828125</v>
       </c>
       <c r="C82">
-        <v>158.7899932861328</v>
+        <v>164.2799987792969</v>
       </c>
       <c r="D82">
-        <v>160.2400054931641</v>
+        <v>165.3200073242188</v>
       </c>
       <c r="E82">
-        <v>160.0361022949219</v>
+        <v>165.1096496582031</v>
       </c>
       <c r="F82">
-        <v>88748200</v>
+        <v>107497000</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>159.9900054931641</v>
+        <v>169.0800018310547</v>
       </c>
       <c r="B83">
-        <v>165.5200042724609</v>
+        <v>171.5800018310547</v>
       </c>
       <c r="C83">
-        <v>159.9199981689453</v>
+        <v>168.3399963378906</v>
       </c>
       <c r="D83">
-        <v>165.3000030517578</v>
+        <v>171.1799926757812</v>
       </c>
       <c r="E83">
-        <v>165.0896759033203</v>
+        <v>170.9621734619141</v>
       </c>
       <c r="F83">
-        <v>174048100</v>
+        <v>120405400</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>167.4799957275391</v>
+        <v>172.1300048828125</v>
       </c>
       <c r="B84">
-        <v>170.3000030517578</v>
+        <v>175.9600067138672</v>
       </c>
       <c r="C84">
-        <v>164.5299987792969</v>
+        <v>170.6999969482422</v>
       </c>
       <c r="D84">
-        <v>164.7700042724609</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="E84">
-        <v>164.5603485107422</v>
+        <v>174.8572235107422</v>
       </c>
       <c r="F84">
-        <v>152052500</v>
+        <v>116998900</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>158.7400054931641</v>
+        <v>174.9100036621094</v>
       </c>
       <c r="B85">
-        <v>164.1999969482422</v>
+        <v>176.75</v>
       </c>
       <c r="C85">
-        <v>157.8000030517578</v>
+        <v>173.9199981689453</v>
       </c>
       <c r="D85">
-        <v>163.7599945068359</v>
+        <v>174.5599975585938</v>
       </c>
       <c r="E85">
-        <v>163.5516204833984</v>
+        <v>174.3378753662109</v>
       </c>
       <c r="F85">
-        <v>136739200</v>
+        <v>108923700</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>164.0200042724609</v>
+        <v>175.2100067138672</v>
       </c>
       <c r="B86">
-        <v>164.9600067138672</v>
+        <v>179.6300048828125</v>
       </c>
       <c r="C86">
-        <v>159.7200012207031</v>
+        <v>174.6900024414062</v>
       </c>
       <c r="D86">
-        <v>161.8399963378906</v>
+        <v>179.4499969482422</v>
       </c>
       <c r="E86">
-        <v>161.6340637207031</v>
+        <v>179.2216644287109</v>
       </c>
       <c r="F86">
-        <v>117938300</v>
+        <v>115228100</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>164.2899932861328</v>
+        <v>181.1199951171875</v>
       </c>
       <c r="B87">
-        <v>167.8800048828125</v>
+        <v>182.1300048828125</v>
       </c>
       <c r="C87">
-        <v>164.2799987792969</v>
+        <v>175.5299987792969</v>
       </c>
       <c r="D87">
-        <v>165.3200073242188</v>
+        <v>175.7400054931641</v>
       </c>
       <c r="E87">
-        <v>165.1096496582031</v>
+        <v>175.5163879394531</v>
       </c>
       <c r="F87">
-        <v>107497000</v>
+        <v>153237000</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>169.0800018310547</v>
+        <v>175.25</v>
       </c>
       <c r="B88">
-        <v>171.5800018310547</v>
+        <v>177.7400054931641</v>
       </c>
       <c r="C88">
-        <v>168.3399963378906</v>
+        <v>172.2100067138672</v>
       </c>
       <c r="D88">
-        <v>171.1799926757812</v>
+        <v>174.3300018310547</v>
       </c>
       <c r="E88">
-        <v>170.9621734619141</v>
+        <v>174.1081848144531</v>
       </c>
       <c r="F88">
-        <v>120405400</v>
+        <v>139380400</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>172.1300048828125</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="B89">
-        <v>175.9600067138672</v>
+        <v>179.5</v>
       </c>
       <c r="C89">
-        <v>170.6999969482422</v>
+        <v>172.3099975585938</v>
       </c>
       <c r="D89">
-        <v>175.0800018310547</v>
+        <v>179.3000030517578</v>
       </c>
       <c r="E89">
-        <v>174.8572235107422</v>
+        <v>179.0718536376953</v>
       </c>
       <c r="F89">
-        <v>116998900</v>
+        <v>131063300</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>174.9100036621094</v>
+        <v>179.2799987792969</v>
       </c>
       <c r="B90">
-        <v>176.75</v>
+        <v>181.1399993896484</v>
       </c>
       <c r="C90">
-        <v>173.9199981689453</v>
+        <v>170.75</v>
       </c>
       <c r="D90">
-        <v>174.5599975585938</v>
+        <v>172.2599945068359</v>
       </c>
       <c r="E90">
-        <v>174.3378753662109</v>
+        <v>172.0408020019531</v>
       </c>
       <c r="F90">
-        <v>108923700</v>
+        <v>150185800</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>175.2100067138672</v>
+        <v>169.9299926757812</v>
       </c>
       <c r="B91">
-        <v>179.6300048828125</v>
+        <v>173.4700012207031</v>
       </c>
       <c r="C91">
-        <v>174.6900024414062</v>
+        <v>169.6900024414062</v>
       </c>
       <c r="D91">
-        <v>179.4499969482422</v>
+        <v>171.1399993896484</v>
       </c>
       <c r="E91">
-        <v>179.2216644287109</v>
+        <v>170.9222412109375</v>
       </c>
       <c r="F91">
-        <v>115228100</v>
+        <v>195432700</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>181.1199951171875</v>
+        <v>168.2799987792969</v>
       </c>
       <c r="B92">
-        <v>182.1300048828125</v>
+        <v>170.5800018310547</v>
       </c>
       <c r="C92">
-        <v>175.5299987792969</v>
+        <v>167.4600067138672</v>
       </c>
       <c r="D92">
-        <v>175.7400054931641</v>
+        <v>169.75</v>
       </c>
       <c r="E92">
-        <v>175.5163879394531</v>
+        <v>169.5339965820312</v>
       </c>
       <c r="F92">
-        <v>153237000</v>
+        <v>107499100</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>175.25</v>
+        <v>171.5599975585938</v>
       </c>
       <c r="B93">
-        <v>177.7400054931641</v>
+        <v>173.1999969482422</v>
       </c>
       <c r="C93">
-        <v>172.2100067138672</v>
+        <v>169.1199951171875</v>
       </c>
       <c r="D93">
-        <v>174.3300018310547</v>
+        <v>172.9900054931641</v>
       </c>
       <c r="E93">
-        <v>174.1081848144531</v>
+        <v>172.7698822021484</v>
       </c>
       <c r="F93">
-        <v>139380400</v>
+        <v>91185900</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>175.1100006103516</v>
+        <v>173.0399932861328</v>
       </c>
       <c r="B94">
-        <v>179.5</v>
+        <v>175.8600006103516</v>
       </c>
       <c r="C94">
-        <v>172.3099975585938</v>
+        <v>172.1499938964844</v>
       </c>
       <c r="D94">
-        <v>179.3000030517578</v>
+        <v>175.6399993896484</v>
       </c>
       <c r="E94">
-        <v>179.0718536376953</v>
+        <v>175.41650390625</v>
       </c>
       <c r="F94">
-        <v>131063300</v>
+        <v>92135300</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>179.2799987792969</v>
+        <v>175.8500061035156</v>
       </c>
       <c r="B95">
-        <v>181.1399993896484</v>
+        <v>176.8500061035156</v>
       </c>
       <c r="C95">
-        <v>170.75</v>
+        <v>175.2700042724609</v>
       </c>
       <c r="D95">
-        <v>172.2599945068359</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="E95">
-        <v>172.0408020019531</v>
+        <v>176.0556945800781</v>
       </c>
       <c r="F95">
-        <v>150185800</v>
+        <v>68356600</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>169.9299926757812</v>
+        <v>177.0899963378906</v>
       </c>
       <c r="B96">
-        <v>173.4700012207031</v>
+        <v>180.4199981689453</v>
       </c>
       <c r="C96">
-        <v>169.6900024414062</v>
+        <v>177.0700073242188</v>
       </c>
       <c r="D96">
-        <v>171.1399993896484</v>
+        <v>180.3300018310547</v>
       </c>
       <c r="E96">
-        <v>170.9222412109375</v>
+        <v>180.1005401611328</v>
       </c>
       <c r="F96">
-        <v>195432700</v>
+        <v>74919600</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>168.2799987792969</v>
+        <v>180.1600036621094</v>
       </c>
       <c r="B97">
-        <v>170.5800018310547</v>
+        <v>181.3300018310547</v>
       </c>
       <c r="C97">
-        <v>167.4600067138672</v>
+        <v>178.5299987792969</v>
       </c>
       <c r="D97">
-        <v>169.75</v>
+        <v>179.2899932861328</v>
       </c>
       <c r="E97">
-        <v>169.5339965820312</v>
+        <v>179.0618591308594</v>
       </c>
       <c r="F97">
-        <v>107499100</v>
+        <v>79144300</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>171.5599975585938</v>
+        <v>179.3300018310547</v>
       </c>
       <c r="B98">
-        <v>173.1999969482422</v>
+        <v>180.6300048828125</v>
       </c>
       <c r="C98">
-        <v>169.1199951171875</v>
+        <v>178.1399993896484</v>
       </c>
       <c r="D98">
-        <v>172.9900054931641</v>
+        <v>179.3800048828125</v>
       </c>
       <c r="E98">
-        <v>172.7698822021484</v>
+        <v>179.1517486572266</v>
       </c>
       <c r="F98">
-        <v>91185900</v>
+        <v>62348900</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>173.0399932861328</v>
+        <v>179.4700012207031</v>
       </c>
       <c r="B99">
-        <v>175.8600006103516</v>
+        <v>180.5700073242188</v>
       </c>
       <c r="C99">
-        <v>172.1499938964844</v>
+        <v>178.0899963378906</v>
       </c>
       <c r="D99">
-        <v>175.6399993896484</v>
+        <v>178.1999969482422</v>
       </c>
       <c r="E99">
-        <v>175.41650390625</v>
+        <v>177.9732513427734</v>
       </c>
       <c r="F99">
-        <v>92135300</v>
+        <v>59773000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>175.8500061035156</v>
+        <v>178.0899963378906</v>
       </c>
       <c r="B100">
-        <v>176.8500061035156</v>
+        <v>179.2299957275391</v>
       </c>
       <c r="C100">
-        <v>175.2700042724609</v>
+        <v>177.2599945068359</v>
       </c>
       <c r="D100">
-        <v>176.2799987792969</v>
+        <v>177.5700073242188</v>
       </c>
       <c r="E100">
-        <v>176.0556945800781</v>
+        <v>177.3440551757812</v>
       </c>
       <c r="F100">
-        <v>68356600</v>
+        <v>64062300</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>177.0899963378906</v>
+        <v>177.8300018310547</v>
       </c>
       <c r="B101">
-        <v>180.4199981689453</v>
+        <v>182.8800048828125</v>
       </c>
       <c r="C101">
-        <v>177.0700073242188</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="D101">
-        <v>180.3300018310547</v>
+        <v>182.0099945068359</v>
       </c>
       <c r="E101">
-        <v>180.1005401611328</v>
+        <v>181.7783966064453</v>
       </c>
       <c r="F101">
-        <v>74919600</v>
+        <v>104487900</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>180.1600036621094</v>
+        <v>182.6300048828125</v>
       </c>
       <c r="B102">
-        <v>181.3300018310547</v>
+        <v>182.9400024414062</v>
       </c>
       <c r="C102">
-        <v>178.5299987792969</v>
+        <v>179.1199951171875</v>
       </c>
       <c r="D102">
-        <v>179.2899932861328</v>
+        <v>179.6999969482422</v>
       </c>
       <c r="E102">
-        <v>179.0618591308594</v>
+        <v>179.4713439941406</v>
       </c>
       <c r="F102">
-        <v>79144300</v>
+        <v>99310400</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>179.3300018310547</v>
+        <v>179.6100006103516</v>
       </c>
       <c r="B103">
-        <v>180.6300048828125</v>
+        <v>180.1699981689453</v>
       </c>
       <c r="C103">
-        <v>178.1399993896484</v>
+        <v>174.6399993896484</v>
       </c>
       <c r="D103">
-        <v>179.3800048828125</v>
+        <v>174.9199981689453</v>
       </c>
       <c r="E103">
-        <v>179.1517486572266</v>
+        <v>174.6974182128906</v>
       </c>
       <c r="F103">
-        <v>62348900</v>
+        <v>94537600</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>179.4700012207031</v>
+        <v>172.6999969482422</v>
       </c>
       <c r="B104">
-        <v>180.5700073242188</v>
+        <v>175.3000030517578</v>
       </c>
       <c r="C104">
-        <v>178.0899963378906</v>
+        <v>171.6399993896484</v>
       </c>
       <c r="D104">
-        <v>178.1999969482422</v>
+        <v>172</v>
       </c>
       <c r="E104">
-        <v>177.9732513427734</v>
+        <v>171.7811431884766</v>
       </c>
       <c r="F104">
-        <v>59773000</v>
+        <v>96904000</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>178.0899963378906</v>
+        <v>172.8899993896484</v>
       </c>
       <c r="B105">
-        <v>179.2299957275391</v>
+        <v>174.1399993896484</v>
       </c>
       <c r="C105">
-        <v>177.2599945068359</v>
+        <v>171.0299987792969</v>
       </c>
       <c r="D105">
-        <v>177.5700073242188</v>
+        <v>172.1699981689453</v>
       </c>
       <c r="E105">
-        <v>177.3440551757812</v>
+        <v>171.950927734375</v>
       </c>
       <c r="F105">
-        <v>64062300</v>
+        <v>86580100</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>177.8300018310547</v>
+        <v>169.0800018310547</v>
       </c>
       <c r="B106">
-        <v>182.8800048828125</v>
+        <v>172.5</v>
       </c>
       <c r="C106">
-        <v>177.7100067138672</v>
+        <v>168.1699981689453</v>
       </c>
       <c r="D106">
-        <v>182.0099945068359</v>
+        <v>172.1900024414062</v>
       </c>
       <c r="E106">
-        <v>181.7783966064453</v>
+        <v>171.9709014892578</v>
       </c>
       <c r="F106">
-        <v>104487900</v>
+        <v>106765600</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>182.6300048828125</v>
+        <v>172.3200073242188</v>
       </c>
       <c r="B107">
-        <v>182.9400024414062</v>
+        <v>175.1799926757812</v>
       </c>
       <c r="C107">
-        <v>179.1199951171875</v>
+        <v>170.8200073242188</v>
       </c>
       <c r="D107">
-        <v>179.6999969482422</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="E107">
-        <v>179.4713439941406</v>
+        <v>174.8572235107422</v>
       </c>
       <c r="F107">
-        <v>99310400</v>
+        <v>76138300</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>179.6100006103516</v>
+        <v>176.1199951171875</v>
       </c>
       <c r="B108">
-        <v>180.1699981689453</v>
+        <v>177.1799926757812</v>
       </c>
       <c r="C108">
-        <v>174.6399993896484</v>
+        <v>174.8200073242188</v>
       </c>
       <c r="D108">
-        <v>174.9199981689453</v>
+        <v>175.5299987792969</v>
       </c>
       <c r="E108">
-        <v>174.6974182128906</v>
+        <v>175.306640625</v>
       </c>
       <c r="F108">
-        <v>94537600</v>
+        <v>74805200</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>172.6999969482422</v>
+        <v>175.7799987792969</v>
       </c>
       <c r="B109">
-        <v>175.3000030517578</v>
+        <v>176.6199951171875</v>
       </c>
       <c r="C109">
-        <v>171.6399993896484</v>
+        <v>171.7899932861328</v>
       </c>
       <c r="D109">
-        <v>172</v>
+        <v>172.1900024414062</v>
       </c>
       <c r="E109">
-        <v>171.7811431884766</v>
+        <v>171.9709014892578</v>
       </c>
       <c r="F109">
-        <v>96904000</v>
+        <v>84505800</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>172.8899993896484</v>
+        <v>171.3399963378906</v>
       </c>
       <c r="B110">
-        <v>174.1399993896484</v>
+        <v>173.7799987792969</v>
       </c>
       <c r="C110">
-        <v>171.0299987792969</v>
+        <v>171.0899963378906</v>
       </c>
       <c r="D110">
-        <v>172.1699981689453</v>
+        <v>173.0700073242188</v>
       </c>
       <c r="E110">
-        <v>171.950927734375</v>
+        <v>172.8497924804688</v>
       </c>
       <c r="F110">
-        <v>86580100</v>
+        <v>80355000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>169.0800018310547</v>
+        <v>171.5099945068359</v>
       </c>
       <c r="B111">
-        <v>172.5</v>
+        <v>172.5399932861328</v>
       </c>
       <c r="C111">
-        <v>168.1699981689453</v>
+        <v>169.4100036621094</v>
       </c>
       <c r="D111">
-        <v>172.1900024414062</v>
+        <v>169.8000030517578</v>
       </c>
       <c r="E111">
-        <v>171.9709014892578</v>
+        <v>169.5839385986328</v>
       </c>
       <c r="F111">
-        <v>106765600</v>
+        <v>90956700</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>172.3200073242188</v>
+        <v>170</v>
       </c>
       <c r="B112">
-        <v>175.1799926757812</v>
+        <v>171.0800018310547</v>
       </c>
       <c r="C112">
-        <v>170.8200073242188</v>
+        <v>165.9400024414062</v>
       </c>
       <c r="D112">
-        <v>175.0800018310547</v>
+        <v>166.2299957275391</v>
       </c>
       <c r="E112">
-        <v>174.8572235107422</v>
+        <v>166.0184783935547</v>
       </c>
       <c r="F112">
-        <v>76138300</v>
+        <v>94815000</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>176.1199951171875</v>
+        <v>166.9799957275391</v>
       </c>
       <c r="B113">
-        <v>177.1799926757812</v>
+        <v>169.6799926757812</v>
       </c>
       <c r="C113">
-        <v>174.8200073242188</v>
+        <v>164.1799926757812</v>
       </c>
       <c r="D113">
-        <v>175.5299987792969</v>
+        <v>164.5099945068359</v>
       </c>
       <c r="E113">
-        <v>175.306640625</v>
+        <v>164.3006591796875</v>
       </c>
       <c r="F113">
-        <v>74805200</v>
+        <v>91420500</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>175.7799987792969</v>
+        <v>164.4199981689453</v>
       </c>
       <c r="B114">
-        <v>176.6199951171875</v>
+        <v>166.3300018310547</v>
       </c>
       <c r="C114">
-        <v>171.7899932861328</v>
+        <v>162.3000030517578</v>
       </c>
       <c r="D114">
-        <v>172.1900024414062</v>
+        <v>162.4100036621094</v>
       </c>
       <c r="E114">
-        <v>171.9709014892578</v>
+        <v>162.2033538818359</v>
       </c>
       <c r="F114">
-        <v>84505800</v>
+        <v>122848900</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>171.3399963378906</v>
+        <v>160.0200042724609</v>
       </c>
       <c r="B115">
-        <v>173.7799987792969</v>
+        <v>162.3000030517578</v>
       </c>
       <c r="C115">
-        <v>171.0899963378906</v>
+        <v>154.6999969482422</v>
       </c>
       <c r="D115">
-        <v>173.0700073242188</v>
+        <v>161.6199951171875</v>
       </c>
       <c r="E115">
-        <v>172.8497924804688</v>
+        <v>161.4143371582031</v>
       </c>
       <c r="F115">
-        <v>80355000</v>
+        <v>162294600</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>171.5099945068359</v>
+        <v>158.9799957275391</v>
       </c>
       <c r="B116">
-        <v>172.5399932861328</v>
+        <v>162.7599945068359</v>
       </c>
       <c r="C116">
-        <v>169.4100036621094</v>
+        <v>157.0200042724609</v>
       </c>
       <c r="D116">
-        <v>169.8000030517578</v>
+        <v>159.7799987792969</v>
       </c>
       <c r="E116">
-        <v>169.5839385986328</v>
+        <v>159.5766906738281</v>
       </c>
       <c r="F116">
-        <v>90956700</v>
+        <v>115798400</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>170</v>
+        <v>163.5</v>
       </c>
       <c r="B117">
-        <v>171.0800018310547</v>
+        <v>164.3899993896484</v>
       </c>
       <c r="C117">
-        <v>165.9400024414062</v>
+        <v>157.8200073242188</v>
       </c>
       <c r="D117">
-        <v>166.2299957275391</v>
+        <v>159.6900024414062</v>
       </c>
       <c r="E117">
-        <v>166.0184783935547</v>
+        <v>159.4868011474609</v>
       </c>
       <c r="F117">
-        <v>94815000</v>
+        <v>108275300</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>166.9799957275391</v>
+        <v>162.4499969482422</v>
       </c>
       <c r="B118">
-        <v>169.6799926757812</v>
+        <v>163.8399963378906</v>
       </c>
       <c r="C118">
-        <v>164.1799926757812</v>
+        <v>158.2799987792969</v>
       </c>
       <c r="D118">
-        <v>164.5099945068359</v>
+        <v>159.2200012207031</v>
       </c>
       <c r="E118">
-        <v>164.3006591796875</v>
+        <v>159.0174102783203</v>
       </c>
       <c r="F118">
-        <v>91420500</v>
+        <v>121954600</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>164.4199981689453</v>
+        <v>165.7100067138672</v>
       </c>
       <c r="B119">
-        <v>166.3300018310547</v>
+        <v>170.3500061035156</v>
       </c>
       <c r="C119">
-        <v>162.3000030517578</v>
+        <v>162.8000030517578</v>
       </c>
       <c r="D119">
-        <v>162.4100036621094</v>
+        <v>170.3300018310547</v>
       </c>
       <c r="E119">
-        <v>162.2033538818359</v>
+        <v>170.1132659912109</v>
       </c>
       <c r="F119">
-        <v>122848900</v>
+        <v>179935700</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>160.0200042724609</v>
+        <v>170.1600036621094</v>
       </c>
       <c r="B120">
-        <v>162.3000030517578</v>
+        <v>175</v>
       </c>
       <c r="C120">
-        <v>154.6999969482422</v>
+        <v>169.5099945068359</v>
       </c>
       <c r="D120">
-        <v>161.6199951171875</v>
+        <v>174.7799987792969</v>
       </c>
       <c r="E120">
-        <v>161.4143371582031</v>
+        <v>174.5576019287109</v>
       </c>
       <c r="F120">
-        <v>162294600</v>
+        <v>115541600</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>158.9799957275391</v>
+        <v>174.0099945068359</v>
       </c>
       <c r="B121">
-        <v>162.7599945068359</v>
+        <v>174.8399963378906</v>
       </c>
       <c r="C121">
-        <v>157.0200042724609</v>
+        <v>172.3099975585938</v>
       </c>
       <c r="D121">
-        <v>159.7799987792969</v>
+        <v>174.6100006103516</v>
       </c>
       <c r="E121">
-        <v>159.5766906738281</v>
+        <v>174.3878173828125</v>
       </c>
       <c r="F121">
-        <v>115798400</v>
+        <v>86213900</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>163.5</v>
+        <v>174.75</v>
       </c>
       <c r="B122">
-        <v>164.3899993896484</v>
+        <v>175.8800048828125</v>
       </c>
       <c r="C122">
-        <v>157.8200073242188</v>
+        <v>173.3300018310547</v>
       </c>
       <c r="D122">
-        <v>159.6900024414062</v>
+        <v>175.8399963378906</v>
       </c>
       <c r="E122">
-        <v>159.4868011474609</v>
+        <v>175.6162567138672</v>
       </c>
       <c r="F122">
-        <v>108275300</v>
+        <v>84914300</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>162.4499969482422</v>
+        <v>174.4799957275391</v>
       </c>
       <c r="B123">
-        <v>163.8399963378906</v>
+        <v>176.2400054931641</v>
       </c>
       <c r="C123">
-        <v>158.2799987792969</v>
+        <v>172.1199951171875</v>
       </c>
       <c r="D123">
-        <v>159.2200012207031</v>
+        <v>172.8999938964844</v>
       </c>
       <c r="E123">
-        <v>159.0174102783203</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="F123">
-        <v>121954600</v>
+        <v>89418100</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>165.7100067138672</v>
+        <v>171.6799926757812</v>
       </c>
       <c r="B124">
-        <v>170.3500061035156</v>
+        <v>174.1000061035156</v>
       </c>
       <c r="C124">
-        <v>162.8000030517578</v>
+        <v>170.6799926757812</v>
       </c>
       <c r="D124">
-        <v>170.3300018310547</v>
+        <v>172.3899993896484</v>
       </c>
       <c r="E124">
-        <v>170.1132659912109</v>
+        <v>172.3899993896484</v>
       </c>
       <c r="F124">
-        <v>179935700</v>
+        <v>82391400</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>170.1600036621094</v>
+        <v>172.8600006103516</v>
       </c>
       <c r="B125">
-        <v>175</v>
+        <v>173.9499969482422</v>
       </c>
       <c r="C125">
-        <v>169.5099945068359</v>
+        <v>170.9499969482422</v>
       </c>
       <c r="D125">
-        <v>174.7799987792969</v>
+        <v>171.6600036621094</v>
       </c>
       <c r="E125">
-        <v>174.5576019287109</v>
+        <v>171.6600036621094</v>
       </c>
       <c r="F125">
-        <v>115541600</v>
+        <v>77251200</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>174.0099945068359</v>
+        <v>171.7299957275391</v>
       </c>
       <c r="B126">
-        <v>174.8399963378906</v>
+        <v>175.3500061035156</v>
       </c>
       <c r="C126">
-        <v>172.3099975585938</v>
+        <v>171.4299926757812</v>
       </c>
       <c r="D126">
-        <v>174.6100006103516</v>
+        <v>174.8300018310547</v>
       </c>
       <c r="E126">
-        <v>174.3878173828125</v>
+        <v>174.8300018310547</v>
       </c>
       <c r="F126">
-        <v>86213900</v>
+        <v>74829200</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>174.75</v>
+        <v>176.0500030517578</v>
       </c>
       <c r="B127">
-        <v>175.8800048828125</v>
+        <v>176.6499938964844</v>
       </c>
       <c r="C127">
-        <v>173.3300018310547</v>
+        <v>174.8999938964844</v>
       </c>
       <c r="D127">
-        <v>175.8399963378906</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="E127">
-        <v>175.6162567138672</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="F127">
-        <v>84914300</v>
+        <v>71285000</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>174.4799957275391</v>
+        <v>174.1399993896484</v>
       </c>
       <c r="B128">
-        <v>176.2400054931641</v>
+        <v>175.4799957275391</v>
       </c>
       <c r="C128">
+        <v>171.5500030517578</v>
+      </c>
+      <c r="D128">
         <v>172.1199951171875</v>
       </c>
-      <c r="D128">
-        <v>172.8999938964844</v>
-      </c>
       <c r="E128">
-        <v>172.6799926757812</v>
+        <v>172.1199951171875</v>
       </c>
       <c r="F128">
-        <v>89418100</v>
+        <v>90865900</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>171.6799926757812</v>
+        <v>172.3300018310547</v>
       </c>
       <c r="B129">
-        <v>174.1000061035156</v>
+        <v>173.0800018310547</v>
       </c>
       <c r="C129">
-        <v>170.6799926757812</v>
+        <v>168.0399932861328</v>
       </c>
       <c r="D129">
-        <v>172.3899993896484</v>
+        <v>168.6399993896484</v>
       </c>
       <c r="E129">
-        <v>172.3899993896484</v>
+        <v>168.6399993896484</v>
       </c>
       <c r="F129">
-        <v>82391400</v>
+        <v>98566000</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/AAPL/HighLow.xlsx
+++ b/Stocks/AAPL/HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>146.1900024414062</v>
+        <v>145.0299987792969</v>
       </c>
       <c r="B2">
-        <v>149.0500030517578</v>
+        <v>148</v>
       </c>
       <c r="C2">
-        <v>145.8399963378906</v>
+        <v>144.5</v>
       </c>
       <c r="D2">
-        <v>148.8899993896484</v>
+        <v>146.6999969482422</v>
       </c>
       <c r="E2">
-        <v>148.4838409423828</v>
+        <v>146.2998046875</v>
       </c>
       <c r="F2">
-        <v>72282600</v>
+        <v>86960300</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>148.9700012207031</v>
+        <v>147.4400024414062</v>
       </c>
       <c r="B3">
-        <v>149.4400024414062</v>
+        <v>148.5</v>
       </c>
       <c r="C3">
-        <v>148.2700042724609</v>
+        <v>146.7799987792969</v>
       </c>
       <c r="D3">
-        <v>149.1000061035156</v>
+        <v>148.1900024414062</v>
       </c>
       <c r="E3">
-        <v>148.6932830810547</v>
+        <v>147.7857513427734</v>
       </c>
       <c r="F3">
-        <v>59318800</v>
+        <v>59947400</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>148.5399932861328</v>
+        <v>148.3099975585938</v>
       </c>
       <c r="B4">
-        <v>151.1900024414062</v>
+        <v>150.1900024414062</v>
       </c>
       <c r="C4">
-        <v>146.4700012207031</v>
+        <v>147.8899993896484</v>
       </c>
       <c r="D4">
-        <v>151.1199951171875</v>
+        <v>149.7100067138672</v>
       </c>
       <c r="E4">
-        <v>150.7077484130859</v>
+        <v>149.3016204833984</v>
       </c>
       <c r="F4">
-        <v>103296000</v>
+        <v>60131800</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>150.2299957275391</v>
+        <v>149.4499969482422</v>
       </c>
       <c r="B5">
-        <v>151.6799926757812</v>
+        <v>150.8600006103516</v>
       </c>
       <c r="C5">
-        <v>149.0899963378906</v>
+        <v>149.1499938964844</v>
       </c>
       <c r="D5">
-        <v>150.1900024414062</v>
+        <v>149.6199951171875</v>
       </c>
       <c r="E5">
-        <v>149.7803039550781</v>
+        <v>149.2118377685547</v>
       </c>
       <c r="F5">
-        <v>92229700</v>
+        <v>48606400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>149.8000030517578</v>
+        <v>149.8099975585938</v>
       </c>
       <c r="B6">
-        <v>150.7200012207031</v>
+        <v>150.3200073242188</v>
       </c>
       <c r="C6">
-        <v>146.1499938964844</v>
+        <v>147.8000030517578</v>
       </c>
       <c r="D6">
-        <v>146.3600006103516</v>
+        <v>148.3600006103516</v>
       </c>
       <c r="E6">
-        <v>145.9607391357422</v>
+        <v>147.9552764892578</v>
       </c>
       <c r="F6">
-        <v>86326000</v>
+        <v>58991300</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>145.0299987792969</v>
+        <v>148.3500061035156</v>
       </c>
       <c r="B7">
-        <v>148</v>
+        <v>149.1199951171875</v>
       </c>
       <c r="C7">
-        <v>144.5</v>
+        <v>147.5099945068359</v>
       </c>
       <c r="D7">
-        <v>146.6999969482422</v>
+        <v>147.5399932861328</v>
       </c>
       <c r="E7">
-        <v>146.2998046875</v>
+        <v>147.1375122070312</v>
       </c>
       <c r="F7">
-        <v>86960300</v>
+        <v>48597200</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>147.4400024414062</v>
+        <v>147.4799957275391</v>
       </c>
       <c r="B8">
-        <v>148.5</v>
+        <v>148.75</v>
       </c>
       <c r="C8">
-        <v>146.7799987792969</v>
+        <v>146.8300018310547</v>
       </c>
       <c r="D8">
-        <v>148.1900024414062</v>
+        <v>148.6000061035156</v>
       </c>
       <c r="E8">
-        <v>147.7857513427734</v>
+        <v>148.1946411132812</v>
       </c>
       <c r="F8">
-        <v>59947400</v>
+        <v>55721500</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>148.3099975585938</v>
+        <v>149</v>
       </c>
       <c r="B9">
-        <v>150.1900024414062</v>
+        <v>153.4900054931641</v>
       </c>
       <c r="C9">
-        <v>147.8899993896484</v>
+        <v>148.6100006103516</v>
       </c>
       <c r="D9">
-        <v>149.7100067138672</v>
+        <v>153.1199951171875</v>
       </c>
       <c r="E9">
-        <v>149.3016204833984</v>
+        <v>152.7023010253906</v>
       </c>
       <c r="F9">
-        <v>60131800</v>
+        <v>90956700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>149.4499969482422</v>
+        <v>152.6600036621094</v>
       </c>
       <c r="B10">
-        <v>150.8600006103516</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="C10">
-        <v>149.1499938964844</v>
+        <v>151.2899932861328</v>
       </c>
       <c r="D10">
-        <v>149.6199951171875</v>
+        <v>151.8300018310547</v>
       </c>
       <c r="E10">
-        <v>149.2118377685547</v>
+        <v>151.4158172607422</v>
       </c>
       <c r="F10">
-        <v>48606400</v>
+        <v>86453100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>149.8099975585938</v>
+        <v>152.8300018310547</v>
       </c>
       <c r="B11">
-        <v>150.3200073242188</v>
+        <v>154.9799957275391</v>
       </c>
       <c r="C11">
-        <v>147.8000030517578</v>
+        <v>152.3399963378906</v>
       </c>
       <c r="D11">
-        <v>148.3600006103516</v>
+        <v>152.5099945068359</v>
       </c>
       <c r="E11">
-        <v>147.9552764892578</v>
+        <v>152.0939636230469</v>
       </c>
       <c r="F11">
-        <v>58991300</v>
+        <v>80313700</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>148.3500061035156</v>
+        <v>153.8699951171875</v>
       </c>
       <c r="B12">
-        <v>149.1199951171875</v>
+        <v>154.7200012207031</v>
       </c>
       <c r="C12">
-        <v>147.5099945068359</v>
+        <v>152.3999938964844</v>
       </c>
       <c r="D12">
-        <v>147.5399932861328</v>
+        <v>153.6499938964844</v>
       </c>
       <c r="E12">
-        <v>147.1375122070312</v>
+        <v>153.2308502197266</v>
       </c>
       <c r="F12">
-        <v>48597200</v>
+        <v>71115500</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>147.4799957275391</v>
+        <v>153.7599945068359</v>
       </c>
       <c r="B13">
-        <v>148.75</v>
+        <v>154.6300048828125</v>
       </c>
       <c r="C13">
-        <v>146.8300018310547</v>
+        <v>153.0899963378906</v>
       </c>
       <c r="D13">
-        <v>148.6000061035156</v>
+        <v>154.3000030517578</v>
       </c>
       <c r="E13">
-        <v>148.1946411132812</v>
+        <v>153.8790893554688</v>
       </c>
       <c r="F13">
-        <v>55721500</v>
+        <v>57808700</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>149</v>
+        <v>154.9700012207031</v>
       </c>
       <c r="B14">
-        <v>153.4900054931641</v>
+        <v>157.2599945068359</v>
       </c>
       <c r="C14">
-        <v>148.6100006103516</v>
+        <v>154.3899993896484</v>
       </c>
       <c r="D14">
-        <v>153.1199951171875</v>
+        <v>156.6900024414062</v>
       </c>
       <c r="E14">
-        <v>152.7023010253906</v>
+        <v>156.2625732421875</v>
       </c>
       <c r="F14">
-        <v>90956700</v>
+        <v>82278300</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>152.6600036621094</v>
+        <v>156.9799957275391</v>
       </c>
       <c r="B15">
-        <v>152.8000030517578</v>
+        <v>157.0399932861328</v>
       </c>
       <c r="C15">
-        <v>151.2899932861328</v>
+        <v>153.9799957275391</v>
       </c>
       <c r="D15">
-        <v>151.8300018310547</v>
+        <v>155.1100006103516</v>
       </c>
       <c r="E15">
-        <v>151.4158172607422</v>
+        <v>154.6868743896484</v>
       </c>
       <c r="F15">
-        <v>86453100</v>
+        <v>74420200</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>152.8300018310547</v>
+        <v>155.4900054931641</v>
       </c>
       <c r="B16">
-        <v>154.9799957275391</v>
+        <v>156.1100006103516</v>
       </c>
       <c r="C16">
-        <v>152.3399963378906</v>
+        <v>153.9499969482422</v>
       </c>
       <c r="D16">
-        <v>152.5099945068359</v>
+        <v>154.0700073242188</v>
       </c>
       <c r="E16">
-        <v>152.0939636230469</v>
+        <v>153.6497192382812</v>
       </c>
       <c r="F16">
-        <v>80313700</v>
+        <v>57305700</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>153.8699951171875</v>
+        <v>155</v>
       </c>
       <c r="B17">
-        <v>154.7200012207031</v>
+        <v>155.4799957275391</v>
       </c>
       <c r="C17">
-        <v>152.3999938964844</v>
+        <v>148.6999969482422</v>
       </c>
       <c r="D17">
-        <v>153.6499938964844</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="E17">
-        <v>153.2308502197266</v>
+        <v>148.5636138916016</v>
       </c>
       <c r="F17">
-        <v>71115500</v>
+        <v>140646400</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>153.7599945068359</v>
+        <v>150.6300048828125</v>
       </c>
       <c r="B18">
-        <v>154.6300048828125</v>
+        <v>151.4199981689453</v>
       </c>
       <c r="C18">
-        <v>153.0899963378906</v>
+        <v>148.75</v>
       </c>
       <c r="D18">
-        <v>154.3000030517578</v>
+        <v>149.5500030517578</v>
       </c>
       <c r="E18">
-        <v>153.8790893554688</v>
+        <v>149.1420440673828</v>
       </c>
       <c r="F18">
-        <v>57808700</v>
+        <v>102404300</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>154.9700012207031</v>
+        <v>150.3500061035156</v>
       </c>
       <c r="B19">
-        <v>157.2599945068359</v>
+        <v>151.0700073242188</v>
       </c>
       <c r="C19">
-        <v>154.3899993896484</v>
+        <v>146.9100036621094</v>
       </c>
       <c r="D19">
-        <v>156.6900024414062</v>
+        <v>148.1199951171875</v>
       </c>
       <c r="E19">
-        <v>156.2625732421875</v>
+        <v>147.7159271240234</v>
       </c>
       <c r="F19">
-        <v>82278300</v>
+        <v>109296300</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>156.9799957275391</v>
+        <v>148.5599975585938</v>
       </c>
       <c r="B20">
-        <v>157.0399932861328</v>
+        <v>149.4400024414062</v>
       </c>
       <c r="C20">
-        <v>153.9799957275391</v>
+        <v>146.3699951171875</v>
       </c>
       <c r="D20">
-        <v>155.1100006103516</v>
+        <v>149.0299987792969</v>
       </c>
       <c r="E20">
-        <v>154.6868743896484</v>
+        <v>148.6234436035156</v>
       </c>
       <c r="F20">
-        <v>74420200</v>
+        <v>83281300</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>155.4900054931641</v>
+        <v>148.4400024414062</v>
       </c>
       <c r="B21">
-        <v>156.1100006103516</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="C21">
-        <v>153.9499969482422</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="D21">
-        <v>154.0700073242188</v>
+        <v>148.7899932861328</v>
       </c>
       <c r="E21">
-        <v>153.6497192382812</v>
+        <v>148.3840942382812</v>
       </c>
       <c r="F21">
-        <v>57305700</v>
+        <v>68034100</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>155</v>
+        <v>148.8200073242188</v>
       </c>
       <c r="B22">
-        <v>155.4799957275391</v>
+        <v>148.8200073242188</v>
       </c>
       <c r="C22">
-        <v>148.6999969482422</v>
+        <v>145.7599945068359</v>
       </c>
       <c r="D22">
-        <v>148.9700012207031</v>
+        <v>146.0599975585938</v>
       </c>
       <c r="E22">
-        <v>148.5636138916016</v>
+        <v>145.6615600585938</v>
       </c>
       <c r="F22">
-        <v>140646400</v>
+        <v>129868800</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>150.6300048828125</v>
+        <v>143.8000030517578</v>
       </c>
       <c r="B23">
-        <v>151.4199981689453</v>
+        <v>144.8399963378906</v>
       </c>
       <c r="C23">
-        <v>148.75</v>
+        <v>141.2700042724609</v>
       </c>
       <c r="D23">
-        <v>149.5500030517578</v>
+        <v>142.9400024414062</v>
       </c>
       <c r="E23">
-        <v>149.1420440673828</v>
+        <v>142.5500793457031</v>
       </c>
       <c r="F23">
-        <v>102404300</v>
+        <v>123478900</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>150.3500061035156</v>
+        <v>143.9299926757812</v>
       </c>
       <c r="B24">
-        <v>151.0700073242188</v>
+        <v>144.6000061035156</v>
       </c>
       <c r="C24">
-        <v>146.9100036621094</v>
+        <v>142.7799987792969</v>
       </c>
       <c r="D24">
-        <v>148.1199951171875</v>
+        <v>143.4299926757812</v>
       </c>
       <c r="E24">
-        <v>147.7159271240234</v>
+        <v>143.0387268066406</v>
       </c>
       <c r="F24">
-        <v>109296300</v>
+        <v>75834000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>148.5599975585938</v>
+        <v>144.4499969482422</v>
       </c>
       <c r="B25">
-        <v>149.4400024414062</v>
+        <v>146.4299926757812</v>
       </c>
       <c r="C25">
-        <v>146.3699951171875</v>
+        <v>143.6999969482422</v>
       </c>
       <c r="D25">
-        <v>149.0299987792969</v>
+        <v>145.8500061035156</v>
       </c>
       <c r="E25">
-        <v>148.6234436035156</v>
+        <v>145.4521331787109</v>
       </c>
       <c r="F25">
-        <v>83281300</v>
+        <v>76404300</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>148.4400024414062</v>
+        <v>146.6499938964844</v>
       </c>
       <c r="B26">
-        <v>148.9700012207031</v>
+        <v>147.0800018310547</v>
       </c>
       <c r="C26">
-        <v>147.2200012207031</v>
+        <v>145.6399993896484</v>
       </c>
       <c r="D26">
-        <v>148.7899932861328</v>
+        <v>146.8300018310547</v>
       </c>
       <c r="E26">
-        <v>148.3840942382812</v>
+        <v>146.4294738769531</v>
       </c>
       <c r="F26">
-        <v>68034100</v>
+        <v>64838200</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>148.8200073242188</v>
+        <v>145.6600036621094</v>
       </c>
       <c r="B27">
-        <v>148.8200073242188</v>
+        <v>147.4700012207031</v>
       </c>
       <c r="C27">
-        <v>145.7599945068359</v>
+        <v>145.5599975585938</v>
       </c>
       <c r="D27">
-        <v>146.0599975585938</v>
+        <v>146.9199981689453</v>
       </c>
       <c r="E27">
-        <v>145.6615600585938</v>
+        <v>146.5192108154297</v>
       </c>
       <c r="F27">
-        <v>129868800</v>
+        <v>53477900</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>143.8000030517578</v>
+        <v>145.4700012207031</v>
       </c>
       <c r="B28">
-        <v>144.8399963378906</v>
+        <v>145.9600067138672</v>
       </c>
       <c r="C28">
-        <v>141.2700042724609</v>
+        <v>143.8200073242188</v>
       </c>
       <c r="D28">
-        <v>142.9400024414062</v>
+        <v>145.3699951171875</v>
       </c>
       <c r="E28">
-        <v>142.5500793457031</v>
+        <v>144.9734344482422</v>
       </c>
       <c r="F28">
-        <v>123478900</v>
+        <v>74150700</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>143.9299926757812</v>
+        <v>143.25</v>
       </c>
       <c r="B29">
-        <v>144.6000061035156</v>
+        <v>144.75</v>
       </c>
       <c r="C29">
-        <v>142.7799987792969</v>
+        <v>141.6900024414062</v>
       </c>
       <c r="D29">
-        <v>143.4299926757812</v>
+        <v>141.9100036621094</v>
       </c>
       <c r="E29">
-        <v>143.0387268066406</v>
+        <v>141.5228729248047</v>
       </c>
       <c r="F29">
-        <v>75834000</v>
+        <v>108972300</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
+        <v>142.4700012207031</v>
+      </c>
+      <c r="B30">
         <v>144.4499969482422</v>
       </c>
-      <c r="B30">
-        <v>146.4299926757812</v>
-      </c>
       <c r="C30">
-        <v>143.6999969482422</v>
+        <v>142.0299987792969</v>
       </c>
       <c r="D30">
-        <v>145.8500061035156</v>
+        <v>142.8300018310547</v>
       </c>
       <c r="E30">
-        <v>145.4521331787109</v>
+        <v>142.4403839111328</v>
       </c>
       <c r="F30">
-        <v>76404300</v>
+        <v>74602000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>146.6499938964844</v>
+        <v>143.6600036621094</v>
       </c>
       <c r="B31">
-        <v>147.0800018310547</v>
+        <v>144.3800048828125</v>
       </c>
       <c r="C31">
-        <v>145.6399993896484</v>
+        <v>141.2799987792969</v>
       </c>
       <c r="D31">
-        <v>146.8300018310547</v>
+        <v>141.5</v>
       </c>
       <c r="E31">
-        <v>146.4294738769531</v>
+        <v>141.1139984130859</v>
       </c>
       <c r="F31">
-        <v>64838200</v>
+        <v>88934200</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>145.6600036621094</v>
+        <v>141.8999938964844</v>
       </c>
       <c r="B32">
-        <v>147.4700012207031</v>
+        <v>142.9199981689453</v>
       </c>
       <c r="C32">
-        <v>145.5599975585938</v>
+        <v>139.1100006103516</v>
       </c>
       <c r="D32">
-        <v>146.9199981689453</v>
+        <v>142.6499938964844</v>
       </c>
       <c r="E32">
-        <v>146.5192108154297</v>
+        <v>142.2608642578125</v>
       </c>
       <c r="F32">
-        <v>53477900</v>
+        <v>94639600</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>145.4700012207031</v>
+        <v>141.7599945068359</v>
       </c>
       <c r="B33">
-        <v>145.9600067138672</v>
+        <v>142.2100067138672</v>
       </c>
       <c r="C33">
-        <v>143.8200073242188</v>
+        <v>138.2700042724609</v>
       </c>
       <c r="D33">
-        <v>145.3699951171875</v>
+        <v>139.1399993896484</v>
       </c>
       <c r="E33">
-        <v>144.9734344482422</v>
+        <v>138.7604370117188</v>
       </c>
       <c r="F33">
-        <v>74150700</v>
+        <v>98322000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>143.25</v>
+        <v>139.4900054931641</v>
       </c>
       <c r="B34">
-        <v>144.75</v>
+        <v>142.2400054931641</v>
       </c>
       <c r="C34">
-        <v>141.6900024414062</v>
+        <v>139.3600006103516</v>
       </c>
       <c r="D34">
-        <v>141.9100036621094</v>
+        <v>141.1100006103516</v>
       </c>
       <c r="E34">
-        <v>141.5228729248047</v>
+        <v>140.7250671386719</v>
       </c>
       <c r="F34">
-        <v>108972300</v>
+        <v>80861100</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>142.4700012207031</v>
+        <v>139.4700012207031</v>
       </c>
       <c r="B35">
-        <v>144.4499969482422</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="C35">
-        <v>142.0299987792969</v>
+        <v>138.3699951171875</v>
       </c>
       <c r="D35">
-        <v>142.8300018310547</v>
+        <v>142</v>
       </c>
       <c r="E35">
-        <v>142.4403839111328</v>
+        <v>141.6126403808594</v>
       </c>
       <c r="F35">
-        <v>74602000</v>
+        <v>83221100</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>143.6600036621094</v>
+        <v>143.0599975585938</v>
       </c>
       <c r="B36">
-        <v>144.3800048828125</v>
+        <v>144.2200012207031</v>
       </c>
       <c r="C36">
-        <v>141.2799987792969</v>
+        <v>142.7200012207031</v>
       </c>
       <c r="D36">
-        <v>141.5</v>
+        <v>143.2899932861328</v>
       </c>
       <c r="E36">
-        <v>141.1139984130859</v>
+        <v>142.8991088867188</v>
       </c>
       <c r="F36">
-        <v>88934200</v>
+        <v>61732700</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>141.8999938964844</v>
+        <v>144.0299987792969</v>
       </c>
       <c r="B37">
-        <v>142.9199981689453</v>
+        <v>144.1799926757812</v>
       </c>
       <c r="C37">
-        <v>139.1100006103516</v>
+        <v>142.5599975585938</v>
       </c>
       <c r="D37">
-        <v>142.6499938964844</v>
+        <v>142.8999938964844</v>
       </c>
       <c r="E37">
-        <v>142.2608642578125</v>
+        <v>142.5101776123047</v>
       </c>
       <c r="F37">
-        <v>94639600</v>
+        <v>58718700</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>141.7599945068359</v>
+        <v>142.2700042724609</v>
       </c>
       <c r="B38">
-        <v>142.2100067138672</v>
+        <v>144.8099975585938</v>
       </c>
       <c r="C38">
-        <v>138.2700042724609</v>
+        <v>141.8099975585938</v>
       </c>
       <c r="D38">
-        <v>139.1399993896484</v>
+        <v>142.8099975585938</v>
       </c>
       <c r="E38">
-        <v>138.7604370117188</v>
+        <v>142.4204254150391</v>
       </c>
       <c r="F38">
-        <v>98322000</v>
+        <v>64452200</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>139.4900054931641</v>
+        <v>143.2299957275391</v>
       </c>
       <c r="B39">
-        <v>142.2400054931641</v>
+        <v>143.25</v>
       </c>
       <c r="C39">
-        <v>139.3600006103516</v>
+        <v>141.0399932861328</v>
       </c>
       <c r="D39">
-        <v>141.1100006103516</v>
+        <v>141.5099945068359</v>
       </c>
       <c r="E39">
-        <v>140.7250671386719</v>
+        <v>141.1239776611328</v>
       </c>
       <c r="F39">
-        <v>80861100</v>
+        <v>73035900</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>139.4700012207031</v>
+        <v>141.2400054931641</v>
       </c>
       <c r="B40">
-        <v>142.1499938964844</v>
+        <v>141.3999938964844</v>
       </c>
       <c r="C40">
-        <v>138.3699951171875</v>
+        <v>139.1999969482422</v>
       </c>
       <c r="D40">
-        <v>142</v>
+        <v>140.9100036621094</v>
       </c>
       <c r="E40">
-        <v>141.6126403808594</v>
+        <v>140.5256195068359</v>
       </c>
       <c r="F40">
-        <v>83221100</v>
+        <v>78762700</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>143.0599975585938</v>
+        <v>142.1100006103516</v>
       </c>
       <c r="B41">
-        <v>144.2200012207031</v>
+        <v>143.8800048828125</v>
       </c>
       <c r="C41">
-        <v>142.7200012207031</v>
+        <v>141.5099945068359</v>
       </c>
       <c r="D41">
-        <v>143.2899932861328</v>
+        <v>143.7599945068359</v>
       </c>
       <c r="E41">
-        <v>142.8991088867188</v>
+        <v>143.3678283691406</v>
       </c>
       <c r="F41">
-        <v>61732700</v>
+        <v>69907100</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>144.0299987792969</v>
+        <v>143.7700042724609</v>
       </c>
       <c r="B42">
-        <v>144.1799926757812</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="C42">
-        <v>142.5599975585938</v>
+        <v>143.5099945068359</v>
       </c>
       <c r="D42">
-        <v>142.8999938964844</v>
+        <v>144.8399963378906</v>
       </c>
       <c r="E42">
-        <v>142.5101776123047</v>
+        <v>144.4448852539062</v>
       </c>
       <c r="F42">
-        <v>58718700</v>
+        <v>67885200</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>142.2700042724609</v>
+        <v>143.4499969482422</v>
       </c>
       <c r="B43">
-        <v>144.8099975585938</v>
+        <v>146.8399963378906</v>
       </c>
       <c r="C43">
-        <v>141.8099975585938</v>
+        <v>143.1600036621094</v>
       </c>
       <c r="D43">
-        <v>142.8099975585938</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="E43">
-        <v>142.4204254150391</v>
+        <v>146.1502227783203</v>
       </c>
       <c r="F43">
-        <v>64452200</v>
+        <v>85589200</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>143.2299957275391</v>
+        <v>147.0099945068359</v>
       </c>
       <c r="B44">
-        <v>143.25</v>
+        <v>149.1699981689453</v>
       </c>
       <c r="C44">
-        <v>141.0399932861328</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="D44">
-        <v>141.5099945068359</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="E44">
-        <v>141.1239776611328</v>
+        <v>148.3541870117188</v>
       </c>
       <c r="F44">
-        <v>73035900</v>
+        <v>76378900</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>141.2400054931641</v>
+        <v>148.6999969482422</v>
       </c>
       <c r="B45">
-        <v>141.3999938964844</v>
+        <v>149.75</v>
       </c>
       <c r="C45">
-        <v>139.1999969482422</v>
+        <v>148.1199951171875</v>
       </c>
       <c r="D45">
-        <v>140.9100036621094</v>
+        <v>149.2599945068359</v>
       </c>
       <c r="E45">
-        <v>140.5256195068359</v>
+        <v>148.8528289794922</v>
       </c>
       <c r="F45">
-        <v>78762700</v>
+        <v>58418800</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>142.1100006103516</v>
+        <v>148.8099975585938</v>
       </c>
       <c r="B46">
-        <v>143.8800048828125</v>
+        <v>149.6399993896484</v>
       </c>
       <c r="C46">
-        <v>141.5099945068359</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="D46">
-        <v>143.7599945068359</v>
+        <v>149.4799957275391</v>
       </c>
       <c r="E46">
-        <v>143.3678283691406</v>
+        <v>149.0722198486328</v>
       </c>
       <c r="F46">
-        <v>69907100</v>
+        <v>61421000</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>143.7700042724609</v>
+        <v>149.6900024414062</v>
       </c>
       <c r="B47">
-        <v>144.8999938964844</v>
+        <v>150.1799926757812</v>
       </c>
       <c r="C47">
-        <v>143.5099945068359</v>
+        <v>148.6399993896484</v>
       </c>
       <c r="D47">
-        <v>144.8399963378906</v>
+        <v>148.6900024414062</v>
       </c>
       <c r="E47">
-        <v>144.4448852539062</v>
+        <v>148.2843933105469</v>
       </c>
       <c r="F47">
-        <v>67885200</v>
+        <v>58883400</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>143.4499969482422</v>
+        <v>148.6799926757812</v>
       </c>
       <c r="B48">
-        <v>146.8399963378906</v>
+        <v>149.3699951171875</v>
       </c>
       <c r="C48">
-        <v>143.1600036621094</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="D48">
-        <v>146.5500030517578</v>
+        <v>148.6399993896484</v>
       </c>
       <c r="E48">
-        <v>146.1502227783203</v>
+        <v>148.2345275878906</v>
       </c>
       <c r="F48">
-        <v>85589200</v>
+        <v>50720600</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>147.0099945068359</v>
+        <v>149.3300018310547</v>
       </c>
       <c r="B49">
-        <v>149.1699981689453</v>
+        <v>150.8399963378906</v>
       </c>
       <c r="C49">
-        <v>146.5500030517578</v>
+        <v>149.0099945068359</v>
       </c>
       <c r="D49">
-        <v>148.7599945068359</v>
+        <v>149.3200073242188</v>
       </c>
       <c r="E49">
-        <v>148.3541870117188</v>
+        <v>148.9126739501953</v>
       </c>
       <c r="F49">
-        <v>76378900</v>
+        <v>60893400</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>148.6999969482422</v>
+        <v>149.3600006103516</v>
       </c>
       <c r="B50">
-        <v>149.75</v>
+        <v>149.7299957275391</v>
       </c>
       <c r="C50">
-        <v>148.1199951171875</v>
+        <v>148.4900054931641</v>
       </c>
       <c r="D50">
-        <v>149.2599945068359</v>
+        <v>148.8500061035156</v>
       </c>
       <c r="E50">
-        <v>148.8528289794922</v>
+        <v>148.4439544677734</v>
       </c>
       <c r="F50">
-        <v>58418800</v>
+        <v>56094900</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>148.8099975585938</v>
+        <v>149.8200073242188</v>
       </c>
       <c r="B51">
-        <v>149.6399993896484</v>
+        <v>153.1699981689453</v>
       </c>
       <c r="C51">
-        <v>147.8699951171875</v>
+        <v>149.7200012207031</v>
       </c>
       <c r="D51">
-        <v>149.4799957275391</v>
+        <v>152.5700073242188</v>
       </c>
       <c r="E51">
-        <v>149.0722198486328</v>
+        <v>152.15380859375</v>
       </c>
       <c r="F51">
-        <v>61421000</v>
+        <v>100077900</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>149.6900024414062</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="B52">
-        <v>150.1799926757812</v>
+        <v>149.9400024414062</v>
       </c>
       <c r="C52">
-        <v>148.6399993896484</v>
+        <v>146.4100036621094</v>
       </c>
       <c r="D52">
-        <v>148.6900024414062</v>
+        <v>149.8000030517578</v>
       </c>
       <c r="E52">
-        <v>148.2843933105469</v>
+        <v>149.391357421875</v>
       </c>
       <c r="F52">
-        <v>58883400</v>
+        <v>124850400</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>148.6799926757812</v>
+        <v>148.9900054931641</v>
       </c>
       <c r="B53">
-        <v>149.3699951171875</v>
+        <v>149.6999969482422</v>
       </c>
       <c r="C53">
-        <v>147.6199951171875</v>
+        <v>147.8000030517578</v>
       </c>
       <c r="D53">
-        <v>148.6399993896484</v>
+        <v>148.9600067138672</v>
       </c>
       <c r="E53">
-        <v>148.2345275878906</v>
+        <v>148.5536499023438</v>
       </c>
       <c r="F53">
-        <v>50720600</v>
+        <v>74588300</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>149.3300018310547</v>
+        <v>148.6600036621094</v>
       </c>
       <c r="B54">
-        <v>150.8399963378906</v>
+        <v>151.5700073242188</v>
       </c>
       <c r="C54">
-        <v>149.0099945068359</v>
+        <v>148.6499938964844</v>
       </c>
       <c r="D54">
-        <v>149.3200073242188</v>
+        <v>150.0200042724609</v>
       </c>
       <c r="E54">
-        <v>148.9126739501953</v>
+        <v>149.6107635498047</v>
       </c>
       <c r="F54">
-        <v>60893400</v>
+        <v>69122000</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>149.3600006103516</v>
+        <v>150.3899993896484</v>
       </c>
       <c r="B55">
-        <v>149.7299957275391</v>
+        <v>151.9700012207031</v>
       </c>
       <c r="C55">
-        <v>148.4900054931641</v>
+        <v>149.8200073242188</v>
       </c>
       <c r="D55">
-        <v>148.8500061035156</v>
+        <v>151.4900054931641</v>
       </c>
       <c r="E55">
-        <v>148.4439544677734</v>
+        <v>151.0767669677734</v>
       </c>
       <c r="F55">
-        <v>56094900</v>
+        <v>54511500</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>149.8200073242188</v>
+        <v>151.5800018310547</v>
       </c>
       <c r="B56">
-        <v>153.1699981689453</v>
+        <v>152.4299926757812</v>
       </c>
       <c r="C56">
-        <v>149.7200012207031</v>
+        <v>150.6399993896484</v>
       </c>
       <c r="D56">
-        <v>152.5700073242188</v>
+        <v>150.9600067138672</v>
       </c>
       <c r="E56">
-        <v>152.15380859375</v>
+        <v>150.5482025146484</v>
       </c>
       <c r="F56">
-        <v>100077900</v>
+        <v>60394600</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>147.2200012207031</v>
+        <v>151.8899993896484</v>
       </c>
       <c r="B57">
-        <v>149.9400024414062</v>
+        <v>152.1999969482422</v>
       </c>
       <c r="C57">
-        <v>146.4100036621094</v>
+        <v>150.0599975585938</v>
       </c>
       <c r="D57">
-        <v>149.8000030517578</v>
+        <v>151.2799987792969</v>
       </c>
       <c r="E57">
-        <v>149.391357421875</v>
+        <v>151.0875091552734</v>
       </c>
       <c r="F57">
-        <v>124850400</v>
+        <v>65414600</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>148.9900054931641</v>
+        <v>151.4100036621094</v>
       </c>
       <c r="B58">
-        <v>149.6999969482422</v>
+        <v>151.5700073242188</v>
       </c>
       <c r="C58">
-        <v>147.8000030517578</v>
+        <v>150.1600036621094</v>
       </c>
       <c r="D58">
-        <v>148.9600067138672</v>
+        <v>150.4400024414062</v>
       </c>
       <c r="E58">
-        <v>148.5536499023438</v>
+        <v>150.2485809326172</v>
       </c>
       <c r="F58">
-        <v>74588300</v>
+        <v>55020900</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>148.6600036621094</v>
+        <v>150.1999969482422</v>
       </c>
       <c r="B59">
-        <v>151.5700073242188</v>
+        <v>151.4299926757812</v>
       </c>
       <c r="C59">
-        <v>148.6499938964844</v>
+        <v>150.0599975585938</v>
       </c>
       <c r="D59">
-        <v>150.0200042724609</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="E59">
-        <v>149.6107635498047</v>
+        <v>150.6181030273438</v>
       </c>
       <c r="F59">
-        <v>69122000</v>
+        <v>56787900</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>150.3899993896484</v>
+        <v>150.0200042724609</v>
       </c>
       <c r="B60">
-        <v>151.9700012207031</v>
+        <v>150.1300048828125</v>
       </c>
       <c r="C60">
-        <v>149.8200073242188</v>
+        <v>147.8500061035156</v>
       </c>
       <c r="D60">
-        <v>151.4900054931641</v>
+        <v>147.9199981689453</v>
       </c>
       <c r="E60">
-        <v>151.0767669677734</v>
+        <v>147.7317810058594</v>
       </c>
       <c r="F60">
-        <v>54511500</v>
+        <v>65187100</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>151.5800018310547</v>
+        <v>148.9600067138672</v>
       </c>
       <c r="B61">
-        <v>152.4299926757812</v>
+        <v>149.4299926757812</v>
       </c>
       <c r="C61">
-        <v>150.6399993896484</v>
+        <v>147.6799926757812</v>
       </c>
       <c r="D61">
-        <v>150.9600067138672</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="E61">
-        <v>150.5482025146484</v>
+        <v>147.6818389892578</v>
       </c>
       <c r="F61">
-        <v>60394600</v>
+        <v>41000000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>151.8899993896484</v>
+        <v>148.4299926757812</v>
       </c>
       <c r="B62">
-        <v>152.1999969482422</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="C62">
-        <v>150.0599975585938</v>
+        <v>147.4799957275391</v>
       </c>
       <c r="D62">
-        <v>151.2799987792969</v>
+        <v>149.9900054931641</v>
       </c>
       <c r="E62">
-        <v>151.0875091552734</v>
+        <v>149.7991485595703</v>
       </c>
       <c r="F62">
-        <v>65414600</v>
+        <v>63632600</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>151.4100036621094</v>
+        <v>150.3699951171875</v>
       </c>
       <c r="B63">
-        <v>151.5700073242188</v>
+        <v>151.8800048828125</v>
       </c>
       <c r="C63">
-        <v>150.1600036621094</v>
+        <v>149.4299926757812</v>
       </c>
       <c r="D63">
-        <v>150.4400024414062</v>
+        <v>150</v>
       </c>
       <c r="E63">
-        <v>150.2485809326172</v>
+        <v>149.8091278076172</v>
       </c>
       <c r="F63">
-        <v>55020900</v>
+        <v>59222800</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>150.1999969482422</v>
+        <v>149.9400024414062</v>
       </c>
       <c r="B64">
-        <v>151.4299926757812</v>
+        <v>151.4900054931641</v>
       </c>
       <c r="C64">
-        <v>150.0599975585938</v>
+        <v>149.3399963378906</v>
       </c>
       <c r="D64">
-        <v>150.8099975585938</v>
+        <v>151</v>
       </c>
       <c r="E64">
-        <v>150.6181030273438</v>
+        <v>150.807861328125</v>
       </c>
       <c r="F64">
-        <v>56787900</v>
+        <v>59256200</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>150.0200042724609</v>
+        <v>151</v>
       </c>
       <c r="B65">
-        <v>150.1300048828125</v>
+        <v>155</v>
       </c>
       <c r="C65">
-        <v>147.8500061035156</v>
+        <v>150.9900054931641</v>
       </c>
       <c r="D65">
-        <v>147.9199981689453</v>
+        <v>153.4900054931641</v>
       </c>
       <c r="E65">
-        <v>147.7317810058594</v>
+        <v>153.2946929931641</v>
       </c>
       <c r="F65">
-        <v>65187100</v>
+        <v>88807000</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>148.9600067138672</v>
+        <v>153.7100067138672</v>
       </c>
       <c r="B66">
-        <v>149.4299926757812</v>
+        <v>158.6699981689453</v>
       </c>
       <c r="C66">
-        <v>147.6799926757812</v>
+        <v>153.0500030517578</v>
       </c>
       <c r="D66">
-        <v>147.8699951171875</v>
+        <v>157.8699951171875</v>
       </c>
       <c r="E66">
-        <v>147.6818389892578</v>
+        <v>157.6691131591797</v>
       </c>
       <c r="F66">
-        <v>41000000</v>
+        <v>137827700</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>148.4299926757812</v>
+        <v>157.6499938964844</v>
       </c>
       <c r="B67">
-        <v>150.3999938964844</v>
+        <v>161.0200042724609</v>
       </c>
       <c r="C67">
-        <v>147.4799957275391</v>
+        <v>156.5299987792969</v>
       </c>
       <c r="D67">
-        <v>149.9900054931641</v>
+        <v>160.5500030517578</v>
       </c>
       <c r="E67">
-        <v>149.7991485595703</v>
+        <v>160.3457183837891</v>
       </c>
       <c r="F67">
-        <v>63632600</v>
+        <v>117305600</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>150.3699951171875</v>
+        <v>161.6799926757812</v>
       </c>
       <c r="B68">
-        <v>151.8800048828125</v>
+        <v>165.6999969482422</v>
       </c>
       <c r="C68">
-        <v>149.4299926757812</v>
+        <v>161</v>
       </c>
       <c r="D68">
-        <v>150</v>
+        <v>161.0200042724609</v>
       </c>
       <c r="E68">
-        <v>149.8091278076172</v>
+        <v>160.8151092529297</v>
       </c>
       <c r="F68">
-        <v>59222800</v>
+        <v>117467900</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>149.9400024414062</v>
+        <v>161.1199951171875</v>
       </c>
       <c r="B69">
-        <v>151.4900054931641</v>
+        <v>161.8000030517578</v>
       </c>
       <c r="C69">
-        <v>149.3399963378906</v>
+        <v>159.0599975585938</v>
       </c>
       <c r="D69">
-        <v>151</v>
+        <v>161.4100036621094</v>
       </c>
       <c r="E69">
-        <v>150.807861328125</v>
+        <v>161.2046203613281</v>
       </c>
       <c r="F69">
-        <v>59256200</v>
+        <v>96041900</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>151</v>
+        <v>160.75</v>
       </c>
       <c r="B70">
-        <v>155</v>
+        <v>162.1399993896484</v>
       </c>
       <c r="C70">
-        <v>150.9900054931641</v>
+        <v>159.6399993896484</v>
       </c>
       <c r="D70">
-        <v>153.4900054931641</v>
+        <v>161.9400024414062</v>
       </c>
       <c r="E70">
-        <v>153.2946929931641</v>
+        <v>161.7339477539062</v>
       </c>
       <c r="F70">
-        <v>88807000</v>
+        <v>69463600</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>153.7100067138672</v>
+        <v>159.5700073242188</v>
       </c>
       <c r="B71">
-        <v>158.6699981689453</v>
+        <v>160.4499969482422</v>
       </c>
       <c r="C71">
-        <v>153.0500030517578</v>
+        <v>156.3600006103516</v>
       </c>
       <c r="D71">
-        <v>157.8699951171875</v>
+        <v>156.8099975585938</v>
       </c>
       <c r="E71">
-        <v>157.6691131591797</v>
+        <v>156.6104736328125</v>
       </c>
       <c r="F71">
-        <v>137827700</v>
+        <v>76959800</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>157.6499938964844</v>
+        <v>159.3699951171875</v>
       </c>
       <c r="B72">
-        <v>161.0200042724609</v>
+        <v>161.1900024414062</v>
       </c>
       <c r="C72">
-        <v>156.5299987792969</v>
+        <v>158.7899932861328</v>
       </c>
       <c r="D72">
-        <v>160.5500030517578</v>
+        <v>160.2400054931641</v>
       </c>
       <c r="E72">
-        <v>160.3457183837891</v>
+        <v>160.0361022949219</v>
       </c>
       <c r="F72">
-        <v>117305600</v>
+        <v>88748200</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>161.6799926757812</v>
+        <v>159.9900054931641</v>
       </c>
       <c r="B73">
-        <v>165.6999969482422</v>
+        <v>165.5200042724609</v>
       </c>
       <c r="C73">
-        <v>161</v>
+        <v>159.9199981689453</v>
       </c>
       <c r="D73">
-        <v>161.0200042724609</v>
+        <v>165.3000030517578</v>
       </c>
       <c r="E73">
-        <v>160.8151092529297</v>
+        <v>165.0896759033203</v>
       </c>
       <c r="F73">
-        <v>117467900</v>
+        <v>174048100</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>161.1199951171875</v>
+        <v>167.4799957275391</v>
       </c>
       <c r="B74">
-        <v>161.8000030517578</v>
+        <v>170.3000030517578</v>
       </c>
       <c r="C74">
-        <v>159.0599975585938</v>
+        <v>164.5299987792969</v>
       </c>
       <c r="D74">
-        <v>161.4100036621094</v>
+        <v>164.7700042724609</v>
       </c>
       <c r="E74">
-        <v>161.2046203613281</v>
+        <v>164.5603485107422</v>
       </c>
       <c r="F74">
-        <v>96041900</v>
+        <v>152052500</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>160.75</v>
+        <v>158.7400054931641</v>
       </c>
       <c r="B75">
-        <v>162.1399993896484</v>
+        <v>164.1999969482422</v>
       </c>
       <c r="C75">
-        <v>159.6399993896484</v>
+        <v>157.8000030517578</v>
       </c>
       <c r="D75">
-        <v>161.9400024414062</v>
+        <v>163.7599945068359</v>
       </c>
       <c r="E75">
-        <v>161.7339477539062</v>
+        <v>163.5516204833984</v>
       </c>
       <c r="F75">
-        <v>69463600</v>
+        <v>136739200</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>159.5700073242188</v>
+        <v>164.0200042724609</v>
       </c>
       <c r="B76">
-        <v>160.4499969482422</v>
+        <v>164.9600067138672</v>
       </c>
       <c r="C76">
-        <v>156.3600006103516</v>
+        <v>159.7200012207031</v>
       </c>
       <c r="D76">
-        <v>156.8099975585938</v>
+        <v>161.8399963378906</v>
       </c>
       <c r="E76">
-        <v>156.6104736328125</v>
+        <v>161.6340637207031</v>
       </c>
       <c r="F76">
-        <v>76959800</v>
+        <v>117938300</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>159.3699951171875</v>
+        <v>164.2899932861328</v>
       </c>
       <c r="B77">
-        <v>161.1900024414062</v>
+        <v>167.8800048828125</v>
       </c>
       <c r="C77">
-        <v>158.7899932861328</v>
+        <v>164.2799987792969</v>
       </c>
       <c r="D77">
-        <v>160.2400054931641</v>
+        <v>165.3200073242188</v>
       </c>
       <c r="E77">
-        <v>160.0361022949219</v>
+        <v>165.1096496582031</v>
       </c>
       <c r="F77">
-        <v>88748200</v>
+        <v>107497000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>159.9900054931641</v>
+        <v>169.0800018310547</v>
       </c>
       <c r="B78">
-        <v>165.5200042724609</v>
+        <v>171.5800018310547</v>
       </c>
       <c r="C78">
-        <v>159.9199981689453</v>
+        <v>168.3399963378906</v>
       </c>
       <c r="D78">
-        <v>165.3000030517578</v>
+        <v>171.1799926757812</v>
       </c>
       <c r="E78">
-        <v>165.0896759033203</v>
+        <v>170.9621734619141</v>
       </c>
       <c r="F78">
-        <v>174048100</v>
+        <v>120405400</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>167.4799957275391</v>
+        <v>172.1300048828125</v>
       </c>
       <c r="B79">
-        <v>170.3000030517578</v>
+        <v>175.9600067138672</v>
       </c>
       <c r="C79">
-        <v>164.5299987792969</v>
+        <v>170.6999969482422</v>
       </c>
       <c r="D79">
-        <v>164.7700042724609</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="E79">
-        <v>164.5603485107422</v>
+        <v>174.8572235107422</v>
       </c>
       <c r="F79">
-        <v>152052500</v>
+        <v>116998900</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>158.7400054931641</v>
+        <v>174.9100036621094</v>
       </c>
       <c r="B80">
-        <v>164.1999969482422</v>
+        <v>176.75</v>
       </c>
       <c r="C80">
-        <v>157.8000030517578</v>
+        <v>173.9199981689453</v>
       </c>
       <c r="D80">
-        <v>163.7599945068359</v>
+        <v>174.5599975585938</v>
       </c>
       <c r="E80">
-        <v>163.5516204833984</v>
+        <v>174.3378753662109</v>
       </c>
       <c r="F80">
-        <v>136739200</v>
+        <v>108923700</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>164.0200042724609</v>
+        <v>175.2100067138672</v>
       </c>
       <c r="B81">
-        <v>164.9600067138672</v>
+        <v>179.6300048828125</v>
       </c>
       <c r="C81">
-        <v>159.7200012207031</v>
+        <v>174.6900024414062</v>
       </c>
       <c r="D81">
-        <v>161.8399963378906</v>
+        <v>179.4499969482422</v>
       </c>
       <c r="E81">
-        <v>161.6340637207031</v>
+        <v>179.2216644287109</v>
       </c>
       <c r="F81">
-        <v>117938300</v>
+        <v>115228100</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>164.2899932861328</v>
+        <v>181.1199951171875</v>
       </c>
       <c r="B82">
-        <v>167.8800048828125</v>
+        <v>182.1300048828125</v>
       </c>
       <c r="C82">
-        <v>164.2799987792969</v>
+        <v>175.5299987792969</v>
       </c>
       <c r="D82">
-        <v>165.3200073242188</v>
+        <v>175.7400054931641</v>
       </c>
       <c r="E82">
-        <v>165.1096496582031</v>
+        <v>175.5163879394531</v>
       </c>
       <c r="F82">
-        <v>107497000</v>
+        <v>153237000</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>169.0800018310547</v>
+        <v>175.25</v>
       </c>
       <c r="B83">
-        <v>171.5800018310547</v>
+        <v>177.7400054931641</v>
       </c>
       <c r="C83">
-        <v>168.3399963378906</v>
+        <v>172.2100067138672</v>
       </c>
       <c r="D83">
-        <v>171.1799926757812</v>
+        <v>174.3300018310547</v>
       </c>
       <c r="E83">
-        <v>170.9621734619141</v>
+        <v>174.1081848144531</v>
       </c>
       <c r="F83">
-        <v>120405400</v>
+        <v>139380400</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>172.1300048828125</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="B84">
-        <v>175.9600067138672</v>
+        <v>179.5</v>
       </c>
       <c r="C84">
-        <v>170.6999969482422</v>
+        <v>172.3099975585938</v>
       </c>
       <c r="D84">
-        <v>175.0800018310547</v>
+        <v>179.3000030517578</v>
       </c>
       <c r="E84">
-        <v>174.8572235107422</v>
+        <v>179.0718536376953</v>
       </c>
       <c r="F84">
-        <v>116998900</v>
+        <v>131063300</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>174.9100036621094</v>
+        <v>179.2799987792969</v>
       </c>
       <c r="B85">
-        <v>176.75</v>
+        <v>181.1399993896484</v>
       </c>
       <c r="C85">
-        <v>173.9199981689453</v>
+        <v>170.75</v>
       </c>
       <c r="D85">
-        <v>174.5599975585938</v>
+        <v>172.2599945068359</v>
       </c>
       <c r="E85">
-        <v>174.3378753662109</v>
+        <v>172.0408020019531</v>
       </c>
       <c r="F85">
-        <v>108923700</v>
+        <v>150185800</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>175.2100067138672</v>
+        <v>169.9299926757812</v>
       </c>
       <c r="B86">
-        <v>179.6300048828125</v>
+        <v>173.4700012207031</v>
       </c>
       <c r="C86">
-        <v>174.6900024414062</v>
+        <v>169.6900024414062</v>
       </c>
       <c r="D86">
-        <v>179.4499969482422</v>
+        <v>171.1399993896484</v>
       </c>
       <c r="E86">
-        <v>179.2216644287109</v>
+        <v>170.9222412109375</v>
       </c>
       <c r="F86">
-        <v>115228100</v>
+        <v>195432700</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>181.1199951171875</v>
+        <v>168.2799987792969</v>
       </c>
       <c r="B87">
-        <v>182.1300048828125</v>
+        <v>170.5800018310547</v>
       </c>
       <c r="C87">
-        <v>175.5299987792969</v>
+        <v>167.4600067138672</v>
       </c>
       <c r="D87">
-        <v>175.7400054931641</v>
+        <v>169.75</v>
       </c>
       <c r="E87">
-        <v>175.5163879394531</v>
+        <v>169.5339965820312</v>
       </c>
       <c r="F87">
-        <v>153237000</v>
+        <v>107499100</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>175.25</v>
+        <v>171.5599975585938</v>
       </c>
       <c r="B88">
-        <v>177.7400054931641</v>
+        <v>173.1999969482422</v>
       </c>
       <c r="C88">
-        <v>172.2100067138672</v>
+        <v>169.1199951171875</v>
       </c>
       <c r="D88">
-        <v>174.3300018310547</v>
+        <v>172.9900054931641</v>
       </c>
       <c r="E88">
-        <v>174.1081848144531</v>
+        <v>172.7698822021484</v>
       </c>
       <c r="F88">
-        <v>139380400</v>
+        <v>91185900</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>175.1100006103516</v>
+        <v>173.0399932861328</v>
       </c>
       <c r="B89">
-        <v>179.5</v>
+        <v>175.8600006103516</v>
       </c>
       <c r="C89">
-        <v>172.3099975585938</v>
+        <v>172.1499938964844</v>
       </c>
       <c r="D89">
-        <v>179.3000030517578</v>
+        <v>175.6399993896484</v>
       </c>
       <c r="E89">
-        <v>179.0718536376953</v>
+        <v>175.41650390625</v>
       </c>
       <c r="F89">
-        <v>131063300</v>
+        <v>92135300</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>179.2799987792969</v>
+        <v>175.8500061035156</v>
       </c>
       <c r="B90">
-        <v>181.1399993896484</v>
+        <v>176.8500061035156</v>
       </c>
       <c r="C90">
-        <v>170.75</v>
+        <v>175.2700042724609</v>
       </c>
       <c r="D90">
-        <v>172.2599945068359</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="E90">
-        <v>172.0408020019531</v>
+        <v>176.0556945800781</v>
       </c>
       <c r="F90">
-        <v>150185800</v>
+        <v>68356600</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>169.9299926757812</v>
+        <v>177.0899963378906</v>
       </c>
       <c r="B91">
-        <v>173.4700012207031</v>
+        <v>180.4199981689453</v>
       </c>
       <c r="C91">
-        <v>169.6900024414062</v>
+        <v>177.0700073242188</v>
       </c>
       <c r="D91">
-        <v>171.1399993896484</v>
+        <v>180.3300018310547</v>
       </c>
       <c r="E91">
-        <v>170.9222412109375</v>
+        <v>180.1005401611328</v>
       </c>
       <c r="F91">
-        <v>195432700</v>
+        <v>74919600</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>168.2799987792969</v>
+        <v>180.1600036621094</v>
       </c>
       <c r="B92">
-        <v>170.5800018310547</v>
+        <v>181.3300018310547</v>
       </c>
       <c r="C92">
-        <v>167.4600067138672</v>
+        <v>178.5299987792969</v>
       </c>
       <c r="D92">
-        <v>169.75</v>
+        <v>179.2899932861328</v>
       </c>
       <c r="E92">
-        <v>169.5339965820312</v>
+        <v>179.0618591308594</v>
       </c>
       <c r="F92">
-        <v>107499100</v>
+        <v>79144300</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>171.5599975585938</v>
+        <v>179.3300018310547</v>
       </c>
       <c r="B93">
-        <v>173.1999969482422</v>
+        <v>180.6300048828125</v>
       </c>
       <c r="C93">
-        <v>169.1199951171875</v>
+        <v>178.1399993896484</v>
       </c>
       <c r="D93">
-        <v>172.9900054931641</v>
+        <v>179.3800048828125</v>
       </c>
       <c r="E93">
-        <v>172.7698822021484</v>
+        <v>179.1517486572266</v>
       </c>
       <c r="F93">
-        <v>91185900</v>
+        <v>62348900</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>173.0399932861328</v>
+        <v>179.4700012207031</v>
       </c>
       <c r="B94">
-        <v>175.8600006103516</v>
+        <v>180.5700073242188</v>
       </c>
       <c r="C94">
-        <v>172.1499938964844</v>
+        <v>178.0899963378906</v>
       </c>
       <c r="D94">
-        <v>175.6399993896484</v>
+        <v>178.1999969482422</v>
       </c>
       <c r="E94">
-        <v>175.41650390625</v>
+        <v>177.9732513427734</v>
       </c>
       <c r="F94">
-        <v>92135300</v>
+        <v>59773000</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>175.8500061035156</v>
+        <v>178.0899963378906</v>
       </c>
       <c r="B95">
-        <v>176.8500061035156</v>
+        <v>179.2299957275391</v>
       </c>
       <c r="C95">
-        <v>175.2700042724609</v>
+        <v>177.2599945068359</v>
       </c>
       <c r="D95">
-        <v>176.2799987792969</v>
+        <v>177.5700073242188</v>
       </c>
       <c r="E95">
-        <v>176.0556945800781</v>
+        <v>177.3440551757812</v>
       </c>
       <c r="F95">
-        <v>68356600</v>
+        <v>64062300</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>177.0899963378906</v>
+        <v>177.8300018310547</v>
       </c>
       <c r="B96">
-        <v>180.4199981689453</v>
+        <v>182.8800048828125</v>
       </c>
       <c r="C96">
-        <v>177.0700073242188</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="D96">
-        <v>180.3300018310547</v>
+        <v>182.0099945068359</v>
       </c>
       <c r="E96">
-        <v>180.1005401611328</v>
+        <v>181.7783966064453</v>
       </c>
       <c r="F96">
-        <v>74919600</v>
+        <v>104487900</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>180.1600036621094</v>
+        <v>182.6300048828125</v>
       </c>
       <c r="B97">
-        <v>181.3300018310547</v>
+        <v>182.9400024414062</v>
       </c>
       <c r="C97">
-        <v>178.5299987792969</v>
+        <v>179.1199951171875</v>
       </c>
       <c r="D97">
-        <v>179.2899932861328</v>
+        <v>179.6999969482422</v>
       </c>
       <c r="E97">
-        <v>179.0618591308594</v>
+        <v>179.4713439941406</v>
       </c>
       <c r="F97">
-        <v>79144300</v>
+        <v>99310400</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>179.3300018310547</v>
+        <v>179.6100006103516</v>
       </c>
       <c r="B98">
-        <v>180.6300048828125</v>
+        <v>180.1699981689453</v>
       </c>
       <c r="C98">
-        <v>178.1399993896484</v>
+        <v>174.6399993896484</v>
       </c>
       <c r="D98">
-        <v>179.3800048828125</v>
+        <v>174.9199981689453</v>
       </c>
       <c r="E98">
-        <v>179.1517486572266</v>
+        <v>174.6974182128906</v>
       </c>
       <c r="F98">
-        <v>62348900</v>
+        <v>94537600</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>179.4700012207031</v>
+        <v>172.6999969482422</v>
       </c>
       <c r="B99">
-        <v>180.5700073242188</v>
+        <v>175.3000030517578</v>
       </c>
       <c r="C99">
-        <v>178.0899963378906</v>
+        <v>171.6399993896484</v>
       </c>
       <c r="D99">
-        <v>178.1999969482422</v>
+        <v>172</v>
       </c>
       <c r="E99">
-        <v>177.9732513427734</v>
+        <v>171.7811431884766</v>
       </c>
       <c r="F99">
-        <v>59773000</v>
+        <v>96904000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>178.0899963378906</v>
+        <v>172.8899993896484</v>
       </c>
       <c r="B100">
-        <v>179.2299957275391</v>
+        <v>174.1399993896484</v>
       </c>
       <c r="C100">
-        <v>177.2599945068359</v>
+        <v>171.0299987792969</v>
       </c>
       <c r="D100">
-        <v>177.5700073242188</v>
+        <v>172.1699981689453</v>
       </c>
       <c r="E100">
-        <v>177.3440551757812</v>
+        <v>171.950927734375</v>
       </c>
       <c r="F100">
-        <v>64062300</v>
+        <v>86580100</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>177.8300018310547</v>
+        <v>169.0800018310547</v>
       </c>
       <c r="B101">
-        <v>182.8800048828125</v>
+        <v>172.5</v>
       </c>
       <c r="C101">
-        <v>177.7100067138672</v>
+        <v>168.1699981689453</v>
       </c>
       <c r="D101">
-        <v>182.0099945068359</v>
+        <v>172.1900024414062</v>
       </c>
       <c r="E101">
-        <v>181.7783966064453</v>
+        <v>171.9709014892578</v>
       </c>
       <c r="F101">
-        <v>104487900</v>
+        <v>106765600</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>182.6300048828125</v>
+        <v>172.3200073242188</v>
       </c>
       <c r="B102">
-        <v>182.9400024414062</v>
+        <v>175.1799926757812</v>
       </c>
       <c r="C102">
-        <v>179.1199951171875</v>
+        <v>170.8200073242188</v>
       </c>
       <c r="D102">
-        <v>179.6999969482422</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="E102">
-        <v>179.4713439941406</v>
+        <v>174.8572235107422</v>
       </c>
       <c r="F102">
-        <v>99310400</v>
+        <v>76138300</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>179.6100006103516</v>
+        <v>176.1199951171875</v>
       </c>
       <c r="B103">
-        <v>180.1699981689453</v>
+        <v>177.1799926757812</v>
       </c>
       <c r="C103">
-        <v>174.6399993896484</v>
+        <v>174.8200073242188</v>
       </c>
       <c r="D103">
-        <v>174.9199981689453</v>
+        <v>175.5299987792969</v>
       </c>
       <c r="E103">
-        <v>174.6974182128906</v>
+        <v>175.306640625</v>
       </c>
       <c r="F103">
-        <v>94537600</v>
+        <v>74805200</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>172.6999969482422</v>
+        <v>175.7799987792969</v>
       </c>
       <c r="B104">
-        <v>175.3000030517578</v>
+        <v>176.6199951171875</v>
       </c>
       <c r="C104">
-        <v>171.6399993896484</v>
+        <v>171.7899932861328</v>
       </c>
       <c r="D104">
-        <v>172</v>
+        <v>172.1900024414062</v>
       </c>
       <c r="E104">
-        <v>171.7811431884766</v>
+        <v>171.9709014892578</v>
       </c>
       <c r="F104">
-        <v>96904000</v>
+        <v>84505800</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>172.8899993896484</v>
+        <v>171.3399963378906</v>
       </c>
       <c r="B105">
-        <v>174.1399993896484</v>
+        <v>173.7799987792969</v>
       </c>
       <c r="C105">
-        <v>171.0299987792969</v>
+        <v>171.0899963378906</v>
       </c>
       <c r="D105">
-        <v>172.1699981689453</v>
+        <v>173.0700073242188</v>
       </c>
       <c r="E105">
-        <v>171.950927734375</v>
+        <v>172.8497924804688</v>
       </c>
       <c r="F105">
-        <v>86580100</v>
+        <v>80355000</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>169.0800018310547</v>
+        <v>171.5099945068359</v>
       </c>
       <c r="B106">
-        <v>172.5</v>
+        <v>172.5399932861328</v>
       </c>
       <c r="C106">
-        <v>168.1699981689453</v>
+        <v>169.4100036621094</v>
       </c>
       <c r="D106">
-        <v>172.1900024414062</v>
+        <v>169.8000030517578</v>
       </c>
       <c r="E106">
-        <v>171.9709014892578</v>
+        <v>169.5839385986328</v>
       </c>
       <c r="F106">
-        <v>106765600</v>
+        <v>90956700</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>172.3200073242188</v>
+        <v>170</v>
       </c>
       <c r="B107">
-        <v>175.1799926757812</v>
+        <v>171.0800018310547</v>
       </c>
       <c r="C107">
-        <v>170.8200073242188</v>
+        <v>165.9400024414062</v>
       </c>
       <c r="D107">
-        <v>175.0800018310547</v>
+        <v>166.2299957275391</v>
       </c>
       <c r="E107">
-        <v>174.8572235107422</v>
+        <v>166.0184783935547</v>
       </c>
       <c r="F107">
-        <v>76138300</v>
+        <v>94815000</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>176.1199951171875</v>
+        <v>166.9799957275391</v>
       </c>
       <c r="B108">
-        <v>177.1799926757812</v>
+        <v>169.6799926757812</v>
       </c>
       <c r="C108">
-        <v>174.8200073242188</v>
+        <v>164.1799926757812</v>
       </c>
       <c r="D108">
-        <v>175.5299987792969</v>
+        <v>164.5099945068359</v>
       </c>
       <c r="E108">
-        <v>175.306640625</v>
+        <v>164.3006591796875</v>
       </c>
       <c r="F108">
-        <v>74805200</v>
+        <v>91420500</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>175.7799987792969</v>
+        <v>164.4199981689453</v>
       </c>
       <c r="B109">
-        <v>176.6199951171875</v>
+        <v>166.3300018310547</v>
       </c>
       <c r="C109">
-        <v>171.7899932861328</v>
+        <v>162.3000030517578</v>
       </c>
       <c r="D109">
-        <v>172.1900024414062</v>
+        <v>162.4100036621094</v>
       </c>
       <c r="E109">
-        <v>171.9709014892578</v>
+        <v>162.2033538818359</v>
       </c>
       <c r="F109">
-        <v>84505800</v>
+        <v>122848900</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>171.3399963378906</v>
+        <v>160.0200042724609</v>
       </c>
       <c r="B110">
-        <v>173.7799987792969</v>
+        <v>162.3000030517578</v>
       </c>
       <c r="C110">
-        <v>171.0899963378906</v>
+        <v>154.6999969482422</v>
       </c>
       <c r="D110">
-        <v>173.0700073242188</v>
+        <v>161.6199951171875</v>
       </c>
       <c r="E110">
-        <v>172.8497924804688</v>
+        <v>161.4143371582031</v>
       </c>
       <c r="F110">
-        <v>80355000</v>
+        <v>162294600</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>171.5099945068359</v>
+        <v>158.9799957275391</v>
       </c>
       <c r="B111">
-        <v>172.5399932861328</v>
+        <v>162.7599945068359</v>
       </c>
       <c r="C111">
-        <v>169.4100036621094</v>
+        <v>157.0200042724609</v>
       </c>
       <c r="D111">
-        <v>169.8000030517578</v>
+        <v>159.7799987792969</v>
       </c>
       <c r="E111">
-        <v>169.5839385986328</v>
+        <v>159.5766906738281</v>
       </c>
       <c r="F111">
-        <v>90956700</v>
+        <v>115798400</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>170</v>
+        <v>163.5</v>
       </c>
       <c r="B112">
-        <v>171.0800018310547</v>
+        <v>164.3899993896484</v>
       </c>
       <c r="C112">
-        <v>165.9400024414062</v>
+        <v>157.8200073242188</v>
       </c>
       <c r="D112">
-        <v>166.2299957275391</v>
+        <v>159.6900024414062</v>
       </c>
       <c r="E112">
-        <v>166.0184783935547</v>
+        <v>159.4868011474609</v>
       </c>
       <c r="F112">
-        <v>94815000</v>
+        <v>108275300</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>166.9799957275391</v>
+        <v>162.4499969482422</v>
       </c>
       <c r="B113">
-        <v>169.6799926757812</v>
+        <v>163.8399963378906</v>
       </c>
       <c r="C113">
-        <v>164.1799926757812</v>
+        <v>158.2799987792969</v>
       </c>
       <c r="D113">
-        <v>164.5099945068359</v>
+        <v>159.2200012207031</v>
       </c>
       <c r="E113">
-        <v>164.3006591796875</v>
+        <v>159.0174102783203</v>
       </c>
       <c r="F113">
-        <v>91420500</v>
+        <v>121954600</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>164.4199981689453</v>
+        <v>165.7100067138672</v>
       </c>
       <c r="B114">
-        <v>166.3300018310547</v>
+        <v>170.3500061035156</v>
       </c>
       <c r="C114">
-        <v>162.3000030517578</v>
+        <v>162.8000030517578</v>
       </c>
       <c r="D114">
-        <v>162.4100036621094</v>
+        <v>170.3300018310547</v>
       </c>
       <c r="E114">
-        <v>162.2033538818359</v>
+        <v>170.1132659912109</v>
       </c>
       <c r="F114">
-        <v>122848900</v>
+        <v>179935700</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>160.0200042724609</v>
+        <v>170.1600036621094</v>
       </c>
       <c r="B115">
-        <v>162.3000030517578</v>
+        <v>175</v>
       </c>
       <c r="C115">
-        <v>154.6999969482422</v>
+        <v>169.5099945068359</v>
       </c>
       <c r="D115">
-        <v>161.6199951171875</v>
+        <v>174.7799987792969</v>
       </c>
       <c r="E115">
-        <v>161.4143371582031</v>
+        <v>174.5576019287109</v>
       </c>
       <c r="F115">
-        <v>162294600</v>
+        <v>115541600</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>158.9799957275391</v>
+        <v>174.0099945068359</v>
       </c>
       <c r="B116">
-        <v>162.7599945068359</v>
+        <v>174.8399963378906</v>
       </c>
       <c r="C116">
-        <v>157.0200042724609</v>
+        <v>172.3099975585938</v>
       </c>
       <c r="D116">
-        <v>159.7799987792969</v>
+        <v>174.6100006103516</v>
       </c>
       <c r="E116">
-        <v>159.5766906738281</v>
+        <v>174.3878173828125</v>
       </c>
       <c r="F116">
-        <v>115798400</v>
+        <v>86213900</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>163.5</v>
+        <v>174.75</v>
       </c>
       <c r="B117">
-        <v>164.3899993896484</v>
+        <v>175.8800048828125</v>
       </c>
       <c r="C117">
-        <v>157.8200073242188</v>
+        <v>173.3300018310547</v>
       </c>
       <c r="D117">
-        <v>159.6900024414062</v>
+        <v>175.8399963378906</v>
       </c>
       <c r="E117">
-        <v>159.4868011474609</v>
+        <v>175.6162567138672</v>
       </c>
       <c r="F117">
-        <v>108275300</v>
+        <v>84914300</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>162.4499969482422</v>
+        <v>174.4799957275391</v>
       </c>
       <c r="B118">
-        <v>163.8399963378906</v>
+        <v>176.2400054931641</v>
       </c>
       <c r="C118">
-        <v>158.2799987792969</v>
+        <v>172.1199951171875</v>
       </c>
       <c r="D118">
-        <v>159.2200012207031</v>
+        <v>172.8999938964844</v>
       </c>
       <c r="E118">
-        <v>159.0174102783203</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="F118">
-        <v>121954600</v>
+        <v>89418100</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>165.7100067138672</v>
+        <v>171.6799926757812</v>
       </c>
       <c r="B119">
-        <v>170.3500061035156</v>
+        <v>174.1000061035156</v>
       </c>
       <c r="C119">
-        <v>162.8000030517578</v>
+        <v>170.6799926757812</v>
       </c>
       <c r="D119">
-        <v>170.3300018310547</v>
+        <v>172.3899993896484</v>
       </c>
       <c r="E119">
-        <v>170.1132659912109</v>
+        <v>172.3899993896484</v>
       </c>
       <c r="F119">
-        <v>179935700</v>
+        <v>82391400</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>170.1600036621094</v>
+        <v>172.8600006103516</v>
       </c>
       <c r="B120">
-        <v>175</v>
+        <v>173.9499969482422</v>
       </c>
       <c r="C120">
-        <v>169.5099945068359</v>
+        <v>170.9499969482422</v>
       </c>
       <c r="D120">
-        <v>174.7799987792969</v>
+        <v>171.6600036621094</v>
       </c>
       <c r="E120">
-        <v>174.5576019287109</v>
+        <v>171.6600036621094</v>
       </c>
       <c r="F120">
-        <v>115541600</v>
+        <v>77251200</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>174.0099945068359</v>
+        <v>171.7299957275391</v>
       </c>
       <c r="B121">
-        <v>174.8399963378906</v>
+        <v>175.3500061035156</v>
       </c>
       <c r="C121">
-        <v>172.3099975585938</v>
+        <v>171.4299926757812</v>
       </c>
       <c r="D121">
-        <v>174.6100006103516</v>
+        <v>174.8300018310547</v>
       </c>
       <c r="E121">
-        <v>174.3878173828125</v>
+        <v>174.8300018310547</v>
       </c>
       <c r="F121">
-        <v>86213900</v>
+        <v>74829200</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>174.75</v>
+        <v>176.0500030517578</v>
       </c>
       <c r="B122">
-        <v>175.8800048828125</v>
+        <v>176.6499938964844</v>
       </c>
       <c r="C122">
-        <v>173.3300018310547</v>
+        <v>174.8999938964844</v>
       </c>
       <c r="D122">
-        <v>175.8399963378906</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="E122">
-        <v>175.6162567138672</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="F122">
-        <v>84914300</v>
+        <v>71285000</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>174.4799957275391</v>
+        <v>174.1399993896484</v>
       </c>
       <c r="B123">
-        <v>176.2400054931641</v>
+        <v>175.4799957275391</v>
       </c>
       <c r="C123">
+        <v>171.5500030517578</v>
+      </c>
+      <c r="D123">
         <v>172.1199951171875</v>
       </c>
-      <c r="D123">
-        <v>172.8999938964844</v>
-      </c>
       <c r="E123">
-        <v>172.6799926757812</v>
+        <v>172.1199951171875</v>
       </c>
       <c r="F123">
-        <v>89418100</v>
+        <v>90865900</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>171.6799926757812</v>
+        <v>172.3300018310547</v>
       </c>
       <c r="B124">
-        <v>174.1000061035156</v>
+        <v>173.0800018310547</v>
       </c>
       <c r="C124">
-        <v>170.6799926757812</v>
+        <v>168.0399932861328</v>
       </c>
       <c r="D124">
-        <v>172.3899993896484</v>
+        <v>168.6399993896484</v>
       </c>
       <c r="E124">
-        <v>172.3899993896484</v>
+        <v>168.6399993896484</v>
       </c>
       <c r="F124">
-        <v>82391400</v>
+        <v>98566000</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>172.8600006103516</v>
+        <v>167.3699951171875</v>
       </c>
       <c r="B125">
-        <v>173.9499969482422</v>
+        <v>169.5800018310547</v>
       </c>
       <c r="C125">
-        <v>170.9499969482422</v>
+        <v>166.5599975585938</v>
       </c>
       <c r="D125">
-        <v>171.6600036621094</v>
+        <v>168.8800048828125</v>
       </c>
       <c r="E125">
-        <v>171.6600036621094</v>
+        <v>168.8800048828125</v>
       </c>
       <c r="F125">
-        <v>77251200</v>
+        <v>86185500</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>171.7299957275391</v>
+        <v>170.9700012207031</v>
       </c>
       <c r="B126">
-        <v>175.3500061035156</v>
+        <v>172.9499969482422</v>
       </c>
       <c r="C126">
-        <v>171.4299926757812</v>
+        <v>170.25</v>
       </c>
       <c r="D126">
-        <v>174.8300018310547</v>
+        <v>172.7899932861328</v>
       </c>
       <c r="E126">
-        <v>174.8300018310547</v>
+        <v>172.7899932861328</v>
       </c>
       <c r="F126">
-        <v>74829200</v>
+        <v>64286300</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>176.0500030517578</v>
+        <v>171.8500061035156</v>
       </c>
       <c r="B127">
-        <v>176.6499938964844</v>
+        <v>173.3399963378906</v>
       </c>
       <c r="C127">
-        <v>174.8999938964844</v>
+        <v>170.0500030517578</v>
       </c>
       <c r="D127">
-        <v>176.2799987792969</v>
+        <v>172.5500030517578</v>
       </c>
       <c r="E127">
-        <v>176.2799987792969</v>
+        <v>172.5500030517578</v>
       </c>
       <c r="F127">
-        <v>71285000</v>
+        <v>61177400</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>174.1399993896484</v>
+        <v>171.0299987792969</v>
       </c>
       <c r="B128">
-        <v>175.4799957275391</v>
+        <v>171.9100036621094</v>
       </c>
       <c r="C128">
-        <v>171.5500030517578</v>
+        <v>168.4700012207031</v>
       </c>
       <c r="D128">
-        <v>172.1199951171875</v>
+        <v>168.8800048828125</v>
       </c>
       <c r="E128">
-        <v>172.1199951171875</v>
+        <v>168.8800048828125</v>
       </c>
       <c r="F128">
-        <v>90865900</v>
+        <v>69589300</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>172.3300018310547</v>
+        <v>169.8200073242188</v>
       </c>
       <c r="B129">
-        <v>173.0800018310547</v>
+        <v>170.5399932861328</v>
       </c>
       <c r="C129">
-        <v>168.0399932861328</v>
+        <v>166.1900024414062</v>
       </c>
       <c r="D129">
-        <v>168.6399993896484</v>
+        <v>167.3000030517578</v>
       </c>
       <c r="E129">
-        <v>168.6399993896484</v>
+        <v>167.3000030517578</v>
       </c>
       <c r="F129">
-        <v>98566000</v>
+        <v>82614200</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/AAPL/HighLow.xlsx
+++ b/Stocks/AAPL/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2562 +417,2542 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>145.0299987792969</v>
+        <v>148.3500061035156</v>
       </c>
       <c r="B2">
-        <v>148</v>
+        <v>149.1199951171875</v>
       </c>
       <c r="C2">
-        <v>144.5</v>
+        <v>147.5099945068359</v>
       </c>
       <c r="D2">
-        <v>146.6999969482422</v>
+        <v>147.5399932861328</v>
       </c>
       <c r="E2">
-        <v>146.2998046875</v>
+        <v>147.1375122070312</v>
       </c>
       <c r="F2">
-        <v>86960300</v>
+        <v>48597200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>147.4400024414062</v>
+        <v>147.4799957275391</v>
       </c>
       <c r="B3">
-        <v>148.5</v>
+        <v>148.75</v>
       </c>
       <c r="C3">
-        <v>146.7799987792969</v>
+        <v>146.8300018310547</v>
       </c>
       <c r="D3">
-        <v>148.1900024414062</v>
+        <v>148.6000061035156</v>
       </c>
       <c r="E3">
-        <v>147.7857513427734</v>
+        <v>148.1946411132812</v>
       </c>
       <c r="F3">
-        <v>59947400</v>
+        <v>55721500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>148.3099975585938</v>
+        <v>149</v>
       </c>
       <c r="B4">
-        <v>150.1900024414062</v>
+        <v>153.4900054931641</v>
       </c>
       <c r="C4">
-        <v>147.8899993896484</v>
+        <v>148.6100006103516</v>
       </c>
       <c r="D4">
-        <v>149.7100067138672</v>
+        <v>153.1199951171875</v>
       </c>
       <c r="E4">
-        <v>149.3016204833984</v>
+        <v>152.7023010253906</v>
       </c>
       <c r="F4">
-        <v>60131800</v>
+        <v>90956700</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>149.4499969482422</v>
+        <v>152.6600036621094</v>
       </c>
       <c r="B5">
-        <v>150.8600006103516</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="C5">
-        <v>149.1499938964844</v>
+        <v>151.2899932861328</v>
       </c>
       <c r="D5">
-        <v>149.6199951171875</v>
+        <v>151.8300018310547</v>
       </c>
       <c r="E5">
-        <v>149.2118377685547</v>
+        <v>151.4158172607422</v>
       </c>
       <c r="F5">
-        <v>48606400</v>
+        <v>86453100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>149.8099975585938</v>
+        <v>152.8300018310547</v>
       </c>
       <c r="B6">
-        <v>150.3200073242188</v>
+        <v>154.9799957275391</v>
       </c>
       <c r="C6">
-        <v>147.8000030517578</v>
+        <v>152.3399963378906</v>
       </c>
       <c r="D6">
-        <v>148.3600006103516</v>
+        <v>152.5099945068359</v>
       </c>
       <c r="E6">
-        <v>147.9552764892578</v>
+        <v>152.0939636230469</v>
       </c>
       <c r="F6">
-        <v>58991300</v>
+        <v>80313700</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>148.3500061035156</v>
+        <v>153.8699951171875</v>
       </c>
       <c r="B7">
-        <v>149.1199951171875</v>
+        <v>154.7200012207031</v>
       </c>
       <c r="C7">
-        <v>147.5099945068359</v>
+        <v>152.3999938964844</v>
       </c>
       <c r="D7">
-        <v>147.5399932861328</v>
+        <v>153.6499938964844</v>
       </c>
       <c r="E7">
-        <v>147.1375122070312</v>
+        <v>153.2308502197266</v>
       </c>
       <c r="F7">
-        <v>48597200</v>
+        <v>71115500</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>147.4799957275391</v>
+        <v>153.7599945068359</v>
       </c>
       <c r="B8">
-        <v>148.75</v>
+        <v>154.6300048828125</v>
       </c>
       <c r="C8">
-        <v>146.8300018310547</v>
+        <v>153.0899963378906</v>
       </c>
       <c r="D8">
-        <v>148.6000061035156</v>
+        <v>154.3000030517578</v>
       </c>
       <c r="E8">
-        <v>148.1946411132812</v>
+        <v>153.8790893554688</v>
       </c>
       <c r="F8">
-        <v>55721500</v>
+        <v>57808700</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>149</v>
+        <v>154.9700012207031</v>
       </c>
       <c r="B9">
-        <v>153.4900054931641</v>
+        <v>157.2599945068359</v>
       </c>
       <c r="C9">
-        <v>148.6100006103516</v>
+        <v>154.3899993896484</v>
       </c>
       <c r="D9">
-        <v>153.1199951171875</v>
+        <v>156.6900024414062</v>
       </c>
       <c r="E9">
-        <v>152.7023010253906</v>
+        <v>156.2625732421875</v>
       </c>
       <c r="F9">
-        <v>90956700</v>
+        <v>82278300</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>152.6600036621094</v>
+        <v>156.9799957275391</v>
       </c>
       <c r="B10">
-        <v>152.8000030517578</v>
+        <v>157.0399932861328</v>
       </c>
       <c r="C10">
-        <v>151.2899932861328</v>
+        <v>153.9799957275391</v>
       </c>
       <c r="D10">
-        <v>151.8300018310547</v>
+        <v>155.1100006103516</v>
       </c>
       <c r="E10">
-        <v>151.4158172607422</v>
+        <v>154.6868743896484</v>
       </c>
       <c r="F10">
-        <v>86453100</v>
+        <v>74420200</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>152.8300018310547</v>
+        <v>155.4900054931641</v>
       </c>
       <c r="B11">
-        <v>154.9799957275391</v>
+        <v>156.1100006103516</v>
       </c>
       <c r="C11">
-        <v>152.3399963378906</v>
+        <v>153.9499969482422</v>
       </c>
       <c r="D11">
-        <v>152.5099945068359</v>
+        <v>154.0700073242188</v>
       </c>
       <c r="E11">
-        <v>152.0939636230469</v>
+        <v>153.6497192382812</v>
       </c>
       <c r="F11">
-        <v>80313700</v>
+        <v>57305700</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>153.8699951171875</v>
+        <v>155</v>
       </c>
       <c r="B12">
-        <v>154.7200012207031</v>
+        <v>155.4799957275391</v>
       </c>
       <c r="C12">
-        <v>152.3999938964844</v>
+        <v>148.6999969482422</v>
       </c>
       <c r="D12">
-        <v>153.6499938964844</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="E12">
-        <v>153.2308502197266</v>
+        <v>148.5636138916016</v>
       </c>
       <c r="F12">
-        <v>71115500</v>
+        <v>140646400</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>153.7599945068359</v>
+        <v>150.6300048828125</v>
       </c>
       <c r="B13">
-        <v>154.6300048828125</v>
+        <v>151.4199981689453</v>
       </c>
       <c r="C13">
-        <v>153.0899963378906</v>
+        <v>148.75</v>
       </c>
       <c r="D13">
-        <v>154.3000030517578</v>
+        <v>149.5500030517578</v>
       </c>
       <c r="E13">
-        <v>153.8790893554688</v>
+        <v>149.1420440673828</v>
       </c>
       <c r="F13">
-        <v>57808700</v>
+        <v>102404300</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>154.9700012207031</v>
+        <v>150.3500061035156</v>
       </c>
       <c r="B14">
-        <v>157.2599945068359</v>
+        <v>151.0700073242188</v>
       </c>
       <c r="C14">
-        <v>154.3899993896484</v>
+        <v>146.9100036621094</v>
       </c>
       <c r="D14">
-        <v>156.6900024414062</v>
+        <v>148.1199951171875</v>
       </c>
       <c r="E14">
-        <v>156.2625732421875</v>
+        <v>147.7159271240234</v>
       </c>
       <c r="F14">
-        <v>82278300</v>
+        <v>109296300</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>156.9799957275391</v>
+        <v>148.5599975585938</v>
       </c>
       <c r="B15">
-        <v>157.0399932861328</v>
+        <v>149.4400024414062</v>
       </c>
       <c r="C15">
-        <v>153.9799957275391</v>
+        <v>146.3699951171875</v>
       </c>
       <c r="D15">
-        <v>155.1100006103516</v>
+        <v>149.0299987792969</v>
       </c>
       <c r="E15">
-        <v>154.6868743896484</v>
+        <v>148.6234436035156</v>
       </c>
       <c r="F15">
-        <v>74420200</v>
+        <v>83281300</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>155.4900054931641</v>
+        <v>148.4400024414062</v>
       </c>
       <c r="B16">
-        <v>156.1100006103516</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="C16">
-        <v>153.9499969482422</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="D16">
-        <v>154.0700073242188</v>
+        <v>148.7899932861328</v>
       </c>
       <c r="E16">
-        <v>153.6497192382812</v>
+        <v>148.3840942382812</v>
       </c>
       <c r="F16">
-        <v>57305700</v>
+        <v>68034100</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>155</v>
+        <v>148.8200073242188</v>
       </c>
       <c r="B17">
-        <v>155.4799957275391</v>
+        <v>148.8200073242188</v>
       </c>
       <c r="C17">
-        <v>148.6999969482422</v>
+        <v>145.7599945068359</v>
       </c>
       <c r="D17">
-        <v>148.9700012207031</v>
+        <v>146.0599975585938</v>
       </c>
       <c r="E17">
-        <v>148.5636138916016</v>
+        <v>145.6615600585938</v>
       </c>
       <c r="F17">
-        <v>140646400</v>
+        <v>129868800</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>150.6300048828125</v>
+        <v>143.8000030517578</v>
       </c>
       <c r="B18">
-        <v>151.4199981689453</v>
+        <v>144.8399963378906</v>
       </c>
       <c r="C18">
-        <v>148.75</v>
+        <v>141.2700042724609</v>
       </c>
       <c r="D18">
-        <v>149.5500030517578</v>
+        <v>142.9400024414062</v>
       </c>
       <c r="E18">
-        <v>149.1420440673828</v>
+        <v>142.5500793457031</v>
       </c>
       <c r="F18">
-        <v>102404300</v>
+        <v>123478900</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>150.3500061035156</v>
+        <v>143.9299926757812</v>
       </c>
       <c r="B19">
-        <v>151.0700073242188</v>
+        <v>144.6000061035156</v>
       </c>
       <c r="C19">
-        <v>146.9100036621094</v>
+        <v>142.7799987792969</v>
       </c>
       <c r="D19">
-        <v>148.1199951171875</v>
+        <v>143.4299926757812</v>
       </c>
       <c r="E19">
-        <v>147.7159271240234</v>
+        <v>143.0387268066406</v>
       </c>
       <c r="F19">
-        <v>109296300</v>
+        <v>75834000</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>148.5599975585938</v>
+        <v>144.4499969482422</v>
       </c>
       <c r="B20">
-        <v>149.4400024414062</v>
+        <v>146.4299926757812</v>
       </c>
       <c r="C20">
-        <v>146.3699951171875</v>
+        <v>143.6999969482422</v>
       </c>
       <c r="D20">
-        <v>149.0299987792969</v>
+        <v>145.8500061035156</v>
       </c>
       <c r="E20">
-        <v>148.6234436035156</v>
+        <v>145.4521331787109</v>
       </c>
       <c r="F20">
-        <v>83281300</v>
+        <v>76404300</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>148.4400024414062</v>
+        <v>146.6499938964844</v>
       </c>
       <c r="B21">
-        <v>148.9700012207031</v>
+        <v>147.0800018310547</v>
       </c>
       <c r="C21">
-        <v>147.2200012207031</v>
+        <v>145.6399993896484</v>
       </c>
       <c r="D21">
-        <v>148.7899932861328</v>
+        <v>146.8300018310547</v>
       </c>
       <c r="E21">
-        <v>148.3840942382812</v>
+        <v>146.4294738769531</v>
       </c>
       <c r="F21">
-        <v>68034100</v>
+        <v>64838200</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>148.8200073242188</v>
+        <v>145.6600036621094</v>
       </c>
       <c r="B22">
-        <v>148.8200073242188</v>
+        <v>147.4700012207031</v>
       </c>
       <c r="C22">
-        <v>145.7599945068359</v>
+        <v>145.5599975585938</v>
       </c>
       <c r="D22">
-        <v>146.0599975585938</v>
+        <v>146.9199981689453</v>
       </c>
       <c r="E22">
-        <v>145.6615600585938</v>
+        <v>146.5192108154297</v>
       </c>
       <c r="F22">
-        <v>129868800</v>
+        <v>53477900</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>143.8000030517578</v>
+        <v>145.4700012207031</v>
       </c>
       <c r="B23">
-        <v>144.8399963378906</v>
+        <v>145.9600067138672</v>
       </c>
       <c r="C23">
-        <v>141.2700042724609</v>
+        <v>143.8200073242188</v>
       </c>
       <c r="D23">
-        <v>142.9400024414062</v>
+        <v>145.3699951171875</v>
       </c>
       <c r="E23">
-        <v>142.5500793457031</v>
+        <v>144.9734344482422</v>
       </c>
       <c r="F23">
-        <v>123478900</v>
+        <v>74150700</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>143.9299926757812</v>
+        <v>143.25</v>
       </c>
       <c r="B24">
-        <v>144.6000061035156</v>
+        <v>144.75</v>
       </c>
       <c r="C24">
-        <v>142.7799987792969</v>
+        <v>141.6900024414062</v>
       </c>
       <c r="D24">
-        <v>143.4299926757812</v>
+        <v>141.9100036621094</v>
       </c>
       <c r="E24">
-        <v>143.0387268066406</v>
+        <v>141.5228729248047</v>
       </c>
       <c r="F24">
-        <v>75834000</v>
+        <v>108972300</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
+        <v>142.4700012207031</v>
+      </c>
+      <c r="B25">
         <v>144.4499969482422</v>
       </c>
-      <c r="B25">
-        <v>146.4299926757812</v>
-      </c>
       <c r="C25">
-        <v>143.6999969482422</v>
+        <v>142.0299987792969</v>
       </c>
       <c r="D25">
-        <v>145.8500061035156</v>
+        <v>142.8300018310547</v>
       </c>
       <c r="E25">
-        <v>145.4521331787109</v>
+        <v>142.4403839111328</v>
       </c>
       <c r="F25">
-        <v>76404300</v>
+        <v>74602000</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>146.6499938964844</v>
+        <v>143.6600036621094</v>
       </c>
       <c r="B26">
-        <v>147.0800018310547</v>
+        <v>144.3800048828125</v>
       </c>
       <c r="C26">
-        <v>145.6399993896484</v>
+        <v>141.2799987792969</v>
       </c>
       <c r="D26">
-        <v>146.8300018310547</v>
+        <v>141.5</v>
       </c>
       <c r="E26">
-        <v>146.4294738769531</v>
+        <v>141.1139984130859</v>
       </c>
       <c r="F26">
-        <v>64838200</v>
+        <v>88934200</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>145.6600036621094</v>
+        <v>141.8999938964844</v>
       </c>
       <c r="B27">
-        <v>147.4700012207031</v>
+        <v>142.9199981689453</v>
       </c>
       <c r="C27">
-        <v>145.5599975585938</v>
+        <v>139.1100006103516</v>
       </c>
       <c r="D27">
-        <v>146.9199981689453</v>
+        <v>142.6499938964844</v>
       </c>
       <c r="E27">
-        <v>146.5192108154297</v>
+        <v>142.2608642578125</v>
       </c>
       <c r="F27">
-        <v>53477900</v>
+        <v>94639600</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>145.4700012207031</v>
+        <v>141.7599945068359</v>
       </c>
       <c r="B28">
-        <v>145.9600067138672</v>
+        <v>142.2100067138672</v>
       </c>
       <c r="C28">
-        <v>143.8200073242188</v>
+        <v>138.2700042724609</v>
       </c>
       <c r="D28">
-        <v>145.3699951171875</v>
+        <v>139.1399993896484</v>
       </c>
       <c r="E28">
-        <v>144.9734344482422</v>
+        <v>138.7604370117188</v>
       </c>
       <c r="F28">
-        <v>74150700</v>
+        <v>98322000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>143.25</v>
+        <v>139.4900054931641</v>
       </c>
       <c r="B29">
-        <v>144.75</v>
+        <v>142.2400054931641</v>
       </c>
       <c r="C29">
-        <v>141.6900024414062</v>
+        <v>139.3600006103516</v>
       </c>
       <c r="D29">
-        <v>141.9100036621094</v>
+        <v>141.1100006103516</v>
       </c>
       <c r="E29">
-        <v>141.5228729248047</v>
+        <v>140.7250671386719</v>
       </c>
       <c r="F29">
-        <v>108972300</v>
+        <v>80861100</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>142.4700012207031</v>
+        <v>139.4700012207031</v>
       </c>
       <c r="B30">
-        <v>144.4499969482422</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="C30">
-        <v>142.0299987792969</v>
+        <v>138.3699951171875</v>
       </c>
       <c r="D30">
-        <v>142.8300018310547</v>
+        <v>142</v>
       </c>
       <c r="E30">
-        <v>142.4403839111328</v>
+        <v>141.6126403808594</v>
       </c>
       <c r="F30">
-        <v>74602000</v>
+        <v>83221100</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>143.6600036621094</v>
+        <v>143.0599975585938</v>
       </c>
       <c r="B31">
-        <v>144.3800048828125</v>
+        <v>144.2200012207031</v>
       </c>
       <c r="C31">
-        <v>141.2799987792969</v>
+        <v>142.7200012207031</v>
       </c>
       <c r="D31">
-        <v>141.5</v>
+        <v>143.2899932861328</v>
       </c>
       <c r="E31">
-        <v>141.1139984130859</v>
+        <v>142.8991088867188</v>
       </c>
       <c r="F31">
-        <v>88934200</v>
+        <v>61732700</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>141.8999938964844</v>
+        <v>144.0299987792969</v>
       </c>
       <c r="B32">
-        <v>142.9199981689453</v>
+        <v>144.1799926757812</v>
       </c>
       <c r="C32">
-        <v>139.1100006103516</v>
+        <v>142.5599975585938</v>
       </c>
       <c r="D32">
-        <v>142.6499938964844</v>
+        <v>142.8999938964844</v>
       </c>
       <c r="E32">
-        <v>142.2608642578125</v>
+        <v>142.5101776123047</v>
       </c>
       <c r="F32">
-        <v>94639600</v>
+        <v>58718700</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>141.7599945068359</v>
+        <v>142.2700042724609</v>
       </c>
       <c r="B33">
-        <v>142.2100067138672</v>
+        <v>144.8099975585938</v>
       </c>
       <c r="C33">
-        <v>138.2700042724609</v>
+        <v>141.8099975585938</v>
       </c>
       <c r="D33">
-        <v>139.1399993896484</v>
+        <v>142.8099975585938</v>
       </c>
       <c r="E33">
-        <v>138.7604370117188</v>
+        <v>142.4204254150391</v>
       </c>
       <c r="F33">
-        <v>98322000</v>
+        <v>64452200</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>139.4900054931641</v>
+        <v>143.2299957275391</v>
       </c>
       <c r="B34">
-        <v>142.2400054931641</v>
+        <v>143.25</v>
       </c>
       <c r="C34">
-        <v>139.3600006103516</v>
+        <v>141.0399932861328</v>
       </c>
       <c r="D34">
-        <v>141.1100006103516</v>
+        <v>141.5099945068359</v>
       </c>
       <c r="E34">
-        <v>140.7250671386719</v>
+        <v>141.1239776611328</v>
       </c>
       <c r="F34">
-        <v>80861100</v>
+        <v>73035900</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>139.4700012207031</v>
+        <v>141.2400054931641</v>
       </c>
       <c r="B35">
-        <v>142.1499938964844</v>
+        <v>141.3999938964844</v>
       </c>
       <c r="C35">
-        <v>138.3699951171875</v>
+        <v>139.1999969482422</v>
       </c>
       <c r="D35">
-        <v>142</v>
+        <v>140.9100036621094</v>
       </c>
       <c r="E35">
-        <v>141.6126403808594</v>
+        <v>140.5256195068359</v>
       </c>
       <c r="F35">
-        <v>83221100</v>
+        <v>78762700</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>143.0599975585938</v>
+        <v>142.1100006103516</v>
       </c>
       <c r="B36">
-        <v>144.2200012207031</v>
+        <v>143.8800048828125</v>
       </c>
       <c r="C36">
-        <v>142.7200012207031</v>
+        <v>141.5099945068359</v>
       </c>
       <c r="D36">
-        <v>143.2899932861328</v>
+        <v>143.7599945068359</v>
       </c>
       <c r="E36">
-        <v>142.8991088867188</v>
+        <v>143.3678283691406</v>
       </c>
       <c r="F36">
-        <v>61732700</v>
+        <v>69907100</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>144.0299987792969</v>
+        <v>143.7700042724609</v>
       </c>
       <c r="B37">
-        <v>144.1799926757812</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="C37">
-        <v>142.5599975585938</v>
+        <v>143.5099945068359</v>
       </c>
       <c r="D37">
-        <v>142.8999938964844</v>
+        <v>144.8399963378906</v>
       </c>
       <c r="E37">
-        <v>142.5101776123047</v>
+        <v>144.4448852539062</v>
       </c>
       <c r="F37">
-        <v>58718700</v>
+        <v>67885200</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>142.2700042724609</v>
+        <v>143.4499969482422</v>
       </c>
       <c r="B38">
-        <v>144.8099975585938</v>
+        <v>146.8399963378906</v>
       </c>
       <c r="C38">
-        <v>141.8099975585938</v>
+        <v>143.1600036621094</v>
       </c>
       <c r="D38">
-        <v>142.8099975585938</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="E38">
-        <v>142.4204254150391</v>
+        <v>146.1502227783203</v>
       </c>
       <c r="F38">
-        <v>64452200</v>
+        <v>85589200</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>143.2299957275391</v>
+        <v>147.0099945068359</v>
       </c>
       <c r="B39">
-        <v>143.25</v>
+        <v>149.1699981689453</v>
       </c>
       <c r="C39">
-        <v>141.0399932861328</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="D39">
-        <v>141.5099945068359</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="E39">
-        <v>141.1239776611328</v>
+        <v>148.3541870117188</v>
       </c>
       <c r="F39">
-        <v>73035900</v>
+        <v>76378900</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>141.2400054931641</v>
+        <v>148.6999969482422</v>
       </c>
       <c r="B40">
-        <v>141.3999938964844</v>
+        <v>149.75</v>
       </c>
       <c r="C40">
-        <v>139.1999969482422</v>
+        <v>148.1199951171875</v>
       </c>
       <c r="D40">
-        <v>140.9100036621094</v>
+        <v>149.2599945068359</v>
       </c>
       <c r="E40">
-        <v>140.5256195068359</v>
+        <v>148.8528289794922</v>
       </c>
       <c r="F40">
-        <v>78762700</v>
+        <v>58418800</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>142.1100006103516</v>
+        <v>148.8099975585938</v>
       </c>
       <c r="B41">
-        <v>143.8800048828125</v>
+        <v>149.6399993896484</v>
       </c>
       <c r="C41">
-        <v>141.5099945068359</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="D41">
-        <v>143.7599945068359</v>
+        <v>149.4799957275391</v>
       </c>
       <c r="E41">
-        <v>143.3678283691406</v>
+        <v>149.0722198486328</v>
       </c>
       <c r="F41">
-        <v>69907100</v>
+        <v>61421000</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>143.7700042724609</v>
+        <v>149.6900024414062</v>
       </c>
       <c r="B42">
-        <v>144.8999938964844</v>
+        <v>150.1799926757812</v>
       </c>
       <c r="C42">
-        <v>143.5099945068359</v>
+        <v>148.6399993896484</v>
       </c>
       <c r="D42">
-        <v>144.8399963378906</v>
+        <v>148.6900024414062</v>
       </c>
       <c r="E42">
-        <v>144.4448852539062</v>
+        <v>148.2843933105469</v>
       </c>
       <c r="F42">
-        <v>67885200</v>
+        <v>58883400</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>143.4499969482422</v>
+        <v>148.6799926757812</v>
       </c>
       <c r="B43">
-        <v>146.8399963378906</v>
+        <v>149.3699951171875</v>
       </c>
       <c r="C43">
-        <v>143.1600036621094</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="D43">
-        <v>146.5500030517578</v>
+        <v>148.6399993896484</v>
       </c>
       <c r="E43">
-        <v>146.1502227783203</v>
+        <v>148.2345275878906</v>
       </c>
       <c r="F43">
-        <v>85589200</v>
+        <v>50720600</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>147.0099945068359</v>
+        <v>149.3300018310547</v>
       </c>
       <c r="B44">
-        <v>149.1699981689453</v>
+        <v>150.8399963378906</v>
       </c>
       <c r="C44">
-        <v>146.5500030517578</v>
+        <v>149.0099945068359</v>
       </c>
       <c r="D44">
-        <v>148.7599945068359</v>
+        <v>149.3200073242188</v>
       </c>
       <c r="E44">
-        <v>148.3541870117188</v>
+        <v>148.9126739501953</v>
       </c>
       <c r="F44">
-        <v>76378900</v>
+        <v>60893400</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>148.6999969482422</v>
+        <v>149.3600006103516</v>
       </c>
       <c r="B45">
-        <v>149.75</v>
+        <v>149.7299957275391</v>
       </c>
       <c r="C45">
-        <v>148.1199951171875</v>
+        <v>148.4900054931641</v>
       </c>
       <c r="D45">
-        <v>149.2599945068359</v>
+        <v>148.8500061035156</v>
       </c>
       <c r="E45">
-        <v>148.8528289794922</v>
+        <v>148.4439544677734</v>
       </c>
       <c r="F45">
-        <v>58418800</v>
+        <v>56094900</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>148.8099975585938</v>
+        <v>149.8200073242188</v>
       </c>
       <c r="B46">
-        <v>149.6399993896484</v>
+        <v>153.1699981689453</v>
       </c>
       <c r="C46">
-        <v>147.8699951171875</v>
+        <v>149.7200012207031</v>
       </c>
       <c r="D46">
-        <v>149.4799957275391</v>
+        <v>152.5700073242188</v>
       </c>
       <c r="E46">
-        <v>149.0722198486328</v>
+        <v>152.15380859375</v>
       </c>
       <c r="F46">
-        <v>61421000</v>
+        <v>100077900</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>149.6900024414062</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="B47">
-        <v>150.1799926757812</v>
+        <v>149.9400024414062</v>
       </c>
       <c r="C47">
-        <v>148.6399993896484</v>
+        <v>146.4100036621094</v>
       </c>
       <c r="D47">
-        <v>148.6900024414062</v>
+        <v>149.8000030517578</v>
       </c>
       <c r="E47">
-        <v>148.2843933105469</v>
+        <v>149.391357421875</v>
       </c>
       <c r="F47">
-        <v>58883400</v>
+        <v>124850400</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>148.6799926757812</v>
+        <v>148.9900054931641</v>
       </c>
       <c r="B48">
-        <v>149.3699951171875</v>
+        <v>149.6999969482422</v>
       </c>
       <c r="C48">
-        <v>147.6199951171875</v>
+        <v>147.8000030517578</v>
       </c>
       <c r="D48">
-        <v>148.6399993896484</v>
+        <v>148.9600067138672</v>
       </c>
       <c r="E48">
-        <v>148.2345275878906</v>
+        <v>148.5536499023438</v>
       </c>
       <c r="F48">
-        <v>50720600</v>
+        <v>74588300</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>149.3300018310547</v>
+        <v>148.6600036621094</v>
       </c>
       <c r="B49">
-        <v>150.8399963378906</v>
+        <v>151.5700073242188</v>
       </c>
       <c r="C49">
-        <v>149.0099945068359</v>
+        <v>148.6499938964844</v>
       </c>
       <c r="D49">
-        <v>149.3200073242188</v>
+        <v>150.0200042724609</v>
       </c>
       <c r="E49">
-        <v>148.9126739501953</v>
+        <v>149.6107635498047</v>
       </c>
       <c r="F49">
-        <v>60893400</v>
+        <v>69122000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>149.3600006103516</v>
+        <v>150.3899993896484</v>
       </c>
       <c r="B50">
-        <v>149.7299957275391</v>
+        <v>151.9700012207031</v>
       </c>
       <c r="C50">
-        <v>148.4900054931641</v>
+        <v>149.8200073242188</v>
       </c>
       <c r="D50">
-        <v>148.8500061035156</v>
+        <v>151.4900054931641</v>
       </c>
       <c r="E50">
-        <v>148.4439544677734</v>
+        <v>151.0767669677734</v>
       </c>
       <c r="F50">
-        <v>56094900</v>
+        <v>54511500</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>149.8200073242188</v>
+        <v>151.5800018310547</v>
       </c>
       <c r="B51">
-        <v>153.1699981689453</v>
+        <v>152.4299926757812</v>
       </c>
       <c r="C51">
-        <v>149.7200012207031</v>
+        <v>150.6399993896484</v>
       </c>
       <c r="D51">
-        <v>152.5700073242188</v>
+        <v>150.9600067138672</v>
       </c>
       <c r="E51">
-        <v>152.15380859375</v>
+        <v>150.5482025146484</v>
       </c>
       <c r="F51">
-        <v>100077900</v>
+        <v>60394600</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>147.2200012207031</v>
+        <v>151.8899993896484</v>
       </c>
       <c r="B52">
-        <v>149.9400024414062</v>
+        <v>152.1999969482422</v>
       </c>
       <c r="C52">
-        <v>146.4100036621094</v>
+        <v>150.0599975585938</v>
       </c>
       <c r="D52">
-        <v>149.8000030517578</v>
+        <v>151.2799987792969</v>
       </c>
       <c r="E52">
-        <v>149.391357421875</v>
+        <v>151.0875091552734</v>
       </c>
       <c r="F52">
-        <v>124850400</v>
+        <v>65414600</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>148.9900054931641</v>
+        <v>151.4100036621094</v>
       </c>
       <c r="B53">
-        <v>149.6999969482422</v>
+        <v>151.5700073242188</v>
       </c>
       <c r="C53">
-        <v>147.8000030517578</v>
+        <v>150.1600036621094</v>
       </c>
       <c r="D53">
-        <v>148.9600067138672</v>
+        <v>150.4400024414062</v>
       </c>
       <c r="E53">
-        <v>148.5536499023438</v>
+        <v>150.2485809326172</v>
       </c>
       <c r="F53">
-        <v>74588300</v>
+        <v>55020900</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>148.6600036621094</v>
+        <v>150.1999969482422</v>
       </c>
       <c r="B54">
-        <v>151.5700073242188</v>
+        <v>151.4299926757812</v>
       </c>
       <c r="C54">
-        <v>148.6499938964844</v>
+        <v>150.0599975585938</v>
       </c>
       <c r="D54">
-        <v>150.0200042724609</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="E54">
-        <v>149.6107635498047</v>
+        <v>150.6181030273438</v>
       </c>
       <c r="F54">
-        <v>69122000</v>
+        <v>56787900</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>150.3899993896484</v>
+        <v>150.0200042724609</v>
       </c>
       <c r="B55">
-        <v>151.9700012207031</v>
+        <v>150.1300048828125</v>
       </c>
       <c r="C55">
-        <v>149.8200073242188</v>
+        <v>147.8500061035156</v>
       </c>
       <c r="D55">
-        <v>151.4900054931641</v>
+        <v>147.9199981689453</v>
       </c>
       <c r="E55">
-        <v>151.0767669677734</v>
+        <v>147.7317810058594</v>
       </c>
       <c r="F55">
-        <v>54511500</v>
+        <v>65187100</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>151.5800018310547</v>
+        <v>148.9600067138672</v>
       </c>
       <c r="B56">
-        <v>152.4299926757812</v>
+        <v>149.4299926757812</v>
       </c>
       <c r="C56">
-        <v>150.6399993896484</v>
+        <v>147.6799926757812</v>
       </c>
       <c r="D56">
-        <v>150.9600067138672</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="E56">
-        <v>150.5482025146484</v>
+        <v>147.6818389892578</v>
       </c>
       <c r="F56">
-        <v>60394600</v>
+        <v>41000000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>151.8899993896484</v>
+        <v>148.4299926757812</v>
       </c>
       <c r="B57">
-        <v>152.1999969482422</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="C57">
-        <v>150.0599975585938</v>
+        <v>147.4799957275391</v>
       </c>
       <c r="D57">
-        <v>151.2799987792969</v>
+        <v>149.9900054931641</v>
       </c>
       <c r="E57">
-        <v>151.0875091552734</v>
+        <v>149.7991485595703</v>
       </c>
       <c r="F57">
-        <v>65414600</v>
+        <v>63632600</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>151.4100036621094</v>
+        <v>150.3699951171875</v>
       </c>
       <c r="B58">
-        <v>151.5700073242188</v>
+        <v>151.8800048828125</v>
       </c>
       <c r="C58">
-        <v>150.1600036621094</v>
+        <v>149.4299926757812</v>
       </c>
       <c r="D58">
-        <v>150.4400024414062</v>
+        <v>150</v>
       </c>
       <c r="E58">
-        <v>150.2485809326172</v>
+        <v>149.8091278076172</v>
       </c>
       <c r="F58">
-        <v>55020900</v>
+        <v>59222800</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>150.1999969482422</v>
+        <v>149.9400024414062</v>
       </c>
       <c r="B59">
-        <v>151.4299926757812</v>
+        <v>151.4900054931641</v>
       </c>
       <c r="C59">
-        <v>150.0599975585938</v>
+        <v>149.3399963378906</v>
       </c>
       <c r="D59">
-        <v>150.8099975585938</v>
+        <v>151</v>
       </c>
       <c r="E59">
-        <v>150.6181030273438</v>
+        <v>150.807861328125</v>
       </c>
       <c r="F59">
-        <v>56787900</v>
+        <v>59256200</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>150.0200042724609</v>
+        <v>151</v>
       </c>
       <c r="B60">
-        <v>150.1300048828125</v>
+        <v>155</v>
       </c>
       <c r="C60">
-        <v>147.8500061035156</v>
+        <v>150.9900054931641</v>
       </c>
       <c r="D60">
-        <v>147.9199981689453</v>
+        <v>153.4900054931641</v>
       </c>
       <c r="E60">
-        <v>147.7317810058594</v>
+        <v>153.2946929931641</v>
       </c>
       <c r="F60">
-        <v>65187100</v>
+        <v>88807000</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>148.9600067138672</v>
+        <v>153.7100067138672</v>
       </c>
       <c r="B61">
-        <v>149.4299926757812</v>
+        <v>158.6699981689453</v>
       </c>
       <c r="C61">
-        <v>147.6799926757812</v>
+        <v>153.0500030517578</v>
       </c>
       <c r="D61">
-        <v>147.8699951171875</v>
+        <v>157.8699951171875</v>
       </c>
       <c r="E61">
-        <v>147.6818389892578</v>
+        <v>157.6691131591797</v>
       </c>
       <c r="F61">
-        <v>41000000</v>
+        <v>137827700</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>148.4299926757812</v>
+        <v>157.6499938964844</v>
       </c>
       <c r="B62">
-        <v>150.3999938964844</v>
+        <v>161.0200042724609</v>
       </c>
       <c r="C62">
-        <v>147.4799957275391</v>
+        <v>156.5299987792969</v>
       </c>
       <c r="D62">
-        <v>149.9900054931641</v>
+        <v>160.5500030517578</v>
       </c>
       <c r="E62">
-        <v>149.7991485595703</v>
+        <v>160.3457183837891</v>
       </c>
       <c r="F62">
-        <v>63632600</v>
+        <v>117305600</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>150.3699951171875</v>
+        <v>161.6799926757812</v>
       </c>
       <c r="B63">
-        <v>151.8800048828125</v>
+        <v>165.6999969482422</v>
       </c>
       <c r="C63">
-        <v>149.4299926757812</v>
+        <v>161</v>
       </c>
       <c r="D63">
-        <v>150</v>
+        <v>161.0200042724609</v>
       </c>
       <c r="E63">
-        <v>149.8091278076172</v>
+        <v>160.8151092529297</v>
       </c>
       <c r="F63">
-        <v>59222800</v>
+        <v>117467900</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>149.9400024414062</v>
+        <v>161.1199951171875</v>
       </c>
       <c r="B64">
-        <v>151.4900054931641</v>
+        <v>161.8000030517578</v>
       </c>
       <c r="C64">
-        <v>149.3399963378906</v>
+        <v>159.0599975585938</v>
       </c>
       <c r="D64">
-        <v>151</v>
+        <v>161.4100036621094</v>
       </c>
       <c r="E64">
-        <v>150.807861328125</v>
+        <v>161.2046203613281</v>
       </c>
       <c r="F64">
-        <v>59256200</v>
+        <v>96041900</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>151</v>
+        <v>160.75</v>
       </c>
       <c r="B65">
-        <v>155</v>
+        <v>162.1399993896484</v>
       </c>
       <c r="C65">
-        <v>150.9900054931641</v>
+        <v>159.6399993896484</v>
       </c>
       <c r="D65">
-        <v>153.4900054931641</v>
+        <v>161.9400024414062</v>
       </c>
       <c r="E65">
-        <v>153.2946929931641</v>
+        <v>161.7339477539062</v>
       </c>
       <c r="F65">
-        <v>88807000</v>
+        <v>69463600</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>153.7100067138672</v>
+        <v>159.5700073242188</v>
       </c>
       <c r="B66">
-        <v>158.6699981689453</v>
+        <v>160.4499969482422</v>
       </c>
       <c r="C66">
-        <v>153.0500030517578</v>
+        <v>156.3600006103516</v>
       </c>
       <c r="D66">
-        <v>157.8699951171875</v>
+        <v>156.8099975585938</v>
       </c>
       <c r="E66">
-        <v>157.6691131591797</v>
+        <v>156.6104736328125</v>
       </c>
       <c r="F66">
-        <v>137827700</v>
+        <v>76959800</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>157.6499938964844</v>
+        <v>159.3699951171875</v>
       </c>
       <c r="B67">
-        <v>161.0200042724609</v>
+        <v>161.1900024414062</v>
       </c>
       <c r="C67">
-        <v>156.5299987792969</v>
+        <v>158.7899932861328</v>
       </c>
       <c r="D67">
-        <v>160.5500030517578</v>
+        <v>160.2400054931641</v>
       </c>
       <c r="E67">
-        <v>160.3457183837891</v>
+        <v>160.0361022949219</v>
       </c>
       <c r="F67">
-        <v>117305600</v>
+        <v>88748200</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>161.6799926757812</v>
+        <v>159.9900054931641</v>
       </c>
       <c r="B68">
-        <v>165.6999969482422</v>
+        <v>165.5200042724609</v>
       </c>
       <c r="C68">
-        <v>161</v>
+        <v>159.9199981689453</v>
       </c>
       <c r="D68">
-        <v>161.0200042724609</v>
+        <v>165.3000030517578</v>
       </c>
       <c r="E68">
-        <v>160.8151092529297</v>
+        <v>165.0896759033203</v>
       </c>
       <c r="F68">
-        <v>117467900</v>
+        <v>174048100</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>161.1199951171875</v>
+        <v>167.4799957275391</v>
       </c>
       <c r="B69">
-        <v>161.8000030517578</v>
+        <v>170.3000030517578</v>
       </c>
       <c r="C69">
-        <v>159.0599975585938</v>
+        <v>164.5299987792969</v>
       </c>
       <c r="D69">
-        <v>161.4100036621094</v>
+        <v>164.7700042724609</v>
       </c>
       <c r="E69">
-        <v>161.2046203613281</v>
+        <v>164.5603485107422</v>
       </c>
       <c r="F69">
-        <v>96041900</v>
+        <v>152052500</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>160.75</v>
+        <v>158.7400054931641</v>
       </c>
       <c r="B70">
-        <v>162.1399993896484</v>
+        <v>164.1999969482422</v>
       </c>
       <c r="C70">
-        <v>159.6399993896484</v>
+        <v>157.8000030517578</v>
       </c>
       <c r="D70">
-        <v>161.9400024414062</v>
+        <v>163.7599945068359</v>
       </c>
       <c r="E70">
-        <v>161.7339477539062</v>
+        <v>163.5516204833984</v>
       </c>
       <c r="F70">
-        <v>69463600</v>
+        <v>136739200</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>159.5700073242188</v>
+        <v>164.0200042724609</v>
       </c>
       <c r="B71">
-        <v>160.4499969482422</v>
+        <v>164.9600067138672</v>
       </c>
       <c r="C71">
-        <v>156.3600006103516</v>
+        <v>159.7200012207031</v>
       </c>
       <c r="D71">
-        <v>156.8099975585938</v>
+        <v>161.8399963378906</v>
       </c>
       <c r="E71">
-        <v>156.6104736328125</v>
+        <v>161.6340637207031</v>
       </c>
       <c r="F71">
-        <v>76959800</v>
+        <v>117938300</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>159.3699951171875</v>
+        <v>164.2899932861328</v>
       </c>
       <c r="B72">
-        <v>161.1900024414062</v>
+        <v>167.8800048828125</v>
       </c>
       <c r="C72">
-        <v>158.7899932861328</v>
+        <v>164.2799987792969</v>
       </c>
       <c r="D72">
-        <v>160.2400054931641</v>
+        <v>165.3200073242188</v>
       </c>
       <c r="E72">
-        <v>160.0361022949219</v>
+        <v>165.1096496582031</v>
       </c>
       <c r="F72">
-        <v>88748200</v>
+        <v>107497000</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>159.9900054931641</v>
+        <v>169.0800018310547</v>
       </c>
       <c r="B73">
-        <v>165.5200042724609</v>
+        <v>171.5800018310547</v>
       </c>
       <c r="C73">
-        <v>159.9199981689453</v>
+        <v>168.3399963378906</v>
       </c>
       <c r="D73">
-        <v>165.3000030517578</v>
+        <v>171.1799926757812</v>
       </c>
       <c r="E73">
-        <v>165.0896759033203</v>
+        <v>170.9621734619141</v>
       </c>
       <c r="F73">
-        <v>174048100</v>
+        <v>120405400</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>167.4799957275391</v>
+        <v>172.1300048828125</v>
       </c>
       <c r="B74">
-        <v>170.3000030517578</v>
+        <v>175.9600067138672</v>
       </c>
       <c r="C74">
-        <v>164.5299987792969</v>
+        <v>170.6999969482422</v>
       </c>
       <c r="D74">
-        <v>164.7700042724609</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="E74">
-        <v>164.5603485107422</v>
+        <v>174.8572235107422</v>
       </c>
       <c r="F74">
-        <v>152052500</v>
+        <v>116998900</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>158.7400054931641</v>
+        <v>174.9100036621094</v>
       </c>
       <c r="B75">
-        <v>164.1999969482422</v>
+        <v>176.75</v>
       </c>
       <c r="C75">
-        <v>157.8000030517578</v>
+        <v>173.9199981689453</v>
       </c>
       <c r="D75">
-        <v>163.7599945068359</v>
+        <v>174.5599975585938</v>
       </c>
       <c r="E75">
-        <v>163.5516204833984</v>
+        <v>174.3378753662109</v>
       </c>
       <c r="F75">
-        <v>136739200</v>
+        <v>108923700</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>164.0200042724609</v>
+        <v>175.2100067138672</v>
       </c>
       <c r="B76">
-        <v>164.9600067138672</v>
+        <v>179.6300048828125</v>
       </c>
       <c r="C76">
-        <v>159.7200012207031</v>
+        <v>174.6900024414062</v>
       </c>
       <c r="D76">
-        <v>161.8399963378906</v>
+        <v>179.4499969482422</v>
       </c>
       <c r="E76">
-        <v>161.6340637207031</v>
+        <v>179.2216644287109</v>
       </c>
       <c r="F76">
-        <v>117938300</v>
+        <v>115228100</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>164.2899932861328</v>
+        <v>181.1199951171875</v>
       </c>
       <c r="B77">
-        <v>167.8800048828125</v>
+        <v>182.1300048828125</v>
       </c>
       <c r="C77">
-        <v>164.2799987792969</v>
+        <v>175.5299987792969</v>
       </c>
       <c r="D77">
-        <v>165.3200073242188</v>
+        <v>175.7400054931641</v>
       </c>
       <c r="E77">
-        <v>165.1096496582031</v>
+        <v>175.5163879394531</v>
       </c>
       <c r="F77">
-        <v>107497000</v>
+        <v>153237000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>169.0800018310547</v>
+        <v>175.25</v>
       </c>
       <c r="B78">
-        <v>171.5800018310547</v>
+        <v>177.7400054931641</v>
       </c>
       <c r="C78">
-        <v>168.3399963378906</v>
+        <v>172.2100067138672</v>
       </c>
       <c r="D78">
-        <v>171.1799926757812</v>
+        <v>174.3300018310547</v>
       </c>
       <c r="E78">
-        <v>170.9621734619141</v>
+        <v>174.1081848144531</v>
       </c>
       <c r="F78">
-        <v>120405400</v>
+        <v>139380400</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>172.1300048828125</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="B79">
-        <v>175.9600067138672</v>
+        <v>179.5</v>
       </c>
       <c r="C79">
-        <v>170.6999969482422</v>
+        <v>172.3099975585938</v>
       </c>
       <c r="D79">
-        <v>175.0800018310547</v>
+        <v>179.3000030517578</v>
       </c>
       <c r="E79">
-        <v>174.8572235107422</v>
+        <v>179.0718536376953</v>
       </c>
       <c r="F79">
-        <v>116998900</v>
+        <v>131063300</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>174.9100036621094</v>
+        <v>179.2799987792969</v>
       </c>
       <c r="B80">
-        <v>176.75</v>
+        <v>181.1399993896484</v>
       </c>
       <c r="C80">
-        <v>173.9199981689453</v>
+        <v>170.75</v>
       </c>
       <c r="D80">
-        <v>174.5599975585938</v>
+        <v>172.2599945068359</v>
       </c>
       <c r="E80">
-        <v>174.3378753662109</v>
+        <v>172.0408020019531</v>
       </c>
       <c r="F80">
-        <v>108923700</v>
+        <v>150185800</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>175.2100067138672</v>
+        <v>169.9299926757812</v>
       </c>
       <c r="B81">
-        <v>179.6300048828125</v>
+        <v>173.4700012207031</v>
       </c>
       <c r="C81">
-        <v>174.6900024414062</v>
+        <v>169.6900024414062</v>
       </c>
       <c r="D81">
-        <v>179.4499969482422</v>
+        <v>171.1399993896484</v>
       </c>
       <c r="E81">
-        <v>179.2216644287109</v>
+        <v>170.9222412109375</v>
       </c>
       <c r="F81">
-        <v>115228100</v>
+        <v>195432700</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>181.1199951171875</v>
+        <v>168.2799987792969</v>
       </c>
       <c r="B82">
-        <v>182.1300048828125</v>
+        <v>170.5800018310547</v>
       </c>
       <c r="C82">
-        <v>175.5299987792969</v>
+        <v>167.4600067138672</v>
       </c>
       <c r="D82">
-        <v>175.7400054931641</v>
+        <v>169.75</v>
       </c>
       <c r="E82">
-        <v>175.5163879394531</v>
+        <v>169.5339965820312</v>
       </c>
       <c r="F82">
-        <v>153237000</v>
+        <v>107499100</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>175.25</v>
+        <v>171.5599975585938</v>
       </c>
       <c r="B83">
-        <v>177.7400054931641</v>
+        <v>173.1999969482422</v>
       </c>
       <c r="C83">
-        <v>172.2100067138672</v>
+        <v>169.1199951171875</v>
       </c>
       <c r="D83">
-        <v>174.3300018310547</v>
+        <v>172.9900054931641</v>
       </c>
       <c r="E83">
-        <v>174.1081848144531</v>
+        <v>172.7698822021484</v>
       </c>
       <c r="F83">
-        <v>139380400</v>
+        <v>91185900</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>175.1100006103516</v>
+        <v>173.0399932861328</v>
       </c>
       <c r="B84">
-        <v>179.5</v>
+        <v>175.8600006103516</v>
       </c>
       <c r="C84">
-        <v>172.3099975585938</v>
+        <v>172.1499938964844</v>
       </c>
       <c r="D84">
-        <v>179.3000030517578</v>
+        <v>175.6399993896484</v>
       </c>
       <c r="E84">
-        <v>179.0718536376953</v>
+        <v>175.41650390625</v>
       </c>
       <c r="F84">
-        <v>131063300</v>
+        <v>92135300</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>179.2799987792969</v>
+        <v>175.8500061035156</v>
       </c>
       <c r="B85">
-        <v>181.1399993896484</v>
+        <v>176.8500061035156</v>
       </c>
       <c r="C85">
-        <v>170.75</v>
+        <v>175.2700042724609</v>
       </c>
       <c r="D85">
-        <v>172.2599945068359</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="E85">
-        <v>172.0408020019531</v>
+        <v>176.0556945800781</v>
       </c>
       <c r="F85">
-        <v>150185800</v>
+        <v>68356600</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>169.9299926757812</v>
+        <v>177.0899963378906</v>
       </c>
       <c r="B86">
-        <v>173.4700012207031</v>
+        <v>180.4199981689453</v>
       </c>
       <c r="C86">
-        <v>169.6900024414062</v>
+        <v>177.0700073242188</v>
       </c>
       <c r="D86">
-        <v>171.1399993896484</v>
+        <v>180.3300018310547</v>
       </c>
       <c r="E86">
-        <v>170.9222412109375</v>
+        <v>180.1005401611328</v>
       </c>
       <c r="F86">
-        <v>195432700</v>
+        <v>74919600</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>168.2799987792969</v>
+        <v>180.1600036621094</v>
       </c>
       <c r="B87">
-        <v>170.5800018310547</v>
+        <v>181.3300018310547</v>
       </c>
       <c r="C87">
-        <v>167.4600067138672</v>
+        <v>178.5299987792969</v>
       </c>
       <c r="D87">
-        <v>169.75</v>
+        <v>179.2899932861328</v>
       </c>
       <c r="E87">
-        <v>169.5339965820312</v>
+        <v>179.0618591308594</v>
       </c>
       <c r="F87">
-        <v>107499100</v>
+        <v>79144300</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>171.5599975585938</v>
+        <v>179.3300018310547</v>
       </c>
       <c r="B88">
-        <v>173.1999969482422</v>
+        <v>180.6300048828125</v>
       </c>
       <c r="C88">
-        <v>169.1199951171875</v>
+        <v>178.1399993896484</v>
       </c>
       <c r="D88">
-        <v>172.9900054931641</v>
+        <v>179.3800048828125</v>
       </c>
       <c r="E88">
-        <v>172.7698822021484</v>
+        <v>179.1517486572266</v>
       </c>
       <c r="F88">
-        <v>91185900</v>
+        <v>62348900</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>173.0399932861328</v>
+        <v>179.4700012207031</v>
       </c>
       <c r="B89">
-        <v>175.8600006103516</v>
+        <v>180.5700073242188</v>
       </c>
       <c r="C89">
-        <v>172.1499938964844</v>
+        <v>178.0899963378906</v>
       </c>
       <c r="D89">
-        <v>175.6399993896484</v>
+        <v>178.1999969482422</v>
       </c>
       <c r="E89">
-        <v>175.41650390625</v>
+        <v>177.9732513427734</v>
       </c>
       <c r="F89">
-        <v>92135300</v>
+        <v>59773000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>175.8500061035156</v>
+        <v>178.0899963378906</v>
       </c>
       <c r="B90">
-        <v>176.8500061035156</v>
+        <v>179.2299957275391</v>
       </c>
       <c r="C90">
-        <v>175.2700042724609</v>
+        <v>177.2599945068359</v>
       </c>
       <c r="D90">
-        <v>176.2799987792969</v>
+        <v>177.5700073242188</v>
       </c>
       <c r="E90">
-        <v>176.0556945800781</v>
+        <v>177.3440551757812</v>
       </c>
       <c r="F90">
-        <v>68356600</v>
+        <v>64062300</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>177.0899963378906</v>
+        <v>177.8300018310547</v>
       </c>
       <c r="B91">
-        <v>180.4199981689453</v>
+        <v>182.8800048828125</v>
       </c>
       <c r="C91">
-        <v>177.0700073242188</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="D91">
-        <v>180.3300018310547</v>
+        <v>182.0099945068359</v>
       </c>
       <c r="E91">
-        <v>180.1005401611328</v>
+        <v>181.7783966064453</v>
       </c>
       <c r="F91">
-        <v>74919600</v>
+        <v>104487900</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>180.1600036621094</v>
+        <v>182.6300048828125</v>
       </c>
       <c r="B92">
-        <v>181.3300018310547</v>
+        <v>182.9400024414062</v>
       </c>
       <c r="C92">
-        <v>178.5299987792969</v>
+        <v>179.1199951171875</v>
       </c>
       <c r="D92">
-        <v>179.2899932861328</v>
+        <v>179.6999969482422</v>
       </c>
       <c r="E92">
-        <v>179.0618591308594</v>
+        <v>179.4713439941406</v>
       </c>
       <c r="F92">
-        <v>79144300</v>
+        <v>99310400</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>179.3300018310547</v>
+        <v>179.6100006103516</v>
       </c>
       <c r="B93">
-        <v>180.6300048828125</v>
+        <v>180.1699981689453</v>
       </c>
       <c r="C93">
-        <v>178.1399993896484</v>
+        <v>174.6399993896484</v>
       </c>
       <c r="D93">
-        <v>179.3800048828125</v>
+        <v>174.9199981689453</v>
       </c>
       <c r="E93">
-        <v>179.1517486572266</v>
+        <v>174.6974182128906</v>
       </c>
       <c r="F93">
-        <v>62348900</v>
+        <v>94537600</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>179.4700012207031</v>
+        <v>172.6999969482422</v>
       </c>
       <c r="B94">
-        <v>180.5700073242188</v>
+        <v>175.3000030517578</v>
       </c>
       <c r="C94">
-        <v>178.0899963378906</v>
+        <v>171.6399993896484</v>
       </c>
       <c r="D94">
-        <v>178.1999969482422</v>
+        <v>172</v>
       </c>
       <c r="E94">
-        <v>177.9732513427734</v>
+        <v>171.7811431884766</v>
       </c>
       <c r="F94">
-        <v>59773000</v>
+        <v>96904000</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>178.0899963378906</v>
+        <v>172.8899993896484</v>
       </c>
       <c r="B95">
-        <v>179.2299957275391</v>
+        <v>174.1399993896484</v>
       </c>
       <c r="C95">
-        <v>177.2599945068359</v>
+        <v>171.0299987792969</v>
       </c>
       <c r="D95">
-        <v>177.5700073242188</v>
+        <v>172.1699981689453</v>
       </c>
       <c r="E95">
-        <v>177.3440551757812</v>
+        <v>171.950927734375</v>
       </c>
       <c r="F95">
-        <v>64062300</v>
+        <v>86580100</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>177.8300018310547</v>
+        <v>169.0800018310547</v>
       </c>
       <c r="B96">
-        <v>182.8800048828125</v>
+        <v>172.5</v>
       </c>
       <c r="C96">
-        <v>177.7100067138672</v>
+        <v>168.1699981689453</v>
       </c>
       <c r="D96">
-        <v>182.0099945068359</v>
+        <v>172.1900024414062</v>
       </c>
       <c r="E96">
-        <v>181.7783966064453</v>
+        <v>171.9709014892578</v>
       </c>
       <c r="F96">
-        <v>104487900</v>
+        <v>106765600</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>182.6300048828125</v>
+        <v>172.3200073242188</v>
       </c>
       <c r="B97">
-        <v>182.9400024414062</v>
+        <v>175.1799926757812</v>
       </c>
       <c r="C97">
-        <v>179.1199951171875</v>
+        <v>170.8200073242188</v>
       </c>
       <c r="D97">
-        <v>179.6999969482422</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="E97">
-        <v>179.4713439941406</v>
+        <v>174.8572235107422</v>
       </c>
       <c r="F97">
-        <v>99310400</v>
+        <v>76138300</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>179.6100006103516</v>
+        <v>176.1199951171875</v>
       </c>
       <c r="B98">
-        <v>180.1699981689453</v>
+        <v>177.1799926757812</v>
       </c>
       <c r="C98">
-        <v>174.6399993896484</v>
+        <v>174.8200073242188</v>
       </c>
       <c r="D98">
-        <v>174.9199981689453</v>
+        <v>175.5299987792969</v>
       </c>
       <c r="E98">
-        <v>174.6974182128906</v>
+        <v>175.306640625</v>
       </c>
       <c r="F98">
-        <v>94537600</v>
+        <v>74805200</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>172.6999969482422</v>
+        <v>175.7799987792969</v>
       </c>
       <c r="B99">
-        <v>175.3000030517578</v>
+        <v>176.6199951171875</v>
       </c>
       <c r="C99">
-        <v>171.6399993896484</v>
+        <v>171.7899932861328</v>
       </c>
       <c r="D99">
-        <v>172</v>
+        <v>172.1900024414062</v>
       </c>
       <c r="E99">
-        <v>171.7811431884766</v>
+        <v>171.9709014892578</v>
       </c>
       <c r="F99">
-        <v>96904000</v>
+        <v>84505800</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>172.8899993896484</v>
+        <v>171.3399963378906</v>
       </c>
       <c r="B100">
-        <v>174.1399993896484</v>
+        <v>173.7799987792969</v>
       </c>
       <c r="C100">
-        <v>171.0299987792969</v>
+        <v>171.0899963378906</v>
       </c>
       <c r="D100">
-        <v>172.1699981689453</v>
+        <v>173.0700073242188</v>
       </c>
       <c r="E100">
-        <v>171.950927734375</v>
+        <v>172.8497924804688</v>
       </c>
       <c r="F100">
-        <v>86580100</v>
+        <v>80355000</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>169.0800018310547</v>
+        <v>171.5099945068359</v>
       </c>
       <c r="B101">
-        <v>172.5</v>
+        <v>172.5399932861328</v>
       </c>
       <c r="C101">
-        <v>168.1699981689453</v>
+        <v>169.4100036621094</v>
       </c>
       <c r="D101">
-        <v>172.1900024414062</v>
+        <v>169.8000030517578</v>
       </c>
       <c r="E101">
-        <v>171.9709014892578</v>
+        <v>169.5839385986328</v>
       </c>
       <c r="F101">
-        <v>106765600</v>
+        <v>90956700</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>172.3200073242188</v>
+        <v>170</v>
       </c>
       <c r="B102">
-        <v>175.1799926757812</v>
+        <v>171.0800018310547</v>
       </c>
       <c r="C102">
-        <v>170.8200073242188</v>
+        <v>165.9400024414062</v>
       </c>
       <c r="D102">
-        <v>175.0800018310547</v>
+        <v>166.2299957275391</v>
       </c>
       <c r="E102">
-        <v>174.8572235107422</v>
+        <v>166.0184783935547</v>
       </c>
       <c r="F102">
-        <v>76138300</v>
+        <v>94815000</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>176.1199951171875</v>
+        <v>166.9799957275391</v>
       </c>
       <c r="B103">
-        <v>177.1799926757812</v>
+        <v>169.6799926757812</v>
       </c>
       <c r="C103">
-        <v>174.8200073242188</v>
+        <v>164.1799926757812</v>
       </c>
       <c r="D103">
-        <v>175.5299987792969</v>
+        <v>164.5099945068359</v>
       </c>
       <c r="E103">
-        <v>175.306640625</v>
+        <v>164.3006591796875</v>
       </c>
       <c r="F103">
-        <v>74805200</v>
+        <v>91420500</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>175.7799987792969</v>
+        <v>164.4199981689453</v>
       </c>
       <c r="B104">
-        <v>176.6199951171875</v>
+        <v>166.3300018310547</v>
       </c>
       <c r="C104">
-        <v>171.7899932861328</v>
+        <v>162.3000030517578</v>
       </c>
       <c r="D104">
-        <v>172.1900024414062</v>
+        <v>162.4100036621094</v>
       </c>
       <c r="E104">
-        <v>171.9709014892578</v>
+        <v>162.2033538818359</v>
       </c>
       <c r="F104">
-        <v>84505800</v>
+        <v>122848900</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>171.3399963378906</v>
+        <v>160.0200042724609</v>
       </c>
       <c r="B105">
-        <v>173.7799987792969</v>
+        <v>162.3000030517578</v>
       </c>
       <c r="C105">
-        <v>171.0899963378906</v>
+        <v>154.6999969482422</v>
       </c>
       <c r="D105">
-        <v>173.0700073242188</v>
+        <v>161.6199951171875</v>
       </c>
       <c r="E105">
-        <v>172.8497924804688</v>
+        <v>161.4143371582031</v>
       </c>
       <c r="F105">
-        <v>80355000</v>
+        <v>162294600</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>171.5099945068359</v>
+        <v>158.9799957275391</v>
       </c>
       <c r="B106">
-        <v>172.5399932861328</v>
+        <v>162.7599945068359</v>
       </c>
       <c r="C106">
-        <v>169.4100036621094</v>
+        <v>157.0200042724609</v>
       </c>
       <c r="D106">
-        <v>169.8000030517578</v>
+        <v>159.7799987792969</v>
       </c>
       <c r="E106">
-        <v>169.5839385986328</v>
+        <v>159.5766906738281</v>
       </c>
       <c r="F106">
-        <v>90956700</v>
+        <v>115798400</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>170</v>
+        <v>163.5</v>
       </c>
       <c r="B107">
-        <v>171.0800018310547</v>
+        <v>164.3899993896484</v>
       </c>
       <c r="C107">
-        <v>165.9400024414062</v>
+        <v>157.8200073242188</v>
       </c>
       <c r="D107">
-        <v>166.2299957275391</v>
+        <v>159.6900024414062</v>
       </c>
       <c r="E107">
-        <v>166.0184783935547</v>
+        <v>159.4868011474609</v>
       </c>
       <c r="F107">
-        <v>94815000</v>
+        <v>108275300</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>166.9799957275391</v>
+        <v>162.4499969482422</v>
       </c>
       <c r="B108">
-        <v>169.6799926757812</v>
+        <v>163.8399963378906</v>
       </c>
       <c r="C108">
-        <v>164.1799926757812</v>
+        <v>158.2799987792969</v>
       </c>
       <c r="D108">
-        <v>164.5099945068359</v>
+        <v>159.2200012207031</v>
       </c>
       <c r="E108">
-        <v>164.3006591796875</v>
+        <v>159.0174102783203</v>
       </c>
       <c r="F108">
-        <v>91420500</v>
+        <v>121954600</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>164.4199981689453</v>
+        <v>165.7100067138672</v>
       </c>
       <c r="B109">
-        <v>166.3300018310547</v>
+        <v>170.3500061035156</v>
       </c>
       <c r="C109">
-        <v>162.3000030517578</v>
+        <v>162.8000030517578</v>
       </c>
       <c r="D109">
-        <v>162.4100036621094</v>
+        <v>170.3300018310547</v>
       </c>
       <c r="E109">
-        <v>162.2033538818359</v>
+        <v>170.1132659912109</v>
       </c>
       <c r="F109">
-        <v>122848900</v>
+        <v>179935700</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>160.0200042724609</v>
+        <v>170.1600036621094</v>
       </c>
       <c r="B110">
-        <v>162.3000030517578</v>
+        <v>175</v>
       </c>
       <c r="C110">
-        <v>154.6999969482422</v>
+        <v>169.5099945068359</v>
       </c>
       <c r="D110">
-        <v>161.6199951171875</v>
+        <v>174.7799987792969</v>
       </c>
       <c r="E110">
-        <v>161.4143371582031</v>
+        <v>174.5576019287109</v>
       </c>
       <c r="F110">
-        <v>162294600</v>
+        <v>115541600</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>158.9799957275391</v>
+        <v>174.0099945068359</v>
       </c>
       <c r="B111">
-        <v>162.7599945068359</v>
+        <v>174.8399963378906</v>
       </c>
       <c r="C111">
-        <v>157.0200042724609</v>
+        <v>172.3099975585938</v>
       </c>
       <c r="D111">
-        <v>159.7799987792969</v>
+        <v>174.6100006103516</v>
       </c>
       <c r="E111">
-        <v>159.5766906738281</v>
+        <v>174.3878173828125</v>
       </c>
       <c r="F111">
-        <v>115798400</v>
+        <v>86213900</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>163.5</v>
+        <v>174.75</v>
       </c>
       <c r="B112">
-        <v>164.3899993896484</v>
+        <v>175.8800048828125</v>
       </c>
       <c r="C112">
-        <v>157.8200073242188</v>
+        <v>173.3300018310547</v>
       </c>
       <c r="D112">
-        <v>159.6900024414062</v>
+        <v>175.8399963378906</v>
       </c>
       <c r="E112">
-        <v>159.4868011474609</v>
+        <v>175.6162567138672</v>
       </c>
       <c r="F112">
-        <v>108275300</v>
+        <v>84914300</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>162.4499969482422</v>
+        <v>174.4799957275391</v>
       </c>
       <c r="B113">
-        <v>163.8399963378906</v>
+        <v>176.2400054931641</v>
       </c>
       <c r="C113">
-        <v>158.2799987792969</v>
+        <v>172.1199951171875</v>
       </c>
       <c r="D113">
-        <v>159.2200012207031</v>
+        <v>172.8999938964844</v>
       </c>
       <c r="E113">
-        <v>159.0174102783203</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="F113">
-        <v>121954600</v>
+        <v>89418100</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>165.7100067138672</v>
+        <v>171.6799926757812</v>
       </c>
       <c r="B114">
-        <v>170.3500061035156</v>
+        <v>174.1000061035156</v>
       </c>
       <c r="C114">
-        <v>162.8000030517578</v>
+        <v>170.6799926757812</v>
       </c>
       <c r="D114">
-        <v>170.3300018310547</v>
+        <v>172.3899993896484</v>
       </c>
       <c r="E114">
-        <v>170.1132659912109</v>
+        <v>172.3899993896484</v>
       </c>
       <c r="F114">
-        <v>179935700</v>
+        <v>82391400</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>170.1600036621094</v>
+        <v>172.8600006103516</v>
       </c>
       <c r="B115">
-        <v>175</v>
+        <v>173.9499969482422</v>
       </c>
       <c r="C115">
-        <v>169.5099945068359</v>
+        <v>170.9499969482422</v>
       </c>
       <c r="D115">
-        <v>174.7799987792969</v>
+        <v>171.6600036621094</v>
       </c>
       <c r="E115">
-        <v>174.5576019287109</v>
+        <v>171.6600036621094</v>
       </c>
       <c r="F115">
-        <v>115541600</v>
+        <v>77251200</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>174.0099945068359</v>
+        <v>171.7299957275391</v>
       </c>
       <c r="B116">
-        <v>174.8399963378906</v>
+        <v>175.3500061035156</v>
       </c>
       <c r="C116">
-        <v>172.3099975585938</v>
+        <v>171.4299926757812</v>
       </c>
       <c r="D116">
-        <v>174.6100006103516</v>
+        <v>174.8300018310547</v>
       </c>
       <c r="E116">
-        <v>174.3878173828125</v>
+        <v>174.8300018310547</v>
       </c>
       <c r="F116">
-        <v>86213900</v>
+        <v>74829200</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>174.75</v>
+        <v>176.0500030517578</v>
       </c>
       <c r="B117">
-        <v>175.8800048828125</v>
+        <v>176.6499938964844</v>
       </c>
       <c r="C117">
-        <v>173.3300018310547</v>
+        <v>174.8999938964844</v>
       </c>
       <c r="D117">
-        <v>175.8399963378906</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="E117">
-        <v>175.6162567138672</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="F117">
-        <v>84914300</v>
+        <v>71285000</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>174.4799957275391</v>
+        <v>174.1399993896484</v>
       </c>
       <c r="B118">
-        <v>176.2400054931641</v>
+        <v>175.4799957275391</v>
       </c>
       <c r="C118">
+        <v>171.5500030517578</v>
+      </c>
+      <c r="D118">
         <v>172.1199951171875</v>
       </c>
-      <c r="D118">
-        <v>172.8999938964844</v>
-      </c>
       <c r="E118">
-        <v>172.6799926757812</v>
+        <v>172.1199951171875</v>
       </c>
       <c r="F118">
-        <v>89418100</v>
+        <v>90865900</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>171.6799926757812</v>
+        <v>172.3300018310547</v>
       </c>
       <c r="B119">
-        <v>174.1000061035156</v>
+        <v>173.0800018310547</v>
       </c>
       <c r="C119">
-        <v>170.6799926757812</v>
+        <v>168.0399932861328</v>
       </c>
       <c r="D119">
-        <v>172.3899993896484</v>
+        <v>168.6399993896484</v>
       </c>
       <c r="E119">
-        <v>172.3899993896484</v>
+        <v>168.6399993896484</v>
       </c>
       <c r="F119">
-        <v>82391400</v>
+        <v>98566000</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>172.8600006103516</v>
+        <v>167.3699951171875</v>
       </c>
       <c r="B120">
-        <v>173.9499969482422</v>
+        <v>169.5800018310547</v>
       </c>
       <c r="C120">
-        <v>170.9499969482422</v>
+        <v>166.5599975585938</v>
       </c>
       <c r="D120">
-        <v>171.6600036621094</v>
+        <v>168.8800048828125</v>
       </c>
       <c r="E120">
-        <v>171.6600036621094</v>
+        <v>168.8800048828125</v>
       </c>
       <c r="F120">
-        <v>77251200</v>
+        <v>86185500</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>171.7299957275391</v>
+        <v>170.9700012207031</v>
       </c>
       <c r="B121">
-        <v>175.3500061035156</v>
+        <v>172.9499969482422</v>
       </c>
       <c r="C121">
-        <v>171.4299926757812</v>
+        <v>170.25</v>
       </c>
       <c r="D121">
-        <v>174.8300018310547</v>
+        <v>172.7899932861328</v>
       </c>
       <c r="E121">
-        <v>174.8300018310547</v>
+        <v>172.7899932861328</v>
       </c>
       <c r="F121">
-        <v>74829200</v>
+        <v>64286300</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>176.0500030517578</v>
+        <v>171.8500061035156</v>
       </c>
       <c r="B122">
-        <v>176.6499938964844</v>
+        <v>173.3399963378906</v>
       </c>
       <c r="C122">
-        <v>174.8999938964844</v>
+        <v>170.0500030517578</v>
       </c>
       <c r="D122">
-        <v>176.2799987792969</v>
+        <v>172.5500030517578</v>
       </c>
       <c r="E122">
-        <v>176.2799987792969</v>
+        <v>172.5500030517578</v>
       </c>
       <c r="F122">
-        <v>71285000</v>
+        <v>61177400</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>174.1399993896484</v>
+        <v>171.0299987792969</v>
       </c>
       <c r="B123">
-        <v>175.4799957275391</v>
+        <v>171.9100036621094</v>
       </c>
       <c r="C123">
-        <v>171.5500030517578</v>
+        <v>168.4700012207031</v>
       </c>
       <c r="D123">
-        <v>172.1199951171875</v>
+        <v>168.8800048828125</v>
       </c>
       <c r="E123">
-        <v>172.1199951171875</v>
+        <v>168.8800048828125</v>
       </c>
       <c r="F123">
-        <v>90865900</v>
+        <v>69589300</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>172.3300018310547</v>
+        <v>169.8200073242188</v>
       </c>
       <c r="B124">
-        <v>173.0800018310547</v>
+        <v>170.5399932861328</v>
       </c>
       <c r="C124">
-        <v>168.0399932861328</v>
+        <v>166.1900024414062</v>
       </c>
       <c r="D124">
-        <v>168.6399993896484</v>
+        <v>167.3000030517578</v>
       </c>
       <c r="E124">
-        <v>168.6399993896484</v>
+        <v>167.3000030517578</v>
       </c>
       <c r="F124">
-        <v>98566000</v>
+        <v>82614200</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>167.3699951171875</v>
+        <v>164.9799957275391</v>
       </c>
       <c r="B125">
-        <v>169.5800018310547</v>
+        <v>166.6900024414062</v>
       </c>
       <c r="C125">
-        <v>166.5599975585938</v>
+        <v>162.1499938964844</v>
       </c>
       <c r="D125">
-        <v>168.8800048828125</v>
+        <v>164.3200073242188</v>
       </c>
       <c r="E125">
-        <v>168.8800048828125</v>
+        <v>164.3200073242188</v>
       </c>
       <c r="F125">
-        <v>86185500</v>
+        <v>91162800</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>170.9700012207031</v>
+        <v>165.5399932861328</v>
       </c>
       <c r="B126">
-        <v>172.9499969482422</v>
+        <v>166.1499938964844</v>
       </c>
       <c r="C126">
-        <v>170.25</v>
+        <v>159.75</v>
       </c>
       <c r="D126">
-        <v>172.7899932861328</v>
+        <v>160.0700073242188</v>
       </c>
       <c r="E126">
-        <v>172.7899932861328</v>
+        <v>160.0700073242188</v>
       </c>
       <c r="F126">
-        <v>64286300</v>
+        <v>90009200</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>171.8500061035156</v>
+        <v>152.5800018310547</v>
       </c>
       <c r="B127">
-        <v>173.3399963378906</v>
+        <v>162.8500061035156</v>
       </c>
       <c r="C127">
-        <v>170.0500030517578</v>
+        <v>152</v>
       </c>
       <c r="D127">
-        <v>172.5500030517578</v>
+        <v>162.7400054931641</v>
       </c>
       <c r="E127">
-        <v>172.5500030517578</v>
+        <v>162.7400054931641</v>
       </c>
       <c r="F127">
-        <v>61177400</v>
+        <v>141147500</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>171.0299987792969</v>
+        <v>163.8399963378906</v>
       </c>
       <c r="B128">
-        <v>171.9100036621094</v>
+        <v>165.1199951171875</v>
       </c>
       <c r="C128">
-        <v>168.4700012207031</v>
+        <v>160.8699951171875</v>
       </c>
       <c r="D128">
-        <v>168.8800048828125</v>
+        <v>164.8500061035156</v>
       </c>
       <c r="E128">
-        <v>168.8800048828125</v>
+        <v>164.8500061035156</v>
       </c>
       <c r="F128">
-        <v>69589300</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>169.8200073242188</v>
-      </c>
-      <c r="B129">
-        <v>170.5399932861328</v>
-      </c>
-      <c r="C129">
-        <v>166.1900024414062</v>
-      </c>
-      <c r="D129">
-        <v>167.3000030517578</v>
-      </c>
-      <c r="E129">
-        <v>167.3000030517578</v>
-      </c>
-      <c r="F129">
-        <v>82614200</v>
+        <v>91881700</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/AAPL/HighLow.xlsx
+++ b/Stocks/AAPL/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2542 +417,2502 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>148.3500061035156</v>
+        <v>154.9700012207031</v>
       </c>
       <c r="B2">
-        <v>149.1199951171875</v>
+        <v>157.2599945068359</v>
       </c>
       <c r="C2">
-        <v>147.5099945068359</v>
+        <v>154.3899993896484</v>
       </c>
       <c r="D2">
-        <v>147.5399932861328</v>
+        <v>156.6900024414062</v>
       </c>
       <c r="E2">
-        <v>147.1375122070312</v>
+        <v>156.2625732421875</v>
       </c>
       <c r="F2">
-        <v>48597200</v>
+        <v>82278300</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>147.4799957275391</v>
+        <v>156.9799957275391</v>
       </c>
       <c r="B3">
-        <v>148.75</v>
+        <v>157.0399932861328</v>
       </c>
       <c r="C3">
-        <v>146.8300018310547</v>
+        <v>153.9799957275391</v>
       </c>
       <c r="D3">
-        <v>148.6000061035156</v>
+        <v>155.1100006103516</v>
       </c>
       <c r="E3">
-        <v>148.1946411132812</v>
+        <v>154.6868743896484</v>
       </c>
       <c r="F3">
-        <v>55721500</v>
+        <v>74420200</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>149</v>
+        <v>155.4900054931641</v>
       </c>
       <c r="B4">
-        <v>153.4900054931641</v>
+        <v>156.1100006103516</v>
       </c>
       <c r="C4">
-        <v>148.6100006103516</v>
+        <v>153.9499969482422</v>
       </c>
       <c r="D4">
-        <v>153.1199951171875</v>
+        <v>154.0700073242188</v>
       </c>
       <c r="E4">
-        <v>152.7023010253906</v>
+        <v>153.6497192382812</v>
       </c>
       <c r="F4">
-        <v>90956700</v>
+        <v>57305700</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>152.6600036621094</v>
+        <v>155</v>
       </c>
       <c r="B5">
-        <v>152.8000030517578</v>
+        <v>155.4799957275391</v>
       </c>
       <c r="C5">
-        <v>151.2899932861328</v>
+        <v>148.6999969482422</v>
       </c>
       <c r="D5">
-        <v>151.8300018310547</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="E5">
-        <v>151.4158172607422</v>
+        <v>148.5636138916016</v>
       </c>
       <c r="F5">
-        <v>86453100</v>
+        <v>140646400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>152.8300018310547</v>
+        <v>150.6300048828125</v>
       </c>
       <c r="B6">
-        <v>154.9799957275391</v>
+        <v>151.4199981689453</v>
       </c>
       <c r="C6">
-        <v>152.3399963378906</v>
+        <v>148.75</v>
       </c>
       <c r="D6">
-        <v>152.5099945068359</v>
+        <v>149.5500030517578</v>
       </c>
       <c r="E6">
-        <v>152.0939636230469</v>
+        <v>149.1420440673828</v>
       </c>
       <c r="F6">
-        <v>80313700</v>
+        <v>102404300</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>153.8699951171875</v>
+        <v>150.3500061035156</v>
       </c>
       <c r="B7">
-        <v>154.7200012207031</v>
+        <v>151.0700073242188</v>
       </c>
       <c r="C7">
-        <v>152.3999938964844</v>
+        <v>146.9100036621094</v>
       </c>
       <c r="D7">
-        <v>153.6499938964844</v>
+        <v>148.1199951171875</v>
       </c>
       <c r="E7">
-        <v>153.2308502197266</v>
+        <v>147.7159271240234</v>
       </c>
       <c r="F7">
-        <v>71115500</v>
+        <v>109296300</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>153.7599945068359</v>
+        <v>148.5599975585938</v>
       </c>
       <c r="B8">
-        <v>154.6300048828125</v>
+        <v>149.4400024414062</v>
       </c>
       <c r="C8">
-        <v>153.0899963378906</v>
+        <v>146.3699951171875</v>
       </c>
       <c r="D8">
-        <v>154.3000030517578</v>
+        <v>149.0299987792969</v>
       </c>
       <c r="E8">
-        <v>153.8790893554688</v>
+        <v>148.6234436035156</v>
       </c>
       <c r="F8">
-        <v>57808700</v>
+        <v>83281300</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>154.9700012207031</v>
+        <v>148.4400024414062</v>
       </c>
       <c r="B9">
-        <v>157.2599945068359</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="C9">
-        <v>154.3899993896484</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="D9">
-        <v>156.6900024414062</v>
+        <v>148.7899932861328</v>
       </c>
       <c r="E9">
-        <v>156.2625732421875</v>
+        <v>148.3840942382812</v>
       </c>
       <c r="F9">
-        <v>82278300</v>
+        <v>68034100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>156.9799957275391</v>
+        <v>148.8200073242188</v>
       </c>
       <c r="B10">
-        <v>157.0399932861328</v>
+        <v>148.8200073242188</v>
       </c>
       <c r="C10">
-        <v>153.9799957275391</v>
+        <v>145.7599945068359</v>
       </c>
       <c r="D10">
-        <v>155.1100006103516</v>
+        <v>146.0599975585938</v>
       </c>
       <c r="E10">
-        <v>154.6868743896484</v>
+        <v>145.6615600585938</v>
       </c>
       <c r="F10">
-        <v>74420200</v>
+        <v>129868800</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>155.4900054931641</v>
+        <v>143.8000030517578</v>
       </c>
       <c r="B11">
-        <v>156.1100006103516</v>
+        <v>144.8399963378906</v>
       </c>
       <c r="C11">
-        <v>153.9499969482422</v>
+        <v>141.2700042724609</v>
       </c>
       <c r="D11">
-        <v>154.0700073242188</v>
+        <v>142.9400024414062</v>
       </c>
       <c r="E11">
-        <v>153.6497192382812</v>
+        <v>142.5500793457031</v>
       </c>
       <c r="F11">
-        <v>57305700</v>
+        <v>123478900</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>155</v>
+        <v>143.9299926757812</v>
       </c>
       <c r="B12">
-        <v>155.4799957275391</v>
+        <v>144.6000061035156</v>
       </c>
       <c r="C12">
-        <v>148.6999969482422</v>
+        <v>142.7799987792969</v>
       </c>
       <c r="D12">
-        <v>148.9700012207031</v>
+        <v>143.4299926757812</v>
       </c>
       <c r="E12">
-        <v>148.5636138916016</v>
+        <v>143.0387268066406</v>
       </c>
       <c r="F12">
-        <v>140646400</v>
+        <v>75834000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>150.6300048828125</v>
+        <v>144.4499969482422</v>
       </c>
       <c r="B13">
-        <v>151.4199981689453</v>
+        <v>146.4299926757812</v>
       </c>
       <c r="C13">
-        <v>148.75</v>
+        <v>143.6999969482422</v>
       </c>
       <c r="D13">
-        <v>149.5500030517578</v>
+        <v>145.8500061035156</v>
       </c>
       <c r="E13">
-        <v>149.1420440673828</v>
+        <v>145.4521331787109</v>
       </c>
       <c r="F13">
-        <v>102404300</v>
+        <v>76404300</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>150.3500061035156</v>
+        <v>146.6499938964844</v>
       </c>
       <c r="B14">
-        <v>151.0700073242188</v>
+        <v>147.0800018310547</v>
       </c>
       <c r="C14">
-        <v>146.9100036621094</v>
+        <v>145.6399993896484</v>
       </c>
       <c r="D14">
-        <v>148.1199951171875</v>
+        <v>146.8300018310547</v>
       </c>
       <c r="E14">
-        <v>147.7159271240234</v>
+        <v>146.4294738769531</v>
       </c>
       <c r="F14">
-        <v>109296300</v>
+        <v>64838200</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>148.5599975585938</v>
+        <v>145.6600036621094</v>
       </c>
       <c r="B15">
-        <v>149.4400024414062</v>
+        <v>147.4700012207031</v>
       </c>
       <c r="C15">
-        <v>146.3699951171875</v>
+        <v>145.5599975585938</v>
       </c>
       <c r="D15">
-        <v>149.0299987792969</v>
+        <v>146.9199981689453</v>
       </c>
       <c r="E15">
-        <v>148.6234436035156</v>
+        <v>146.5192108154297</v>
       </c>
       <c r="F15">
-        <v>83281300</v>
+        <v>53477900</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>148.4400024414062</v>
+        <v>145.4700012207031</v>
       </c>
       <c r="B16">
-        <v>148.9700012207031</v>
+        <v>145.9600067138672</v>
       </c>
       <c r="C16">
-        <v>147.2200012207031</v>
+        <v>143.8200073242188</v>
       </c>
       <c r="D16">
-        <v>148.7899932861328</v>
+        <v>145.3699951171875</v>
       </c>
       <c r="E16">
-        <v>148.3840942382812</v>
+        <v>144.9734344482422</v>
       </c>
       <c r="F16">
-        <v>68034100</v>
+        <v>74150700</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>148.8200073242188</v>
+        <v>143.25</v>
       </c>
       <c r="B17">
-        <v>148.8200073242188</v>
+        <v>144.75</v>
       </c>
       <c r="C17">
-        <v>145.7599945068359</v>
+        <v>141.6900024414062</v>
       </c>
       <c r="D17">
-        <v>146.0599975585938</v>
+        <v>141.9100036621094</v>
       </c>
       <c r="E17">
-        <v>145.6615600585938</v>
+        <v>141.5228729248047</v>
       </c>
       <c r="F17">
-        <v>129868800</v>
+        <v>108972300</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>143.8000030517578</v>
+        <v>142.4700012207031</v>
       </c>
       <c r="B18">
-        <v>144.8399963378906</v>
+        <v>144.4499969482422</v>
       </c>
       <c r="C18">
-        <v>141.2700042724609</v>
+        <v>142.0299987792969</v>
       </c>
       <c r="D18">
-        <v>142.9400024414062</v>
+        <v>142.8300018310547</v>
       </c>
       <c r="E18">
-        <v>142.5500793457031</v>
+        <v>142.4403839111328</v>
       </c>
       <c r="F18">
-        <v>123478900</v>
+        <v>74602000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>143.9299926757812</v>
+        <v>143.6600036621094</v>
       </c>
       <c r="B19">
-        <v>144.6000061035156</v>
+        <v>144.3800048828125</v>
       </c>
       <c r="C19">
-        <v>142.7799987792969</v>
+        <v>141.2799987792969</v>
       </c>
       <c r="D19">
-        <v>143.4299926757812</v>
+        <v>141.5</v>
       </c>
       <c r="E19">
-        <v>143.0387268066406</v>
+        <v>141.1139984130859</v>
       </c>
       <c r="F19">
-        <v>75834000</v>
+        <v>88934200</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>144.4499969482422</v>
+        <v>141.8999938964844</v>
       </c>
       <c r="B20">
-        <v>146.4299926757812</v>
+        <v>142.9199981689453</v>
       </c>
       <c r="C20">
-        <v>143.6999969482422</v>
+        <v>139.1100006103516</v>
       </c>
       <c r="D20">
-        <v>145.8500061035156</v>
+        <v>142.6499938964844</v>
       </c>
       <c r="E20">
-        <v>145.4521331787109</v>
+        <v>142.2608642578125</v>
       </c>
       <c r="F20">
-        <v>76404300</v>
+        <v>94639600</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>146.6499938964844</v>
+        <v>141.7599945068359</v>
       </c>
       <c r="B21">
-        <v>147.0800018310547</v>
+        <v>142.2100067138672</v>
       </c>
       <c r="C21">
-        <v>145.6399993896484</v>
+        <v>138.2700042724609</v>
       </c>
       <c r="D21">
-        <v>146.8300018310547</v>
+        <v>139.1399993896484</v>
       </c>
       <c r="E21">
-        <v>146.4294738769531</v>
+        <v>138.7604370117188</v>
       </c>
       <c r="F21">
-        <v>64838200</v>
+        <v>98322000</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>145.6600036621094</v>
+        <v>139.4900054931641</v>
       </c>
       <c r="B22">
-        <v>147.4700012207031</v>
+        <v>142.2400054931641</v>
       </c>
       <c r="C22">
-        <v>145.5599975585938</v>
+        <v>139.3600006103516</v>
       </c>
       <c r="D22">
-        <v>146.9199981689453</v>
+        <v>141.1100006103516</v>
       </c>
       <c r="E22">
-        <v>146.5192108154297</v>
+        <v>140.7250671386719</v>
       </c>
       <c r="F22">
-        <v>53477900</v>
+        <v>80861100</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>145.4700012207031</v>
+        <v>139.4700012207031</v>
       </c>
       <c r="B23">
-        <v>145.9600067138672</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="C23">
-        <v>143.8200073242188</v>
+        <v>138.3699951171875</v>
       </c>
       <c r="D23">
-        <v>145.3699951171875</v>
+        <v>142</v>
       </c>
       <c r="E23">
-        <v>144.9734344482422</v>
+        <v>141.6126403808594</v>
       </c>
       <c r="F23">
-        <v>74150700</v>
+        <v>83221100</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>143.25</v>
+        <v>143.0599975585938</v>
       </c>
       <c r="B24">
-        <v>144.75</v>
+        <v>144.2200012207031</v>
       </c>
       <c r="C24">
-        <v>141.6900024414062</v>
+        <v>142.7200012207031</v>
       </c>
       <c r="D24">
-        <v>141.9100036621094</v>
+        <v>143.2899932861328</v>
       </c>
       <c r="E24">
-        <v>141.5228729248047</v>
+        <v>142.8991088867188</v>
       </c>
       <c r="F24">
-        <v>108972300</v>
+        <v>61732700</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>142.4700012207031</v>
+        <v>144.0299987792969</v>
       </c>
       <c r="B25">
-        <v>144.4499969482422</v>
+        <v>144.1799926757812</v>
       </c>
       <c r="C25">
-        <v>142.0299987792969</v>
+        <v>142.5599975585938</v>
       </c>
       <c r="D25">
-        <v>142.8300018310547</v>
+        <v>142.8999938964844</v>
       </c>
       <c r="E25">
-        <v>142.4403839111328</v>
+        <v>142.5101776123047</v>
       </c>
       <c r="F25">
-        <v>74602000</v>
+        <v>58718700</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>143.6600036621094</v>
+        <v>142.2700042724609</v>
       </c>
       <c r="B26">
-        <v>144.3800048828125</v>
+        <v>144.8099975585938</v>
       </c>
       <c r="C26">
-        <v>141.2799987792969</v>
+        <v>141.8099975585938</v>
       </c>
       <c r="D26">
-        <v>141.5</v>
+        <v>142.8099975585938</v>
       </c>
       <c r="E26">
-        <v>141.1139984130859</v>
+        <v>142.4204254150391</v>
       </c>
       <c r="F26">
-        <v>88934200</v>
+        <v>64452200</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>141.8999938964844</v>
+        <v>143.2299957275391</v>
       </c>
       <c r="B27">
-        <v>142.9199981689453</v>
+        <v>143.25</v>
       </c>
       <c r="C27">
-        <v>139.1100006103516</v>
+        <v>141.0399932861328</v>
       </c>
       <c r="D27">
-        <v>142.6499938964844</v>
+        <v>141.5099945068359</v>
       </c>
       <c r="E27">
-        <v>142.2608642578125</v>
+        <v>141.1239776611328</v>
       </c>
       <c r="F27">
-        <v>94639600</v>
+        <v>73035900</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>141.7599945068359</v>
+        <v>141.2400054931641</v>
       </c>
       <c r="B28">
-        <v>142.2100067138672</v>
+        <v>141.3999938964844</v>
       </c>
       <c r="C28">
-        <v>138.2700042724609</v>
+        <v>139.1999969482422</v>
       </c>
       <c r="D28">
-        <v>139.1399993896484</v>
+        <v>140.9100036621094</v>
       </c>
       <c r="E28">
-        <v>138.7604370117188</v>
+        <v>140.5256195068359</v>
       </c>
       <c r="F28">
-        <v>98322000</v>
+        <v>78762700</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>139.4900054931641</v>
+        <v>142.1100006103516</v>
       </c>
       <c r="B29">
-        <v>142.2400054931641</v>
+        <v>143.8800048828125</v>
       </c>
       <c r="C29">
-        <v>139.3600006103516</v>
+        <v>141.5099945068359</v>
       </c>
       <c r="D29">
-        <v>141.1100006103516</v>
+        <v>143.7599945068359</v>
       </c>
       <c r="E29">
-        <v>140.7250671386719</v>
+        <v>143.3678283691406</v>
       </c>
       <c r="F29">
-        <v>80861100</v>
+        <v>69907100</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>139.4700012207031</v>
+        <v>143.7700042724609</v>
       </c>
       <c r="B30">
-        <v>142.1499938964844</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="C30">
-        <v>138.3699951171875</v>
+        <v>143.5099945068359</v>
       </c>
       <c r="D30">
-        <v>142</v>
+        <v>144.8399963378906</v>
       </c>
       <c r="E30">
-        <v>141.6126403808594</v>
+        <v>144.4448852539062</v>
       </c>
       <c r="F30">
-        <v>83221100</v>
+        <v>67885200</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>143.0599975585938</v>
+        <v>143.4499969482422</v>
       </c>
       <c r="B31">
-        <v>144.2200012207031</v>
+        <v>146.8399963378906</v>
       </c>
       <c r="C31">
-        <v>142.7200012207031</v>
+        <v>143.1600036621094</v>
       </c>
       <c r="D31">
-        <v>143.2899932861328</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="E31">
-        <v>142.8991088867188</v>
+        <v>146.1502227783203</v>
       </c>
       <c r="F31">
-        <v>61732700</v>
+        <v>85589200</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>144.0299987792969</v>
+        <v>147.0099945068359</v>
       </c>
       <c r="B32">
-        <v>144.1799926757812</v>
+        <v>149.1699981689453</v>
       </c>
       <c r="C32">
-        <v>142.5599975585938</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="D32">
-        <v>142.8999938964844</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="E32">
-        <v>142.5101776123047</v>
+        <v>148.3541870117188</v>
       </c>
       <c r="F32">
-        <v>58718700</v>
+        <v>76378900</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>142.2700042724609</v>
+        <v>148.6999969482422</v>
       </c>
       <c r="B33">
-        <v>144.8099975585938</v>
+        <v>149.75</v>
       </c>
       <c r="C33">
-        <v>141.8099975585938</v>
+        <v>148.1199951171875</v>
       </c>
       <c r="D33">
-        <v>142.8099975585938</v>
+        <v>149.2599945068359</v>
       </c>
       <c r="E33">
-        <v>142.4204254150391</v>
+        <v>148.8528289794922</v>
       </c>
       <c r="F33">
-        <v>64452200</v>
+        <v>58418800</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>143.2299957275391</v>
+        <v>148.8099975585938</v>
       </c>
       <c r="B34">
-        <v>143.25</v>
+        <v>149.6399993896484</v>
       </c>
       <c r="C34">
-        <v>141.0399932861328</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="D34">
-        <v>141.5099945068359</v>
+        <v>149.4799957275391</v>
       </c>
       <c r="E34">
-        <v>141.1239776611328</v>
+        <v>149.0722198486328</v>
       </c>
       <c r="F34">
-        <v>73035900</v>
+        <v>61421000</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>141.2400054931641</v>
+        <v>149.6900024414062</v>
       </c>
       <c r="B35">
-        <v>141.3999938964844</v>
+        <v>150.1799926757812</v>
       </c>
       <c r="C35">
-        <v>139.1999969482422</v>
+        <v>148.6399993896484</v>
       </c>
       <c r="D35">
-        <v>140.9100036621094</v>
+        <v>148.6900024414062</v>
       </c>
       <c r="E35">
-        <v>140.5256195068359</v>
+        <v>148.2843933105469</v>
       </c>
       <c r="F35">
-        <v>78762700</v>
+        <v>58883400</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>142.1100006103516</v>
+        <v>148.6799926757812</v>
       </c>
       <c r="B36">
-        <v>143.8800048828125</v>
+        <v>149.3699951171875</v>
       </c>
       <c r="C36">
-        <v>141.5099945068359</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="D36">
-        <v>143.7599945068359</v>
+        <v>148.6399993896484</v>
       </c>
       <c r="E36">
-        <v>143.3678283691406</v>
+        <v>148.2345275878906</v>
       </c>
       <c r="F36">
-        <v>69907100</v>
+        <v>50720600</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>143.7700042724609</v>
+        <v>149.3300018310547</v>
       </c>
       <c r="B37">
-        <v>144.8999938964844</v>
+        <v>150.8399963378906</v>
       </c>
       <c r="C37">
-        <v>143.5099945068359</v>
+        <v>149.0099945068359</v>
       </c>
       <c r="D37">
-        <v>144.8399963378906</v>
+        <v>149.3200073242188</v>
       </c>
       <c r="E37">
-        <v>144.4448852539062</v>
+        <v>148.9126739501953</v>
       </c>
       <c r="F37">
-        <v>67885200</v>
+        <v>60893400</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>143.4499969482422</v>
+        <v>149.3600006103516</v>
       </c>
       <c r="B38">
-        <v>146.8399963378906</v>
+        <v>149.7299957275391</v>
       </c>
       <c r="C38">
-        <v>143.1600036621094</v>
+        <v>148.4900054931641</v>
       </c>
       <c r="D38">
-        <v>146.5500030517578</v>
+        <v>148.8500061035156</v>
       </c>
       <c r="E38">
-        <v>146.1502227783203</v>
+        <v>148.4439544677734</v>
       </c>
       <c r="F38">
-        <v>85589200</v>
+        <v>56094900</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>147.0099945068359</v>
+        <v>149.8200073242188</v>
       </c>
       <c r="B39">
-        <v>149.1699981689453</v>
+        <v>153.1699981689453</v>
       </c>
       <c r="C39">
-        <v>146.5500030517578</v>
+        <v>149.7200012207031</v>
       </c>
       <c r="D39">
-        <v>148.7599945068359</v>
+        <v>152.5700073242188</v>
       </c>
       <c r="E39">
-        <v>148.3541870117188</v>
+        <v>152.15380859375</v>
       </c>
       <c r="F39">
-        <v>76378900</v>
+        <v>100077900</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>148.6999969482422</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="B40">
-        <v>149.75</v>
+        <v>149.9400024414062</v>
       </c>
       <c r="C40">
-        <v>148.1199951171875</v>
+        <v>146.4100036621094</v>
       </c>
       <c r="D40">
-        <v>149.2599945068359</v>
+        <v>149.8000030517578</v>
       </c>
       <c r="E40">
-        <v>148.8528289794922</v>
+        <v>149.391357421875</v>
       </c>
       <c r="F40">
-        <v>58418800</v>
+        <v>124850400</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>148.8099975585938</v>
+        <v>148.9900054931641</v>
       </c>
       <c r="B41">
-        <v>149.6399993896484</v>
+        <v>149.6999969482422</v>
       </c>
       <c r="C41">
-        <v>147.8699951171875</v>
+        <v>147.8000030517578</v>
       </c>
       <c r="D41">
-        <v>149.4799957275391</v>
+        <v>148.9600067138672</v>
       </c>
       <c r="E41">
-        <v>149.0722198486328</v>
+        <v>148.5536499023438</v>
       </c>
       <c r="F41">
-        <v>61421000</v>
+        <v>74588300</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>149.6900024414062</v>
+        <v>148.6600036621094</v>
       </c>
       <c r="B42">
-        <v>150.1799926757812</v>
+        <v>151.5700073242188</v>
       </c>
       <c r="C42">
-        <v>148.6399993896484</v>
+        <v>148.6499938964844</v>
       </c>
       <c r="D42">
-        <v>148.6900024414062</v>
+        <v>150.0200042724609</v>
       </c>
       <c r="E42">
-        <v>148.2843933105469</v>
+        <v>149.6107635498047</v>
       </c>
       <c r="F42">
-        <v>58883400</v>
+        <v>69122000</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>148.6799926757812</v>
+        <v>150.3899993896484</v>
       </c>
       <c r="B43">
-        <v>149.3699951171875</v>
+        <v>151.9700012207031</v>
       </c>
       <c r="C43">
-        <v>147.6199951171875</v>
+        <v>149.8200073242188</v>
       </c>
       <c r="D43">
-        <v>148.6399993896484</v>
+        <v>151.4900054931641</v>
       </c>
       <c r="E43">
-        <v>148.2345275878906</v>
+        <v>151.0767669677734</v>
       </c>
       <c r="F43">
-        <v>50720600</v>
+        <v>54511500</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>149.3300018310547</v>
+        <v>151.5800018310547</v>
       </c>
       <c r="B44">
-        <v>150.8399963378906</v>
+        <v>152.4299926757812</v>
       </c>
       <c r="C44">
-        <v>149.0099945068359</v>
+        <v>150.6399993896484</v>
       </c>
       <c r="D44">
-        <v>149.3200073242188</v>
+        <v>150.9600067138672</v>
       </c>
       <c r="E44">
-        <v>148.9126739501953</v>
+        <v>150.5482025146484</v>
       </c>
       <c r="F44">
-        <v>60893400</v>
+        <v>60394600</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>149.3600006103516</v>
+        <v>151.8899993896484</v>
       </c>
       <c r="B45">
-        <v>149.7299957275391</v>
+        <v>152.1999969482422</v>
       </c>
       <c r="C45">
-        <v>148.4900054931641</v>
+        <v>150.0599975585938</v>
       </c>
       <c r="D45">
-        <v>148.8500061035156</v>
+        <v>151.2799987792969</v>
       </c>
       <c r="E45">
-        <v>148.4439544677734</v>
+        <v>151.0875091552734</v>
       </c>
       <c r="F45">
-        <v>56094900</v>
+        <v>65414600</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>149.8200073242188</v>
+        <v>151.4100036621094</v>
       </c>
       <c r="B46">
-        <v>153.1699981689453</v>
+        <v>151.5700073242188</v>
       </c>
       <c r="C46">
-        <v>149.7200012207031</v>
+        <v>150.1600036621094</v>
       </c>
       <c r="D46">
-        <v>152.5700073242188</v>
+        <v>150.4400024414062</v>
       </c>
       <c r="E46">
-        <v>152.15380859375</v>
+        <v>150.2485809326172</v>
       </c>
       <c r="F46">
-        <v>100077900</v>
+        <v>55020900</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>147.2200012207031</v>
+        <v>150.1999969482422</v>
       </c>
       <c r="B47">
-        <v>149.9400024414062</v>
+        <v>151.4299926757812</v>
       </c>
       <c r="C47">
-        <v>146.4100036621094</v>
+        <v>150.0599975585938</v>
       </c>
       <c r="D47">
-        <v>149.8000030517578</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="E47">
-        <v>149.391357421875</v>
+        <v>150.6181030273438</v>
       </c>
       <c r="F47">
-        <v>124850400</v>
+        <v>56787900</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>148.9900054931641</v>
+        <v>150.0200042724609</v>
       </c>
       <c r="B48">
-        <v>149.6999969482422</v>
+        <v>150.1300048828125</v>
       </c>
       <c r="C48">
-        <v>147.8000030517578</v>
+        <v>147.8500061035156</v>
       </c>
       <c r="D48">
-        <v>148.9600067138672</v>
+        <v>147.9199981689453</v>
       </c>
       <c r="E48">
-        <v>148.5536499023438</v>
+        <v>147.7317810058594</v>
       </c>
       <c r="F48">
-        <v>74588300</v>
+        <v>65187100</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>148.6600036621094</v>
+        <v>148.9600067138672</v>
       </c>
       <c r="B49">
-        <v>151.5700073242188</v>
+        <v>149.4299926757812</v>
       </c>
       <c r="C49">
-        <v>148.6499938964844</v>
+        <v>147.6799926757812</v>
       </c>
       <c r="D49">
-        <v>150.0200042724609</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="E49">
-        <v>149.6107635498047</v>
+        <v>147.6818389892578</v>
       </c>
       <c r="F49">
-        <v>69122000</v>
+        <v>41000000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>150.3899993896484</v>
+        <v>148.4299926757812</v>
       </c>
       <c r="B50">
-        <v>151.9700012207031</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="C50">
-        <v>149.8200073242188</v>
+        <v>147.4799957275391</v>
       </c>
       <c r="D50">
-        <v>151.4900054931641</v>
+        <v>149.9900054931641</v>
       </c>
       <c r="E50">
-        <v>151.0767669677734</v>
+        <v>149.7991485595703</v>
       </c>
       <c r="F50">
-        <v>54511500</v>
+        <v>63632600</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>151.5800018310547</v>
+        <v>150.3699951171875</v>
       </c>
       <c r="B51">
-        <v>152.4299926757812</v>
+        <v>151.8800048828125</v>
       </c>
       <c r="C51">
-        <v>150.6399993896484</v>
+        <v>149.4299926757812</v>
       </c>
       <c r="D51">
-        <v>150.9600067138672</v>
+        <v>150</v>
       </c>
       <c r="E51">
-        <v>150.5482025146484</v>
+        <v>149.8091278076172</v>
       </c>
       <c r="F51">
-        <v>60394600</v>
+        <v>59222800</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>151.8899993896484</v>
+        <v>149.9400024414062</v>
       </c>
       <c r="B52">
-        <v>152.1999969482422</v>
+        <v>151.4900054931641</v>
       </c>
       <c r="C52">
-        <v>150.0599975585938</v>
+        <v>149.3399963378906</v>
       </c>
       <c r="D52">
-        <v>151.2799987792969</v>
+        <v>151</v>
       </c>
       <c r="E52">
-        <v>151.0875091552734</v>
+        <v>150.807861328125</v>
       </c>
       <c r="F52">
-        <v>65414600</v>
+        <v>59256200</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>151.4100036621094</v>
+        <v>151</v>
       </c>
       <c r="B53">
-        <v>151.5700073242188</v>
+        <v>155</v>
       </c>
       <c r="C53">
-        <v>150.1600036621094</v>
+        <v>150.9900054931641</v>
       </c>
       <c r="D53">
-        <v>150.4400024414062</v>
+        <v>153.4900054931641</v>
       </c>
       <c r="E53">
-        <v>150.2485809326172</v>
+        <v>153.2946929931641</v>
       </c>
       <c r="F53">
-        <v>55020900</v>
+        <v>88807000</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>150.1999969482422</v>
+        <v>153.7100067138672</v>
       </c>
       <c r="B54">
-        <v>151.4299926757812</v>
+        <v>158.6699981689453</v>
       </c>
       <c r="C54">
-        <v>150.0599975585938</v>
+        <v>153.0500030517578</v>
       </c>
       <c r="D54">
-        <v>150.8099975585938</v>
+        <v>157.8699951171875</v>
       </c>
       <c r="E54">
-        <v>150.6181030273438</v>
+        <v>157.6691131591797</v>
       </c>
       <c r="F54">
-        <v>56787900</v>
+        <v>137827700</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>150.0200042724609</v>
+        <v>157.6499938964844</v>
       </c>
       <c r="B55">
-        <v>150.1300048828125</v>
+        <v>161.0200042724609</v>
       </c>
       <c r="C55">
-        <v>147.8500061035156</v>
+        <v>156.5299987792969</v>
       </c>
       <c r="D55">
-        <v>147.9199981689453</v>
+        <v>160.5500030517578</v>
       </c>
       <c r="E55">
-        <v>147.7317810058594</v>
+        <v>160.3457183837891</v>
       </c>
       <c r="F55">
-        <v>65187100</v>
+        <v>117305600</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>148.9600067138672</v>
+        <v>161.6799926757812</v>
       </c>
       <c r="B56">
-        <v>149.4299926757812</v>
+        <v>165.6999969482422</v>
       </c>
       <c r="C56">
-        <v>147.6799926757812</v>
+        <v>161</v>
       </c>
       <c r="D56">
-        <v>147.8699951171875</v>
+        <v>161.0200042724609</v>
       </c>
       <c r="E56">
-        <v>147.6818389892578</v>
+        <v>160.8151092529297</v>
       </c>
       <c r="F56">
-        <v>41000000</v>
+        <v>117467900</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>148.4299926757812</v>
+        <v>161.1199951171875</v>
       </c>
       <c r="B57">
-        <v>150.3999938964844</v>
+        <v>161.8000030517578</v>
       </c>
       <c r="C57">
-        <v>147.4799957275391</v>
+        <v>159.0599975585938</v>
       </c>
       <c r="D57">
-        <v>149.9900054931641</v>
+        <v>161.4100036621094</v>
       </c>
       <c r="E57">
-        <v>149.7991485595703</v>
+        <v>161.2046203613281</v>
       </c>
       <c r="F57">
-        <v>63632600</v>
+        <v>96041900</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>150.3699951171875</v>
+        <v>160.75</v>
       </c>
       <c r="B58">
-        <v>151.8800048828125</v>
+        <v>162.1399993896484</v>
       </c>
       <c r="C58">
-        <v>149.4299926757812</v>
+        <v>159.6399993896484</v>
       </c>
       <c r="D58">
-        <v>150</v>
+        <v>161.9400024414062</v>
       </c>
       <c r="E58">
-        <v>149.8091278076172</v>
+        <v>161.7339477539062</v>
       </c>
       <c r="F58">
-        <v>59222800</v>
+        <v>69463600</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>149.9400024414062</v>
+        <v>159.5700073242188</v>
       </c>
       <c r="B59">
-        <v>151.4900054931641</v>
+        <v>160.4499969482422</v>
       </c>
       <c r="C59">
-        <v>149.3399963378906</v>
+        <v>156.3600006103516</v>
       </c>
       <c r="D59">
-        <v>151</v>
+        <v>156.8099975585938</v>
       </c>
       <c r="E59">
-        <v>150.807861328125</v>
+        <v>156.6104736328125</v>
       </c>
       <c r="F59">
-        <v>59256200</v>
+        <v>76959800</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>151</v>
+        <v>159.3699951171875</v>
       </c>
       <c r="B60">
-        <v>155</v>
+        <v>161.1900024414062</v>
       </c>
       <c r="C60">
-        <v>150.9900054931641</v>
+        <v>158.7899932861328</v>
       </c>
       <c r="D60">
-        <v>153.4900054931641</v>
+        <v>160.2400054931641</v>
       </c>
       <c r="E60">
-        <v>153.2946929931641</v>
+        <v>160.0361022949219</v>
       </c>
       <c r="F60">
-        <v>88807000</v>
+        <v>88748200</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>153.7100067138672</v>
+        <v>159.9900054931641</v>
       </c>
       <c r="B61">
-        <v>158.6699981689453</v>
+        <v>165.5200042724609</v>
       </c>
       <c r="C61">
-        <v>153.0500030517578</v>
+        <v>159.9199981689453</v>
       </c>
       <c r="D61">
-        <v>157.8699951171875</v>
+        <v>165.3000030517578</v>
       </c>
       <c r="E61">
-        <v>157.6691131591797</v>
+        <v>165.0896759033203</v>
       </c>
       <c r="F61">
-        <v>137827700</v>
+        <v>174048100</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>157.6499938964844</v>
+        <v>167.4799957275391</v>
       </c>
       <c r="B62">
-        <v>161.0200042724609</v>
+        <v>170.3000030517578</v>
       </c>
       <c r="C62">
-        <v>156.5299987792969</v>
+        <v>164.5299987792969</v>
       </c>
       <c r="D62">
-        <v>160.5500030517578</v>
+        <v>164.7700042724609</v>
       </c>
       <c r="E62">
-        <v>160.3457183837891</v>
+        <v>164.5603485107422</v>
       </c>
       <c r="F62">
-        <v>117305600</v>
+        <v>152052500</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>161.6799926757812</v>
+        <v>158.7400054931641</v>
       </c>
       <c r="B63">
-        <v>165.6999969482422</v>
+        <v>164.1999969482422</v>
       </c>
       <c r="C63">
-        <v>161</v>
+        <v>157.8000030517578</v>
       </c>
       <c r="D63">
-        <v>161.0200042724609</v>
+        <v>163.7599945068359</v>
       </c>
       <c r="E63">
-        <v>160.8151092529297</v>
+        <v>163.5516204833984</v>
       </c>
       <c r="F63">
-        <v>117467900</v>
+        <v>136739200</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>161.1199951171875</v>
+        <v>164.0200042724609</v>
       </c>
       <c r="B64">
-        <v>161.8000030517578</v>
+        <v>164.9600067138672</v>
       </c>
       <c r="C64">
-        <v>159.0599975585938</v>
+        <v>159.7200012207031</v>
       </c>
       <c r="D64">
-        <v>161.4100036621094</v>
+        <v>161.8399963378906</v>
       </c>
       <c r="E64">
-        <v>161.2046203613281</v>
+        <v>161.6340637207031</v>
       </c>
       <c r="F64">
-        <v>96041900</v>
+        <v>117938300</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>160.75</v>
+        <v>164.2899932861328</v>
       </c>
       <c r="B65">
-        <v>162.1399993896484</v>
+        <v>167.8800048828125</v>
       </c>
       <c r="C65">
-        <v>159.6399993896484</v>
+        <v>164.2799987792969</v>
       </c>
       <c r="D65">
-        <v>161.9400024414062</v>
+        <v>165.3200073242188</v>
       </c>
       <c r="E65">
-        <v>161.7339477539062</v>
+        <v>165.1096496582031</v>
       </c>
       <c r="F65">
-        <v>69463600</v>
+        <v>107497000</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>159.5700073242188</v>
+        <v>169.0800018310547</v>
       </c>
       <c r="B66">
-        <v>160.4499969482422</v>
+        <v>171.5800018310547</v>
       </c>
       <c r="C66">
-        <v>156.3600006103516</v>
+        <v>168.3399963378906</v>
       </c>
       <c r="D66">
-        <v>156.8099975585938</v>
+        <v>171.1799926757812</v>
       </c>
       <c r="E66">
-        <v>156.6104736328125</v>
+        <v>170.9621734619141</v>
       </c>
       <c r="F66">
-        <v>76959800</v>
+        <v>120405400</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>159.3699951171875</v>
+        <v>172.1300048828125</v>
       </c>
       <c r="B67">
-        <v>161.1900024414062</v>
+        <v>175.9600067138672</v>
       </c>
       <c r="C67">
-        <v>158.7899932861328</v>
+        <v>170.6999969482422</v>
       </c>
       <c r="D67">
-        <v>160.2400054931641</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="E67">
-        <v>160.0361022949219</v>
+        <v>174.8572235107422</v>
       </c>
       <c r="F67">
-        <v>88748200</v>
+        <v>116998900</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>159.9900054931641</v>
+        <v>174.9100036621094</v>
       </c>
       <c r="B68">
-        <v>165.5200042724609</v>
+        <v>176.75</v>
       </c>
       <c r="C68">
-        <v>159.9199981689453</v>
+        <v>173.9199981689453</v>
       </c>
       <c r="D68">
-        <v>165.3000030517578</v>
+        <v>174.5599975585938</v>
       </c>
       <c r="E68">
-        <v>165.0896759033203</v>
+        <v>174.3378753662109</v>
       </c>
       <c r="F68">
-        <v>174048100</v>
+        <v>108923700</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>167.4799957275391</v>
+        <v>175.2100067138672</v>
       </c>
       <c r="B69">
-        <v>170.3000030517578</v>
+        <v>179.6300048828125</v>
       </c>
       <c r="C69">
-        <v>164.5299987792969</v>
+        <v>174.6900024414062</v>
       </c>
       <c r="D69">
-        <v>164.7700042724609</v>
+        <v>179.4499969482422</v>
       </c>
       <c r="E69">
-        <v>164.5603485107422</v>
+        <v>179.2216644287109</v>
       </c>
       <c r="F69">
-        <v>152052500</v>
+        <v>115228100</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>158.7400054931641</v>
+        <v>181.1199951171875</v>
       </c>
       <c r="B70">
-        <v>164.1999969482422</v>
+        <v>182.1300048828125</v>
       </c>
       <c r="C70">
-        <v>157.8000030517578</v>
+        <v>175.5299987792969</v>
       </c>
       <c r="D70">
-        <v>163.7599945068359</v>
+        <v>175.7400054931641</v>
       </c>
       <c r="E70">
-        <v>163.5516204833984</v>
+        <v>175.5163879394531</v>
       </c>
       <c r="F70">
-        <v>136739200</v>
+        <v>153237000</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>164.0200042724609</v>
+        <v>175.25</v>
       </c>
       <c r="B71">
-        <v>164.9600067138672</v>
+        <v>177.7400054931641</v>
       </c>
       <c r="C71">
-        <v>159.7200012207031</v>
+        <v>172.2100067138672</v>
       </c>
       <c r="D71">
-        <v>161.8399963378906</v>
+        <v>174.3300018310547</v>
       </c>
       <c r="E71">
-        <v>161.6340637207031</v>
+        <v>174.1081848144531</v>
       </c>
       <c r="F71">
-        <v>117938300</v>
+        <v>139380400</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>164.2899932861328</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="B72">
-        <v>167.8800048828125</v>
+        <v>179.5</v>
       </c>
       <c r="C72">
-        <v>164.2799987792969</v>
+        <v>172.3099975585938</v>
       </c>
       <c r="D72">
-        <v>165.3200073242188</v>
+        <v>179.3000030517578</v>
       </c>
       <c r="E72">
-        <v>165.1096496582031</v>
+        <v>179.0718536376953</v>
       </c>
       <c r="F72">
-        <v>107497000</v>
+        <v>131063300</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>169.0800018310547</v>
+        <v>179.2799987792969</v>
       </c>
       <c r="B73">
-        <v>171.5800018310547</v>
+        <v>181.1399993896484</v>
       </c>
       <c r="C73">
-        <v>168.3399963378906</v>
+        <v>170.75</v>
       </c>
       <c r="D73">
-        <v>171.1799926757812</v>
+        <v>172.2599945068359</v>
       </c>
       <c r="E73">
-        <v>170.9621734619141</v>
+        <v>172.0408020019531</v>
       </c>
       <c r="F73">
-        <v>120405400</v>
+        <v>150185800</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>172.1300048828125</v>
+        <v>169.9299926757812</v>
       </c>
       <c r="B74">
-        <v>175.9600067138672</v>
+        <v>173.4700012207031</v>
       </c>
       <c r="C74">
-        <v>170.6999969482422</v>
+        <v>169.6900024414062</v>
       </c>
       <c r="D74">
-        <v>175.0800018310547</v>
+        <v>171.1399993896484</v>
       </c>
       <c r="E74">
-        <v>174.8572235107422</v>
+        <v>170.9222412109375</v>
       </c>
       <c r="F74">
-        <v>116998900</v>
+        <v>195432700</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>174.9100036621094</v>
+        <v>168.2799987792969</v>
       </c>
       <c r="B75">
-        <v>176.75</v>
+        <v>170.5800018310547</v>
       </c>
       <c r="C75">
-        <v>173.9199981689453</v>
+        <v>167.4600067138672</v>
       </c>
       <c r="D75">
-        <v>174.5599975585938</v>
+        <v>169.75</v>
       </c>
       <c r="E75">
-        <v>174.3378753662109</v>
+        <v>169.5339965820312</v>
       </c>
       <c r="F75">
-        <v>108923700</v>
+        <v>107499100</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>175.2100067138672</v>
+        <v>171.5599975585938</v>
       </c>
       <c r="B76">
-        <v>179.6300048828125</v>
+        <v>173.1999969482422</v>
       </c>
       <c r="C76">
-        <v>174.6900024414062</v>
+        <v>169.1199951171875</v>
       </c>
       <c r="D76">
-        <v>179.4499969482422</v>
+        <v>172.9900054931641</v>
       </c>
       <c r="E76">
-        <v>179.2216644287109</v>
+        <v>172.7698822021484</v>
       </c>
       <c r="F76">
-        <v>115228100</v>
+        <v>91185900</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>181.1199951171875</v>
+        <v>173.0399932861328</v>
       </c>
       <c r="B77">
-        <v>182.1300048828125</v>
+        <v>175.8600006103516</v>
       </c>
       <c r="C77">
-        <v>175.5299987792969</v>
+        <v>172.1499938964844</v>
       </c>
       <c r="D77">
-        <v>175.7400054931641</v>
+        <v>175.6399993896484</v>
       </c>
       <c r="E77">
-        <v>175.5163879394531</v>
+        <v>175.41650390625</v>
       </c>
       <c r="F77">
-        <v>153237000</v>
+        <v>92135300</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>175.25</v>
+        <v>175.8500061035156</v>
       </c>
       <c r="B78">
-        <v>177.7400054931641</v>
+        <v>176.8500061035156</v>
       </c>
       <c r="C78">
-        <v>172.2100067138672</v>
+        <v>175.2700042724609</v>
       </c>
       <c r="D78">
-        <v>174.3300018310547</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="E78">
-        <v>174.1081848144531</v>
+        <v>176.0556945800781</v>
       </c>
       <c r="F78">
-        <v>139380400</v>
+        <v>68356600</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>175.1100006103516</v>
+        <v>177.0899963378906</v>
       </c>
       <c r="B79">
-        <v>179.5</v>
+        <v>180.4199981689453</v>
       </c>
       <c r="C79">
-        <v>172.3099975585938</v>
+        <v>177.0700073242188</v>
       </c>
       <c r="D79">
-        <v>179.3000030517578</v>
+        <v>180.3300018310547</v>
       </c>
       <c r="E79">
-        <v>179.0718536376953</v>
+        <v>180.1005401611328</v>
       </c>
       <c r="F79">
-        <v>131063300</v>
+        <v>74919600</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>179.2799987792969</v>
+        <v>180.1600036621094</v>
       </c>
       <c r="B80">
-        <v>181.1399993896484</v>
+        <v>181.3300018310547</v>
       </c>
       <c r="C80">
-        <v>170.75</v>
+        <v>178.5299987792969</v>
       </c>
       <c r="D80">
-        <v>172.2599945068359</v>
+        <v>179.2899932861328</v>
       </c>
       <c r="E80">
-        <v>172.0408020019531</v>
+        <v>179.0618591308594</v>
       </c>
       <c r="F80">
-        <v>150185800</v>
+        <v>79144300</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>169.9299926757812</v>
+        <v>179.3300018310547</v>
       </c>
       <c r="B81">
-        <v>173.4700012207031</v>
+        <v>180.6300048828125</v>
       </c>
       <c r="C81">
-        <v>169.6900024414062</v>
+        <v>178.1399993896484</v>
       </c>
       <c r="D81">
-        <v>171.1399993896484</v>
+        <v>179.3800048828125</v>
       </c>
       <c r="E81">
-        <v>170.9222412109375</v>
+        <v>179.1517486572266</v>
       </c>
       <c r="F81">
-        <v>195432700</v>
+        <v>62348900</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>168.2799987792969</v>
+        <v>179.4700012207031</v>
       </c>
       <c r="B82">
-        <v>170.5800018310547</v>
+        <v>180.5700073242188</v>
       </c>
       <c r="C82">
-        <v>167.4600067138672</v>
+        <v>178.0899963378906</v>
       </c>
       <c r="D82">
-        <v>169.75</v>
+        <v>178.1999969482422</v>
       </c>
       <c r="E82">
-        <v>169.5339965820312</v>
+        <v>177.9732513427734</v>
       </c>
       <c r="F82">
-        <v>107499100</v>
+        <v>59773000</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>171.5599975585938</v>
+        <v>178.0899963378906</v>
       </c>
       <c r="B83">
-        <v>173.1999969482422</v>
+        <v>179.2299957275391</v>
       </c>
       <c r="C83">
-        <v>169.1199951171875</v>
+        <v>177.2599945068359</v>
       </c>
       <c r="D83">
-        <v>172.9900054931641</v>
+        <v>177.5700073242188</v>
       </c>
       <c r="E83">
-        <v>172.7698822021484</v>
+        <v>177.3440551757812</v>
       </c>
       <c r="F83">
-        <v>91185900</v>
+        <v>64062300</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>173.0399932861328</v>
+        <v>177.8300018310547</v>
       </c>
       <c r="B84">
-        <v>175.8600006103516</v>
+        <v>182.8800048828125</v>
       </c>
       <c r="C84">
-        <v>172.1499938964844</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="D84">
-        <v>175.6399993896484</v>
+        <v>182.0099945068359</v>
       </c>
       <c r="E84">
-        <v>175.41650390625</v>
+        <v>181.7783966064453</v>
       </c>
       <c r="F84">
-        <v>92135300</v>
+        <v>104487900</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>175.8500061035156</v>
+        <v>182.6300048828125</v>
       </c>
       <c r="B85">
-        <v>176.8500061035156</v>
+        <v>182.9400024414062</v>
       </c>
       <c r="C85">
-        <v>175.2700042724609</v>
+        <v>179.1199951171875</v>
       </c>
       <c r="D85">
-        <v>176.2799987792969</v>
+        <v>179.6999969482422</v>
       </c>
       <c r="E85">
-        <v>176.0556945800781</v>
+        <v>179.4713439941406</v>
       </c>
       <c r="F85">
-        <v>68356600</v>
+        <v>99310400</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>177.0899963378906</v>
+        <v>179.6100006103516</v>
       </c>
       <c r="B86">
-        <v>180.4199981689453</v>
+        <v>180.1699981689453</v>
       </c>
       <c r="C86">
-        <v>177.0700073242188</v>
+        <v>174.6399993896484</v>
       </c>
       <c r="D86">
-        <v>180.3300018310547</v>
+        <v>174.9199981689453</v>
       </c>
       <c r="E86">
-        <v>180.1005401611328</v>
+        <v>174.6974182128906</v>
       </c>
       <c r="F86">
-        <v>74919600</v>
+        <v>94537600</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>180.1600036621094</v>
+        <v>172.6999969482422</v>
       </c>
       <c r="B87">
-        <v>181.3300018310547</v>
+        <v>175.3000030517578</v>
       </c>
       <c r="C87">
-        <v>178.5299987792969</v>
+        <v>171.6399993896484</v>
       </c>
       <c r="D87">
-        <v>179.2899932861328</v>
+        <v>172</v>
       </c>
       <c r="E87">
-        <v>179.0618591308594</v>
+        <v>171.7811431884766</v>
       </c>
       <c r="F87">
-        <v>79144300</v>
+        <v>96904000</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>179.3300018310547</v>
+        <v>172.8899993896484</v>
       </c>
       <c r="B88">
-        <v>180.6300048828125</v>
+        <v>174.1399993896484</v>
       </c>
       <c r="C88">
-        <v>178.1399993896484</v>
+        <v>171.0299987792969</v>
       </c>
       <c r="D88">
-        <v>179.3800048828125</v>
+        <v>172.1699981689453</v>
       </c>
       <c r="E88">
-        <v>179.1517486572266</v>
+        <v>171.950927734375</v>
       </c>
       <c r="F88">
-        <v>62348900</v>
+        <v>86580100</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>179.4700012207031</v>
+        <v>169.0800018310547</v>
       </c>
       <c r="B89">
-        <v>180.5700073242188</v>
+        <v>172.5</v>
       </c>
       <c r="C89">
-        <v>178.0899963378906</v>
+        <v>168.1699981689453</v>
       </c>
       <c r="D89">
-        <v>178.1999969482422</v>
+        <v>172.1900024414062</v>
       </c>
       <c r="E89">
-        <v>177.9732513427734</v>
+        <v>171.9709014892578</v>
       </c>
       <c r="F89">
-        <v>59773000</v>
+        <v>106765600</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>178.0899963378906</v>
+        <v>172.3200073242188</v>
       </c>
       <c r="B90">
-        <v>179.2299957275391</v>
+        <v>175.1799926757812</v>
       </c>
       <c r="C90">
-        <v>177.2599945068359</v>
+        <v>170.8200073242188</v>
       </c>
       <c r="D90">
-        <v>177.5700073242188</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="E90">
-        <v>177.3440551757812</v>
+        <v>174.8572235107422</v>
       </c>
       <c r="F90">
-        <v>64062300</v>
+        <v>76138300</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>177.8300018310547</v>
+        <v>176.1199951171875</v>
       </c>
       <c r="B91">
-        <v>182.8800048828125</v>
+        <v>177.1799926757812</v>
       </c>
       <c r="C91">
-        <v>177.7100067138672</v>
+        <v>174.8200073242188</v>
       </c>
       <c r="D91">
-        <v>182.0099945068359</v>
+        <v>175.5299987792969</v>
       </c>
       <c r="E91">
-        <v>181.7783966064453</v>
+        <v>175.306640625</v>
       </c>
       <c r="F91">
-        <v>104487900</v>
+        <v>74805200</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>182.6300048828125</v>
+        <v>175.7799987792969</v>
       </c>
       <c r="B92">
-        <v>182.9400024414062</v>
+        <v>176.6199951171875</v>
       </c>
       <c r="C92">
-        <v>179.1199951171875</v>
+        <v>171.7899932861328</v>
       </c>
       <c r="D92">
-        <v>179.6999969482422</v>
+        <v>172.1900024414062</v>
       </c>
       <c r="E92">
-        <v>179.4713439941406</v>
+        <v>171.9709014892578</v>
       </c>
       <c r="F92">
-        <v>99310400</v>
+        <v>84505800</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>179.6100006103516</v>
+        <v>171.3399963378906</v>
       </c>
       <c r="B93">
-        <v>180.1699981689453</v>
+        <v>173.7799987792969</v>
       </c>
       <c r="C93">
-        <v>174.6399993896484</v>
+        <v>171.0899963378906</v>
       </c>
       <c r="D93">
-        <v>174.9199981689453</v>
+        <v>173.0700073242188</v>
       </c>
       <c r="E93">
-        <v>174.6974182128906</v>
+        <v>172.8497924804688</v>
       </c>
       <c r="F93">
-        <v>94537600</v>
+        <v>80355000</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>172.6999969482422</v>
+        <v>171.5099945068359</v>
       </c>
       <c r="B94">
-        <v>175.3000030517578</v>
+        <v>172.5399932861328</v>
       </c>
       <c r="C94">
-        <v>171.6399993896484</v>
+        <v>169.4100036621094</v>
       </c>
       <c r="D94">
-        <v>172</v>
+        <v>169.8000030517578</v>
       </c>
       <c r="E94">
-        <v>171.7811431884766</v>
+        <v>169.5839385986328</v>
       </c>
       <c r="F94">
-        <v>96904000</v>
+        <v>90956700</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>172.8899993896484</v>
+        <v>170</v>
       </c>
       <c r="B95">
-        <v>174.1399993896484</v>
+        <v>171.0800018310547</v>
       </c>
       <c r="C95">
-        <v>171.0299987792969</v>
+        <v>165.9400024414062</v>
       </c>
       <c r="D95">
-        <v>172.1699981689453</v>
+        <v>166.2299957275391</v>
       </c>
       <c r="E95">
-        <v>171.950927734375</v>
+        <v>166.0184783935547</v>
       </c>
       <c r="F95">
-        <v>86580100</v>
+        <v>94815000</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>169.0800018310547</v>
+        <v>166.9799957275391</v>
       </c>
       <c r="B96">
-        <v>172.5</v>
+        <v>169.6799926757812</v>
       </c>
       <c r="C96">
-        <v>168.1699981689453</v>
+        <v>164.1799926757812</v>
       </c>
       <c r="D96">
-        <v>172.1900024414062</v>
+        <v>164.5099945068359</v>
       </c>
       <c r="E96">
-        <v>171.9709014892578</v>
+        <v>164.3006591796875</v>
       </c>
       <c r="F96">
-        <v>106765600</v>
+        <v>91420500</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>172.3200073242188</v>
+        <v>164.4199981689453</v>
       </c>
       <c r="B97">
-        <v>175.1799926757812</v>
+        <v>166.3300018310547</v>
       </c>
       <c r="C97">
-        <v>170.8200073242188</v>
+        <v>162.3000030517578</v>
       </c>
       <c r="D97">
-        <v>175.0800018310547</v>
+        <v>162.4100036621094</v>
       </c>
       <c r="E97">
-        <v>174.8572235107422</v>
+        <v>162.2033538818359</v>
       </c>
       <c r="F97">
-        <v>76138300</v>
+        <v>122848900</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>176.1199951171875</v>
+        <v>160.0200042724609</v>
       </c>
       <c r="B98">
-        <v>177.1799926757812</v>
+        <v>162.3000030517578</v>
       </c>
       <c r="C98">
-        <v>174.8200073242188</v>
+        <v>154.6999969482422</v>
       </c>
       <c r="D98">
-        <v>175.5299987792969</v>
+        <v>161.6199951171875</v>
       </c>
       <c r="E98">
-        <v>175.306640625</v>
+        <v>161.4143371582031</v>
       </c>
       <c r="F98">
-        <v>74805200</v>
+        <v>162294600</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>175.7799987792969</v>
+        <v>158.9799957275391</v>
       </c>
       <c r="B99">
-        <v>176.6199951171875</v>
+        <v>162.7599945068359</v>
       </c>
       <c r="C99">
-        <v>171.7899932861328</v>
+        <v>157.0200042724609</v>
       </c>
       <c r="D99">
-        <v>172.1900024414062</v>
+        <v>159.7799987792969</v>
       </c>
       <c r="E99">
-        <v>171.9709014892578</v>
+        <v>159.5766906738281</v>
       </c>
       <c r="F99">
-        <v>84505800</v>
+        <v>115798400</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>171.3399963378906</v>
+        <v>163.5</v>
       </c>
       <c r="B100">
-        <v>173.7799987792969</v>
+        <v>164.3899993896484</v>
       </c>
       <c r="C100">
-        <v>171.0899963378906</v>
+        <v>157.8200073242188</v>
       </c>
       <c r="D100">
-        <v>173.0700073242188</v>
+        <v>159.6900024414062</v>
       </c>
       <c r="E100">
-        <v>172.8497924804688</v>
+        <v>159.4868011474609</v>
       </c>
       <c r="F100">
-        <v>80355000</v>
+        <v>108275300</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>171.5099945068359</v>
+        <v>162.4499969482422</v>
       </c>
       <c r="B101">
-        <v>172.5399932861328</v>
+        <v>163.8399963378906</v>
       </c>
       <c r="C101">
-        <v>169.4100036621094</v>
+        <v>158.2799987792969</v>
       </c>
       <c r="D101">
-        <v>169.8000030517578</v>
+        <v>159.2200012207031</v>
       </c>
       <c r="E101">
-        <v>169.5839385986328</v>
+        <v>159.0174102783203</v>
       </c>
       <c r="F101">
-        <v>90956700</v>
+        <v>121954600</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>170</v>
+        <v>165.7100067138672</v>
       </c>
       <c r="B102">
-        <v>171.0800018310547</v>
+        <v>170.3500061035156</v>
       </c>
       <c r="C102">
-        <v>165.9400024414062</v>
+        <v>162.8000030517578</v>
       </c>
       <c r="D102">
-        <v>166.2299957275391</v>
+        <v>170.3300018310547</v>
       </c>
       <c r="E102">
-        <v>166.0184783935547</v>
+        <v>170.1132659912109</v>
       </c>
       <c r="F102">
-        <v>94815000</v>
+        <v>179935700</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>166.9799957275391</v>
+        <v>170.1600036621094</v>
       </c>
       <c r="B103">
-        <v>169.6799926757812</v>
+        <v>175</v>
       </c>
       <c r="C103">
-        <v>164.1799926757812</v>
+        <v>169.5099945068359</v>
       </c>
       <c r="D103">
-        <v>164.5099945068359</v>
+        <v>174.7799987792969</v>
       </c>
       <c r="E103">
-        <v>164.3006591796875</v>
+        <v>174.5576019287109</v>
       </c>
       <c r="F103">
-        <v>91420500</v>
+        <v>115541600</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>164.4199981689453</v>
+        <v>174.0099945068359</v>
       </c>
       <c r="B104">
-        <v>166.3300018310547</v>
+        <v>174.8399963378906</v>
       </c>
       <c r="C104">
-        <v>162.3000030517578</v>
+        <v>172.3099975585938</v>
       </c>
       <c r="D104">
-        <v>162.4100036621094</v>
+        <v>174.6100006103516</v>
       </c>
       <c r="E104">
-        <v>162.2033538818359</v>
+        <v>174.3878173828125</v>
       </c>
       <c r="F104">
-        <v>122848900</v>
+        <v>86213900</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>160.0200042724609</v>
+        <v>174.75</v>
       </c>
       <c r="B105">
-        <v>162.3000030517578</v>
+        <v>175.8800048828125</v>
       </c>
       <c r="C105">
-        <v>154.6999969482422</v>
+        <v>173.3300018310547</v>
       </c>
       <c r="D105">
-        <v>161.6199951171875</v>
+        <v>175.8399963378906</v>
       </c>
       <c r="E105">
-        <v>161.4143371582031</v>
+        <v>175.6162567138672</v>
       </c>
       <c r="F105">
-        <v>162294600</v>
+        <v>84914300</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>158.9799957275391</v>
+        <v>174.4799957275391</v>
       </c>
       <c r="B106">
-        <v>162.7599945068359</v>
+        <v>176.2400054931641</v>
       </c>
       <c r="C106">
-        <v>157.0200042724609</v>
+        <v>172.1199951171875</v>
       </c>
       <c r="D106">
-        <v>159.7799987792969</v>
+        <v>172.8999938964844</v>
       </c>
       <c r="E106">
-        <v>159.5766906738281</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="F106">
-        <v>115798400</v>
+        <v>89418100</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>163.5</v>
+        <v>171.6799926757812</v>
       </c>
       <c r="B107">
-        <v>164.3899993896484</v>
+        <v>174.1000061035156</v>
       </c>
       <c r="C107">
-        <v>157.8200073242188</v>
+        <v>170.6799926757812</v>
       </c>
       <c r="D107">
-        <v>159.6900024414062</v>
+        <v>172.3899993896484</v>
       </c>
       <c r="E107">
-        <v>159.4868011474609</v>
+        <v>172.3899993896484</v>
       </c>
       <c r="F107">
-        <v>108275300</v>
+        <v>82391400</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>162.4499969482422</v>
+        <v>172.8600006103516</v>
       </c>
       <c r="B108">
-        <v>163.8399963378906</v>
+        <v>173.9499969482422</v>
       </c>
       <c r="C108">
-        <v>158.2799987792969</v>
+        <v>170.9499969482422</v>
       </c>
       <c r="D108">
-        <v>159.2200012207031</v>
+        <v>171.6600036621094</v>
       </c>
       <c r="E108">
-        <v>159.0174102783203</v>
+        <v>171.6600036621094</v>
       </c>
       <c r="F108">
-        <v>121954600</v>
+        <v>77251200</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>165.7100067138672</v>
+        <v>171.7299957275391</v>
       </c>
       <c r="B109">
-        <v>170.3500061035156</v>
+        <v>175.3500061035156</v>
       </c>
       <c r="C109">
-        <v>162.8000030517578</v>
+        <v>171.4299926757812</v>
       </c>
       <c r="D109">
-        <v>170.3300018310547</v>
+        <v>174.8300018310547</v>
       </c>
       <c r="E109">
-        <v>170.1132659912109</v>
+        <v>174.8300018310547</v>
       </c>
       <c r="F109">
-        <v>179935700</v>
+        <v>74829200</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>170.1600036621094</v>
+        <v>176.0500030517578</v>
       </c>
       <c r="B110">
-        <v>175</v>
+        <v>176.6499938964844</v>
       </c>
       <c r="C110">
-        <v>169.5099945068359</v>
+        <v>174.8999938964844</v>
       </c>
       <c r="D110">
-        <v>174.7799987792969</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="E110">
-        <v>174.5576019287109</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="F110">
-        <v>115541600</v>
+        <v>71285000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>174.0099945068359</v>
+        <v>174.1399993896484</v>
       </c>
       <c r="B111">
-        <v>174.8399963378906</v>
+        <v>175.4799957275391</v>
       </c>
       <c r="C111">
-        <v>172.3099975585938</v>
+        <v>171.5500030517578</v>
       </c>
       <c r="D111">
-        <v>174.6100006103516</v>
+        <v>172.1199951171875</v>
       </c>
       <c r="E111">
-        <v>174.3878173828125</v>
+        <v>172.1199951171875</v>
       </c>
       <c r="F111">
-        <v>86213900</v>
+        <v>90865900</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>174.75</v>
+        <v>172.3300018310547</v>
       </c>
       <c r="B112">
-        <v>175.8800048828125</v>
+        <v>173.0800018310547</v>
       </c>
       <c r="C112">
-        <v>173.3300018310547</v>
+        <v>168.0399932861328</v>
       </c>
       <c r="D112">
-        <v>175.8399963378906</v>
+        <v>168.6399993896484</v>
       </c>
       <c r="E112">
-        <v>175.6162567138672</v>
+        <v>168.6399993896484</v>
       </c>
       <c r="F112">
-        <v>84914300</v>
+        <v>98566000</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>174.4799957275391</v>
+        <v>167.3699951171875</v>
       </c>
       <c r="B113">
-        <v>176.2400054931641</v>
+        <v>169.5800018310547</v>
       </c>
       <c r="C113">
-        <v>172.1199951171875</v>
+        <v>166.5599975585938</v>
       </c>
       <c r="D113">
-        <v>172.8999938964844</v>
+        <v>168.8800048828125</v>
       </c>
       <c r="E113">
-        <v>172.6799926757812</v>
+        <v>168.8800048828125</v>
       </c>
       <c r="F113">
-        <v>89418100</v>
+        <v>86185500</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>171.6799926757812</v>
+        <v>170.9700012207031</v>
       </c>
       <c r="B114">
-        <v>174.1000061035156</v>
+        <v>172.9499969482422</v>
       </c>
       <c r="C114">
-        <v>170.6799926757812</v>
+        <v>170.25</v>
       </c>
       <c r="D114">
-        <v>172.3899993896484</v>
+        <v>172.7899932861328</v>
       </c>
       <c r="E114">
-        <v>172.3899993896484</v>
+        <v>172.7899932861328</v>
       </c>
       <c r="F114">
-        <v>82391400</v>
+        <v>62527400</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>172.8600006103516</v>
+        <v>171.8500061035156</v>
       </c>
       <c r="B115">
-        <v>173.9499969482422</v>
+        <v>173.3399963378906</v>
       </c>
       <c r="C115">
-        <v>170.9499969482422</v>
+        <v>170.0500030517578</v>
       </c>
       <c r="D115">
-        <v>171.6600036621094</v>
+        <v>172.5500030517578</v>
       </c>
       <c r="E115">
-        <v>171.6600036621094</v>
+        <v>172.5500030517578</v>
       </c>
       <c r="F115">
-        <v>77251200</v>
+        <v>61177400</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>171.7299957275391</v>
+        <v>171.0299987792969</v>
       </c>
       <c r="B116">
-        <v>175.3500061035156</v>
+        <v>171.9100036621094</v>
       </c>
       <c r="C116">
-        <v>171.4299926757812</v>
+        <v>168.4700012207031</v>
       </c>
       <c r="D116">
-        <v>174.8300018310547</v>
+        <v>168.8800048828125</v>
       </c>
       <c r="E116">
-        <v>174.8300018310547</v>
+        <v>168.8800048828125</v>
       </c>
       <c r="F116">
-        <v>74829200</v>
+        <v>69589300</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>176.0500030517578</v>
+        <v>169.8200073242188</v>
       </c>
       <c r="B117">
-        <v>176.6499938964844</v>
+        <v>170.5399932861328</v>
       </c>
       <c r="C117">
-        <v>174.8999938964844</v>
+        <v>166.1900024414062</v>
       </c>
       <c r="D117">
-        <v>176.2799987792969</v>
+        <v>167.3000030517578</v>
       </c>
       <c r="E117">
-        <v>176.2799987792969</v>
+        <v>167.3000030517578</v>
       </c>
       <c r="F117">
-        <v>71285000</v>
+        <v>82772700</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>174.1399993896484</v>
+        <v>164.9799957275391</v>
       </c>
       <c r="B118">
-        <v>175.4799957275391</v>
+        <v>166.6900024414062</v>
       </c>
       <c r="C118">
-        <v>171.5500030517578</v>
+        <v>162.1499938964844</v>
       </c>
       <c r="D118">
-        <v>172.1199951171875</v>
+        <v>164.3200073242188</v>
       </c>
       <c r="E118">
-        <v>172.1199951171875</v>
+        <v>164.3200073242188</v>
       </c>
       <c r="F118">
-        <v>90865900</v>
+        <v>91162800</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>172.3300018310547</v>
+        <v>165.5399932861328</v>
       </c>
       <c r="B119">
-        <v>173.0800018310547</v>
+        <v>166.1499938964844</v>
       </c>
       <c r="C119">
-        <v>168.0399932861328</v>
+        <v>159.75</v>
       </c>
       <c r="D119">
-        <v>168.6399993896484</v>
+        <v>160.0700073242188</v>
       </c>
       <c r="E119">
-        <v>168.6399993896484</v>
+        <v>160.0700073242188</v>
       </c>
       <c r="F119">
-        <v>98566000</v>
+        <v>90009200</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>167.3699951171875</v>
+        <v>152.5800018310547</v>
       </c>
       <c r="B120">
-        <v>169.5800018310547</v>
+        <v>162.8500061035156</v>
       </c>
       <c r="C120">
-        <v>166.5599975585938</v>
+        <v>152</v>
       </c>
       <c r="D120">
-        <v>168.8800048828125</v>
+        <v>162.7400054931641</v>
       </c>
       <c r="E120">
-        <v>168.8800048828125</v>
+        <v>162.7400054931641</v>
       </c>
       <c r="F120">
-        <v>86185500</v>
+        <v>141147500</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>170.9700012207031</v>
+        <v>163.8399963378906</v>
       </c>
       <c r="B121">
-        <v>172.9499969482422</v>
+        <v>165.1199951171875</v>
       </c>
       <c r="C121">
-        <v>170.25</v>
+        <v>160.8699951171875</v>
       </c>
       <c r="D121">
-        <v>172.7899932861328</v>
+        <v>164.8500061035156</v>
       </c>
       <c r="E121">
-        <v>172.7899932861328</v>
+        <v>164.8500061035156</v>
       </c>
       <c r="F121">
-        <v>64286300</v>
+        <v>91974200</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>171.8500061035156</v>
+        <v>163.0599975585938</v>
       </c>
       <c r="B122">
-        <v>173.3399963378906</v>
+        <v>165.4199981689453</v>
       </c>
       <c r="C122">
-        <v>170.0500030517578</v>
+        <v>162.4299926757812</v>
       </c>
       <c r="D122">
-        <v>172.5500030517578</v>
+        <v>165.1199951171875</v>
       </c>
       <c r="E122">
-        <v>172.5500030517578</v>
+        <v>165.1199951171875</v>
       </c>
       <c r="F122">
-        <v>61177400</v>
+        <v>94869100</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>171.0299987792969</v>
+        <v>164.6999969482422</v>
       </c>
       <c r="B123">
-        <v>171.9100036621094</v>
+        <v>166.6000061035156</v>
       </c>
       <c r="C123">
-        <v>168.4700012207031</v>
+        <v>161.9700012207031</v>
       </c>
       <c r="D123">
-        <v>168.8800048828125</v>
+        <v>163.1999969482422</v>
       </c>
       <c r="E123">
-        <v>168.8800048828125</v>
+        <v>163.1999969482422</v>
       </c>
       <c r="F123">
-        <v>69589300</v>
+        <v>83474400</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>169.8200073242188</v>
+        <v>164.3899993896484</v>
       </c>
       <c r="B124">
-        <v>170.5399932861328</v>
+        <v>167.3600006103516</v>
       </c>
       <c r="C124">
-        <v>166.1900024414062</v>
+        <v>162.9499969482422</v>
       </c>
       <c r="D124">
-        <v>167.3000030517578</v>
+        <v>166.5599975585938</v>
       </c>
       <c r="E124">
-        <v>167.3000030517578</v>
+        <v>166.5599975585938</v>
       </c>
       <c r="F124">
-        <v>82614200</v>
+        <v>79724800</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>164.9799957275391</v>
+        <v>168.4700012207031</v>
       </c>
       <c r="B125">
-        <v>166.6900024414062</v>
+        <v>168.9100036621094</v>
       </c>
       <c r="C125">
-        <v>162.1499938964844</v>
+        <v>165.5500030517578</v>
       </c>
       <c r="D125">
-        <v>164.3200073242188</v>
+        <v>166.2299957275391</v>
       </c>
       <c r="E125">
-        <v>164.3200073242188</v>
+        <v>166.2299957275391</v>
       </c>
       <c r="F125">
-        <v>91162800</v>
+        <v>76335600</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>165.5399932861328</v>
+        <v>164.4900054931641</v>
       </c>
       <c r="B126">
-        <v>166.1499938964844</v>
+        <v>165.5500030517578</v>
       </c>
       <c r="C126">
-        <v>159.75</v>
+        <v>162.1100006103516</v>
       </c>
       <c r="D126">
-        <v>160.0700073242188</v>
+        <v>163.1699981689453</v>
       </c>
       <c r="E126">
-        <v>160.0700073242188</v>
+        <v>163.1699981689453</v>
       </c>
       <c r="F126">
-        <v>90009200</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>152.5800018310547</v>
-      </c>
-      <c r="B127">
-        <v>162.8500061035156</v>
-      </c>
-      <c r="C127">
-        <v>152</v>
-      </c>
-      <c r="D127">
-        <v>162.7400054931641</v>
-      </c>
-      <c r="E127">
-        <v>162.7400054931641</v>
-      </c>
-      <c r="F127">
-        <v>141147500</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>163.8399963378906</v>
-      </c>
-      <c r="B128">
-        <v>165.1199951171875</v>
-      </c>
-      <c r="C128">
-        <v>160.8699951171875</v>
-      </c>
-      <c r="D128">
-        <v>164.8500061035156</v>
-      </c>
-      <c r="E128">
-        <v>164.8500061035156</v>
-      </c>
-      <c r="F128">
-        <v>91881700</v>
+        <v>83819592</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/AAPL/HighLow.xlsx
+++ b/Stocks/AAPL/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2502 +417,2522 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>154.9700012207031</v>
+        <v>150.6300048828125</v>
       </c>
       <c r="B2">
-        <v>157.2599945068359</v>
+        <v>151.4199981689453</v>
       </c>
       <c r="C2">
-        <v>154.3899993896484</v>
+        <v>148.75</v>
       </c>
       <c r="D2">
-        <v>156.6900024414062</v>
+        <v>149.5500030517578</v>
       </c>
       <c r="E2">
-        <v>156.2625732421875</v>
+        <v>149.1420440673828</v>
       </c>
       <c r="F2">
-        <v>82278300</v>
+        <v>102404300</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>156.9799957275391</v>
+        <v>150.3500061035156</v>
       </c>
       <c r="B3">
-        <v>157.0399932861328</v>
+        <v>151.0700073242188</v>
       </c>
       <c r="C3">
-        <v>153.9799957275391</v>
+        <v>146.9100036621094</v>
       </c>
       <c r="D3">
-        <v>155.1100006103516</v>
+        <v>148.1199951171875</v>
       </c>
       <c r="E3">
-        <v>154.6868743896484</v>
+        <v>147.7159271240234</v>
       </c>
       <c r="F3">
-        <v>74420200</v>
+        <v>109296300</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>155.4900054931641</v>
+        <v>148.5599975585938</v>
       </c>
       <c r="B4">
-        <v>156.1100006103516</v>
+        <v>149.4400024414062</v>
       </c>
       <c r="C4">
-        <v>153.9499969482422</v>
+        <v>146.3699951171875</v>
       </c>
       <c r="D4">
-        <v>154.0700073242188</v>
+        <v>149.0299987792969</v>
       </c>
       <c r="E4">
-        <v>153.6497192382812</v>
+        <v>148.6234436035156</v>
       </c>
       <c r="F4">
-        <v>57305700</v>
+        <v>83281300</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>155</v>
+        <v>148.4400024414062</v>
       </c>
       <c r="B5">
-        <v>155.4799957275391</v>
+        <v>148.9700012207031</v>
       </c>
       <c r="C5">
-        <v>148.6999969482422</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="D5">
-        <v>148.9700012207031</v>
+        <v>148.7899932861328</v>
       </c>
       <c r="E5">
-        <v>148.5636138916016</v>
+        <v>148.3840942382812</v>
       </c>
       <c r="F5">
-        <v>140646400</v>
+        <v>68034100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>150.6300048828125</v>
+        <v>148.8200073242188</v>
       </c>
       <c r="B6">
-        <v>151.4199981689453</v>
+        <v>148.8200073242188</v>
       </c>
       <c r="C6">
-        <v>148.75</v>
+        <v>145.7599945068359</v>
       </c>
       <c r="D6">
-        <v>149.5500030517578</v>
+        <v>146.0599975585938</v>
       </c>
       <c r="E6">
-        <v>149.1420440673828</v>
+        <v>145.6615600585938</v>
       </c>
       <c r="F6">
-        <v>102404300</v>
+        <v>129868800</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>150.3500061035156</v>
+        <v>143.8000030517578</v>
       </c>
       <c r="B7">
-        <v>151.0700073242188</v>
+        <v>144.8399963378906</v>
       </c>
       <c r="C7">
-        <v>146.9100036621094</v>
+        <v>141.2700042724609</v>
       </c>
       <c r="D7">
-        <v>148.1199951171875</v>
+        <v>142.9400024414062</v>
       </c>
       <c r="E7">
-        <v>147.7159271240234</v>
+        <v>142.5500793457031</v>
       </c>
       <c r="F7">
-        <v>109296300</v>
+        <v>123478900</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>148.5599975585938</v>
+        <v>143.9299926757812</v>
       </c>
       <c r="B8">
-        <v>149.4400024414062</v>
+        <v>144.6000061035156</v>
       </c>
       <c r="C8">
-        <v>146.3699951171875</v>
+        <v>142.7799987792969</v>
       </c>
       <c r="D8">
-        <v>149.0299987792969</v>
+        <v>143.4299926757812</v>
       </c>
       <c r="E8">
-        <v>148.6234436035156</v>
+        <v>143.0387268066406</v>
       </c>
       <c r="F8">
-        <v>83281300</v>
+        <v>75834000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>148.4400024414062</v>
+        <v>144.4499969482422</v>
       </c>
       <c r="B9">
-        <v>148.9700012207031</v>
+        <v>146.4299926757812</v>
       </c>
       <c r="C9">
-        <v>147.2200012207031</v>
+        <v>143.6999969482422</v>
       </c>
       <c r="D9">
-        <v>148.7899932861328</v>
+        <v>145.8500061035156</v>
       </c>
       <c r="E9">
-        <v>148.3840942382812</v>
+        <v>145.4521331787109</v>
       </c>
       <c r="F9">
-        <v>68034100</v>
+        <v>76404300</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>148.8200073242188</v>
+        <v>146.6499938964844</v>
       </c>
       <c r="B10">
-        <v>148.8200073242188</v>
+        <v>147.0800018310547</v>
       </c>
       <c r="C10">
-        <v>145.7599945068359</v>
+        <v>145.6399993896484</v>
       </c>
       <c r="D10">
-        <v>146.0599975585938</v>
+        <v>146.8300018310547</v>
       </c>
       <c r="E10">
-        <v>145.6615600585938</v>
+        <v>146.4294738769531</v>
       </c>
       <c r="F10">
-        <v>129868800</v>
+        <v>64838200</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>143.8000030517578</v>
+        <v>145.6600036621094</v>
       </c>
       <c r="B11">
-        <v>144.8399963378906</v>
+        <v>147.4700012207031</v>
       </c>
       <c r="C11">
-        <v>141.2700042724609</v>
+        <v>145.5599975585938</v>
       </c>
       <c r="D11">
-        <v>142.9400024414062</v>
+        <v>146.9199981689453</v>
       </c>
       <c r="E11">
-        <v>142.5500793457031</v>
+        <v>146.5192108154297</v>
       </c>
       <c r="F11">
-        <v>123478900</v>
+        <v>53477900</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>143.9299926757812</v>
+        <v>145.4700012207031</v>
       </c>
       <c r="B12">
-        <v>144.6000061035156</v>
+        <v>145.9600067138672</v>
       </c>
       <c r="C12">
-        <v>142.7799987792969</v>
+        <v>143.8200073242188</v>
       </c>
       <c r="D12">
-        <v>143.4299926757812</v>
+        <v>145.3699951171875</v>
       </c>
       <c r="E12">
-        <v>143.0387268066406</v>
+        <v>144.9734344482422</v>
       </c>
       <c r="F12">
-        <v>75834000</v>
+        <v>74150700</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>144.4499969482422</v>
+        <v>143.25</v>
       </c>
       <c r="B13">
-        <v>146.4299926757812</v>
+        <v>144.75</v>
       </c>
       <c r="C13">
-        <v>143.6999969482422</v>
+        <v>141.6900024414062</v>
       </c>
       <c r="D13">
-        <v>145.8500061035156</v>
+        <v>141.9100036621094</v>
       </c>
       <c r="E13">
-        <v>145.4521331787109</v>
+        <v>141.5228729248047</v>
       </c>
       <c r="F13">
-        <v>76404300</v>
+        <v>108972300</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>146.6499938964844</v>
+        <v>142.4700012207031</v>
       </c>
       <c r="B14">
-        <v>147.0800018310547</v>
+        <v>144.4499969482422</v>
       </c>
       <c r="C14">
-        <v>145.6399993896484</v>
+        <v>142.0299987792969</v>
       </c>
       <c r="D14">
-        <v>146.8300018310547</v>
+        <v>142.8300018310547</v>
       </c>
       <c r="E14">
-        <v>146.4294738769531</v>
+        <v>142.4403839111328</v>
       </c>
       <c r="F14">
-        <v>64838200</v>
+        <v>74602000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>145.6600036621094</v>
+        <v>143.6600036621094</v>
       </c>
       <c r="B15">
-        <v>147.4700012207031</v>
+        <v>144.3800048828125</v>
       </c>
       <c r="C15">
-        <v>145.5599975585938</v>
+        <v>141.2799987792969</v>
       </c>
       <c r="D15">
-        <v>146.9199981689453</v>
+        <v>141.5</v>
       </c>
       <c r="E15">
-        <v>146.5192108154297</v>
+        <v>141.1139984130859</v>
       </c>
       <c r="F15">
-        <v>53477900</v>
+        <v>88934200</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>145.4700012207031</v>
+        <v>141.8999938964844</v>
       </c>
       <c r="B16">
-        <v>145.9600067138672</v>
+        <v>142.9199981689453</v>
       </c>
       <c r="C16">
-        <v>143.8200073242188</v>
+        <v>139.1100006103516</v>
       </c>
       <c r="D16">
-        <v>145.3699951171875</v>
+        <v>142.6499938964844</v>
       </c>
       <c r="E16">
-        <v>144.9734344482422</v>
+        <v>142.2608642578125</v>
       </c>
       <c r="F16">
-        <v>74150700</v>
+        <v>94639600</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>143.25</v>
+        <v>141.7599945068359</v>
       </c>
       <c r="B17">
-        <v>144.75</v>
+        <v>142.2100067138672</v>
       </c>
       <c r="C17">
-        <v>141.6900024414062</v>
+        <v>138.2700042724609</v>
       </c>
       <c r="D17">
-        <v>141.9100036621094</v>
+        <v>139.1399993896484</v>
       </c>
       <c r="E17">
-        <v>141.5228729248047</v>
+        <v>138.7604370117188</v>
       </c>
       <c r="F17">
-        <v>108972300</v>
+        <v>98322000</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>142.4700012207031</v>
+        <v>139.4900054931641</v>
       </c>
       <c r="B18">
-        <v>144.4499969482422</v>
+        <v>142.2400054931641</v>
       </c>
       <c r="C18">
-        <v>142.0299987792969</v>
+        <v>139.3600006103516</v>
       </c>
       <c r="D18">
-        <v>142.8300018310547</v>
+        <v>141.1100006103516</v>
       </c>
       <c r="E18">
-        <v>142.4403839111328</v>
+        <v>140.7250671386719</v>
       </c>
       <c r="F18">
-        <v>74602000</v>
+        <v>80861100</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>143.6600036621094</v>
+        <v>139.4700012207031</v>
       </c>
       <c r="B19">
-        <v>144.3800048828125</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="C19">
-        <v>141.2799987792969</v>
+        <v>138.3699951171875</v>
       </c>
       <c r="D19">
-        <v>141.5</v>
+        <v>142</v>
       </c>
       <c r="E19">
-        <v>141.1139984130859</v>
+        <v>141.6126403808594</v>
       </c>
       <c r="F19">
-        <v>88934200</v>
+        <v>83221100</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>141.8999938964844</v>
+        <v>143.0599975585938</v>
       </c>
       <c r="B20">
-        <v>142.9199981689453</v>
+        <v>144.2200012207031</v>
       </c>
       <c r="C20">
-        <v>139.1100006103516</v>
+        <v>142.7200012207031</v>
       </c>
       <c r="D20">
-        <v>142.6499938964844</v>
+        <v>143.2899932861328</v>
       </c>
       <c r="E20">
-        <v>142.2608642578125</v>
+        <v>142.8991088867188</v>
       </c>
       <c r="F20">
-        <v>94639600</v>
+        <v>61732700</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>141.7599945068359</v>
+        <v>144.0299987792969</v>
       </c>
       <c r="B21">
-        <v>142.2100067138672</v>
+        <v>144.1799926757812</v>
       </c>
       <c r="C21">
-        <v>138.2700042724609</v>
+        <v>142.5599975585938</v>
       </c>
       <c r="D21">
-        <v>139.1399993896484</v>
+        <v>142.8999938964844</v>
       </c>
       <c r="E21">
-        <v>138.7604370117188</v>
+        <v>142.5101776123047</v>
       </c>
       <c r="F21">
-        <v>98322000</v>
+        <v>58718700</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>139.4900054931641</v>
+        <v>142.2700042724609</v>
       </c>
       <c r="B22">
-        <v>142.2400054931641</v>
+        <v>144.8099975585938</v>
       </c>
       <c r="C22">
-        <v>139.3600006103516</v>
+        <v>141.8099975585938</v>
       </c>
       <c r="D22">
-        <v>141.1100006103516</v>
+        <v>142.8099975585938</v>
       </c>
       <c r="E22">
-        <v>140.7250671386719</v>
+        <v>142.4204254150391</v>
       </c>
       <c r="F22">
-        <v>80861100</v>
+        <v>64452200</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>139.4700012207031</v>
+        <v>143.2299957275391</v>
       </c>
       <c r="B23">
-        <v>142.1499938964844</v>
+        <v>143.25</v>
       </c>
       <c r="C23">
-        <v>138.3699951171875</v>
+        <v>141.0399932861328</v>
       </c>
       <c r="D23">
-        <v>142</v>
+        <v>141.5099945068359</v>
       </c>
       <c r="E23">
-        <v>141.6126403808594</v>
+        <v>141.1239776611328</v>
       </c>
       <c r="F23">
-        <v>83221100</v>
+        <v>73035900</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>143.0599975585938</v>
+        <v>141.2400054931641</v>
       </c>
       <c r="B24">
-        <v>144.2200012207031</v>
+        <v>141.3999938964844</v>
       </c>
       <c r="C24">
-        <v>142.7200012207031</v>
+        <v>139.1999969482422</v>
       </c>
       <c r="D24">
-        <v>143.2899932861328</v>
+        <v>140.9100036621094</v>
       </c>
       <c r="E24">
-        <v>142.8991088867188</v>
+        <v>140.5256195068359</v>
       </c>
       <c r="F24">
-        <v>61732700</v>
+        <v>78762700</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>144.0299987792969</v>
+        <v>142.1100006103516</v>
       </c>
       <c r="B25">
-        <v>144.1799926757812</v>
+        <v>143.8800048828125</v>
       </c>
       <c r="C25">
-        <v>142.5599975585938</v>
+        <v>141.5099945068359</v>
       </c>
       <c r="D25">
-        <v>142.8999938964844</v>
+        <v>143.7599945068359</v>
       </c>
       <c r="E25">
-        <v>142.5101776123047</v>
+        <v>143.3678283691406</v>
       </c>
       <c r="F25">
-        <v>58718700</v>
+        <v>69907100</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>142.2700042724609</v>
+        <v>143.7700042724609</v>
       </c>
       <c r="B26">
-        <v>144.8099975585938</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="C26">
-        <v>141.8099975585938</v>
+        <v>143.5099945068359</v>
       </c>
       <c r="D26">
-        <v>142.8099975585938</v>
+        <v>144.8399963378906</v>
       </c>
       <c r="E26">
-        <v>142.4204254150391</v>
+        <v>144.4448852539062</v>
       </c>
       <c r="F26">
-        <v>64452200</v>
+        <v>67885200</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>143.2299957275391</v>
+        <v>143.4499969482422</v>
       </c>
       <c r="B27">
-        <v>143.25</v>
+        <v>146.8399963378906</v>
       </c>
       <c r="C27">
-        <v>141.0399932861328</v>
+        <v>143.1600036621094</v>
       </c>
       <c r="D27">
-        <v>141.5099945068359</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="E27">
-        <v>141.1239776611328</v>
+        <v>146.1502227783203</v>
       </c>
       <c r="F27">
-        <v>73035900</v>
+        <v>85589200</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>141.2400054931641</v>
+        <v>147.0099945068359</v>
       </c>
       <c r="B28">
-        <v>141.3999938964844</v>
+        <v>149.1699981689453</v>
       </c>
       <c r="C28">
-        <v>139.1999969482422</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="D28">
-        <v>140.9100036621094</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="E28">
-        <v>140.5256195068359</v>
+        <v>148.3541870117188</v>
       </c>
       <c r="F28">
-        <v>78762700</v>
+        <v>76378900</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>142.1100006103516</v>
+        <v>148.6999969482422</v>
       </c>
       <c r="B29">
-        <v>143.8800048828125</v>
+        <v>149.75</v>
       </c>
       <c r="C29">
-        <v>141.5099945068359</v>
+        <v>148.1199951171875</v>
       </c>
       <c r="D29">
-        <v>143.7599945068359</v>
+        <v>149.2599945068359</v>
       </c>
       <c r="E29">
-        <v>143.3678283691406</v>
+        <v>148.8528289794922</v>
       </c>
       <c r="F29">
-        <v>69907100</v>
+        <v>58418800</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>143.7700042724609</v>
+        <v>148.8099975585938</v>
       </c>
       <c r="B30">
-        <v>144.8999938964844</v>
+        <v>149.6399993896484</v>
       </c>
       <c r="C30">
-        <v>143.5099945068359</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="D30">
-        <v>144.8399963378906</v>
+        <v>149.4799957275391</v>
       </c>
       <c r="E30">
-        <v>144.4448852539062</v>
+        <v>149.0722198486328</v>
       </c>
       <c r="F30">
-        <v>67885200</v>
+        <v>61421000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>143.4499969482422</v>
+        <v>149.6900024414062</v>
       </c>
       <c r="B31">
-        <v>146.8399963378906</v>
+        <v>150.1799926757812</v>
       </c>
       <c r="C31">
-        <v>143.1600036621094</v>
+        <v>148.6399993896484</v>
       </c>
       <c r="D31">
-        <v>146.5500030517578</v>
+        <v>148.6900024414062</v>
       </c>
       <c r="E31">
-        <v>146.1502227783203</v>
+        <v>148.2843933105469</v>
       </c>
       <c r="F31">
-        <v>85589200</v>
+        <v>58883400</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>147.0099945068359</v>
+        <v>148.6799926757812</v>
       </c>
       <c r="B32">
-        <v>149.1699981689453</v>
+        <v>149.3699951171875</v>
       </c>
       <c r="C32">
-        <v>146.5500030517578</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="D32">
-        <v>148.7599945068359</v>
+        <v>148.6399993896484</v>
       </c>
       <c r="E32">
-        <v>148.3541870117188</v>
+        <v>148.2345275878906</v>
       </c>
       <c r="F32">
-        <v>76378900</v>
+        <v>50720600</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>148.6999969482422</v>
+        <v>149.3300018310547</v>
       </c>
       <c r="B33">
-        <v>149.75</v>
+        <v>150.8399963378906</v>
       </c>
       <c r="C33">
-        <v>148.1199951171875</v>
+        <v>149.0099945068359</v>
       </c>
       <c r="D33">
-        <v>149.2599945068359</v>
+        <v>149.3200073242188</v>
       </c>
       <c r="E33">
-        <v>148.8528289794922</v>
+        <v>148.9126739501953</v>
       </c>
       <c r="F33">
-        <v>58418800</v>
+        <v>60893400</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>148.8099975585938</v>
+        <v>149.3600006103516</v>
       </c>
       <c r="B34">
-        <v>149.6399993896484</v>
+        <v>149.7299957275391</v>
       </c>
       <c r="C34">
-        <v>147.8699951171875</v>
+        <v>148.4900054931641</v>
       </c>
       <c r="D34">
-        <v>149.4799957275391</v>
+        <v>148.8500061035156</v>
       </c>
       <c r="E34">
-        <v>149.0722198486328</v>
+        <v>148.4439544677734</v>
       </c>
       <c r="F34">
-        <v>61421000</v>
+        <v>56094900</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>149.6900024414062</v>
+        <v>149.8200073242188</v>
       </c>
       <c r="B35">
-        <v>150.1799926757812</v>
+        <v>153.1699981689453</v>
       </c>
       <c r="C35">
-        <v>148.6399993896484</v>
+        <v>149.7200012207031</v>
       </c>
       <c r="D35">
-        <v>148.6900024414062</v>
+        <v>152.5700073242188</v>
       </c>
       <c r="E35">
-        <v>148.2843933105469</v>
+        <v>152.15380859375</v>
       </c>
       <c r="F35">
-        <v>58883400</v>
+        <v>100077900</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>148.6799926757812</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="B36">
-        <v>149.3699951171875</v>
+        <v>149.9400024414062</v>
       </c>
       <c r="C36">
-        <v>147.6199951171875</v>
+        <v>146.4100036621094</v>
       </c>
       <c r="D36">
-        <v>148.6399993896484</v>
+        <v>149.8000030517578</v>
       </c>
       <c r="E36">
-        <v>148.2345275878906</v>
+        <v>149.391357421875</v>
       </c>
       <c r="F36">
-        <v>50720600</v>
+        <v>124850400</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>149.3300018310547</v>
+        <v>148.9900054931641</v>
       </c>
       <c r="B37">
-        <v>150.8399963378906</v>
+        <v>149.6999969482422</v>
       </c>
       <c r="C37">
-        <v>149.0099945068359</v>
+        <v>147.8000030517578</v>
       </c>
       <c r="D37">
-        <v>149.3200073242188</v>
+        <v>148.9600067138672</v>
       </c>
       <c r="E37">
-        <v>148.9126739501953</v>
+        <v>148.5536499023438</v>
       </c>
       <c r="F37">
-        <v>60893400</v>
+        <v>74588300</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>149.3600006103516</v>
+        <v>148.6600036621094</v>
       </c>
       <c r="B38">
-        <v>149.7299957275391</v>
+        <v>151.5700073242188</v>
       </c>
       <c r="C38">
-        <v>148.4900054931641</v>
+        <v>148.6499938964844</v>
       </c>
       <c r="D38">
-        <v>148.8500061035156</v>
+        <v>150.0200042724609</v>
       </c>
       <c r="E38">
-        <v>148.4439544677734</v>
+        <v>149.6107635498047</v>
       </c>
       <c r="F38">
-        <v>56094900</v>
+        <v>69122000</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
+        <v>150.3899993896484</v>
+      </c>
+      <c r="B39">
+        <v>151.9700012207031</v>
+      </c>
+      <c r="C39">
         <v>149.8200073242188</v>
       </c>
-      <c r="B39">
-        <v>153.1699981689453</v>
-      </c>
-      <c r="C39">
-        <v>149.7200012207031</v>
-      </c>
       <c r="D39">
-        <v>152.5700073242188</v>
+        <v>151.4900054931641</v>
       </c>
       <c r="E39">
-        <v>152.15380859375</v>
+        <v>151.0767669677734</v>
       </c>
       <c r="F39">
-        <v>100077900</v>
+        <v>54511500</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>147.2200012207031</v>
+        <v>151.5800018310547</v>
       </c>
       <c r="B40">
-        <v>149.9400024414062</v>
+        <v>152.4299926757812</v>
       </c>
       <c r="C40">
-        <v>146.4100036621094</v>
+        <v>150.6399993896484</v>
       </c>
       <c r="D40">
-        <v>149.8000030517578</v>
+        <v>150.9600067138672</v>
       </c>
       <c r="E40">
-        <v>149.391357421875</v>
+        <v>150.5482025146484</v>
       </c>
       <c r="F40">
-        <v>124850400</v>
+        <v>60394600</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>148.9900054931641</v>
+        <v>151.8899993896484</v>
       </c>
       <c r="B41">
-        <v>149.6999969482422</v>
+        <v>152.1999969482422</v>
       </c>
       <c r="C41">
-        <v>147.8000030517578</v>
+        <v>150.0599975585938</v>
       </c>
       <c r="D41">
-        <v>148.9600067138672</v>
+        <v>151.2799987792969</v>
       </c>
       <c r="E41">
-        <v>148.5536499023438</v>
+        <v>151.0875091552734</v>
       </c>
       <c r="F41">
-        <v>74588300</v>
+        <v>65414600</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>148.6600036621094</v>
+        <v>151.4100036621094</v>
       </c>
       <c r="B42">
         <v>151.5700073242188</v>
       </c>
       <c r="C42">
-        <v>148.6499938964844</v>
+        <v>150.1600036621094</v>
       </c>
       <c r="D42">
-        <v>150.0200042724609</v>
+        <v>150.4400024414062</v>
       </c>
       <c r="E42">
-        <v>149.6107635498047</v>
+        <v>150.2485809326172</v>
       </c>
       <c r="F42">
-        <v>69122000</v>
+        <v>55020900</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>150.3899993896484</v>
+        <v>150.1999969482422</v>
       </c>
       <c r="B43">
-        <v>151.9700012207031</v>
+        <v>151.4299926757812</v>
       </c>
       <c r="C43">
-        <v>149.8200073242188</v>
+        <v>150.0599975585938</v>
       </c>
       <c r="D43">
-        <v>151.4900054931641</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="E43">
-        <v>151.0767669677734</v>
+        <v>150.6181030273438</v>
       </c>
       <c r="F43">
-        <v>54511500</v>
+        <v>56787900</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>151.5800018310547</v>
+        <v>150.0200042724609</v>
       </c>
       <c r="B44">
-        <v>152.4299926757812</v>
+        <v>150.1300048828125</v>
       </c>
       <c r="C44">
-        <v>150.6399993896484</v>
+        <v>147.8500061035156</v>
       </c>
       <c r="D44">
-        <v>150.9600067138672</v>
+        <v>147.9199981689453</v>
       </c>
       <c r="E44">
-        <v>150.5482025146484</v>
+        <v>147.7317810058594</v>
       </c>
       <c r="F44">
-        <v>60394600</v>
+        <v>65187100</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>151.8899993896484</v>
+        <v>148.9600067138672</v>
       </c>
       <c r="B45">
-        <v>152.1999969482422</v>
+        <v>149.4299926757812</v>
       </c>
       <c r="C45">
-        <v>150.0599975585938</v>
+        <v>147.6799926757812</v>
       </c>
       <c r="D45">
-        <v>151.2799987792969</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="E45">
-        <v>151.0875091552734</v>
+        <v>147.6818389892578</v>
       </c>
       <c r="F45">
-        <v>65414600</v>
+        <v>41000000</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>151.4100036621094</v>
+        <v>148.4299926757812</v>
       </c>
       <c r="B46">
-        <v>151.5700073242188</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="C46">
-        <v>150.1600036621094</v>
+        <v>147.4799957275391</v>
       </c>
       <c r="D46">
-        <v>150.4400024414062</v>
+        <v>149.9900054931641</v>
       </c>
       <c r="E46">
-        <v>150.2485809326172</v>
+        <v>149.7991485595703</v>
       </c>
       <c r="F46">
-        <v>55020900</v>
+        <v>63632600</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>150.1999969482422</v>
+        <v>150.3699951171875</v>
       </c>
       <c r="B47">
-        <v>151.4299926757812</v>
+        <v>151.8800048828125</v>
       </c>
       <c r="C47">
-        <v>150.0599975585938</v>
+        <v>149.4299926757812</v>
       </c>
       <c r="D47">
-        <v>150.8099975585938</v>
+        <v>150</v>
       </c>
       <c r="E47">
-        <v>150.6181030273438</v>
+        <v>149.8091278076172</v>
       </c>
       <c r="F47">
-        <v>56787900</v>
+        <v>59222800</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>150.0200042724609</v>
+        <v>149.9400024414062</v>
       </c>
       <c r="B48">
-        <v>150.1300048828125</v>
+        <v>151.4900054931641</v>
       </c>
       <c r="C48">
-        <v>147.8500061035156</v>
+        <v>149.3399963378906</v>
       </c>
       <c r="D48">
-        <v>147.9199981689453</v>
+        <v>151</v>
       </c>
       <c r="E48">
-        <v>147.7317810058594</v>
+        <v>150.807861328125</v>
       </c>
       <c r="F48">
-        <v>65187100</v>
+        <v>59256200</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>148.9600067138672</v>
+        <v>151</v>
       </c>
       <c r="B49">
-        <v>149.4299926757812</v>
+        <v>155</v>
       </c>
       <c r="C49">
-        <v>147.6799926757812</v>
+        <v>150.9900054931641</v>
       </c>
       <c r="D49">
-        <v>147.8699951171875</v>
+        <v>153.4900054931641</v>
       </c>
       <c r="E49">
-        <v>147.6818389892578</v>
+        <v>153.2946929931641</v>
       </c>
       <c r="F49">
-        <v>41000000</v>
+        <v>88807000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>148.4299926757812</v>
+        <v>153.7100067138672</v>
       </c>
       <c r="B50">
-        <v>150.3999938964844</v>
+        <v>158.6699981689453</v>
       </c>
       <c r="C50">
-        <v>147.4799957275391</v>
+        <v>153.0500030517578</v>
       </c>
       <c r="D50">
-        <v>149.9900054931641</v>
+        <v>157.8699951171875</v>
       </c>
       <c r="E50">
-        <v>149.7991485595703</v>
+        <v>157.6691131591797</v>
       </c>
       <c r="F50">
-        <v>63632600</v>
+        <v>137827700</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>150.3699951171875</v>
+        <v>157.6499938964844</v>
       </c>
       <c r="B51">
-        <v>151.8800048828125</v>
+        <v>161.0200042724609</v>
       </c>
       <c r="C51">
-        <v>149.4299926757812</v>
+        <v>156.5299987792969</v>
       </c>
       <c r="D51">
-        <v>150</v>
+        <v>160.5500030517578</v>
       </c>
       <c r="E51">
-        <v>149.8091278076172</v>
+        <v>160.3457183837891</v>
       </c>
       <c r="F51">
-        <v>59222800</v>
+        <v>117305600</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>149.9400024414062</v>
+        <v>161.6799926757812</v>
       </c>
       <c r="B52">
-        <v>151.4900054931641</v>
+        <v>165.6999969482422</v>
       </c>
       <c r="C52">
-        <v>149.3399963378906</v>
+        <v>161</v>
       </c>
       <c r="D52">
-        <v>151</v>
+        <v>161.0200042724609</v>
       </c>
       <c r="E52">
-        <v>150.807861328125</v>
+        <v>160.8151092529297</v>
       </c>
       <c r="F52">
-        <v>59256200</v>
+        <v>117467900</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>151</v>
+        <v>161.1199951171875</v>
       </c>
       <c r="B53">
-        <v>155</v>
+        <v>161.8000030517578</v>
       </c>
       <c r="C53">
-        <v>150.9900054931641</v>
+        <v>159.0599975585938</v>
       </c>
       <c r="D53">
-        <v>153.4900054931641</v>
+        <v>161.4100036621094</v>
       </c>
       <c r="E53">
-        <v>153.2946929931641</v>
+        <v>161.2046203613281</v>
       </c>
       <c r="F53">
-        <v>88807000</v>
+        <v>96041900</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>153.7100067138672</v>
+        <v>160.75</v>
       </c>
       <c r="B54">
-        <v>158.6699981689453</v>
+        <v>162.1399993896484</v>
       </c>
       <c r="C54">
-        <v>153.0500030517578</v>
+        <v>159.6399993896484</v>
       </c>
       <c r="D54">
-        <v>157.8699951171875</v>
+        <v>161.9400024414062</v>
       </c>
       <c r="E54">
-        <v>157.6691131591797</v>
+        <v>161.7339477539062</v>
       </c>
       <c r="F54">
-        <v>137827700</v>
+        <v>69463600</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>157.6499938964844</v>
+        <v>159.5700073242188</v>
       </c>
       <c r="B55">
-        <v>161.0200042724609</v>
+        <v>160.4499969482422</v>
       </c>
       <c r="C55">
-        <v>156.5299987792969</v>
+        <v>156.3600006103516</v>
       </c>
       <c r="D55">
-        <v>160.5500030517578</v>
+        <v>156.8099975585938</v>
       </c>
       <c r="E55">
-        <v>160.3457183837891</v>
+        <v>156.6104736328125</v>
       </c>
       <c r="F55">
-        <v>117305600</v>
+        <v>76959800</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>161.6799926757812</v>
+        <v>159.3699951171875</v>
       </c>
       <c r="B56">
-        <v>165.6999969482422</v>
+        <v>161.1900024414062</v>
       </c>
       <c r="C56">
-        <v>161</v>
+        <v>158.7899932861328</v>
       </c>
       <c r="D56">
-        <v>161.0200042724609</v>
+        <v>160.2400054931641</v>
       </c>
       <c r="E56">
-        <v>160.8151092529297</v>
+        <v>160.0361022949219</v>
       </c>
       <c r="F56">
-        <v>117467900</v>
+        <v>88748200</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>161.1199951171875</v>
+        <v>159.9900054931641</v>
       </c>
       <c r="B57">
-        <v>161.8000030517578</v>
+        <v>165.5200042724609</v>
       </c>
       <c r="C57">
-        <v>159.0599975585938</v>
+        <v>159.9199981689453</v>
       </c>
       <c r="D57">
-        <v>161.4100036621094</v>
+        <v>165.3000030517578</v>
       </c>
       <c r="E57">
-        <v>161.2046203613281</v>
+        <v>165.0896759033203</v>
       </c>
       <c r="F57">
-        <v>96041900</v>
+        <v>174048100</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>160.75</v>
+        <v>167.4799957275391</v>
       </c>
       <c r="B58">
-        <v>162.1399993896484</v>
+        <v>170.3000030517578</v>
       </c>
       <c r="C58">
-        <v>159.6399993896484</v>
+        <v>164.5299987792969</v>
       </c>
       <c r="D58">
-        <v>161.9400024414062</v>
+        <v>164.7700042724609</v>
       </c>
       <c r="E58">
-        <v>161.7339477539062</v>
+        <v>164.5603485107422</v>
       </c>
       <c r="F58">
-        <v>69463600</v>
+        <v>152052500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>159.5700073242188</v>
+        <v>158.7400054931641</v>
       </c>
       <c r="B59">
-        <v>160.4499969482422</v>
+        <v>164.1999969482422</v>
       </c>
       <c r="C59">
-        <v>156.3600006103516</v>
+        <v>157.8000030517578</v>
       </c>
       <c r="D59">
-        <v>156.8099975585938</v>
+        <v>163.7599945068359</v>
       </c>
       <c r="E59">
-        <v>156.6104736328125</v>
+        <v>163.5516204833984</v>
       </c>
       <c r="F59">
-        <v>76959800</v>
+        <v>136739200</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>159.3699951171875</v>
+        <v>164.0200042724609</v>
       </c>
       <c r="B60">
-        <v>161.1900024414062</v>
+        <v>164.9600067138672</v>
       </c>
       <c r="C60">
-        <v>158.7899932861328</v>
+        <v>159.7200012207031</v>
       </c>
       <c r="D60">
-        <v>160.2400054931641</v>
+        <v>161.8399963378906</v>
       </c>
       <c r="E60">
-        <v>160.0361022949219</v>
+        <v>161.6340637207031</v>
       </c>
       <c r="F60">
-        <v>88748200</v>
+        <v>117938300</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>159.9900054931641</v>
+        <v>164.2899932861328</v>
       </c>
       <c r="B61">
-        <v>165.5200042724609</v>
+        <v>167.8800048828125</v>
       </c>
       <c r="C61">
-        <v>159.9199981689453</v>
+        <v>164.2799987792969</v>
       </c>
       <c r="D61">
-        <v>165.3000030517578</v>
+        <v>165.3200073242188</v>
       </c>
       <c r="E61">
-        <v>165.0896759033203</v>
+        <v>165.1096496582031</v>
       </c>
       <c r="F61">
-        <v>174048100</v>
+        <v>107497000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>167.4799957275391</v>
+        <v>169.0800018310547</v>
       </c>
       <c r="B62">
-        <v>170.3000030517578</v>
+        <v>171.5800018310547</v>
       </c>
       <c r="C62">
-        <v>164.5299987792969</v>
+        <v>168.3399963378906</v>
       </c>
       <c r="D62">
-        <v>164.7700042724609</v>
+        <v>171.1799926757812</v>
       </c>
       <c r="E62">
-        <v>164.5603485107422</v>
+        <v>170.9621734619141</v>
       </c>
       <c r="F62">
-        <v>152052500</v>
+        <v>120405400</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>158.7400054931641</v>
+        <v>172.1300048828125</v>
       </c>
       <c r="B63">
-        <v>164.1999969482422</v>
+        <v>175.9600067138672</v>
       </c>
       <c r="C63">
-        <v>157.8000030517578</v>
+        <v>170.6999969482422</v>
       </c>
       <c r="D63">
-        <v>163.7599945068359</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="E63">
-        <v>163.5516204833984</v>
+        <v>174.8572235107422</v>
       </c>
       <c r="F63">
-        <v>136739200</v>
+        <v>116998900</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>164.0200042724609</v>
+        <v>174.9100036621094</v>
       </c>
       <c r="B64">
-        <v>164.9600067138672</v>
+        <v>176.75</v>
       </c>
       <c r="C64">
-        <v>159.7200012207031</v>
+        <v>173.9199981689453</v>
       </c>
       <c r="D64">
-        <v>161.8399963378906</v>
+        <v>174.5599975585938</v>
       </c>
       <c r="E64">
-        <v>161.6340637207031</v>
+        <v>174.3378753662109</v>
       </c>
       <c r="F64">
-        <v>117938300</v>
+        <v>108923700</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>164.2899932861328</v>
+        <v>175.2100067138672</v>
       </c>
       <c r="B65">
-        <v>167.8800048828125</v>
+        <v>179.6300048828125</v>
       </c>
       <c r="C65">
-        <v>164.2799987792969</v>
+        <v>174.6900024414062</v>
       </c>
       <c r="D65">
-        <v>165.3200073242188</v>
+        <v>179.4499969482422</v>
       </c>
       <c r="E65">
-        <v>165.1096496582031</v>
+        <v>179.2216644287109</v>
       </c>
       <c r="F65">
-        <v>107497000</v>
+        <v>115228100</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>169.0800018310547</v>
+        <v>181.1199951171875</v>
       </c>
       <c r="B66">
-        <v>171.5800018310547</v>
+        <v>182.1300048828125</v>
       </c>
       <c r="C66">
-        <v>168.3399963378906</v>
+        <v>175.5299987792969</v>
       </c>
       <c r="D66">
-        <v>171.1799926757812</v>
+        <v>175.7400054931641</v>
       </c>
       <c r="E66">
-        <v>170.9621734619141</v>
+        <v>175.5163879394531</v>
       </c>
       <c r="F66">
-        <v>120405400</v>
+        <v>153237000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>172.1300048828125</v>
+        <v>175.25</v>
       </c>
       <c r="B67">
-        <v>175.9600067138672</v>
+        <v>177.7400054931641</v>
       </c>
       <c r="C67">
-        <v>170.6999969482422</v>
+        <v>172.2100067138672</v>
       </c>
       <c r="D67">
-        <v>175.0800018310547</v>
+        <v>174.3300018310547</v>
       </c>
       <c r="E67">
-        <v>174.8572235107422</v>
+        <v>174.1081848144531</v>
       </c>
       <c r="F67">
-        <v>116998900</v>
+        <v>139380400</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>174.9100036621094</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="B68">
-        <v>176.75</v>
+        <v>179.5</v>
       </c>
       <c r="C68">
-        <v>173.9199981689453</v>
+        <v>172.3099975585938</v>
       </c>
       <c r="D68">
-        <v>174.5599975585938</v>
+        <v>179.3000030517578</v>
       </c>
       <c r="E68">
-        <v>174.3378753662109</v>
+        <v>179.0718536376953</v>
       </c>
       <c r="F68">
-        <v>108923700</v>
+        <v>131063300</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>175.2100067138672</v>
+        <v>179.2799987792969</v>
       </c>
       <c r="B69">
-        <v>179.6300048828125</v>
+        <v>181.1399993896484</v>
       </c>
       <c r="C69">
-        <v>174.6900024414062</v>
+        <v>170.75</v>
       </c>
       <c r="D69">
-        <v>179.4499969482422</v>
+        <v>172.2599945068359</v>
       </c>
       <c r="E69">
-        <v>179.2216644287109</v>
+        <v>172.0408020019531</v>
       </c>
       <c r="F69">
-        <v>115228100</v>
+        <v>150185800</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>181.1199951171875</v>
+        <v>169.9299926757812</v>
       </c>
       <c r="B70">
-        <v>182.1300048828125</v>
+        <v>173.4700012207031</v>
       </c>
       <c r="C70">
-        <v>175.5299987792969</v>
+        <v>169.6900024414062</v>
       </c>
       <c r="D70">
-        <v>175.7400054931641</v>
+        <v>171.1399993896484</v>
       </c>
       <c r="E70">
-        <v>175.5163879394531</v>
+        <v>170.9222412109375</v>
       </c>
       <c r="F70">
-        <v>153237000</v>
+        <v>195432700</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>175.25</v>
+        <v>168.2799987792969</v>
       </c>
       <c r="B71">
-        <v>177.7400054931641</v>
+        <v>170.5800018310547</v>
       </c>
       <c r="C71">
-        <v>172.2100067138672</v>
+        <v>167.4600067138672</v>
       </c>
       <c r="D71">
-        <v>174.3300018310547</v>
+        <v>169.75</v>
       </c>
       <c r="E71">
-        <v>174.1081848144531</v>
+        <v>169.5339965820312</v>
       </c>
       <c r="F71">
-        <v>139380400</v>
+        <v>107499100</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>175.1100006103516</v>
+        <v>171.5599975585938</v>
       </c>
       <c r="B72">
-        <v>179.5</v>
+        <v>173.1999969482422</v>
       </c>
       <c r="C72">
-        <v>172.3099975585938</v>
+        <v>169.1199951171875</v>
       </c>
       <c r="D72">
-        <v>179.3000030517578</v>
+        <v>172.9900054931641</v>
       </c>
       <c r="E72">
-        <v>179.0718536376953</v>
+        <v>172.7698822021484</v>
       </c>
       <c r="F72">
-        <v>131063300</v>
+        <v>91185900</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>179.2799987792969</v>
+        <v>173.0399932861328</v>
       </c>
       <c r="B73">
-        <v>181.1399993896484</v>
+        <v>175.8600006103516</v>
       </c>
       <c r="C73">
-        <v>170.75</v>
+        <v>172.1499938964844</v>
       </c>
       <c r="D73">
-        <v>172.2599945068359</v>
+        <v>175.6399993896484</v>
       </c>
       <c r="E73">
-        <v>172.0408020019531</v>
+        <v>175.41650390625</v>
       </c>
       <c r="F73">
-        <v>150185800</v>
+        <v>92135300</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>169.9299926757812</v>
+        <v>175.8500061035156</v>
       </c>
       <c r="B74">
-        <v>173.4700012207031</v>
+        <v>176.8500061035156</v>
       </c>
       <c r="C74">
-        <v>169.6900024414062</v>
+        <v>175.2700042724609</v>
       </c>
       <c r="D74">
-        <v>171.1399993896484</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="E74">
-        <v>170.9222412109375</v>
+        <v>176.0556945800781</v>
       </c>
       <c r="F74">
-        <v>195432700</v>
+        <v>68356600</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>168.2799987792969</v>
+        <v>177.0899963378906</v>
       </c>
       <c r="B75">
-        <v>170.5800018310547</v>
+        <v>180.4199981689453</v>
       </c>
       <c r="C75">
-        <v>167.4600067138672</v>
+        <v>177.0700073242188</v>
       </c>
       <c r="D75">
-        <v>169.75</v>
+        <v>180.3300018310547</v>
       </c>
       <c r="E75">
-        <v>169.5339965820312</v>
+        <v>180.1005401611328</v>
       </c>
       <c r="F75">
-        <v>107499100</v>
+        <v>74919600</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>171.5599975585938</v>
+        <v>180.1600036621094</v>
       </c>
       <c r="B76">
-        <v>173.1999969482422</v>
+        <v>181.3300018310547</v>
       </c>
       <c r="C76">
-        <v>169.1199951171875</v>
+        <v>178.5299987792969</v>
       </c>
       <c r="D76">
-        <v>172.9900054931641</v>
+        <v>179.2899932861328</v>
       </c>
       <c r="E76">
-        <v>172.7698822021484</v>
+        <v>179.0618591308594</v>
       </c>
       <c r="F76">
-        <v>91185900</v>
+        <v>79144300</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>173.0399932861328</v>
+        <v>179.3300018310547</v>
       </c>
       <c r="B77">
-        <v>175.8600006103516</v>
+        <v>180.6300048828125</v>
       </c>
       <c r="C77">
-        <v>172.1499938964844</v>
+        <v>178.1399993896484</v>
       </c>
       <c r="D77">
-        <v>175.6399993896484</v>
+        <v>179.3800048828125</v>
       </c>
       <c r="E77">
-        <v>175.41650390625</v>
+        <v>179.1517486572266</v>
       </c>
       <c r="F77">
-        <v>92135300</v>
+        <v>62348900</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>175.8500061035156</v>
+        <v>179.4700012207031</v>
       </c>
       <c r="B78">
-        <v>176.8500061035156</v>
+        <v>180.5700073242188</v>
       </c>
       <c r="C78">
-        <v>175.2700042724609</v>
+        <v>178.0899963378906</v>
       </c>
       <c r="D78">
-        <v>176.2799987792969</v>
+        <v>178.1999969482422</v>
       </c>
       <c r="E78">
-        <v>176.0556945800781</v>
+        <v>177.9732513427734</v>
       </c>
       <c r="F78">
-        <v>68356600</v>
+        <v>59773000</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>177.0899963378906</v>
+        <v>178.0899963378906</v>
       </c>
       <c r="B79">
-        <v>180.4199981689453</v>
+        <v>179.2299957275391</v>
       </c>
       <c r="C79">
-        <v>177.0700073242188</v>
+        <v>177.2599945068359</v>
       </c>
       <c r="D79">
-        <v>180.3300018310547</v>
+        <v>177.5700073242188</v>
       </c>
       <c r="E79">
-        <v>180.1005401611328</v>
+        <v>177.3440551757812</v>
       </c>
       <c r="F79">
-        <v>74919600</v>
+        <v>64062300</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>180.1600036621094</v>
+        <v>177.8300018310547</v>
       </c>
       <c r="B80">
-        <v>181.3300018310547</v>
+        <v>182.8800048828125</v>
       </c>
       <c r="C80">
-        <v>178.5299987792969</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="D80">
-        <v>179.2899932861328</v>
+        <v>182.0099945068359</v>
       </c>
       <c r="E80">
-        <v>179.0618591308594</v>
+        <v>181.7783966064453</v>
       </c>
       <c r="F80">
-        <v>79144300</v>
+        <v>104487900</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>179.3300018310547</v>
+        <v>182.6300048828125</v>
       </c>
       <c r="B81">
-        <v>180.6300048828125</v>
+        <v>182.9400024414062</v>
       </c>
       <c r="C81">
-        <v>178.1399993896484</v>
+        <v>179.1199951171875</v>
       </c>
       <c r="D81">
-        <v>179.3800048828125</v>
+        <v>179.6999969482422</v>
       </c>
       <c r="E81">
-        <v>179.1517486572266</v>
+        <v>179.4713439941406</v>
       </c>
       <c r="F81">
-        <v>62348900</v>
+        <v>99310400</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>179.4700012207031</v>
+        <v>179.6100006103516</v>
       </c>
       <c r="B82">
-        <v>180.5700073242188</v>
+        <v>180.1699981689453</v>
       </c>
       <c r="C82">
-        <v>178.0899963378906</v>
+        <v>174.6399993896484</v>
       </c>
       <c r="D82">
-        <v>178.1999969482422</v>
+        <v>174.9199981689453</v>
       </c>
       <c r="E82">
-        <v>177.9732513427734</v>
+        <v>174.6974182128906</v>
       </c>
       <c r="F82">
-        <v>59773000</v>
+        <v>94537600</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>178.0899963378906</v>
+        <v>172.6999969482422</v>
       </c>
       <c r="B83">
-        <v>179.2299957275391</v>
+        <v>175.3000030517578</v>
       </c>
       <c r="C83">
-        <v>177.2599945068359</v>
+        <v>171.6399993896484</v>
       </c>
       <c r="D83">
-        <v>177.5700073242188</v>
+        <v>172</v>
       </c>
       <c r="E83">
-        <v>177.3440551757812</v>
+        <v>171.7811431884766</v>
       </c>
       <c r="F83">
-        <v>64062300</v>
+        <v>96904000</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>177.8300018310547</v>
+        <v>172.8899993896484</v>
       </c>
       <c r="B84">
-        <v>182.8800048828125</v>
+        <v>174.1399993896484</v>
       </c>
       <c r="C84">
-        <v>177.7100067138672</v>
+        <v>171.0299987792969</v>
       </c>
       <c r="D84">
-        <v>182.0099945068359</v>
+        <v>172.1699981689453</v>
       </c>
       <c r="E84">
-        <v>181.7783966064453</v>
+        <v>171.950927734375</v>
       </c>
       <c r="F84">
-        <v>104487900</v>
+        <v>86580100</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>182.6300048828125</v>
+        <v>169.0800018310547</v>
       </c>
       <c r="B85">
-        <v>182.9400024414062</v>
+        <v>172.5</v>
       </c>
       <c r="C85">
-        <v>179.1199951171875</v>
+        <v>168.1699981689453</v>
       </c>
       <c r="D85">
-        <v>179.6999969482422</v>
+        <v>172.1900024414062</v>
       </c>
       <c r="E85">
-        <v>179.4713439941406</v>
+        <v>171.9709014892578</v>
       </c>
       <c r="F85">
-        <v>99310400</v>
+        <v>106765600</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>179.6100006103516</v>
+        <v>172.3200073242188</v>
       </c>
       <c r="B86">
-        <v>180.1699981689453</v>
+        <v>175.1799926757812</v>
       </c>
       <c r="C86">
-        <v>174.6399993896484</v>
+        <v>170.8200073242188</v>
       </c>
       <c r="D86">
-        <v>174.9199981689453</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="E86">
-        <v>174.6974182128906</v>
+        <v>174.8572235107422</v>
       </c>
       <c r="F86">
-        <v>94537600</v>
+        <v>76138300</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>172.6999969482422</v>
+        <v>176.1199951171875</v>
       </c>
       <c r="B87">
-        <v>175.3000030517578</v>
+        <v>177.1799926757812</v>
       </c>
       <c r="C87">
-        <v>171.6399993896484</v>
+        <v>174.8200073242188</v>
       </c>
       <c r="D87">
-        <v>172</v>
+        <v>175.5299987792969</v>
       </c>
       <c r="E87">
-        <v>171.7811431884766</v>
+        <v>175.306640625</v>
       </c>
       <c r="F87">
-        <v>96904000</v>
+        <v>74805200</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>172.8899993896484</v>
+        <v>175.7799987792969</v>
       </c>
       <c r="B88">
-        <v>174.1399993896484</v>
+        <v>176.6199951171875</v>
       </c>
       <c r="C88">
-        <v>171.0299987792969</v>
+        <v>171.7899932861328</v>
       </c>
       <c r="D88">
-        <v>172.1699981689453</v>
+        <v>172.1900024414062</v>
       </c>
       <c r="E88">
-        <v>171.950927734375</v>
+        <v>171.9709014892578</v>
       </c>
       <c r="F88">
-        <v>86580100</v>
+        <v>84505800</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>169.0800018310547</v>
+        <v>171.3399963378906</v>
       </c>
       <c r="B89">
-        <v>172.5</v>
+        <v>173.7799987792969</v>
       </c>
       <c r="C89">
-        <v>168.1699981689453</v>
+        <v>171.0899963378906</v>
       </c>
       <c r="D89">
-        <v>172.1900024414062</v>
+        <v>173.0700073242188</v>
       </c>
       <c r="E89">
-        <v>171.9709014892578</v>
+        <v>172.8497924804688</v>
       </c>
       <c r="F89">
-        <v>106765600</v>
+        <v>80355000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>172.3200073242188</v>
+        <v>171.5099945068359</v>
       </c>
       <c r="B90">
-        <v>175.1799926757812</v>
+        <v>172.5399932861328</v>
       </c>
       <c r="C90">
-        <v>170.8200073242188</v>
+        <v>169.4100036621094</v>
       </c>
       <c r="D90">
-        <v>175.0800018310547</v>
+        <v>169.8000030517578</v>
       </c>
       <c r="E90">
-        <v>174.8572235107422</v>
+        <v>169.5839385986328</v>
       </c>
       <c r="F90">
-        <v>76138300</v>
+        <v>90956700</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>176.1199951171875</v>
+        <v>170</v>
       </c>
       <c r="B91">
-        <v>177.1799926757812</v>
+        <v>171.0800018310547</v>
       </c>
       <c r="C91">
-        <v>174.8200073242188</v>
+        <v>165.9400024414062</v>
       </c>
       <c r="D91">
-        <v>175.5299987792969</v>
+        <v>166.2299957275391</v>
       </c>
       <c r="E91">
-        <v>175.306640625</v>
+        <v>166.0184783935547</v>
       </c>
       <c r="F91">
-        <v>74805200</v>
+        <v>94815000</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>175.7799987792969</v>
+        <v>166.9799957275391</v>
       </c>
       <c r="B92">
-        <v>176.6199951171875</v>
+        <v>169.6799926757812</v>
       </c>
       <c r="C92">
-        <v>171.7899932861328</v>
+        <v>164.1799926757812</v>
       </c>
       <c r="D92">
-        <v>172.1900024414062</v>
+        <v>164.5099945068359</v>
       </c>
       <c r="E92">
-        <v>171.9709014892578</v>
+        <v>164.3006591796875</v>
       </c>
       <c r="F92">
-        <v>84505800</v>
+        <v>91420500</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>171.3399963378906</v>
+        <v>164.4199981689453</v>
       </c>
       <c r="B93">
-        <v>173.7799987792969</v>
+        <v>166.3300018310547</v>
       </c>
       <c r="C93">
-        <v>171.0899963378906</v>
+        <v>162.3000030517578</v>
       </c>
       <c r="D93">
-        <v>173.0700073242188</v>
+        <v>162.4100036621094</v>
       </c>
       <c r="E93">
-        <v>172.8497924804688</v>
+        <v>162.2033538818359</v>
       </c>
       <c r="F93">
-        <v>80355000</v>
+        <v>122848900</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>171.5099945068359</v>
+        <v>160.0200042724609</v>
       </c>
       <c r="B94">
-        <v>172.5399932861328</v>
+        <v>162.3000030517578</v>
       </c>
       <c r="C94">
-        <v>169.4100036621094</v>
+        <v>154.6999969482422</v>
       </c>
       <c r="D94">
-        <v>169.8000030517578</v>
+        <v>161.6199951171875</v>
       </c>
       <c r="E94">
-        <v>169.5839385986328</v>
+        <v>161.4143371582031</v>
       </c>
       <c r="F94">
-        <v>90956700</v>
+        <v>162294600</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>170</v>
+        <v>158.9799957275391</v>
       </c>
       <c r="B95">
-        <v>171.0800018310547</v>
+        <v>162.7599945068359</v>
       </c>
       <c r="C95">
-        <v>165.9400024414062</v>
+        <v>157.0200042724609</v>
       </c>
       <c r="D95">
-        <v>166.2299957275391</v>
+        <v>159.7799987792969</v>
       </c>
       <c r="E95">
-        <v>166.0184783935547</v>
+        <v>159.5766906738281</v>
       </c>
       <c r="F95">
-        <v>94815000</v>
+        <v>115798400</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>166.9799957275391</v>
+        <v>163.5</v>
       </c>
       <c r="B96">
-        <v>169.6799926757812</v>
+        <v>164.3899993896484</v>
       </c>
       <c r="C96">
-        <v>164.1799926757812</v>
+        <v>157.8200073242188</v>
       </c>
       <c r="D96">
-        <v>164.5099945068359</v>
+        <v>159.6900024414062</v>
       </c>
       <c r="E96">
-        <v>164.3006591796875</v>
+        <v>159.4868011474609</v>
       </c>
       <c r="F96">
-        <v>91420500</v>
+        <v>108275300</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>164.4199981689453</v>
+        <v>162.4499969482422</v>
       </c>
       <c r="B97">
-        <v>166.3300018310547</v>
+        <v>163.8399963378906</v>
       </c>
       <c r="C97">
-        <v>162.3000030517578</v>
+        <v>158.2799987792969</v>
       </c>
       <c r="D97">
-        <v>162.4100036621094</v>
+        <v>159.2200012207031</v>
       </c>
       <c r="E97">
-        <v>162.2033538818359</v>
+        <v>159.0174102783203</v>
       </c>
       <c r="F97">
-        <v>122848900</v>
+        <v>121954600</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>160.0200042724609</v>
+        <v>165.7100067138672</v>
       </c>
       <c r="B98">
-        <v>162.3000030517578</v>
+        <v>170.3500061035156</v>
       </c>
       <c r="C98">
-        <v>154.6999969482422</v>
+        <v>162.8000030517578</v>
       </c>
       <c r="D98">
-        <v>161.6199951171875</v>
+        <v>170.3300018310547</v>
       </c>
       <c r="E98">
-        <v>161.4143371582031</v>
+        <v>170.1132659912109</v>
       </c>
       <c r="F98">
-        <v>162294600</v>
+        <v>179935700</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>158.9799957275391</v>
+        <v>170.1600036621094</v>
       </c>
       <c r="B99">
-        <v>162.7599945068359</v>
+        <v>175</v>
       </c>
       <c r="C99">
-        <v>157.0200042724609</v>
+        <v>169.5099945068359</v>
       </c>
       <c r="D99">
-        <v>159.7799987792969</v>
+        <v>174.7799987792969</v>
       </c>
       <c r="E99">
-        <v>159.5766906738281</v>
+        <v>174.5576019287109</v>
       </c>
       <c r="F99">
-        <v>115798400</v>
+        <v>115541600</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>163.5</v>
+        <v>174.0099945068359</v>
       </c>
       <c r="B100">
-        <v>164.3899993896484</v>
+        <v>174.8399963378906</v>
       </c>
       <c r="C100">
-        <v>157.8200073242188</v>
+        <v>172.3099975585938</v>
       </c>
       <c r="D100">
-        <v>159.6900024414062</v>
+        <v>174.6100006103516</v>
       </c>
       <c r="E100">
-        <v>159.4868011474609</v>
+        <v>174.3878173828125</v>
       </c>
       <c r="F100">
-        <v>108275300</v>
+        <v>86213900</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>162.4499969482422</v>
+        <v>174.75</v>
       </c>
       <c r="B101">
-        <v>163.8399963378906</v>
+        <v>175.8800048828125</v>
       </c>
       <c r="C101">
-        <v>158.2799987792969</v>
+        <v>173.3300018310547</v>
       </c>
       <c r="D101">
-        <v>159.2200012207031</v>
+        <v>175.8399963378906</v>
       </c>
       <c r="E101">
-        <v>159.0174102783203</v>
+        <v>175.6162567138672</v>
       </c>
       <c r="F101">
-        <v>121954600</v>
+        <v>84914300</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>165.7100067138672</v>
+        <v>174.4799957275391</v>
       </c>
       <c r="B102">
-        <v>170.3500061035156</v>
+        <v>176.2400054931641</v>
       </c>
       <c r="C102">
-        <v>162.8000030517578</v>
+        <v>172.1199951171875</v>
       </c>
       <c r="D102">
-        <v>170.3300018310547</v>
+        <v>172.8999938964844</v>
       </c>
       <c r="E102">
-        <v>170.1132659912109</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="F102">
-        <v>179935700</v>
+        <v>89418100</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>170.1600036621094</v>
+        <v>171.6799926757812</v>
       </c>
       <c r="B103">
-        <v>175</v>
+        <v>174.1000061035156</v>
       </c>
       <c r="C103">
-        <v>169.5099945068359</v>
+        <v>170.6799926757812</v>
       </c>
       <c r="D103">
-        <v>174.7799987792969</v>
+        <v>172.3899993896484</v>
       </c>
       <c r="E103">
-        <v>174.5576019287109</v>
+        <v>172.3899993896484</v>
       </c>
       <c r="F103">
-        <v>115541600</v>
+        <v>82391400</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>174.0099945068359</v>
+        <v>172.8600006103516</v>
       </c>
       <c r="B104">
-        <v>174.8399963378906</v>
+        <v>173.9499969482422</v>
       </c>
       <c r="C104">
-        <v>172.3099975585938</v>
+        <v>170.9499969482422</v>
       </c>
       <c r="D104">
-        <v>174.6100006103516</v>
+        <v>171.6600036621094</v>
       </c>
       <c r="E104">
-        <v>174.3878173828125</v>
+        <v>171.6600036621094</v>
       </c>
       <c r="F104">
-        <v>86213900</v>
+        <v>77251200</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>174.75</v>
+        <v>171.7299957275391</v>
       </c>
       <c r="B105">
-        <v>175.8800048828125</v>
+        <v>175.3500061035156</v>
       </c>
       <c r="C105">
-        <v>173.3300018310547</v>
+        <v>171.4299926757812</v>
       </c>
       <c r="D105">
-        <v>175.8399963378906</v>
+        <v>174.8300018310547</v>
       </c>
       <c r="E105">
-        <v>175.6162567138672</v>
+        <v>174.8300018310547</v>
       </c>
       <c r="F105">
-        <v>84914300</v>
+        <v>74829200</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>174.4799957275391</v>
+        <v>176.0500030517578</v>
       </c>
       <c r="B106">
-        <v>176.2400054931641</v>
+        <v>176.6499938964844</v>
       </c>
       <c r="C106">
-        <v>172.1199951171875</v>
+        <v>174.8999938964844</v>
       </c>
       <c r="D106">
-        <v>172.8999938964844</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="E106">
-        <v>172.6799926757812</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="F106">
-        <v>89418100</v>
+        <v>71285000</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>171.6799926757812</v>
+        <v>174.1399993896484</v>
       </c>
       <c r="B107">
-        <v>174.1000061035156</v>
+        <v>175.4799957275391</v>
       </c>
       <c r="C107">
-        <v>170.6799926757812</v>
+        <v>171.5500030517578</v>
       </c>
       <c r="D107">
-        <v>172.3899993896484</v>
+        <v>172.1199951171875</v>
       </c>
       <c r="E107">
-        <v>172.3899993896484</v>
+        <v>172.1199951171875</v>
       </c>
       <c r="F107">
-        <v>82391400</v>
+        <v>90865900</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>172.8600006103516</v>
+        <v>172.3300018310547</v>
       </c>
       <c r="B108">
-        <v>173.9499969482422</v>
+        <v>173.0800018310547</v>
       </c>
       <c r="C108">
-        <v>170.9499969482422</v>
+        <v>168.0399932861328</v>
       </c>
       <c r="D108">
-        <v>171.6600036621094</v>
+        <v>168.6399993896484</v>
       </c>
       <c r="E108">
-        <v>171.6600036621094</v>
+        <v>168.6399993896484</v>
       </c>
       <c r="F108">
-        <v>77251200</v>
+        <v>98566000</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>171.7299957275391</v>
+        <v>167.3699951171875</v>
       </c>
       <c r="B109">
-        <v>175.3500061035156</v>
+        <v>169.5800018310547</v>
       </c>
       <c r="C109">
-        <v>171.4299926757812</v>
+        <v>166.5599975585938</v>
       </c>
       <c r="D109">
-        <v>174.8300018310547</v>
+        <v>168.8800048828125</v>
       </c>
       <c r="E109">
-        <v>174.8300018310547</v>
+        <v>168.8800048828125</v>
       </c>
       <c r="F109">
-        <v>74829200</v>
+        <v>86185500</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>176.0500030517578</v>
+        <v>170.9700012207031</v>
       </c>
       <c r="B110">
-        <v>176.6499938964844</v>
+        <v>172.9499969482422</v>
       </c>
       <c r="C110">
-        <v>174.8999938964844</v>
+        <v>170.25</v>
       </c>
       <c r="D110">
-        <v>176.2799987792969</v>
+        <v>172.7899932861328</v>
       </c>
       <c r="E110">
-        <v>176.2799987792969</v>
+        <v>172.7899932861328</v>
       </c>
       <c r="F110">
-        <v>71285000</v>
+        <v>62527400</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>174.1399993896484</v>
+        <v>171.8500061035156</v>
       </c>
       <c r="B111">
-        <v>175.4799957275391</v>
+        <v>173.3399963378906</v>
       </c>
       <c r="C111">
-        <v>171.5500030517578</v>
+        <v>170.0500030517578</v>
       </c>
       <c r="D111">
-        <v>172.1199951171875</v>
+        <v>172.5500030517578</v>
       </c>
       <c r="E111">
-        <v>172.1199951171875</v>
+        <v>172.5500030517578</v>
       </c>
       <c r="F111">
-        <v>90865900</v>
+        <v>61177400</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>172.3300018310547</v>
+        <v>171.0299987792969</v>
       </c>
       <c r="B112">
-        <v>173.0800018310547</v>
+        <v>171.9100036621094</v>
       </c>
       <c r="C112">
-        <v>168.0399932861328</v>
+        <v>168.4700012207031</v>
       </c>
       <c r="D112">
-        <v>168.6399993896484</v>
+        <v>168.8800048828125</v>
       </c>
       <c r="E112">
-        <v>168.6399993896484</v>
+        <v>168.8800048828125</v>
       </c>
       <c r="F112">
-        <v>98566000</v>
+        <v>69589300</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>167.3699951171875</v>
+        <v>169.8200073242188</v>
       </c>
       <c r="B113">
-        <v>169.5800018310547</v>
+        <v>170.5399932861328</v>
       </c>
       <c r="C113">
-        <v>166.5599975585938</v>
+        <v>166.1900024414062</v>
       </c>
       <c r="D113">
-        <v>168.8800048828125</v>
+        <v>167.3000030517578</v>
       </c>
       <c r="E113">
-        <v>168.8800048828125</v>
+        <v>167.3000030517578</v>
       </c>
       <c r="F113">
-        <v>86185500</v>
+        <v>82772700</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>170.9700012207031</v>
+        <v>164.9799957275391</v>
       </c>
       <c r="B114">
-        <v>172.9499969482422</v>
+        <v>166.6900024414062</v>
       </c>
       <c r="C114">
-        <v>170.25</v>
+        <v>162.1499938964844</v>
       </c>
       <c r="D114">
-        <v>172.7899932861328</v>
+        <v>164.3200073242188</v>
       </c>
       <c r="E114">
-        <v>172.7899932861328</v>
+        <v>164.3200073242188</v>
       </c>
       <c r="F114">
-        <v>62527400</v>
+        <v>91162800</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>171.8500061035156</v>
+        <v>165.5399932861328</v>
       </c>
       <c r="B115">
-        <v>173.3399963378906</v>
+        <v>166.1499938964844</v>
       </c>
       <c r="C115">
-        <v>170.0500030517578</v>
+        <v>159.75</v>
       </c>
       <c r="D115">
-        <v>172.5500030517578</v>
+        <v>160.0700073242188</v>
       </c>
       <c r="E115">
-        <v>172.5500030517578</v>
+        <v>160.0700073242188</v>
       </c>
       <c r="F115">
-        <v>61177400</v>
+        <v>90009200</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>171.0299987792969</v>
+        <v>152.5800018310547</v>
       </c>
       <c r="B116">
-        <v>171.9100036621094</v>
+        <v>162.8500061035156</v>
       </c>
       <c r="C116">
-        <v>168.4700012207031</v>
+        <v>152</v>
       </c>
       <c r="D116">
-        <v>168.8800048828125</v>
+        <v>162.7400054931641</v>
       </c>
       <c r="E116">
-        <v>168.8800048828125</v>
+        <v>162.7400054931641</v>
       </c>
       <c r="F116">
-        <v>69589300</v>
+        <v>141147500</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>169.8200073242188</v>
+        <v>163.8399963378906</v>
       </c>
       <c r="B117">
-        <v>170.5399932861328</v>
+        <v>165.1199951171875</v>
       </c>
       <c r="C117">
-        <v>166.1900024414062</v>
+        <v>160.8699951171875</v>
       </c>
       <c r="D117">
-        <v>167.3000030517578</v>
+        <v>164.8500061035156</v>
       </c>
       <c r="E117">
-        <v>167.3000030517578</v>
+        <v>164.8500061035156</v>
       </c>
       <c r="F117">
-        <v>82772700</v>
+        <v>91974200</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>164.9799957275391</v>
+        <v>163.0599975585938</v>
       </c>
       <c r="B118">
-        <v>166.6900024414062</v>
+        <v>165.4199981689453</v>
       </c>
       <c r="C118">
-        <v>162.1499938964844</v>
+        <v>162.4299926757812</v>
       </c>
       <c r="D118">
-        <v>164.3200073242188</v>
+        <v>165.1199951171875</v>
       </c>
       <c r="E118">
-        <v>164.3200073242188</v>
+        <v>165.1199951171875</v>
       </c>
       <c r="F118">
-        <v>91162800</v>
+        <v>94869100</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>165.5399932861328</v>
+        <v>164.6999969482422</v>
       </c>
       <c r="B119">
-        <v>166.1499938964844</v>
+        <v>166.6000061035156</v>
       </c>
       <c r="C119">
-        <v>159.75</v>
+        <v>161.9700012207031</v>
       </c>
       <c r="D119">
-        <v>160.0700073242188</v>
+        <v>163.1999969482422</v>
       </c>
       <c r="E119">
-        <v>160.0700073242188</v>
+        <v>163.1999969482422</v>
       </c>
       <c r="F119">
-        <v>90009200</v>
+        <v>83474400</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>152.5800018310547</v>
+        <v>164.3899993896484</v>
       </c>
       <c r="B120">
-        <v>162.8500061035156</v>
+        <v>167.3600006103516</v>
       </c>
       <c r="C120">
-        <v>152</v>
+        <v>162.9499969482422</v>
       </c>
       <c r="D120">
-        <v>162.7400054931641</v>
+        <v>166.5599975585938</v>
       </c>
       <c r="E120">
-        <v>162.7400054931641</v>
+        <v>166.5599975585938</v>
       </c>
       <c r="F120">
-        <v>141147500</v>
+        <v>79724800</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>163.8399963378906</v>
+        <v>168.4700012207031</v>
       </c>
       <c r="B121">
-        <v>165.1199951171875</v>
+        <v>168.9100036621094</v>
       </c>
       <c r="C121">
-        <v>160.8699951171875</v>
+        <v>165.5500030517578</v>
       </c>
       <c r="D121">
-        <v>164.8500061035156</v>
+        <v>166.2299957275391</v>
       </c>
       <c r="E121">
-        <v>164.8500061035156</v>
+        <v>166.2299957275391</v>
       </c>
       <c r="F121">
-        <v>91974200</v>
+        <v>76678400</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>163.0599975585938</v>
+        <v>164.4900054931641</v>
       </c>
       <c r="B122">
-        <v>165.4199981689453</v>
+        <v>165.5500030517578</v>
       </c>
       <c r="C122">
-        <v>162.4299926757812</v>
+        <v>162.1000061035156</v>
       </c>
       <c r="D122">
-        <v>165.1199951171875</v>
+        <v>163.1699981689453</v>
       </c>
       <c r="E122">
-        <v>165.1199951171875</v>
+        <v>163.1699981689453</v>
       </c>
       <c r="F122">
-        <v>94869100</v>
+        <v>83737200</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>164.6999969482422</v>
+        <v>163.3600006103516</v>
       </c>
       <c r="B123">
-        <v>166.6000061035156</v>
+        <v>165.0200042724609</v>
       </c>
       <c r="C123">
-        <v>161.9700012207031</v>
+        <v>159.0399932861328</v>
       </c>
       <c r="D123">
-        <v>163.1999969482422</v>
+        <v>159.3000030517578</v>
       </c>
       <c r="E123">
-        <v>163.1999969482422</v>
+        <v>159.3000030517578</v>
       </c>
       <c r="F123">
-        <v>83474400</v>
+        <v>96418800</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>164.3899993896484</v>
+        <v>158.8200073242188</v>
       </c>
       <c r="B124">
-        <v>167.3600006103516</v>
+        <v>162.8800048828125</v>
       </c>
       <c r="C124">
-        <v>162.9499969482422</v>
+        <v>155.8000030517578</v>
       </c>
       <c r="D124">
-        <v>166.5599975585938</v>
+        <v>157.4400024414062</v>
       </c>
       <c r="E124">
-        <v>166.5599975585938</v>
+        <v>157.4400024414062</v>
       </c>
       <c r="F124">
-        <v>79724800</v>
+        <v>131148300</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>168.4700012207031</v>
+        <v>161.4799957275391</v>
       </c>
       <c r="B125">
-        <v>168.9100036621094</v>
+        <v>163.4100036621094</v>
       </c>
       <c r="C125">
-        <v>165.5500030517578</v>
+        <v>159.4100036621094</v>
       </c>
       <c r="D125">
-        <v>166.2299957275391</v>
+        <v>162.9499969482422</v>
       </c>
       <c r="E125">
-        <v>166.2299957275391</v>
+        <v>162.9499969482422</v>
       </c>
       <c r="F125">
-        <v>76335600</v>
+        <v>91454900</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>164.4900054931641</v>
+        <v>160.1999969482422</v>
       </c>
       <c r="B126">
-        <v>165.5500030517578</v>
+        <v>160.3899993896484</v>
       </c>
       <c r="C126">
-        <v>162.1100006103516</v>
+        <v>155.9799957275391</v>
       </c>
       <c r="D126">
-        <v>163.1699981689453</v>
+        <v>158.5200042724609</v>
       </c>
       <c r="E126">
-        <v>163.1699981689453</v>
+        <v>158.5200042724609</v>
       </c>
       <c r="F126">
-        <v>83819592</v>
+        <v>105342000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>158.9299926757812</v>
+      </c>
+      <c r="B127">
+        <v>159.2799072265625</v>
+      </c>
+      <c r="C127">
+        <v>154.5</v>
+      </c>
+      <c r="D127">
+        <v>154.7299957275391</v>
+      </c>
+      <c r="E127">
+        <v>154.7299957275391</v>
+      </c>
+      <c r="F127">
+        <v>96970102</v>
       </c>
     </row>
   </sheetData>
